--- a/£BME.xlsx
+++ b/£BME.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{375092EB-F279-495C-858B-3096B70283A1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E29CFECD-F4CC-4B99-A485-E480B9A4C740}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" activeTab="1" xr2:uid="{0B0D3E06-E58D-4F1F-A8B8-3BC216B2A3D5}"/>
   </bookViews>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="135">
   <si>
     <t>£BME</t>
   </si>
@@ -456,6 +456,15 @@
   </si>
   <si>
     <t>(EST.)</t>
+  </si>
+  <si>
+    <t>B&amp;M Sells entire German Business Jawoll for 12.5m Euro after 'disappointing' financial performance</t>
+  </si>
+  <si>
+    <t>Jawoll</t>
+  </si>
+  <si>
+    <t>Germany</t>
   </si>
 </sst>
 </file>
@@ -724,7 +733,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -886,6 +895,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="9" fontId="9" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -980,7 +990,7 @@
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>115</xdr:row>
+      <xdr:row>117</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1030,7 +1040,7 @@
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>115</xdr:row>
+      <xdr:row>117</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1373,7 +1383,7 @@
   <dimension ref="B2:X40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C36" sqref="C36:D36"/>
+      <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1525,7 +1535,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="22">
-        <f>+'Financial Model'!V86</f>
+        <f>+'Financial Model'!V88</f>
         <v>238</v>
       </c>
       <c r="D9" s="24" t="str">
@@ -1556,7 +1566,7 @@
         <v>7</v>
       </c>
       <c r="C10" s="22">
-        <f>+'Financial Model'!V87</f>
+        <f>+'Financial Model'!V89</f>
         <v>954</v>
       </c>
       <c r="D10" s="24" t="str">
@@ -1726,8 +1736,12 @@
       </c>
       <c r="C18" s="16"/>
       <c r="D18" s="17"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="9"/>
+      <c r="F18" s="59">
+        <v>43891</v>
+      </c>
+      <c r="G18" s="91" t="s">
+        <v>132</v>
+      </c>
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1918,7 +1932,7 @@
         <v>19</v>
       </c>
       <c r="C28" s="51">
-        <f>+'Financial Model'!V61</f>
+        <f>+'Financial Model'!V63</f>
         <v>764</v>
       </c>
       <c r="D28" s="17"/>
@@ -2048,7 +2062,7 @@
         <v>31</v>
       </c>
       <c r="C35" s="45">
-        <f>C6/'Financial Model'!V84</f>
+        <f>C6/'Financial Model'!V86</f>
         <v>7.9778273551388885</v>
       </c>
       <c r="D35" s="46"/>
@@ -2202,22 +2216,23 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C31:D31" r:id="rId1" display="Link" xr:uid="{9BE3B3D4-9498-4B97-998C-C0C12FA77148}"/>
+    <hyperlink ref="G18" r:id="rId2" xr:uid="{87BBEC1A-B702-4F90-99BE-E634A1207125}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="125" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId2"/>
-  <drawing r:id="rId3"/>
+  <pageSetup paperSize="125" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId3"/>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E38EA70-0C15-460C-B41E-267C906FFAC5}">
-  <dimension ref="B1:AE105"/>
+  <dimension ref="B1:AE107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C64" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="T22" sqref="T22"/>
+      <selection pane="bottomRight" activeCell="O92" sqref="O92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2248,13 +2263,13 @@
       <c r="O1" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="P1" s="30" t="s">
+      <c r="P1" s="31" t="s">
         <v>72</v>
       </c>
       <c r="Q1" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="R1" s="30" t="s">
+      <c r="R1" s="31" t="s">
         <v>70</v>
       </c>
       <c r="S1" s="30" t="s">
@@ -2304,6 +2319,18 @@
       <c r="H2" s="65"/>
       <c r="J2" s="65"/>
       <c r="L2" s="65"/>
+      <c r="O2" s="36">
+        <v>42455</v>
+      </c>
+      <c r="P2" s="36">
+        <v>42819</v>
+      </c>
+      <c r="Q2" s="36">
+        <v>43190</v>
+      </c>
+      <c r="R2" s="36">
+        <v>43554</v>
+      </c>
       <c r="S2" s="36">
         <v>43918</v>
       </c>
@@ -2327,6 +2354,12 @@
       <c r="H3" s="65"/>
       <c r="J3" s="65"/>
       <c r="L3" s="65"/>
+      <c r="P3" s="44">
+        <v>45071</v>
+      </c>
+      <c r="R3" s="44">
+        <v>45069</v>
+      </c>
       <c r="T3" s="44">
         <v>45080</v>
       </c>
@@ -2348,10 +2381,18 @@
       <c r="H4" s="66"/>
       <c r="J4" s="66"/>
       <c r="L4" s="66"/>
-      <c r="O4" s="32"/>
-      <c r="P4" s="32"/>
-      <c r="Q4" s="32"/>
-      <c r="R4" s="32"/>
+      <c r="O4" s="32">
+        <v>2035.2850000000001</v>
+      </c>
+      <c r="P4" s="32">
+        <v>2430.66</v>
+      </c>
+      <c r="Q4" s="32">
+        <v>3029.8020000000001</v>
+      </c>
+      <c r="R4" s="32">
+        <v>3486.2950000000001</v>
+      </c>
       <c r="S4" s="32">
         <v>3813.3870000000002</v>
       </c>
@@ -2373,10 +2414,18 @@
       <c r="B5" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="O5" s="33"/>
-      <c r="P5" s="33"/>
-      <c r="Q5" s="33"/>
-      <c r="R5" s="33"/>
+      <c r="O5" s="33">
+        <v>1332.2629999999999</v>
+      </c>
+      <c r="P5" s="33">
+        <v>1586.3240000000001</v>
+      </c>
+      <c r="Q5" s="33">
+        <v>2000.9269999999999</v>
+      </c>
+      <c r="R5" s="33">
+        <v>2296.681</v>
+      </c>
       <c r="S5" s="33">
         <v>2530.5790000000002</v>
       </c>
@@ -2405,19 +2454,19 @@
       <c r="L6" s="66"/>
       <c r="O6" s="32">
         <f t="shared" ref="O6" si="0">O4-O5</f>
-        <v>0</v>
+        <v>703.02200000000016</v>
       </c>
       <c r="P6" s="32">
         <f t="shared" ref="P6" si="1">P4-P5</f>
-        <v>0</v>
+        <v>844.33599999999979</v>
       </c>
       <c r="Q6" s="32">
         <f t="shared" ref="Q6" si="2">Q4-Q5</f>
-        <v>0</v>
+        <v>1028.8750000000002</v>
       </c>
       <c r="R6" s="32">
         <f t="shared" ref="R6" si="3">R4-R5</f>
-        <v>0</v>
+        <v>1189.614</v>
       </c>
       <c r="S6" s="32">
         <f t="shared" ref="S6" si="4">S4-S5</f>
@@ -2444,10 +2493,18 @@
       <c r="B7" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="O7" s="33"/>
-      <c r="P7" s="33"/>
-      <c r="Q7" s="33"/>
-      <c r="R7" s="33"/>
+      <c r="O7" s="33">
+        <v>528.53</v>
+      </c>
+      <c r="P7" s="33">
+        <v>639.83299999999997</v>
+      </c>
+      <c r="Q7" s="33">
+        <v>789.072</v>
+      </c>
+      <c r="R7" s="33">
+        <v>925.05799999999999</v>
+      </c>
       <c r="S7" s="33">
         <f>966.928-16.932</f>
         <v>949.99599999999998</v>
@@ -2474,19 +2531,19 @@
       <c r="L8" s="66"/>
       <c r="O8" s="32">
         <f t="shared" ref="O8:T8" si="6">O6-O7</f>
-        <v>0</v>
+        <v>174.49200000000019</v>
       </c>
       <c r="P8" s="32">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>204.50299999999982</v>
       </c>
       <c r="Q8" s="32">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>239.80300000000022</v>
       </c>
       <c r="R8" s="32">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>264.55600000000004</v>
       </c>
       <c r="S8" s="32">
         <f t="shared" si="6"/>
@@ -2510,10 +2567,18 @@
       <c r="B9" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="O9" s="33"/>
-      <c r="P9" s="33"/>
-      <c r="Q9" s="33"/>
-      <c r="R9" s="33"/>
+      <c r="O9" s="33">
+        <v>1.1659999999999999</v>
+      </c>
+      <c r="P9" s="33">
+        <v>1.0049999999999999</v>
+      </c>
+      <c r="Q9" s="33">
+        <v>1.7110000000000001</v>
+      </c>
+      <c r="R9" s="33">
+        <v>0.77500000000000002</v>
+      </c>
       <c r="S9" s="33">
         <v>0.879</v>
       </c>
@@ -2534,19 +2599,19 @@
       </c>
       <c r="O10" s="33">
         <f t="shared" ref="O10:T10" si="7">O8+O9</f>
-        <v>0</v>
+        <v>175.65800000000019</v>
       </c>
       <c r="P10" s="33">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>205.50799999999981</v>
       </c>
       <c r="Q10" s="33">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>241.51400000000024</v>
       </c>
       <c r="R10" s="33">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>265.33100000000002</v>
       </c>
       <c r="S10" s="33">
         <f t="shared" si="7"/>
@@ -2570,10 +2635,18 @@
       <c r="B11" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="O11" s="33"/>
-      <c r="P11" s="33"/>
-      <c r="Q11" s="33"/>
-      <c r="R11" s="33"/>
+      <c r="O11" s="33">
+        <v>21.573</v>
+      </c>
+      <c r="P11" s="33">
+        <v>24.11</v>
+      </c>
+      <c r="Q11" s="33">
+        <v>23.948</v>
+      </c>
+      <c r="R11" s="33">
+        <v>25.951000000000001</v>
+      </c>
       <c r="S11" s="33">
         <v>57.206000000000003</v>
       </c>
@@ -2592,10 +2665,18 @@
       <c r="B12" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="O12" s="33"/>
-      <c r="P12" s="33"/>
-      <c r="Q12" s="33"/>
-      <c r="R12" s="33"/>
+      <c r="O12" s="33">
+        <v>0.46</v>
+      </c>
+      <c r="P12" s="33">
+        <v>1.52</v>
+      </c>
+      <c r="Q12" s="33">
+        <v>0.182</v>
+      </c>
+      <c r="R12" s="33">
+        <v>0.36899999999999999</v>
+      </c>
       <c r="S12" s="33">
         <v>24.809000000000001</v>
       </c>
@@ -2614,10 +2695,18 @@
       <c r="B13" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="O13" s="33"/>
-      <c r="P13" s="33"/>
-      <c r="Q13" s="33"/>
-      <c r="R13" s="33"/>
+      <c r="O13" s="33">
+        <v>0</v>
+      </c>
+      <c r="P13" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="33">
+        <v>11.568</v>
+      </c>
+      <c r="R13" s="33">
+        <v>9.8569999999999993</v>
+      </c>
       <c r="S13" s="33">
         <f>0.213+0.134</f>
         <v>0.34699999999999998</v>
@@ -2639,19 +2728,19 @@
       </c>
       <c r="O14" s="33">
         <f t="shared" ref="O14:T14" si="8">O10-O11-O12+O13</f>
-        <v>0</v>
+        <v>153.62500000000017</v>
       </c>
       <c r="P14" s="33">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>179.87799999999979</v>
       </c>
       <c r="Q14" s="33">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>228.95200000000025</v>
       </c>
       <c r="R14" s="33">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>248.86800000000002</v>
       </c>
       <c r="S14" s="33">
         <f t="shared" si="8"/>
@@ -2675,10 +2764,18 @@
       <c r="B15" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="O15" s="33"/>
-      <c r="P15" s="33"/>
-      <c r="Q15" s="33"/>
-      <c r="R15" s="33"/>
+      <c r="O15" s="33">
+        <v>28.745000000000001</v>
+      </c>
+      <c r="P15" s="33">
+        <v>38.884999999999998</v>
+      </c>
+      <c r="Q15" s="33">
+        <v>43.511000000000003</v>
+      </c>
+      <c r="R15" s="33">
+        <v>46.716999999999999</v>
+      </c>
       <c r="S15" s="33">
         <v>57.246000000000002</v>
       </c>
@@ -2704,19 +2801,19 @@
       <c r="L16" s="66"/>
       <c r="O16" s="32">
         <f t="shared" ref="O16:T16" si="9">O14-O15</f>
-        <v>0</v>
+        <v>124.88000000000017</v>
       </c>
       <c r="P16" s="32">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>140.9929999999998</v>
       </c>
       <c r="Q16" s="32">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>185.44100000000026</v>
       </c>
       <c r="R16" s="32">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>202.15100000000001</v>
       </c>
       <c r="S16" s="32">
         <f t="shared" si="9"/>
@@ -2740,10 +2837,18 @@
       <c r="B17" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="O17" s="33"/>
-      <c r="P17" s="33"/>
-      <c r="Q17" s="33"/>
-      <c r="R17" s="33"/>
+      <c r="O17" s="33">
+        <v>5.5</v>
+      </c>
+      <c r="P17" s="33">
+        <v>7.4790000000000001</v>
+      </c>
+      <c r="Q17" s="33">
+        <v>-15.659000000000001</v>
+      </c>
+      <c r="R17" s="33">
+        <v>-2.2850000000000001</v>
+      </c>
       <c r="S17" s="33">
         <v>1.661</v>
       </c>
@@ -2762,10 +2867,18 @@
       <c r="B18" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="O18" s="33"/>
-      <c r="P18" s="33"/>
-      <c r="Q18" s="33"/>
-      <c r="R18" s="33"/>
+      <c r="O18" s="33">
+        <v>0</v>
+      </c>
+      <c r="P18" s="33">
+        <v>-1.667</v>
+      </c>
+      <c r="Q18" s="33">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="R18" s="33">
+        <v>19.995999999999999</v>
+      </c>
       <c r="S18" s="33">
         <v>8.6790000000000003</v>
       </c>
@@ -2784,10 +2897,21 @@
       <c r="B19" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="O19" s="33"/>
-      <c r="P19" s="33"/>
-      <c r="Q19" s="33"/>
-      <c r="R19" s="33"/>
+      <c r="O19" s="33">
+        <f>0.005+0.013</f>
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="P19" s="33">
+        <f>0.016+0.324</f>
+        <v>0.34</v>
+      </c>
+      <c r="Q19" s="33">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="R19" s="33">
+        <f>0.005-3.481</f>
+        <v>-3.476</v>
+      </c>
       <c r="S19" s="33">
         <v>-1.383</v>
       </c>
@@ -2813,19 +2937,19 @@
       <c r="L20" s="66"/>
       <c r="O20" s="32">
         <f t="shared" ref="O20:T20" si="10">O16+SUM(O17:O19)</f>
-        <v>0</v>
+        <v>130.39800000000017</v>
       </c>
       <c r="P20" s="32">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>147.14499999999978</v>
       </c>
       <c r="Q20" s="32">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>172.27300000000025</v>
       </c>
       <c r="R20" s="32">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>216.38600000000002</v>
       </c>
       <c r="S20" s="32">
         <f t="shared" si="10"/>
@@ -2854,12 +2978,28 @@
       <c r="H21" s="68"/>
       <c r="J21" s="68"/>
       <c r="L21" s="68"/>
+      <c r="O21" s="40">
+        <f t="shared" ref="O21" si="11">O20/O22</f>
+        <v>0.13033609035708055</v>
+      </c>
+      <c r="P21" s="40">
+        <f t="shared" ref="P21" si="12">P20/P22</f>
+        <v>0.14712322576258691</v>
+      </c>
+      <c r="Q21" s="40">
+        <f t="shared" ref="Q21" si="13">Q20/Q22</f>
+        <v>0.1721609232389717</v>
+      </c>
+      <c r="R21" s="40">
+        <f t="shared" ref="R21" si="14">R20/R22</f>
+        <v>0.21616680685784617</v>
+      </c>
       <c r="S21" s="40">
-        <f t="shared" ref="S21:T21" si="11">S20/S22</f>
+        <f t="shared" ref="S21:T21" si="15">S20/S22</f>
         <v>0.20361793777546799</v>
       </c>
       <c r="T21" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.4101669339808835</v>
       </c>
       <c r="U21" s="40">
@@ -2867,7 +3007,7 @@
         <v>0.4355378942941539</v>
       </c>
       <c r="V21" s="40">
-        <f t="shared" ref="V21" si="12">V20/V22</f>
+        <f t="shared" ref="V21" si="16">V20/V22</f>
         <v>0.3853860799746005</v>
       </c>
       <c r="W21" s="81"/>
@@ -2881,6 +3021,18 @@
       <c r="H22" s="69"/>
       <c r="J22" s="69"/>
       <c r="L22" s="69"/>
+      <c r="O22" s="41">
+        <v>1000.475</v>
+      </c>
+      <c r="P22" s="41">
+        <v>1000.148</v>
+      </c>
+      <c r="Q22" s="41">
+        <v>1000.651</v>
+      </c>
+      <c r="R22" s="41">
+        <v>1001.014</v>
+      </c>
       <c r="S22" s="41">
         <v>1000.57</v>
       </c>
@@ -2907,6 +3059,25 @@
       <c r="H24" s="66"/>
       <c r="J24" s="66"/>
       <c r="L24" s="66"/>
+      <c r="O24" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="P24" s="38">
+        <f t="shared" ref="P24:T24" si="17">P4/O4-1</f>
+        <v>0.19426026330464774</v>
+      </c>
+      <c r="Q24" s="38">
+        <f t="shared" si="17"/>
+        <v>0.2464935449630965</v>
+      </c>
+      <c r="R24" s="38">
+        <f t="shared" si="17"/>
+        <v>0.15066760138121227</v>
+      </c>
+      <c r="S24" s="38">
+        <f t="shared" si="17"/>
+        <v>9.3822238221378251E-2</v>
+      </c>
       <c r="T24" s="38">
         <f>T4/S4-1</f>
         <v>0.25909722774006405</v>
@@ -2962,16 +3133,32 @@
       <c r="B27" s="1" t="s">
         <v>63</v>
       </c>
+      <c r="O27" s="37">
+        <f t="shared" ref="O27:P27" si="18">O6/O4</f>
+        <v>0.34541698091422091</v>
+      </c>
+      <c r="P27" s="37">
+        <f t="shared" ref="P27:Q27" si="19">P6/P4</f>
+        <v>0.34736902734236785</v>
+      </c>
+      <c r="Q27" s="37">
+        <f t="shared" ref="Q27:S27" si="20">Q6/Q4</f>
+        <v>0.33958489696686456</v>
+      </c>
+      <c r="R27" s="37">
+        <f t="shared" si="20"/>
+        <v>0.34122585724960164</v>
+      </c>
       <c r="S27" s="37">
-        <f t="shared" ref="S27:T27" si="13">S6/S4</f>
+        <f t="shared" ref="S27:T27" si="21">S6/S4</f>
         <v>0.33639596505678548</v>
       </c>
       <c r="T27" s="37">
-        <f t="shared" ref="T27:U27" si="14">T6/T4</f>
+        <f t="shared" ref="T27:U27" si="22">T6/T4</f>
         <v>0.36863431168871746</v>
       </c>
       <c r="U27" s="37">
-        <f t="shared" ref="U27:V27" si="15">U6/U4</f>
+        <f t="shared" ref="U27:V27" si="23">U6/U4</f>
         <v>0.37491975176546116</v>
       </c>
       <c r="V27" s="37">
@@ -2986,37 +3173,70 @@
       <c r="B28" s="1" t="s">
         <v>64</v>
       </c>
+      <c r="O28" s="37">
+        <f t="shared" ref="O28:P28" si="24">O8/O4</f>
+        <v>8.5733447649837827E-2</v>
+      </c>
+      <c r="P28" s="37">
+        <f t="shared" ref="P28:Q28" si="25">P8/P4</f>
+        <v>8.4134761751952072E-2</v>
+      </c>
+      <c r="Q28" s="37">
+        <f t="shared" ref="Q28:S28" si="26">Q8/Q4</f>
+        <v>7.9148076342942617E-2</v>
+      </c>
+      <c r="R28" s="37">
+        <f t="shared" si="26"/>
+        <v>7.5884570869648157E-2</v>
+      </c>
       <c r="S28" s="37">
-        <f t="shared" ref="S28:T28" si="16">S8/S4</f>
+        <f t="shared" ref="S28:T28" si="27">S8/S4</f>
         <v>8.7274645872553722E-2</v>
       </c>
       <c r="T28" s="37">
-        <f t="shared" ref="T28:U28" si="17">T8/T4</f>
+        <f t="shared" ref="T28:U28" si="28">T8/T4</f>
         <v>0.12775665557620919</v>
       </c>
       <c r="U28" s="37">
-        <f t="shared" ref="U28:V28" si="18">U8/U4</f>
+        <f t="shared" ref="U28:V28" si="29">U8/U4</f>
         <v>0.13053712818317997</v>
       </c>
       <c r="V28" s="37">
         <f>V8/V4</f>
         <v>0.1075657234597632</v>
       </c>
+      <c r="W28" s="90"/>
     </row>
     <row r="29" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s">
         <v>65</v>
       </c>
+      <c r="O29" s="37">
+        <f t="shared" ref="O29:P29" si="30">O16/O4</f>
+        <v>6.1357500300940733E-2</v>
+      </c>
+      <c r="P29" s="37">
+        <f t="shared" ref="P29:Q29" si="31">P16/P4</f>
+        <v>5.8006055968337737E-2</v>
+      </c>
+      <c r="Q29" s="37">
+        <f t="shared" ref="Q29:S29" si="32">Q16/Q4</f>
+        <v>6.1205649742128443E-2</v>
+      </c>
+      <c r="R29" s="37">
+        <f t="shared" si="32"/>
+        <v>5.7984479225079918E-2</v>
+      </c>
       <c r="S29" s="37">
-        <f t="shared" ref="S29:T29" si="19">S16/S4</f>
+        <f t="shared" ref="S29:T29" si="33">S16/S4</f>
         <v>5.1077165784642366E-2</v>
       </c>
       <c r="T29" s="37">
-        <f t="shared" ref="T29:U29" si="20">T16/T4</f>
+        <f t="shared" ref="T29:U29" si="34">T16/T4</f>
         <v>8.9161863405134975E-2</v>
       </c>
       <c r="U29" s="37">
-        <f t="shared" ref="U29:V29" si="21">U16/U4</f>
+        <f t="shared" ref="U29:V29" si="35">U16/U4</f>
         <v>9.030601326770811E-2</v>
       </c>
       <c r="V29" s="37">
@@ -3028,16 +3248,32 @@
       <c r="B30" s="1" t="s">
         <v>66</v>
       </c>
+      <c r="O30" s="37">
+        <f t="shared" ref="O30:P30" si="36">O15/O14</f>
+        <v>0.18711147274206652</v>
+      </c>
+      <c r="P30" s="37">
+        <f t="shared" ref="P30:Q30" si="37">P15/P14</f>
+        <v>0.21617429591167373</v>
+      </c>
+      <c r="Q30" s="37">
+        <f t="shared" ref="Q30:S30" si="38">Q15/Q14</f>
+        <v>0.19004420140466105</v>
+      </c>
+      <c r="R30" s="37">
+        <f t="shared" si="38"/>
+        <v>0.18771798704534129</v>
+      </c>
       <c r="S30" s="37">
-        <f t="shared" ref="S30:T30" si="22">S15/S14</f>
+        <f t="shared" ref="S30:T30" si="39">S15/S14</f>
         <v>0.22714593509322561</v>
       </c>
       <c r="T30" s="37">
-        <f t="shared" ref="T30:U30" si="23">T15/T14</f>
+        <f t="shared" ref="T30:U30" si="40">T15/T14</f>
         <v>0.18524509981177636</v>
       </c>
       <c r="U30" s="37">
-        <f t="shared" ref="U30:V30" si="24">U15/U14</f>
+        <f t="shared" ref="U30:V30" si="41">U15/U14</f>
         <v>0.19619047619047619</v>
       </c>
       <c r="V30" s="37">
@@ -3060,35 +3296,35 @@
       <c r="J34" s="70"/>
       <c r="L34" s="70"/>
       <c r="O34" s="32">
-        <f t="shared" ref="O34:U34" si="25">+O35+O38</f>
+        <f t="shared" ref="O34:S34" si="42">+O35+O38+O40</f>
         <v>0</v>
       </c>
       <c r="P34" s="32">
-        <f t="shared" si="25"/>
-        <v>0</v>
+        <f t="shared" si="42"/>
+        <v>648</v>
       </c>
       <c r="Q34" s="32">
-        <f t="shared" si="25"/>
-        <v>0</v>
+        <f t="shared" si="42"/>
+        <v>927</v>
       </c>
       <c r="R34" s="32">
-        <f t="shared" si="25"/>
-        <v>0</v>
+        <f t="shared" si="42"/>
+        <v>1093</v>
       </c>
       <c r="S34" s="32">
-        <f t="shared" si="25"/>
+        <f t="shared" si="42"/>
         <v>1050</v>
       </c>
       <c r="T34" s="32">
-        <f t="shared" si="25"/>
+        <f>+T35+T38+T40</f>
         <v>1091</v>
       </c>
       <c r="U34" s="32">
-        <f t="shared" si="25"/>
+        <f t="shared" ref="U34:V34" si="43">+U35+U38+U40</f>
         <v>1119</v>
       </c>
       <c r="V34" s="32">
-        <f>+V35+V38</f>
+        <f t="shared" si="43"/>
         <v>1140</v>
       </c>
       <c r="W34" s="84"/>
@@ -3103,31 +3339,31 @@
       <c r="J35" s="71"/>
       <c r="L35" s="71"/>
       <c r="O35" s="33">
-        <f t="shared" ref="O35:U35" si="26">SUM(O36:O37)</f>
+        <f t="shared" ref="O35:U35" si="44">SUM(O36:O37)</f>
         <v>0</v>
       </c>
       <c r="P35" s="33">
-        <f t="shared" si="26"/>
-        <v>0</v>
+        <f t="shared" si="44"/>
+        <v>573</v>
       </c>
       <c r="Q35" s="33">
-        <f t="shared" si="26"/>
-        <v>0</v>
+        <f t="shared" si="44"/>
+        <v>576</v>
       </c>
       <c r="R35" s="33">
-        <f t="shared" si="26"/>
-        <v>0</v>
+        <f t="shared" si="44"/>
+        <v>716</v>
       </c>
       <c r="S35" s="33">
-        <f t="shared" si="26"/>
+        <f t="shared" si="44"/>
         <v>757</v>
       </c>
       <c r="T35" s="33">
-        <f t="shared" si="26"/>
+        <f t="shared" si="44"/>
         <v>785</v>
       </c>
       <c r="U35" s="33">
-        <f t="shared" si="26"/>
+        <f t="shared" si="44"/>
         <v>808</v>
       </c>
       <c r="V35" s="33">
@@ -3145,6 +3381,15 @@
       <c r="H36" s="71"/>
       <c r="J36" s="71"/>
       <c r="L36" s="71"/>
+      <c r="P36" s="33">
+        <v>573</v>
+      </c>
+      <c r="Q36" s="33">
+        <v>576</v>
+      </c>
+      <c r="R36" s="33">
+        <v>620</v>
+      </c>
       <c r="S36" s="33">
         <v>656</v>
       </c>
@@ -3168,6 +3413,15 @@
       <c r="H37" s="71"/>
       <c r="J37" s="71"/>
       <c r="L37" s="71"/>
+      <c r="P37" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="33">
+        <v>0</v>
+      </c>
+      <c r="R37" s="33">
+        <v>96</v>
+      </c>
       <c r="S37" s="33">
         <v>101</v>
       </c>
@@ -3192,31 +3446,31 @@
       <c r="J38" s="71"/>
       <c r="L38" s="71"/>
       <c r="O38" s="33">
-        <f t="shared" ref="O38:U38" si="27">+O39</f>
+        <f t="shared" ref="O38:U38" si="45">+O39</f>
         <v>0</v>
       </c>
       <c r="P38" s="33">
-        <f t="shared" si="27"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="Q38" s="33">
-        <f t="shared" si="27"/>
-        <v>0</v>
+        <f t="shared" si="45"/>
+        <v>265</v>
       </c>
       <c r="R38" s="33">
-        <f t="shared" si="27"/>
-        <v>0</v>
+        <f t="shared" si="45"/>
+        <v>281</v>
       </c>
       <c r="S38" s="33">
-        <f t="shared" si="27"/>
+        <f t="shared" si="45"/>
         <v>293</v>
       </c>
       <c r="T38" s="33">
-        <f t="shared" si="27"/>
+        <f t="shared" si="45"/>
         <v>306</v>
       </c>
       <c r="U38" s="33">
-        <f t="shared" si="27"/>
+        <f t="shared" si="45"/>
         <v>311</v>
       </c>
       <c r="V38" s="33">
@@ -3234,6 +3488,15 @@
       <c r="H39" s="71"/>
       <c r="J39" s="71"/>
       <c r="L39" s="71"/>
+      <c r="P39" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="33">
+        <v>265</v>
+      </c>
+      <c r="R39" s="33">
+        <v>281</v>
+      </c>
       <c r="S39" s="33">
         <v>293</v>
       </c>
@@ -3248,370 +3511,466 @@
       </c>
       <c r="W39" s="54"/>
     </row>
-    <row r="40" spans="2:23" s="61" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="60" t="s">
+    <row r="40" spans="2:23" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="47" t="s">
+        <v>133</v>
+      </c>
+      <c r="D40" s="71"/>
+      <c r="F40" s="71"/>
+      <c r="H40" s="71"/>
+      <c r="J40" s="71"/>
+      <c r="L40" s="71"/>
+      <c r="O40" s="33">
+        <f t="shared" ref="O40:R40" si="46">O41</f>
+        <v>0</v>
+      </c>
+      <c r="P40" s="33">
+        <f t="shared" si="46"/>
+        <v>75</v>
+      </c>
+      <c r="Q40" s="33">
+        <f t="shared" si="46"/>
+        <v>86</v>
+      </c>
+      <c r="R40" s="33">
+        <f t="shared" si="46"/>
+        <v>96</v>
+      </c>
+      <c r="S40" s="33">
+        <f>S41</f>
+        <v>0</v>
+      </c>
+      <c r="T40" s="33">
+        <f t="shared" ref="T40:V40" si="47">T41</f>
+        <v>0</v>
+      </c>
+      <c r="U40" s="33">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="V40" s="33">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="W40" s="54"/>
+    </row>
+    <row r="41" spans="2:23" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="48" t="s">
+        <v>134</v>
+      </c>
+      <c r="D41" s="71"/>
+      <c r="F41" s="71"/>
+      <c r="H41" s="71"/>
+      <c r="J41" s="71"/>
+      <c r="L41" s="71"/>
+      <c r="P41" s="33">
+        <v>75</v>
+      </c>
+      <c r="Q41" s="33">
+        <v>86</v>
+      </c>
+      <c r="R41" s="33">
+        <v>96</v>
+      </c>
+      <c r="S41" s="33">
+        <v>0</v>
+      </c>
+      <c r="T41" s="33">
+        <v>0</v>
+      </c>
+      <c r="U41" s="33">
+        <v>0</v>
+      </c>
+      <c r="V41" s="33">
+        <v>0</v>
+      </c>
+      <c r="W41" s="54"/>
+    </row>
+    <row r="42" spans="2:23" s="61" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="60" t="s">
         <v>78</v>
       </c>
-      <c r="D40" s="72"/>
-      <c r="F40" s="72"/>
-      <c r="H40" s="72"/>
-      <c r="J40" s="72"/>
-      <c r="L40" s="72"/>
-      <c r="T40" s="61">
+      <c r="D42" s="72"/>
+      <c r="F42" s="72"/>
+      <c r="H42" s="72"/>
+      <c r="J42" s="72"/>
+      <c r="L42" s="72"/>
+      <c r="Q42" s="61">
+        <f>Q34-P34</f>
+        <v>279</v>
+      </c>
+      <c r="R42" s="61">
+        <f>R34-Q34</f>
+        <v>166</v>
+      </c>
+      <c r="S42" s="61">
+        <f>S34-R34</f>
+        <v>-43</v>
+      </c>
+      <c r="T42" s="61">
         <f>T34-S34</f>
         <v>41</v>
       </c>
-      <c r="U40" s="61">
-        <f t="shared" ref="U40:V40" si="28">U34-T34</f>
+      <c r="U42" s="61">
+        <f t="shared" ref="U42:V42" si="48">U34-T34</f>
         <v>28</v>
       </c>
-      <c r="V40" s="61">
-        <f t="shared" si="28"/>
+      <c r="V42" s="61">
+        <f t="shared" si="48"/>
         <v>21</v>
       </c>
-      <c r="W40" s="85"/>
-    </row>
-    <row r="41" spans="2:23" s="32" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="33"/>
-      <c r="D41" s="70"/>
-      <c r="F41" s="70"/>
-      <c r="H41" s="70"/>
-      <c r="J41" s="70"/>
-      <c r="L41" s="70"/>
-      <c r="W41" s="84"/>
-    </row>
-    <row r="42" spans="2:23" s="32" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="32" t="s">
+      <c r="W42" s="85"/>
+    </row>
+    <row r="43" spans="2:23" s="32" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="33"/>
+      <c r="D43" s="70"/>
+      <c r="F43" s="70"/>
+      <c r="H43" s="70"/>
+      <c r="J43" s="70"/>
+      <c r="L43" s="70"/>
+      <c r="T43" s="32">
+        <v>0</v>
+      </c>
+      <c r="W43" s="84"/>
+    </row>
+    <row r="44" spans="2:23" s="32" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="D42" s="70"/>
-      <c r="F42" s="70"/>
-      <c r="H42" s="70"/>
-      <c r="J42" s="70"/>
-      <c r="L42" s="70"/>
-      <c r="O42" s="32">
-        <f t="shared" ref="O42:U42" si="29">O43+O46</f>
-        <v>0</v>
-      </c>
-      <c r="P42" s="32">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="Q42" s="32">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="R42" s="32">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="S42" s="32">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="T42" s="32">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="U42" s="32">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="V42" s="32">
-        <f>V43+V46</f>
+      <c r="D44" s="70"/>
+      <c r="F44" s="70"/>
+      <c r="H44" s="70"/>
+      <c r="J44" s="70"/>
+      <c r="L44" s="70"/>
+      <c r="O44" s="32">
+        <f t="shared" ref="O44:U44" si="49">O45+O48</f>
+        <v>0</v>
+      </c>
+      <c r="P44" s="32">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="Q44" s="32">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="R44" s="32">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="S44" s="32">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="T44" s="32">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="U44" s="32">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="V44" s="32">
+        <f>V45+V48</f>
         <v>39484</v>
       </c>
-      <c r="W42" s="84"/>
-    </row>
-    <row r="43" spans="2:23" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="47" t="s">
+      <c r="W44" s="84"/>
+    </row>
+    <row r="45" spans="2:23" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B45" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="D43" s="71"/>
-      <c r="F43" s="71"/>
-      <c r="H43" s="71"/>
-      <c r="J43" s="71"/>
-      <c r="L43" s="71"/>
-      <c r="O43" s="33">
-        <f t="shared" ref="O43:U43" si="30">SUM(O44:O45)</f>
-        <v>0</v>
-      </c>
-      <c r="P43" s="33">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="Q43" s="33">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="R43" s="33">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="S43" s="33">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="T43" s="33">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="U43" s="33">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="V43" s="33">
-        <f>SUM(V44:V45)</f>
+      <c r="D45" s="71"/>
+      <c r="F45" s="71"/>
+      <c r="H45" s="71"/>
+      <c r="J45" s="71"/>
+      <c r="L45" s="71"/>
+      <c r="O45" s="33">
+        <f t="shared" ref="O45:U45" si="50">SUM(O46:O47)</f>
+        <v>0</v>
+      </c>
+      <c r="P45" s="33">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="Q45" s="33">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="R45" s="33">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="S45" s="33">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="T45" s="33">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="U45" s="33">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="V45" s="33">
+        <f>SUM(V46:V47)</f>
         <v>34145</v>
       </c>
-      <c r="W43" s="54"/>
-    </row>
-    <row r="44" spans="2:23" s="49" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="48" t="s">
+      <c r="W45" s="54"/>
+    </row>
+    <row r="46" spans="2:23" s="49" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B46" s="48" t="s">
         <v>75</v>
       </c>
-      <c r="D44" s="73"/>
-      <c r="F44" s="73"/>
-      <c r="H44" s="73"/>
-      <c r="J44" s="73"/>
-      <c r="L44" s="73"/>
-      <c r="V44" s="49">
+      <c r="D46" s="73"/>
+      <c r="F46" s="73"/>
+      <c r="H46" s="73"/>
+      <c r="J46" s="73"/>
+      <c r="L46" s="73"/>
+      <c r="V46" s="49">
         <v>33156</v>
       </c>
-      <c r="W44" s="54"/>
-    </row>
-    <row r="45" spans="2:23" s="49" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="48" t="s">
+      <c r="W46" s="54"/>
+    </row>
+    <row r="47" spans="2:23" s="49" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B47" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="D45" s="73"/>
-      <c r="F45" s="73"/>
-      <c r="H45" s="73"/>
-      <c r="J45" s="73"/>
-      <c r="L45" s="73"/>
-      <c r="V45" s="49">
+      <c r="D47" s="73"/>
+      <c r="F47" s="73"/>
+      <c r="H47" s="73"/>
+      <c r="J47" s="73"/>
+      <c r="L47" s="73"/>
+      <c r="V47" s="49">
         <v>989</v>
       </c>
-      <c r="W45" s="54"/>
-    </row>
-    <row r="46" spans="2:23" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="47" t="s">
+      <c r="W47" s="54"/>
+    </row>
+    <row r="48" spans="2:23" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B48" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="D46" s="71"/>
-      <c r="F46" s="71"/>
-      <c r="H46" s="71"/>
-      <c r="J46" s="71"/>
-      <c r="L46" s="71"/>
-      <c r="O46" s="33">
-        <f t="shared" ref="O46:U46" si="31">O47</f>
-        <v>0</v>
-      </c>
-      <c r="P46" s="33">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="Q46" s="33">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="R46" s="33">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="S46" s="33">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="T46" s="33">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="U46" s="33">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="V46" s="33">
-        <f>V47</f>
+      <c r="D48" s="71"/>
+      <c r="F48" s="71"/>
+      <c r="H48" s="71"/>
+      <c r="J48" s="71"/>
+      <c r="L48" s="71"/>
+      <c r="O48" s="33">
+        <f t="shared" ref="O48:U48" si="51">O49</f>
+        <v>0</v>
+      </c>
+      <c r="P48" s="33">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="Q48" s="33">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="R48" s="33">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="S48" s="33">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="T48" s="33">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="U48" s="33">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="V48" s="33">
+        <f>V49</f>
         <v>5339</v>
       </c>
-      <c r="W46" s="54"/>
-    </row>
-    <row r="47" spans="2:23" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="48" t="s">
+      <c r="W48" s="54"/>
+    </row>
+    <row r="49" spans="2:23" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B49" s="48" t="s">
         <v>75</v>
       </c>
-      <c r="D47" s="71"/>
-      <c r="F47" s="71"/>
-      <c r="H47" s="71"/>
-      <c r="J47" s="71"/>
-      <c r="L47" s="71"/>
-      <c r="V47" s="33">
+      <c r="D49" s="71"/>
+      <c r="F49" s="71"/>
+      <c r="H49" s="71"/>
+      <c r="J49" s="71"/>
+      <c r="L49" s="71"/>
+      <c r="V49" s="33">
         <v>5339</v>
       </c>
-      <c r="W47" s="54"/>
-    </row>
-    <row r="48" spans="2:23" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="60" t="s">
+      <c r="W49" s="54"/>
+    </row>
+    <row r="50" spans="2:23" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B50" s="60" t="s">
         <v>77</v>
       </c>
-      <c r="D48" s="74"/>
-      <c r="F48" s="74"/>
-      <c r="H48" s="74"/>
-      <c r="J48" s="74"/>
-      <c r="L48" s="74"/>
-      <c r="W48" s="86"/>
-    </row>
-    <row r="52" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B52" s="39" t="s">
+      <c r="D50" s="74"/>
+      <c r="F50" s="74"/>
+      <c r="H50" s="74"/>
+      <c r="J50" s="74"/>
+      <c r="L50" s="74"/>
+      <c r="W50" s="86"/>
+    </row>
+    <row r="54" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B54" s="39" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="53" spans="2:23" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="33" t="s">
-        <v>80</v>
-      </c>
-      <c r="D53" s="71"/>
-      <c r="F53" s="71"/>
-      <c r="H53" s="71"/>
-      <c r="J53" s="71"/>
-      <c r="L53" s="71"/>
-      <c r="S53" s="33">
-        <f>921.911+119.696</f>
-        <v>1041.607</v>
-      </c>
-      <c r="T53" s="33">
-        <f>920.729+118.24</f>
-        <v>1038.9690000000001</v>
-      </c>
-      <c r="U53" s="33">
-        <f>920+120</f>
-        <v>1040</v>
-      </c>
-      <c r="V53" s="33">
-        <f>921+120</f>
-        <v>1041</v>
-      </c>
-      <c r="W53" s="54"/>
-    </row>
-    <row r="54" spans="2:23" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B54" s="33" t="s">
-        <v>81</v>
-      </c>
-      <c r="D54" s="71"/>
-      <c r="F54" s="71"/>
-      <c r="H54" s="71"/>
-      <c r="J54" s="71"/>
-      <c r="L54" s="71"/>
-      <c r="S54" s="33">
-        <v>312.19799999999998</v>
-      </c>
-      <c r="T54" s="33">
-        <v>336.36399999999998</v>
-      </c>
-      <c r="U54" s="33">
-        <v>363</v>
-      </c>
-      <c r="V54" s="33">
-        <v>380</v>
-      </c>
-      <c r="W54" s="54"/>
     </row>
     <row r="55" spans="2:23" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B55" s="33" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D55" s="71"/>
       <c r="F55" s="71"/>
       <c r="H55" s="71"/>
       <c r="J55" s="71"/>
       <c r="L55" s="71"/>
+      <c r="O55" s="33">
+        <f>837.45+101.174</f>
+        <v>938.62400000000002</v>
+      </c>
+      <c r="P55" s="33">
+        <f>841.691+103.693</f>
+        <v>945.38400000000001</v>
+      </c>
+      <c r="Q55" s="33">
+        <f>929.718+120.962</f>
+        <v>1050.68</v>
+      </c>
+      <c r="R55" s="33">
+        <f>949.606+126.559</f>
+        <v>1076.165</v>
+      </c>
       <c r="S55" s="33">
-        <v>1086.6179999999999</v>
+        <f>921.911+119.696</f>
+        <v>1041.607</v>
       </c>
       <c r="T55" s="33">
-        <v>1070.5809999999999</v>
+        <f>920.729+118.24</f>
+        <v>1038.9690000000001</v>
       </c>
       <c r="U55" s="33">
-        <v>1066</v>
+        <f>920+120</f>
+        <v>1040</v>
       </c>
       <c r="V55" s="33">
-        <v>1056</v>
+        <f>921+120</f>
+        <v>1041</v>
       </c>
       <c r="W55" s="54"/>
     </row>
     <row r="56" spans="2:23" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B56" s="33" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D56" s="71"/>
       <c r="F56" s="71"/>
       <c r="H56" s="71"/>
       <c r="J56" s="71"/>
       <c r="L56" s="71"/>
+      <c r="O56" s="33">
+        <v>138.05000000000001</v>
+      </c>
+      <c r="P56" s="33">
+        <v>165.74799999999999</v>
+      </c>
+      <c r="Q56" s="33">
+        <v>308.65300000000002</v>
+      </c>
+      <c r="R56" s="33">
+        <v>389.952</v>
+      </c>
       <c r="S56" s="33">
-        <v>5.7</v>
+        <v>312.19799999999998</v>
       </c>
       <c r="T56" s="33">
-        <v>4.4790000000000001</v>
+        <v>336.36399999999998</v>
       </c>
       <c r="U56" s="33">
-        <v>8</v>
+        <v>363</v>
       </c>
       <c r="V56" s="33">
-        <v>8</v>
+        <v>380</v>
       </c>
       <c r="W56" s="54"/>
     </row>
     <row r="57" spans="2:23" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B57" s="33" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D57" s="71"/>
       <c r="F57" s="71"/>
       <c r="H57" s="71"/>
       <c r="J57" s="71"/>
       <c r="L57" s="71"/>
+      <c r="O57" s="33">
+        <v>0</v>
+      </c>
+      <c r="P57" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="33">
+        <v>0</v>
+      </c>
+      <c r="R57" s="33">
+        <v>0</v>
+      </c>
       <c r="S57" s="33">
-        <v>7.5170000000000003</v>
+        <v>1086.6179999999999</v>
       </c>
       <c r="T57" s="33">
-        <v>7.0839999999999996</v>
+        <v>1070.5809999999999</v>
       </c>
       <c r="U57" s="33">
-        <v>7</v>
+        <v>1066</v>
       </c>
       <c r="V57" s="33">
-        <v>6</v>
+        <v>1056</v>
       </c>
       <c r="W57" s="54"/>
     </row>
     <row r="58" spans="2:23" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B58" s="33" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D58" s="71"/>
       <c r="F58" s="71"/>
       <c r="H58" s="71"/>
       <c r="J58" s="71"/>
       <c r="L58" s="71"/>
+      <c r="O58" s="33">
+        <v>3.9950000000000001</v>
+      </c>
+      <c r="P58" s="33">
+        <v>5.6689999999999996</v>
+      </c>
+      <c r="Q58" s="33">
+        <v>5.14</v>
+      </c>
+      <c r="R58" s="33">
+        <v>6.92</v>
+      </c>
       <c r="S58" s="33">
-        <v>22.988</v>
+        <v>5.7</v>
       </c>
       <c r="T58" s="33">
-        <v>32.241999999999997</v>
+        <v>4.4790000000000001</v>
       </c>
       <c r="U58" s="33">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="V58" s="33">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="W58" s="54"/>
     </row>
     <row r="59" spans="2:23" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B59" s="33" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D59" s="71"/>
       <c r="F59" s="71"/>
@@ -3619,157 +3978,217 @@
       <c r="J59" s="71"/>
       <c r="L59" s="71"/>
       <c r="O59" s="33">
-        <f t="shared" ref="O59:U59" si="32">SUM(O53:O58)</f>
-        <v>0</v>
+        <v>2.7709999999999999</v>
       </c>
       <c r="P59" s="33">
-        <f t="shared" si="32"/>
-        <v>0</v>
+        <v>2.4129999999999998</v>
       </c>
       <c r="Q59" s="33">
-        <f t="shared" si="32"/>
-        <v>0</v>
+        <v>3.1869999999999998</v>
       </c>
       <c r="R59" s="33">
-        <f t="shared" si="32"/>
-        <v>0</v>
+        <v>10.989000000000001</v>
       </c>
       <c r="S59" s="33">
-        <f t="shared" si="32"/>
+        <v>7.5170000000000003</v>
+      </c>
+      <c r="T59" s="33">
+        <v>7.0839999999999996</v>
+      </c>
+      <c r="U59" s="33">
+        <v>7</v>
+      </c>
+      <c r="V59" s="33">
+        <v>6</v>
+      </c>
+      <c r="W59" s="54"/>
+    </row>
+    <row r="60" spans="2:23" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B60" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="D60" s="71"/>
+      <c r="F60" s="71"/>
+      <c r="H60" s="71"/>
+      <c r="J60" s="71"/>
+      <c r="L60" s="71"/>
+      <c r="O60" s="33">
+        <v>0.47299999999999998</v>
+      </c>
+      <c r="P60" s="33">
+        <v>0.82399999999999995</v>
+      </c>
+      <c r="Q60" s="33">
+        <v>5.6539999999999999</v>
+      </c>
+      <c r="R60" s="33">
+        <v>9.1950000000000003</v>
+      </c>
+      <c r="S60" s="33">
+        <v>22.988</v>
+      </c>
+      <c r="T60" s="33">
+        <v>32.241999999999997</v>
+      </c>
+      <c r="U60" s="33">
+        <v>31</v>
+      </c>
+      <c r="V60" s="33">
+        <v>30</v>
+      </c>
+      <c r="W60" s="54"/>
+    </row>
+    <row r="61" spans="2:23" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B61" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="D61" s="71"/>
+      <c r="F61" s="71"/>
+      <c r="H61" s="71"/>
+      <c r="J61" s="71"/>
+      <c r="L61" s="71"/>
+      <c r="O61" s="33">
+        <f t="shared" ref="O61:U61" si="52">SUM(O55:O60)</f>
+        <v>1083.9129999999998</v>
+      </c>
+      <c r="P61" s="33">
+        <f t="shared" si="52"/>
+        <v>1120.0380000000002</v>
+      </c>
+      <c r="Q61" s="33">
+        <f t="shared" si="52"/>
+        <v>1373.3140000000001</v>
+      </c>
+      <c r="R61" s="33">
+        <f t="shared" si="52"/>
+        <v>1493.221</v>
+      </c>
+      <c r="S61" s="33">
+        <f t="shared" si="52"/>
         <v>2476.6279999999992</v>
       </c>
-      <c r="T59" s="33">
-        <f t="shared" si="32"/>
+      <c r="T61" s="33">
+        <f t="shared" si="52"/>
         <v>2489.7189999999996</v>
       </c>
-      <c r="U59" s="33">
-        <f t="shared" si="32"/>
+      <c r="U61" s="33">
+        <f t="shared" si="52"/>
         <v>2515</v>
       </c>
-      <c r="V59" s="33">
-        <f>SUM(V53:V58)</f>
+      <c r="V61" s="33">
+        <f>SUM(V55:V60)</f>
         <v>2521</v>
       </c>
-      <c r="W59" s="54"/>
-    </row>
-    <row r="60" spans="2:23" s="32" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B60" s="32" t="s">
+      <c r="W61" s="54"/>
+    </row>
+    <row r="62" spans="2:23" s="32" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B62" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="D60" s="70"/>
-      <c r="F60" s="70"/>
-      <c r="H60" s="70"/>
-      <c r="J60" s="70"/>
-      <c r="L60" s="70"/>
-      <c r="S60" s="32">
+      <c r="D62" s="70"/>
+      <c r="F62" s="70"/>
+      <c r="H62" s="70"/>
+      <c r="J62" s="70"/>
+      <c r="L62" s="70"/>
+      <c r="O62" s="32">
+        <v>91.147999999999996</v>
+      </c>
+      <c r="P62" s="32">
+        <v>155.511</v>
+      </c>
+      <c r="Q62" s="32">
+        <v>90.816000000000003</v>
+      </c>
+      <c r="R62" s="32">
+        <v>86.201999999999998</v>
+      </c>
+      <c r="S62" s="32">
         <v>428.20499999999998</v>
       </c>
-      <c r="T60" s="32">
+      <c r="T62" s="32">
         <v>217.68199999999999</v>
       </c>
-      <c r="U60" s="32">
+      <c r="U62" s="32">
         <v>173</v>
       </c>
-      <c r="V60" s="32">
+      <c r="V62" s="32">
         <v>237</v>
       </c>
-      <c r="W60" s="84"/>
-    </row>
-    <row r="61" spans="2:23" s="32" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B61" s="32" t="s">
+      <c r="W62" s="84"/>
+    </row>
+    <row r="63" spans="2:23" s="32" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B63" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="D61" s="70"/>
-      <c r="F61" s="70"/>
-      <c r="H61" s="70"/>
-      <c r="J61" s="70"/>
-      <c r="L61" s="70"/>
-      <c r="S61" s="32">
+      <c r="D63" s="70"/>
+      <c r="F63" s="70"/>
+      <c r="H63" s="70"/>
+      <c r="J63" s="70"/>
+      <c r="L63" s="70"/>
+      <c r="O63" s="32">
+        <v>356.31200000000001</v>
+      </c>
+      <c r="P63" s="32">
+        <v>462.11900000000003</v>
+      </c>
+      <c r="Q63" s="32">
+        <v>558.69000000000005</v>
+      </c>
+      <c r="R63" s="32">
+        <v>670.721</v>
+      </c>
+      <c r="S63" s="32">
         <v>588</v>
       </c>
-      <c r="T61" s="32">
+      <c r="T63" s="32">
         <v>605.12599999999998</v>
       </c>
-      <c r="U61" s="32">
+      <c r="U63" s="32">
         <v>863</v>
       </c>
-      <c r="V61" s="32">
+      <c r="V63" s="32">
         <v>764</v>
       </c>
-      <c r="W61" s="84"/>
-    </row>
-    <row r="62" spans="2:23" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="33" t="s">
+      <c r="W63" s="84"/>
+    </row>
+    <row r="64" spans="2:23" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B64" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="D62" s="71"/>
-      <c r="F62" s="71"/>
-      <c r="H62" s="71"/>
-      <c r="J62" s="71"/>
-      <c r="L62" s="71"/>
-      <c r="S62" s="33">
+      <c r="D64" s="71"/>
+      <c r="F64" s="71"/>
+      <c r="H64" s="71"/>
+      <c r="J64" s="71"/>
+      <c r="L64" s="71"/>
+      <c r="O64" s="33">
+        <v>28.760999999999999</v>
+      </c>
+      <c r="P64" s="33">
+        <v>35.398000000000003</v>
+      </c>
+      <c r="Q64" s="33">
+        <v>34.042000000000002</v>
+      </c>
+      <c r="R64" s="33">
+        <v>71.64</v>
+      </c>
+      <c r="S64" s="33">
         <v>60.588000000000001</v>
       </c>
-      <c r="T62" s="33">
+      <c r="T64" s="33">
         <v>42.16</v>
       </c>
-      <c r="U62" s="33">
+      <c r="U64" s="33">
         <v>53</v>
       </c>
-      <c r="V62" s="33">
+      <c r="V64" s="33">
         <v>52</v>
       </c>
-      <c r="W62" s="54"/>
-    </row>
-    <row r="63" spans="2:23" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B63" s="33" t="s">
-        <v>108</v>
-      </c>
-      <c r="D63" s="71"/>
-      <c r="F63" s="71"/>
-      <c r="H63" s="71"/>
-      <c r="J63" s="71"/>
-      <c r="L63" s="71"/>
-      <c r="S63" s="33">
-        <v>0</v>
-      </c>
-      <c r="T63" s="33">
-        <v>0</v>
-      </c>
-      <c r="U63" s="33">
-        <v>9</v>
-      </c>
-      <c r="V63" s="33">
-        <v>12</v>
-      </c>
-      <c r="W63" s="54"/>
-    </row>
-    <row r="64" spans="2:23" s="32" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B64" s="32" t="s">
-        <v>90</v>
-      </c>
-      <c r="D64" s="70"/>
-      <c r="F64" s="70"/>
-      <c r="H64" s="70"/>
-      <c r="J64" s="70"/>
-      <c r="L64" s="70"/>
-      <c r="S64" s="32">
-        <v>16.702000000000002</v>
-      </c>
-      <c r="T64" s="32">
-        <v>3.7669999999999999</v>
-      </c>
-      <c r="U64" s="32">
-        <v>25</v>
-      </c>
-      <c r="V64" s="32">
-        <v>1</v>
-      </c>
-      <c r="W64" s="84"/>
+      <c r="W64" s="54"/>
     </row>
     <row r="65" spans="2:23" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B65" s="33" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="D65" s="71"/>
       <c r="F65" s="71"/>
@@ -3777,143 +4196,198 @@
       <c r="J65" s="71"/>
       <c r="L65" s="71"/>
       <c r="O65" s="33">
-        <f t="shared" ref="O65:U65" si="33">SUM(O59:O64)</f>
         <v>0</v>
       </c>
       <c r="P65" s="33">
-        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="Q65" s="33">
-        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="R65" s="33">
-        <f t="shared" si="33"/>
-        <v>0</v>
+        <v>6.2939999999999996</v>
       </c>
       <c r="S65" s="33">
-        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="T65" s="33">
+        <v>0</v>
+      </c>
+      <c r="U65" s="33">
+        <v>9</v>
+      </c>
+      <c r="V65" s="33">
+        <v>12</v>
+      </c>
+      <c r="W65" s="54"/>
+    </row>
+    <row r="66" spans="2:23" s="32" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B66" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="D66" s="70"/>
+      <c r="F66" s="70"/>
+      <c r="H66" s="70"/>
+      <c r="J66" s="70"/>
+      <c r="L66" s="70"/>
+      <c r="O66" s="32">
+        <v>4.7690000000000001</v>
+      </c>
+      <c r="P66" s="32">
+        <v>0.41</v>
+      </c>
+      <c r="Q66" s="32">
+        <v>0</v>
+      </c>
+      <c r="R66" s="32">
+        <v>3.7810000000000001</v>
+      </c>
+      <c r="S66" s="32">
+        <v>16.702000000000002</v>
+      </c>
+      <c r="T66" s="32">
+        <v>3.7669999999999999</v>
+      </c>
+      <c r="U66" s="32">
+        <v>25</v>
+      </c>
+      <c r="V66" s="32">
+        <v>1</v>
+      </c>
+      <c r="W66" s="84"/>
+    </row>
+    <row r="67" spans="2:23" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B67" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="D67" s="71"/>
+      <c r="F67" s="71"/>
+      <c r="H67" s="71"/>
+      <c r="J67" s="71"/>
+      <c r="L67" s="71"/>
+      <c r="O67" s="33">
+        <f t="shared" ref="O67:U67" si="53">SUM(O61:O66)</f>
+        <v>1564.9029999999996</v>
+      </c>
+      <c r="P67" s="33">
+        <f t="shared" si="53"/>
+        <v>1773.4760000000001</v>
+      </c>
+      <c r="Q67" s="33">
+        <f t="shared" si="53"/>
+        <v>2056.8620000000001</v>
+      </c>
+      <c r="R67" s="33">
+        <f t="shared" si="53"/>
+        <v>2331.8589999999999</v>
+      </c>
+      <c r="S67" s="33">
+        <f t="shared" si="53"/>
         <v>3570.1229999999996</v>
       </c>
-      <c r="T65" s="33">
-        <f t="shared" si="33"/>
+      <c r="T67" s="33">
+        <f t="shared" si="53"/>
         <v>3358.4539999999988</v>
       </c>
-      <c r="U65" s="33">
-        <f t="shared" si="33"/>
+      <c r="U67" s="33">
+        <f t="shared" si="53"/>
         <v>3638</v>
       </c>
-      <c r="V65" s="33">
-        <f>SUM(V59:V64)</f>
+      <c r="V67" s="33">
+        <f>SUM(V61:V66)</f>
         <v>3587</v>
       </c>
-      <c r="W65" s="54"/>
-    </row>
-    <row r="66" spans="2:23" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D66" s="71"/>
-      <c r="F66" s="71"/>
-      <c r="H66" s="71"/>
-      <c r="J66" s="71"/>
-      <c r="L66" s="71"/>
-      <c r="W66" s="54"/>
-    </row>
-    <row r="67" spans="2:23" s="32" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B67" s="32" t="s">
-        <v>92</v>
-      </c>
-      <c r="D67" s="70"/>
-      <c r="F67" s="70"/>
-      <c r="H67" s="70"/>
-      <c r="J67" s="70"/>
-      <c r="L67" s="70"/>
-      <c r="S67" s="32">
-        <v>561.41800000000001</v>
-      </c>
-      <c r="T67" s="32">
-        <v>723.73599999999999</v>
-      </c>
-      <c r="U67" s="32">
-        <v>950</v>
-      </c>
-      <c r="V67" s="32">
-        <v>873</v>
-      </c>
-      <c r="W67" s="84"/>
+      <c r="W67" s="54"/>
     </row>
     <row r="68" spans="2:23" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B68" s="33" t="s">
-        <v>94</v>
-      </c>
       <c r="D68" s="71"/>
       <c r="F68" s="71"/>
       <c r="H68" s="71"/>
       <c r="J68" s="71"/>
       <c r="L68" s="71"/>
-      <c r="S68" s="33">
-        <f>1146.233+0.171</f>
-        <v>1146.404</v>
-      </c>
-      <c r="T68" s="33">
-        <v>1138.634</v>
-      </c>
-      <c r="U68" s="33">
-        <v>1140</v>
-      </c>
-      <c r="V68" s="33">
-        <v>1124</v>
-      </c>
       <c r="W68" s="54"/>
     </row>
-    <row r="69" spans="2:23" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B69" s="33" t="s">
-        <v>85</v>
-      </c>
-      <c r="D69" s="71"/>
-      <c r="F69" s="71"/>
-      <c r="H69" s="71"/>
-      <c r="J69" s="71"/>
-      <c r="L69" s="71"/>
-      <c r="S69" s="33">
-        <v>29.007999999999999</v>
-      </c>
-      <c r="T69" s="33">
-        <v>27.475999999999999</v>
-      </c>
-      <c r="U69" s="33">
-        <v>43</v>
-      </c>
-      <c r="V69" s="33">
-        <v>43</v>
-      </c>
-      <c r="W69" s="54"/>
+    <row r="69" spans="2:23" s="32" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B69" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="D69" s="70"/>
+      <c r="F69" s="70"/>
+      <c r="H69" s="70"/>
+      <c r="J69" s="70"/>
+      <c r="L69" s="70"/>
+      <c r="O69" s="32">
+        <f>435.142+16.041</f>
+        <v>451.18299999999999</v>
+      </c>
+      <c r="P69" s="32">
+        <f>17.886+543.725</f>
+        <v>561.61099999999999</v>
+      </c>
+      <c r="Q69" s="32">
+        <f>558.426+19.209</f>
+        <v>577.63499999999999</v>
+      </c>
+      <c r="R69" s="32">
+        <v>562.94100000000003</v>
+      </c>
+      <c r="S69" s="32">
+        <v>561.41800000000001</v>
+      </c>
+      <c r="T69" s="32">
+        <v>723.73599999999999</v>
+      </c>
+      <c r="U69" s="32">
+        <v>950</v>
+      </c>
+      <c r="V69" s="32">
+        <v>873</v>
+      </c>
+      <c r="W69" s="84"/>
     </row>
     <row r="70" spans="2:23" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B70" s="33" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D70" s="71"/>
       <c r="F70" s="71"/>
       <c r="H70" s="71"/>
       <c r="J70" s="71"/>
       <c r="L70" s="71"/>
+      <c r="O70" s="33">
+        <f>4.252+66.544</f>
+        <v>70.795999999999992</v>
+      </c>
+      <c r="P70" s="33">
+        <f>76.961+6.469</f>
+        <v>83.429999999999993</v>
+      </c>
+      <c r="Q70" s="33">
+        <f>7.306+87.13</f>
+        <v>94.435999999999993</v>
+      </c>
+      <c r="R70" s="33">
+        <f>92.891+7.104</f>
+        <v>99.995000000000005</v>
+      </c>
       <c r="S70" s="33">
-        <v>0.76600000000000001</v>
+        <f>1146.233+0.171</f>
+        <v>1146.404</v>
       </c>
       <c r="T70" s="33">
-        <v>4.5110000000000001</v>
+        <v>1138.634</v>
       </c>
       <c r="U70" s="33">
-        <v>4</v>
+        <v>1140</v>
       </c>
       <c r="V70" s="33">
-        <v>3</v>
+        <v>1124</v>
       </c>
       <c r="W70" s="54"/>
     </row>
     <row r="71" spans="2:23" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B71" s="33" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="D71" s="71"/>
       <c r="F71" s="71"/>
@@ -3921,182 +4395,256 @@
       <c r="J71" s="71"/>
       <c r="L71" s="71"/>
       <c r="O71" s="33">
-        <f t="shared" ref="O71:U71" si="34">SUM(O67:O70)</f>
-        <v>0</v>
+        <v>20.119</v>
       </c>
       <c r="P71" s="33">
-        <f t="shared" si="34"/>
-        <v>0</v>
+        <v>18.844999999999999</v>
       </c>
       <c r="Q71" s="33">
-        <f t="shared" si="34"/>
-        <v>0</v>
+        <v>24.495000000000001</v>
       </c>
       <c r="R71" s="33">
-        <f t="shared" si="34"/>
-        <v>0</v>
+        <v>27.148</v>
       </c>
       <c r="S71" s="33">
-        <f t="shared" si="34"/>
-        <v>1737.5960000000002</v>
+        <v>29.007999999999999</v>
       </c>
       <c r="T71" s="33">
-        <f t="shared" si="34"/>
-        <v>1894.357</v>
+        <v>27.475999999999999</v>
       </c>
       <c r="U71" s="33">
-        <f t="shared" si="34"/>
-        <v>2137</v>
+        <v>43</v>
       </c>
       <c r="V71" s="33">
-        <f>SUM(V67:V70)</f>
-        <v>2043</v>
+        <v>43</v>
       </c>
       <c r="W71" s="54"/>
     </row>
-    <row r="72" spans="2:23" s="32" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B72" s="32" t="s">
-        <v>92</v>
-      </c>
-      <c r="D72" s="70"/>
-      <c r="F72" s="70"/>
-      <c r="H72" s="70"/>
-      <c r="J72" s="70"/>
-      <c r="L72" s="70"/>
-      <c r="S72" s="32">
-        <f>0.928+211.062</f>
-        <v>211.99</v>
-      </c>
-      <c r="T72" s="32">
-        <v>6.875</v>
-      </c>
-      <c r="U72" s="32">
-        <v>6</v>
-      </c>
-      <c r="V72" s="32">
-        <v>81</v>
-      </c>
-      <c r="W72" s="84"/>
+    <row r="72" spans="2:23" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B72" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="D72" s="71"/>
+      <c r="F72" s="71"/>
+      <c r="H72" s="71"/>
+      <c r="J72" s="71"/>
+      <c r="L72" s="71"/>
+      <c r="O72" s="33">
+        <v>2.0470000000000002</v>
+      </c>
+      <c r="P72" s="33">
+        <v>0.92200000000000004</v>
+      </c>
+      <c r="Q72" s="33">
+        <v>0.379</v>
+      </c>
+      <c r="R72" s="33">
+        <v>0.374</v>
+      </c>
+      <c r="S72" s="33">
+        <v>0.76600000000000001</v>
+      </c>
+      <c r="T72" s="33">
+        <v>4.5110000000000001</v>
+      </c>
+      <c r="U72" s="33">
+        <v>4</v>
+      </c>
+      <c r="V72" s="33">
+        <v>3</v>
+      </c>
+      <c r="W72" s="54"/>
     </row>
     <row r="73" spans="2:23" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B73" s="33" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="D73" s="71"/>
       <c r="F73" s="71"/>
       <c r="H73" s="71"/>
       <c r="J73" s="71"/>
       <c r="L73" s="71"/>
+      <c r="O73" s="33">
+        <f t="shared" ref="O73:U73" si="54">SUM(O69:O72)</f>
+        <v>544.1450000000001</v>
+      </c>
+      <c r="P73" s="33">
+        <f t="shared" si="54"/>
+        <v>664.80799999999999</v>
+      </c>
+      <c r="Q73" s="33">
+        <f t="shared" si="54"/>
+        <v>696.94500000000005</v>
+      </c>
+      <c r="R73" s="33">
+        <f t="shared" si="54"/>
+        <v>690.45800000000008</v>
+      </c>
       <c r="S73" s="33">
-        <v>419.99900000000002</v>
+        <f t="shared" si="54"/>
+        <v>1737.5960000000002</v>
       </c>
       <c r="T73" s="33">
-        <v>524.26</v>
+        <f t="shared" si="54"/>
+        <v>1894.357</v>
       </c>
       <c r="U73" s="33">
-        <v>564</v>
+        <f t="shared" si="54"/>
+        <v>2137</v>
       </c>
       <c r="V73" s="33">
-        <v>541</v>
+        <f>SUM(V69:V72)</f>
+        <v>2043</v>
       </c>
       <c r="W73" s="54"/>
     </row>
-    <row r="74" spans="2:23" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B74" s="33" t="s">
-        <v>94</v>
-      </c>
-      <c r="D74" s="71"/>
-      <c r="F74" s="71"/>
-      <c r="H74" s="71"/>
-      <c r="J74" s="71"/>
-      <c r="L74" s="71"/>
-      <c r="S74" s="33">
-        <v>149.011</v>
-      </c>
-      <c r="T74" s="33">
-        <v>162.73500000000001</v>
-      </c>
-      <c r="U74" s="33">
-        <v>170</v>
-      </c>
-      <c r="V74" s="33">
-        <v>177</v>
-      </c>
-      <c r="W74" s="54"/>
+    <row r="74" spans="2:23" s="32" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B74" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="D74" s="70"/>
+      <c r="F74" s="70"/>
+      <c r="H74" s="70"/>
+      <c r="J74" s="70"/>
+      <c r="L74" s="70"/>
+      <c r="O74" s="32">
+        <v>0</v>
+      </c>
+      <c r="P74" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="32">
+        <f>47.212+6.112</f>
+        <v>53.324000000000005</v>
+      </c>
+      <c r="R74" s="32">
+        <f>5.646+124.272</f>
+        <v>129.91800000000001</v>
+      </c>
+      <c r="S74" s="32">
+        <f>0.928+211.062</f>
+        <v>211.99</v>
+      </c>
+      <c r="T74" s="32">
+        <v>6.875</v>
+      </c>
+      <c r="U74" s="32">
+        <v>6</v>
+      </c>
+      <c r="V74" s="32">
+        <v>81</v>
+      </c>
+      <c r="W74" s="84"/>
     </row>
     <row r="75" spans="2:23" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B75" s="33" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D75" s="71"/>
       <c r="F75" s="71"/>
       <c r="H75" s="71"/>
       <c r="J75" s="71"/>
       <c r="L75" s="71"/>
+      <c r="O75" s="33">
+        <v>189.74299999999999</v>
+      </c>
+      <c r="P75" s="33">
+        <v>267.815</v>
+      </c>
+      <c r="Q75" s="33">
+        <v>336.072</v>
+      </c>
+      <c r="R75" s="33">
+        <v>395.96600000000001</v>
+      </c>
       <c r="S75" s="33">
-        <f>150.087+1.847</f>
-        <v>151.934</v>
+        <v>419.99900000000002</v>
       </c>
       <c r="T75" s="33">
-        <v>16.140999999999998</v>
+        <v>524.26</v>
       </c>
       <c r="U75" s="33">
-        <v>0</v>
+        <v>564</v>
       </c>
       <c r="V75" s="33">
-        <v>13</v>
+        <v>541</v>
       </c>
       <c r="W75" s="54"/>
     </row>
     <row r="76" spans="2:23" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B76" s="33" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D76" s="71"/>
       <c r="F76" s="71"/>
       <c r="H76" s="71"/>
       <c r="J76" s="71"/>
       <c r="L76" s="71"/>
+      <c r="O76" s="33">
+        <v>1.119</v>
+      </c>
+      <c r="P76" s="33">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="Q76" s="33">
+        <v>1.87</v>
+      </c>
+      <c r="R76" s="33">
+        <v>3.63</v>
+      </c>
       <c r="S76" s="33">
-        <v>26.114999999999998</v>
+        <v>149.011</v>
       </c>
       <c r="T76" s="33">
-        <v>12.510999999999999</v>
+        <v>162.73500000000001</v>
       </c>
       <c r="U76" s="33">
-        <v>4</v>
+        <v>170</v>
       </c>
       <c r="V76" s="33">
-        <v>6</v>
+        <v>177</v>
       </c>
       <c r="W76" s="54"/>
     </row>
     <row r="77" spans="2:23" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B77" s="33" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D77" s="71"/>
       <c r="F77" s="71"/>
       <c r="H77" s="71"/>
       <c r="J77" s="71"/>
       <c r="L77" s="71"/>
+      <c r="O77" s="33">
+        <v>0.48699999999999999</v>
+      </c>
+      <c r="P77" s="33">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="Q77" s="33">
+        <v>16.666</v>
+      </c>
+      <c r="R77" s="33">
+        <v>13.731</v>
+      </c>
       <c r="S77" s="33">
-        <v>6.0789999999999997</v>
+        <f>150.087+1.847</f>
+        <v>151.934</v>
       </c>
       <c r="T77" s="33">
-        <v>8.6069999999999993</v>
+        <v>16.140999999999998</v>
       </c>
       <c r="U77" s="33">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="V77" s="33">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="W77" s="54"/>
     </row>
     <row r="78" spans="2:23" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B78" s="33" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D78" s="71"/>
       <c r="F78" s="71"/>
@@ -4104,224 +4652,300 @@
       <c r="J78" s="71"/>
       <c r="L78" s="71"/>
       <c r="O78" s="33">
-        <f t="shared" ref="O78:U78" si="35">SUM(O71:O77)</f>
-        <v>0</v>
+        <v>10.29</v>
       </c>
       <c r="P78" s="33">
-        <f t="shared" si="35"/>
-        <v>0</v>
+        <v>19.338999999999999</v>
       </c>
       <c r="Q78" s="33">
-        <f t="shared" si="35"/>
-        <v>0</v>
+        <v>19.677</v>
       </c>
       <c r="R78" s="33">
-        <f t="shared" si="35"/>
-        <v>0</v>
+        <v>23.196999999999999</v>
       </c>
       <c r="S78" s="33">
-        <f t="shared" si="35"/>
-        <v>2702.7240000000002</v>
+        <v>26.114999999999998</v>
       </c>
       <c r="T78" s="33">
-        <f t="shared" si="35"/>
-        <v>2625.4860000000003</v>
+        <v>12.510999999999999</v>
       </c>
       <c r="U78" s="33">
-        <f t="shared" si="35"/>
-        <v>2892</v>
+        <v>4</v>
       </c>
       <c r="V78" s="33">
-        <f>SUM(V71:V77)</f>
-        <v>2867</v>
+        <v>6</v>
       </c>
       <c r="W78" s="54"/>
     </row>
     <row r="79" spans="2:23" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B79" s="33" t="s">
+        <v>97</v>
+      </c>
       <c r="D79" s="71"/>
       <c r="F79" s="71"/>
       <c r="H79" s="71"/>
       <c r="J79" s="71"/>
       <c r="L79" s="71"/>
+      <c r="O79" s="33">
+        <v>4.7690000000000001</v>
+      </c>
+      <c r="P79" s="33">
+        <v>4.8689999999999998</v>
+      </c>
+      <c r="Q79" s="33">
+        <v>6.2930000000000001</v>
+      </c>
+      <c r="R79" s="33">
+        <v>6.718</v>
+      </c>
+      <c r="S79" s="33">
+        <v>6.0789999999999997</v>
+      </c>
+      <c r="T79" s="33">
+        <v>8.6069999999999993</v>
+      </c>
+      <c r="U79" s="33">
+        <v>11</v>
+      </c>
+      <c r="V79" s="33">
+        <v>6</v>
+      </c>
       <c r="W79" s="54"/>
     </row>
     <row r="80" spans="2:23" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B80" s="33" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D80" s="71"/>
       <c r="F80" s="71"/>
       <c r="H80" s="71"/>
       <c r="J80" s="71"/>
       <c r="L80" s="71"/>
+      <c r="O80" s="33">
+        <f>SUM(O73:O79)</f>
+        <v>750.55300000000011</v>
+      </c>
+      <c r="P80" s="33">
+        <f t="shared" ref="O80:U80" si="55">SUM(P73:P79)</f>
+        <v>959.8950000000001</v>
+      </c>
+      <c r="Q80" s="33">
+        <f t="shared" si="55"/>
+        <v>1130.8469999999995</v>
+      </c>
+      <c r="R80" s="33">
+        <f t="shared" si="55"/>
+        <v>1263.6180000000002</v>
+      </c>
       <c r="S80" s="33">
-        <v>867.399</v>
+        <f t="shared" si="55"/>
+        <v>2702.7240000000002</v>
       </c>
       <c r="T80" s="33">
-        <v>732.96799999999996</v>
+        <f t="shared" si="55"/>
+        <v>2625.4860000000003</v>
       </c>
       <c r="U80" s="33">
-        <v>746</v>
+        <f t="shared" si="55"/>
+        <v>2892</v>
       </c>
       <c r="V80" s="33">
-        <v>720</v>
+        <f>SUM(V73:V79)</f>
+        <v>2867</v>
       </c>
       <c r="W80" s="54"/>
     </row>
     <row r="81" spans="2:23" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B81" s="33" t="s">
-        <v>101</v>
-      </c>
       <c r="D81" s="71"/>
       <c r="F81" s="71"/>
       <c r="H81" s="71"/>
       <c r="J81" s="71"/>
       <c r="L81" s="71"/>
-      <c r="S81" s="33">
-        <f>+S80+S78</f>
-        <v>3570.123</v>
-      </c>
-      <c r="T81" s="33">
-        <f>+T80+T78</f>
-        <v>3358.4540000000002</v>
-      </c>
-      <c r="U81" s="33">
-        <f>+U80+U78</f>
-        <v>3638</v>
-      </c>
-      <c r="V81" s="33">
-        <f>+V80+V78</f>
-        <v>3587</v>
-      </c>
       <c r="W81" s="54"/>
     </row>
     <row r="82" spans="2:23" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B82" s="33" t="s">
+        <v>100</v>
+      </c>
       <c r="D82" s="71"/>
       <c r="F82" s="71"/>
       <c r="H82" s="71"/>
       <c r="J82" s="71"/>
       <c r="L82" s="71"/>
+      <c r="O82" s="33">
+        <v>814.35</v>
+      </c>
+      <c r="P82" s="33">
+        <v>813.62099999999998</v>
+      </c>
+      <c r="Q82" s="33">
+        <v>925.38499999999999</v>
+      </c>
+      <c r="R82" s="33">
+        <v>1068.241</v>
+      </c>
+      <c r="S82" s="33">
+        <v>867.399</v>
+      </c>
+      <c r="T82" s="33">
+        <v>732.96799999999996</v>
+      </c>
+      <c r="U82" s="33">
+        <v>746</v>
+      </c>
+      <c r="V82" s="33">
+        <v>720</v>
+      </c>
       <c r="W82" s="54"/>
     </row>
     <row r="83" spans="2:23" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B83" s="33" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D83" s="71"/>
       <c r="F83" s="71"/>
       <c r="H83" s="71"/>
       <c r="J83" s="71"/>
       <c r="L83" s="71"/>
+      <c r="O83" s="33">
+        <f t="shared" ref="O83:P83" si="56">+O82+O80</f>
+        <v>1564.9030000000002</v>
+      </c>
+      <c r="P83" s="33">
+        <f t="shared" si="56"/>
+        <v>1773.5160000000001</v>
+      </c>
+      <c r="Q83" s="33">
+        <f>+Q82+Q80</f>
+        <v>2056.2319999999995</v>
+      </c>
+      <c r="R83" s="33">
+        <f>+R82+R80</f>
+        <v>2331.8590000000004</v>
+      </c>
       <c r="S83" s="33">
-        <f t="shared" ref="S83:T83" si="36">S65-S78</f>
-        <v>867.39899999999943</v>
+        <f>+S82+S80</f>
+        <v>3570.123</v>
       </c>
       <c r="T83" s="33">
-        <f t="shared" ref="T83:U83" si="37">T65-T78</f>
-        <v>732.96799999999848</v>
+        <f>+T82+T80</f>
+        <v>3358.4540000000002</v>
       </c>
       <c r="U83" s="33">
-        <f t="shared" ref="U83:V83" si="38">U65-U78</f>
-        <v>746</v>
+        <f>+U82+U80</f>
+        <v>3638</v>
       </c>
       <c r="V83" s="33">
-        <f>V65-V78</f>
-        <v>720</v>
+        <f>+V82+V80</f>
+        <v>3587</v>
       </c>
       <c r="W83" s="54"/>
     </row>
-    <row r="84" spans="2:23" s="53" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B84" s="53" t="s">
-        <v>103</v>
-      </c>
-      <c r="D84" s="75"/>
-      <c r="F84" s="75"/>
-      <c r="H84" s="75"/>
-      <c r="J84" s="75"/>
-      <c r="L84" s="75"/>
-      <c r="S84" s="53">
-        <f t="shared" ref="S84" si="39">S83/S22</f>
-        <v>0.86690486422738977</v>
-      </c>
-      <c r="T84" s="53">
-        <f t="shared" ref="T84" si="40">T83/T22</f>
-        <v>0.73245894103597842</v>
-      </c>
-      <c r="U84" s="53">
-        <f>U83/U22</f>
-        <v>0.74520933289779545</v>
-      </c>
-      <c r="V84" s="53">
-        <f>V83/V22</f>
-        <v>0.71885486420132727</v>
-      </c>
-      <c r="W84" s="87"/>
+    <row r="84" spans="2:23" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D84" s="71"/>
+      <c r="F84" s="71"/>
+      <c r="H84" s="71"/>
+      <c r="J84" s="71"/>
+      <c r="L84" s="71"/>
+      <c r="W84" s="54"/>
     </row>
     <row r="85" spans="2:23" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B85" s="33" t="s">
+        <v>102</v>
+      </c>
       <c r="D85" s="71"/>
       <c r="F85" s="71"/>
       <c r="H85" s="71"/>
       <c r="J85" s="71"/>
       <c r="L85" s="71"/>
+      <c r="O85" s="33">
+        <f t="shared" ref="O85:Q85" si="57">O67-O80</f>
+        <v>814.34999999999945</v>
+      </c>
+      <c r="P85" s="33">
+        <f t="shared" si="57"/>
+        <v>813.58100000000002</v>
+      </c>
+      <c r="Q85" s="33">
+        <f t="shared" ref="Q85:S85" si="58">Q67-Q80</f>
+        <v>926.01500000000055</v>
+      </c>
+      <c r="R85" s="33">
+        <f t="shared" si="58"/>
+        <v>1068.2409999999998</v>
+      </c>
+      <c r="S85" s="33">
+        <f t="shared" si="58"/>
+        <v>867.39899999999943</v>
+      </c>
+      <c r="T85" s="33">
+        <f t="shared" ref="T85:U85" si="59">T67-T80</f>
+        <v>732.96799999999848</v>
+      </c>
+      <c r="U85" s="33">
+        <f t="shared" ref="U85:V85" si="60">U67-U80</f>
+        <v>746</v>
+      </c>
+      <c r="V85" s="33">
+        <f>V67-V80</f>
+        <v>720</v>
+      </c>
       <c r="W85" s="54"/>
     </row>
-    <row r="86" spans="2:23" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B86" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="D86" s="71"/>
-      <c r="F86" s="71"/>
-      <c r="H86" s="71"/>
-      <c r="J86" s="71"/>
-      <c r="L86" s="71"/>
-      <c r="S86" s="33">
-        <f t="shared" ref="S86:T86" si="41">+S60+S64</f>
-        <v>444.90699999999998</v>
-      </c>
-      <c r="T86" s="33">
-        <f t="shared" ref="T86:U86" si="42">+T60+T64</f>
-        <v>221.44899999999998</v>
-      </c>
-      <c r="U86" s="33">
-        <f t="shared" ref="U86:V86" si="43">+U60+U64</f>
-        <v>198</v>
-      </c>
-      <c r="V86" s="33">
-        <f>+V60+V64</f>
-        <v>238</v>
-      </c>
-      <c r="W86" s="54"/>
+    <row r="86" spans="2:23" s="53" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B86" s="53" t="s">
+        <v>103</v>
+      </c>
+      <c r="D86" s="75"/>
+      <c r="F86" s="75"/>
+      <c r="H86" s="75"/>
+      <c r="J86" s="75"/>
+      <c r="L86" s="75"/>
+      <c r="O86" s="53">
+        <f t="shared" ref="O86" si="61">O85/O22</f>
+        <v>0.81396336740048425</v>
+      </c>
+      <c r="P86" s="53">
+        <f t="shared" ref="P86" si="62">P85/P22</f>
+        <v>0.81346060783004115</v>
+      </c>
+      <c r="Q86" s="53">
+        <f t="shared" ref="Q86" si="63">Q85/Q22</f>
+        <v>0.92541255642576747</v>
+      </c>
+      <c r="R86" s="53">
+        <f t="shared" ref="R86" si="64">R85/R22</f>
+        <v>1.067158900874513</v>
+      </c>
+      <c r="S86" s="53">
+        <f t="shared" ref="S86" si="65">S85/S22</f>
+        <v>0.86690486422738977</v>
+      </c>
+      <c r="T86" s="53">
+        <f t="shared" ref="T86" si="66">T85/T22</f>
+        <v>0.73245894103597842</v>
+      </c>
+      <c r="U86" s="53">
+        <f>U85/U22</f>
+        <v>0.74520933289779545</v>
+      </c>
+      <c r="V86" s="53">
+        <f>V85/V22</f>
+        <v>0.71885486420132727</v>
+      </c>
+      <c r="W86" s="87"/>
     </row>
     <row r="87" spans="2:23" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B87" s="33" t="s">
-        <v>7</v>
-      </c>
       <c r="D87" s="71"/>
       <c r="F87" s="71"/>
       <c r="H87" s="71"/>
       <c r="J87" s="71"/>
       <c r="L87" s="71"/>
-      <c r="S87" s="33">
-        <f t="shared" ref="S87:T87" si="44">+S67+S72</f>
-        <v>773.40800000000002</v>
-      </c>
-      <c r="T87" s="33">
-        <f t="shared" ref="T87:U87" si="45">+T67+T72</f>
-        <v>730.61099999999999</v>
-      </c>
-      <c r="U87" s="33">
-        <f t="shared" ref="U87:V87" si="46">+U67+U72</f>
-        <v>956</v>
-      </c>
-      <c r="V87" s="33">
-        <f>+V67+V72</f>
-        <v>954</v>
-      </c>
       <c r="W87" s="54"/>
     </row>
     <row r="88" spans="2:23" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B88" s="33" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D88" s="71"/>
       <c r="F88" s="71"/>
@@ -4329,275 +4953,338 @@
       <c r="J88" s="71"/>
       <c r="L88" s="71"/>
       <c r="O88" s="33">
-        <f t="shared" ref="O88:U88" si="47">O86-O87</f>
-        <v>0</v>
+        <f t="shared" ref="O88:Q88" si="67">+O62+O66</f>
+        <v>95.917000000000002</v>
       </c>
       <c r="P88" s="33">
-        <f t="shared" si="47"/>
-        <v>0</v>
+        <f t="shared" si="67"/>
+        <v>155.92099999999999</v>
       </c>
       <c r="Q88" s="33">
-        <f t="shared" si="47"/>
-        <v>0</v>
+        <f t="shared" ref="Q88:S88" si="68">+Q62+Q66</f>
+        <v>90.816000000000003</v>
       </c>
       <c r="R88" s="33">
-        <f t="shared" si="47"/>
-        <v>0</v>
+        <f t="shared" si="68"/>
+        <v>89.983000000000004</v>
       </c>
       <c r="S88" s="33">
-        <f t="shared" si="47"/>
-        <v>-328.50100000000003</v>
+        <f t="shared" ref="S88:T88" si="69">+S62+S66</f>
+        <v>444.90699999999998</v>
       </c>
       <c r="T88" s="33">
-        <f t="shared" si="47"/>
-        <v>-509.16200000000003</v>
+        <f t="shared" ref="T88:U88" si="70">+T62+T66</f>
+        <v>221.44899999999998</v>
       </c>
       <c r="U88" s="33">
-        <f t="shared" si="47"/>
-        <v>-758</v>
+        <f t="shared" ref="U88:V88" si="71">+U62+U66</f>
+        <v>198</v>
       </c>
       <c r="V88" s="33">
-        <f>V86-V87</f>
-        <v>-716</v>
+        <f>+V62+V66</f>
+        <v>238</v>
       </c>
       <c r="W88" s="54"/>
     </row>
     <row r="89" spans="2:23" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B89" s="33" t="s">
+        <v>7</v>
+      </c>
       <c r="D89" s="71"/>
       <c r="F89" s="71"/>
       <c r="H89" s="71"/>
       <c r="J89" s="71"/>
       <c r="L89" s="71"/>
+      <c r="O89" s="33">
+        <f t="shared" ref="O89:Q89" si="72">+O69+O74</f>
+        <v>451.18299999999999</v>
+      </c>
+      <c r="P89" s="33">
+        <f t="shared" si="72"/>
+        <v>561.61099999999999</v>
+      </c>
+      <c r="Q89" s="33">
+        <f t="shared" ref="Q89:S89" si="73">+Q69+Q74</f>
+        <v>630.95899999999995</v>
+      </c>
+      <c r="R89" s="33">
+        <f t="shared" si="73"/>
+        <v>692.85900000000004</v>
+      </c>
+      <c r="S89" s="33">
+        <f t="shared" ref="S89:T89" si="74">+S69+S74</f>
+        <v>773.40800000000002</v>
+      </c>
+      <c r="T89" s="33">
+        <f t="shared" ref="T89:U89" si="75">+T69+T74</f>
+        <v>730.61099999999999</v>
+      </c>
+      <c r="U89" s="33">
+        <f t="shared" ref="U89:V89" si="76">+U69+U74</f>
+        <v>956</v>
+      </c>
+      <c r="V89" s="33">
+        <f>+V69+V74</f>
+        <v>954</v>
+      </c>
       <c r="W89" s="54"/>
     </row>
-    <row r="90" spans="2:23" s="32" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="32" t="s">
-        <v>104</v>
-      </c>
-      <c r="D90" s="70"/>
-      <c r="F90" s="70"/>
-      <c r="H90" s="70"/>
-      <c r="J90" s="70"/>
-      <c r="L90" s="70"/>
-      <c r="T90" s="38">
-        <f>T61/S61-1</f>
-        <v>2.9125850340135928E-2</v>
-      </c>
-      <c r="U90" s="38">
-        <f>U61/T61-1</f>
-        <v>0.42614926478121928</v>
-      </c>
-      <c r="V90" s="38">
-        <f>V61/U61-1</f>
-        <v>-0.11471610660486675</v>
-      </c>
-      <c r="W90" s="84"/>
+    <row r="90" spans="2:23" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B90" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="D90" s="71"/>
+      <c r="F90" s="71"/>
+      <c r="H90" s="71"/>
+      <c r="J90" s="71"/>
+      <c r="L90" s="71"/>
+      <c r="O90" s="33">
+        <f t="shared" ref="O90:U90" si="77">O88-O89</f>
+        <v>-355.26599999999996</v>
+      </c>
+      <c r="P90" s="33">
+        <f t="shared" si="77"/>
+        <v>-405.69</v>
+      </c>
+      <c r="Q90" s="33">
+        <f t="shared" si="77"/>
+        <v>-540.14299999999992</v>
+      </c>
+      <c r="R90" s="33">
+        <f t="shared" si="77"/>
+        <v>-602.87599999999998</v>
+      </c>
+      <c r="S90" s="33">
+        <f t="shared" si="77"/>
+        <v>-328.50100000000003</v>
+      </c>
+      <c r="T90" s="33">
+        <f t="shared" si="77"/>
+        <v>-509.16200000000003</v>
+      </c>
+      <c r="U90" s="33">
+        <f t="shared" si="77"/>
+        <v>-758</v>
+      </c>
+      <c r="V90" s="33">
+        <f>V88-V89</f>
+        <v>-716</v>
+      </c>
+      <c r="W90" s="54"/>
     </row>
     <row r="91" spans="2:23" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B91" s="33" t="s">
-        <v>105</v>
-      </c>
       <c r="D91" s="71"/>
       <c r="F91" s="71"/>
       <c r="H91" s="71"/>
       <c r="J91" s="71"/>
       <c r="L91" s="71"/>
-      <c r="O91" s="52" t="s">
+      <c r="W91" s="54"/>
+    </row>
+    <row r="92" spans="2:23" s="32" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B92" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="D92" s="70"/>
+      <c r="F92" s="70"/>
+      <c r="H92" s="70"/>
+      <c r="J92" s="70"/>
+      <c r="L92" s="70"/>
+      <c r="O92" s="52" t="s">
         <v>74</v>
       </c>
-      <c r="P91" s="52" t="s">
+      <c r="P92" s="38">
+        <f t="shared" ref="P92:T92" si="78">P63/O63-1</f>
+        <v>0.29695042546981298</v>
+      </c>
+      <c r="Q92" s="38">
+        <f t="shared" si="78"/>
+        <v>0.20897431181145976</v>
+      </c>
+      <c r="R92" s="38">
+        <f t="shared" si="78"/>
+        <v>0.20052444110329515</v>
+      </c>
+      <c r="S92" s="38">
+        <f t="shared" si="78"/>
+        <v>-0.12333145972766624</v>
+      </c>
+      <c r="T92" s="38">
+        <f>T63/S63-1</f>
+        <v>2.9125850340135928E-2</v>
+      </c>
+      <c r="U92" s="38">
+        <f>U63/T63-1</f>
+        <v>0.42614926478121928</v>
+      </c>
+      <c r="V92" s="38">
+        <f>V63/U63-1</f>
+        <v>-0.11471610660486675</v>
+      </c>
+      <c r="W92" s="84"/>
+    </row>
+    <row r="93" spans="2:23" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B93" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="D93" s="71"/>
+      <c r="F93" s="71"/>
+      <c r="H93" s="71"/>
+      <c r="J93" s="71"/>
+      <c r="L93" s="71"/>
+      <c r="O93" s="52" t="s">
         <v>74</v>
       </c>
-      <c r="Q91" s="52" t="s">
+      <c r="P93" s="52" t="s">
         <v>74</v>
       </c>
-      <c r="R91" s="52" t="s">
+      <c r="Q93" s="52" t="s">
         <v>74</v>
       </c>
-      <c r="S91" s="52" t="s">
+      <c r="R93" s="52" t="s">
         <v>74</v>
       </c>
-      <c r="T91" s="52" t="s">
+      <c r="S93" s="52" t="s">
         <v>74</v>
       </c>
-      <c r="U91" s="52" t="s">
+      <c r="T93" s="52" t="s">
         <v>74</v>
       </c>
-      <c r="V91" s="52" t="s">
+      <c r="U93" s="52" t="s">
         <v>74</v>
       </c>
-      <c r="W91" s="54"/>
-    </row>
-    <row r="92" spans="2:23" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B92" s="33" t="s">
+      <c r="V93" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="W93" s="54"/>
+    </row>
+    <row r="94" spans="2:23" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B94" s="33" t="s">
         <v>127</v>
       </c>
-      <c r="D92" s="71"/>
-      <c r="F92" s="71"/>
-      <c r="H92" s="71"/>
-      <c r="J92" s="71"/>
-      <c r="L92" s="71"/>
-      <c r="O92" s="55"/>
-      <c r="P92" s="55"/>
-      <c r="Q92" s="55"/>
-      <c r="R92" s="55"/>
-      <c r="S92" s="55">
-        <f t="shared" ref="O92:V92" si="48">S61/S4</f>
+      <c r="D94" s="71"/>
+      <c r="F94" s="71"/>
+      <c r="H94" s="71"/>
+      <c r="J94" s="71"/>
+      <c r="L94" s="71"/>
+      <c r="O94" s="55">
+        <f t="shared" ref="O94:V94" si="79">O63/O4</f>
+        <v>0.1750673738567326</v>
+      </c>
+      <c r="P94" s="55">
+        <f t="shared" si="79"/>
+        <v>0.19012079023804238</v>
+      </c>
+      <c r="Q94" s="55">
+        <f t="shared" si="79"/>
+        <v>0.18439818839646949</v>
+      </c>
+      <c r="R94" s="55">
+        <f t="shared" si="79"/>
+        <v>0.1923879075063929</v>
+      </c>
+      <c r="S94" s="55">
+        <f t="shared" si="79"/>
         <v>0.15419363416301571</v>
       </c>
-      <c r="T92" s="55">
-        <f t="shared" si="48"/>
+      <c r="T94" s="55">
+        <f t="shared" si="79"/>
         <v>0.12603050136157493</v>
       </c>
-      <c r="U92" s="55">
-        <f t="shared" si="48"/>
+      <c r="U94" s="55">
+        <f t="shared" si="79"/>
         <v>0.18467793708538413</v>
       </c>
-      <c r="V92" s="55">
-        <f>V61/V4</f>
+      <c r="V94" s="55">
+        <f>V63/V4</f>
         <v>0.15332129239414008</v>
       </c>
-      <c r="W92" s="54"/>
-    </row>
-    <row r="94" spans="2:23" s="40" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B94" s="40" t="s">
+      <c r="W94" s="54"/>
+    </row>
+    <row r="96" spans="2:23" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B96" s="40" t="s">
         <v>106</v>
       </c>
-      <c r="D94" s="68"/>
-      <c r="F94" s="68"/>
-      <c r="H94" s="68"/>
-      <c r="J94" s="68"/>
-      <c r="L94" s="68"/>
-      <c r="S94" s="40">
+      <c r="D96" s="68"/>
+      <c r="F96" s="68"/>
+      <c r="H96" s="68"/>
+      <c r="J96" s="68"/>
+      <c r="L96" s="68"/>
+      <c r="S96" s="40">
         <v>2.0379999999999998</v>
       </c>
-      <c r="T94" s="40">
+      <c r="T96" s="40">
         <v>4.5180999999999996</v>
       </c>
-      <c r="U94" s="40">
+      <c r="U96" s="40">
         <v>5.0332999999999997</v>
       </c>
-      <c r="V94" s="40">
+      <c r="V96" s="40">
         <v>4.6698000000000004</v>
       </c>
-      <c r="W94" s="81"/>
-    </row>
-    <row r="95" spans="2:23" s="49" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B95" s="49" t="s">
+      <c r="W96" s="81"/>
+    </row>
+    <row r="97" spans="2:23" s="49" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B97" s="49" t="s">
         <v>107</v>
       </c>
-      <c r="D95" s="73"/>
-      <c r="F95" s="73"/>
-      <c r="H95" s="73"/>
-      <c r="J95" s="73"/>
-      <c r="L95" s="73"/>
-      <c r="S95" s="49">
-        <f t="shared" ref="S95" si="49">S94*S22</f>
+      <c r="D97" s="73"/>
+      <c r="F97" s="73"/>
+      <c r="H97" s="73"/>
+      <c r="J97" s="73"/>
+      <c r="L97" s="73"/>
+      <c r="S97" s="49">
+        <f t="shared" ref="S97" si="80">S96*S22</f>
         <v>2039.16166</v>
       </c>
-      <c r="T95" s="49">
-        <f t="shared" ref="T95" si="50">T94*T22</f>
+      <c r="T97" s="49">
+        <f t="shared" ref="T97" si="81">T96*T22</f>
         <v>4521.2400794999994</v>
       </c>
-      <c r="U95" s="49">
-        <f t="shared" ref="U95" si="51">U94*U22</f>
+      <c r="U97" s="49">
+        <f t="shared" ref="U97" si="82">U96*U22</f>
         <v>5038.6403313000001</v>
       </c>
-      <c r="V95" s="49">
-        <f>V94*V22</f>
+      <c r="V97" s="49">
+        <f>V96*V22</f>
         <v>4677.2389914000005</v>
       </c>
-      <c r="W95" s="54"/>
-    </row>
-    <row r="96" spans="2:23" s="49" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B96" s="49" t="s">
+      <c r="W97" s="54"/>
+    </row>
+    <row r="98" spans="2:23" s="49" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B98" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="D96" s="73"/>
-      <c r="F96" s="73"/>
-      <c r="H96" s="73"/>
-      <c r="J96" s="73"/>
-      <c r="L96" s="73"/>
-      <c r="S96" s="49">
-        <f t="shared" ref="S96" si="52">S95-S88</f>
+      <c r="D98" s="73"/>
+      <c r="F98" s="73"/>
+      <c r="H98" s="73"/>
+      <c r="J98" s="73"/>
+      <c r="L98" s="73"/>
+      <c r="S98" s="49">
+        <f t="shared" ref="S98" si="83">S97-S90</f>
         <v>2367.66266</v>
       </c>
-      <c r="T96" s="49">
-        <f t="shared" ref="T96" si="53">T95-T88</f>
+      <c r="T98" s="49">
+        <f t="shared" ref="T98" si="84">T97-T90</f>
         <v>5030.4020794999997</v>
       </c>
-      <c r="U96" s="49">
-        <f t="shared" ref="U96" si="54">U95-U88</f>
+      <c r="U98" s="49">
+        <f t="shared" ref="U98" si="85">U97-U90</f>
         <v>5796.6403313000001</v>
       </c>
-      <c r="V96" s="49">
-        <f>V95-V88</f>
+      <c r="V98" s="49">
+        <f>V97-V90</f>
         <v>5393.2389914000005</v>
       </c>
-      <c r="W96" s="54"/>
-    </row>
-    <row r="98" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B98" s="39" t="s">
+      <c r="W98" s="54"/>
+    </row>
+    <row r="100" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B100" s="39" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="99" spans="2:23" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B99" s="60" t="s">
-        <v>31</v>
-      </c>
-      <c r="D99" s="74"/>
-      <c r="F99" s="74"/>
-      <c r="H99" s="74"/>
-      <c r="J99" s="74"/>
-      <c r="L99" s="74"/>
-      <c r="S99" s="63">
-        <f t="shared" ref="S99:V99" si="55">S94/S84</f>
-        <v>2.3508923344389392</v>
-      </c>
-      <c r="T99" s="63">
-        <f t="shared" si="55"/>
-        <v>6.1684003660460069</v>
-      </c>
-      <c r="U99" s="63">
-        <f t="shared" si="55"/>
-        <v>6.7542095593833773</v>
-      </c>
-      <c r="V99" s="63">
-        <f>V94/V84</f>
-        <v>6.4961652658333344</v>
-      </c>
-      <c r="W99" s="86"/>
-    </row>
-    <row r="100" spans="2:23" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B100" s="60" t="s">
-        <v>32</v>
-      </c>
-      <c r="D100" s="74"/>
-      <c r="F100" s="74"/>
-      <c r="H100" s="74"/>
-      <c r="J100" s="74"/>
-      <c r="L100" s="74"/>
-      <c r="S100" s="63">
-        <f t="shared" ref="S100:V100" si="56">S95/S4</f>
-        <v>0.53473766496817654</v>
-      </c>
-      <c r="T100" s="63">
-        <f t="shared" si="56"/>
-        <v>0.94164546556491024</v>
-      </c>
-      <c r="U100" s="63">
-        <f t="shared" si="56"/>
-        <v>1.0782453095013911</v>
-      </c>
-      <c r="V100" s="63">
-        <f>V95/V4</f>
-        <v>0.93863917146297426</v>
-      </c>
-      <c r="W100" s="86"/>
     </row>
     <row r="101" spans="2:23" s="60" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B101" s="60" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D101" s="74"/>
       <c r="F101" s="74"/>
@@ -4605,80 +5292,107 @@
       <c r="J101" s="74"/>
       <c r="L101" s="74"/>
       <c r="S101" s="63">
-        <f t="shared" ref="S101:V101" si="57">S94/S21</f>
+        <f t="shared" ref="S101:V101" si="86">S96/S86</f>
+        <v>2.3508923344389392</v>
+      </c>
+      <c r="T101" s="63">
+        <f t="shared" si="86"/>
+        <v>6.1684003660460069</v>
+      </c>
+      <c r="U101" s="63">
+        <f t="shared" si="86"/>
+        <v>6.7542095593833773</v>
+      </c>
+      <c r="V101" s="63">
+        <f>V96/V86</f>
+        <v>6.4961652658333344</v>
+      </c>
+      <c r="W101" s="86"/>
+    </row>
+    <row r="102" spans="2:23" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B102" s="60" t="s">
+        <v>32</v>
+      </c>
+      <c r="D102" s="74"/>
+      <c r="F102" s="74"/>
+      <c r="H102" s="74"/>
+      <c r="J102" s="74"/>
+      <c r="L102" s="74"/>
+      <c r="S102" s="63">
+        <f t="shared" ref="S102:V102" si="87">S97/S4</f>
+        <v>0.53473766496817654</v>
+      </c>
+      <c r="T102" s="63">
+        <f t="shared" si="87"/>
+        <v>0.94164546556491024</v>
+      </c>
+      <c r="U102" s="63">
+        <f t="shared" si="87"/>
+        <v>1.0782453095013911</v>
+      </c>
+      <c r="V102" s="63">
+        <f>V97/V4</f>
+        <v>0.93863917146297426</v>
+      </c>
+      <c r="W102" s="86"/>
+    </row>
+    <row r="103" spans="2:23" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B103" s="60" t="s">
+        <v>34</v>
+      </c>
+      <c r="D103" s="74"/>
+      <c r="F103" s="74"/>
+      <c r="H103" s="74"/>
+      <c r="J103" s="74"/>
+      <c r="L103" s="74"/>
+      <c r="S103" s="63">
+        <f t="shared" ref="S103:V103" si="88">S96/S21</f>
         <v>10.008941364720664</v>
       </c>
-      <c r="T101" s="63">
-        <f t="shared" si="57"/>
+      <c r="T103" s="63">
+        <f t="shared" si="88"/>
         <v>11.015271163254162</v>
       </c>
-      <c r="U101" s="63">
-        <f t="shared" si="57"/>
+      <c r="U103" s="63">
+        <f t="shared" si="88"/>
         <v>11.556514521330275</v>
       </c>
-      <c r="V101" s="63">
-        <f>V94/V21</f>
+      <c r="V103" s="63">
+        <f>V96/V21</f>
         <v>12.117199459585493</v>
       </c>
-      <c r="W101" s="86"/>
-    </row>
-    <row r="102" spans="2:23" s="50" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B102" s="50" t="s">
+      <c r="W103" s="86"/>
+    </row>
+    <row r="104" spans="2:23" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B104" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="D102" s="76"/>
-      <c r="F102" s="76"/>
-      <c r="H102" s="76"/>
-      <c r="J102" s="76"/>
-      <c r="L102" s="76"/>
-      <c r="S102" s="62">
-        <f t="shared" ref="S102:V102" si="58">S96/S4</f>
+      <c r="D104" s="76"/>
+      <c r="F104" s="76"/>
+      <c r="H104" s="76"/>
+      <c r="J104" s="76"/>
+      <c r="L104" s="76"/>
+      <c r="S104" s="62">
+        <f t="shared" ref="S104:V104" si="89">S98/S4</f>
         <v>0.62088181975760648</v>
       </c>
-      <c r="T102" s="62">
-        <f t="shared" si="58"/>
+      <c r="T104" s="62">
+        <f t="shared" si="89"/>
         <v>1.0476894004384114</v>
       </c>
-      <c r="U102" s="62">
-        <f t="shared" si="58"/>
+      <c r="U104" s="62">
+        <f t="shared" si="89"/>
         <v>1.2404537409158998</v>
       </c>
-      <c r="V102" s="62">
-        <f>V96/V4</f>
+      <c r="V104" s="62">
+        <f>V98/V4</f>
         <v>1.0823277125025086</v>
       </c>
-      <c r="W102" s="88"/>
-    </row>
-    <row r="103" spans="2:23" s="50" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B103" s="50" t="s">
-        <v>35</v>
-      </c>
-      <c r="D103" s="76"/>
-      <c r="F103" s="76"/>
-      <c r="H103" s="76"/>
-      <c r="J103" s="76"/>
-      <c r="L103" s="76"/>
-      <c r="S103" s="62">
-        <f t="shared" ref="S103:V103" si="59">S96/S20</f>
-        <v>11.621342829375557</v>
-      </c>
-      <c r="T103" s="62">
-        <f t="shared" si="59"/>
-        <v>12.255762134183771</v>
-      </c>
-      <c r="U103" s="62">
-        <f t="shared" si="59"/>
-        <v>13.295046631422018</v>
-      </c>
-      <c r="V103" s="62">
-        <f>V96/V20</f>
-        <v>13.97212173937824</v>
-      </c>
-      <c r="W103" s="88"/>
+      <c r="W104" s="88"/>
     </row>
     <row r="105" spans="2:23" s="50" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B105" s="50" t="s">
-        <v>130</v>
+        <v>35</v>
       </c>
       <c r="D105" s="76"/>
       <c r="F105" s="76"/>
@@ -4686,34 +5400,63 @@
       <c r="J105" s="76"/>
       <c r="L105" s="76"/>
       <c r="S105" s="62">
-        <f t="shared" ref="S105:V105" si="60">S87/S80</f>
+        <f t="shared" ref="S105:V105" si="90">S98/S20</f>
+        <v>11.621342829375557</v>
+      </c>
+      <c r="T105" s="62">
+        <f t="shared" si="90"/>
+        <v>12.255762134183771</v>
+      </c>
+      <c r="U105" s="62">
+        <f t="shared" si="90"/>
+        <v>13.295046631422018</v>
+      </c>
+      <c r="V105" s="62">
+        <f>V98/V20</f>
+        <v>13.97212173937824</v>
+      </c>
+      <c r="W105" s="88"/>
+    </row>
+    <row r="107" spans="2:23" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B107" s="50" t="s">
+        <v>130</v>
+      </c>
+      <c r="D107" s="76"/>
+      <c r="F107" s="76"/>
+      <c r="H107" s="76"/>
+      <c r="J107" s="76"/>
+      <c r="L107" s="76"/>
+      <c r="S107" s="62">
+        <f t="shared" ref="S107:V107" si="91">S89/S82</f>
         <v>0.89164041000738992</v>
       </c>
-      <c r="T105" s="62">
-        <f t="shared" si="60"/>
+      <c r="T107" s="62">
+        <f t="shared" si="91"/>
         <v>0.99678430709116905</v>
       </c>
-      <c r="U105" s="62">
-        <f t="shared" si="60"/>
+      <c r="U107" s="62">
+        <f t="shared" si="91"/>
         <v>1.2815013404825737</v>
       </c>
-      <c r="V105" s="62">
-        <f>V87/V80</f>
+      <c r="V107" s="62">
+        <f>V89/V82</f>
         <v>1.325</v>
       </c>
-      <c r="W105" s="88"/>
+      <c r="W107" s="88"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="V1" r:id="rId1" location="page=1" xr:uid="{E121E959-3971-4F0C-9D31-6597A2936EC2}"/>
     <hyperlink ref="T1" r:id="rId2" xr:uid="{7837FB7C-00FB-40DB-8535-E935902869EF}"/>
+    <hyperlink ref="R1" r:id="rId3" xr:uid="{234D5C46-CFB8-4EFF-B019-5A96317C7ED5}"/>
+    <hyperlink ref="P1" r:id="rId4" xr:uid="{3F26C874-BA3D-4574-85A7-9E2A3E0932A6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="125" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId3"/>
+  <pageSetup paperSize="125" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId5"/>
   <ignoredErrors>
     <ignoredError sqref="S7" formula="1"/>
   </ignoredErrors>
-  <drawing r:id="rId4"/>
-  <legacyDrawing r:id="rId5"/>
+  <drawing r:id="rId6"/>
+  <legacyDrawing r:id="rId7"/>
 </worksheet>
 </file>
--- a/£BME.xlsx
+++ b/£BME.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20401"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\My Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E29CFECD-F4CC-4B99-A485-E480B9A4C740}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9E0E7D5-AD7B-4134-B39D-EF7590779D71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" activeTab="1" xr2:uid="{0B0D3E06-E58D-4F1F-A8B8-3BC216B2A3D5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{0B0D3E06-E58D-4F1F-A8B8-3BC216B2A3D5}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,15 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -60,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="145">
   <si>
     <t>£BME</t>
   </si>
@@ -465,6 +474,36 @@
   </si>
   <si>
     <t>Germany</t>
+  </si>
+  <si>
+    <t>H123</t>
+  </si>
+  <si>
+    <t>H122</t>
+  </si>
+  <si>
+    <t>H121</t>
+  </si>
+  <si>
+    <t>H120</t>
+  </si>
+  <si>
+    <t>H119</t>
+  </si>
+  <si>
+    <t>H219</t>
+  </si>
+  <si>
+    <t>H220</t>
+  </si>
+  <si>
+    <t>H221</t>
+  </si>
+  <si>
+    <t>H222</t>
+  </si>
+  <si>
+    <t>H223</t>
   </si>
 </sst>
 </file>
@@ -473,8 +512,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
-    <numFmt numFmtId="171" formatCode="0.0\x"/>
-    <numFmt numFmtId="173" formatCode="#,##0.00000"/>
+    <numFmt numFmtId="165" formatCode="0.0\x"/>
+    <numFmt numFmtId="166" formatCode="#,##0.00000"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -733,23 +772,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -759,19 +788,7 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -780,7 +797,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -794,12 +811,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -808,25 +819,17 @@
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="1" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="171" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="1" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="16" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
@@ -835,13 +838,10 @@
     </xf>
     <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="173" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="9" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -860,12 +860,12 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="171" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="171" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="4" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -875,12 +875,12 @@
     <xf numFmtId="3" fontId="13" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="9" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="173" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="4" fontId="9" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -889,13 +889,51 @@
     <xf numFmtId="3" fontId="14" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="16" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="173" fontId="9" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="9" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="9" fontId="9" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1402,797 +1440,792 @@
       </c>
     </row>
     <row r="4" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="T4" s="3" t="s">
+      <c r="T4" s="79" t="s">
         <v>126</v>
       </c>
-      <c r="U4" s="5"/>
-      <c r="W4" s="3" t="s">
+      <c r="U4" s="80"/>
+      <c r="W4" s="79" t="s">
         <v>116</v>
       </c>
-      <c r="X4" s="5"/>
+      <c r="X4" s="80"/>
     </row>
     <row r="5" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="5"/>
-      <c r="F5" s="3" t="s">
+      <c r="C5" s="85"/>
+      <c r="D5" s="80"/>
+      <c r="F5" s="79" t="s">
         <v>128</v>
       </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="5"/>
-      <c r="T5" s="56" t="s">
+      <c r="G5" s="85"/>
+      <c r="H5" s="85"/>
+      <c r="I5" s="85"/>
+      <c r="J5" s="85"/>
+      <c r="K5" s="85"/>
+      <c r="L5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="85"/>
+      <c r="Q5" s="80"/>
+      <c r="T5" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="U5" s="10"/>
-      <c r="W5" s="56" t="s">
+      <c r="U5" s="6"/>
+      <c r="W5" s="41" t="s">
         <v>109</v>
       </c>
-      <c r="X5" s="10"/>
+      <c r="X5" s="6"/>
     </row>
     <row r="6" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="1">
         <v>5.7348999999999997</v>
       </c>
-      <c r="D6" s="24"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="10"/>
-      <c r="T6" s="56" t="s">
+      <c r="D6" s="16"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="6"/>
+      <c r="T6" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="U6" s="10"/>
-      <c r="W6" s="56" t="s">
+      <c r="U6" s="6"/>
+      <c r="W6" s="41" t="s">
         <v>110</v>
       </c>
-      <c r="X6" s="10"/>
+      <c r="X6" s="6"/>
     </row>
     <row r="7" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="42">
+      <c r="C7" s="23">
         <f>'Financial Model'!V22</f>
         <v>1001.593</v>
       </c>
-      <c r="D7" s="24" t="str">
+      <c r="D7" s="16" t="str">
         <f>$C$30</f>
         <v>FY23</v>
       </c>
-      <c r="F7" s="20"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="9"/>
-      <c r="Q7" s="10"/>
-      <c r="T7" s="56"/>
-      <c r="U7" s="10"/>
-      <c r="W7" s="56" t="s">
+      <c r="F7" s="12"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="6"/>
+      <c r="T7" s="41"/>
+      <c r="U7" s="6"/>
+      <c r="W7" s="41" t="s">
         <v>111</v>
       </c>
-      <c r="X7" s="10"/>
+      <c r="X7" s="6"/>
     </row>
     <row r="8" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="22">
+      <c r="C8" s="14">
         <f>C6*C7</f>
         <v>5744.0356956999995</v>
       </c>
-      <c r="D8" s="24"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="9"/>
-      <c r="Q8" s="10"/>
-      <c r="T8" s="58" t="s">
+      <c r="D8" s="16"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="6"/>
+      <c r="T8" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="U8" s="12"/>
-      <c r="W8" s="56" t="s">
+      <c r="U8" s="8"/>
+      <c r="W8" s="41" t="s">
         <v>112</v>
       </c>
-      <c r="X8" s="10"/>
+      <c r="X8" s="6"/>
     </row>
     <row r="9" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="22">
+      <c r="C9" s="14">
         <f>+'Financial Model'!V88</f>
         <v>238</v>
       </c>
-      <c r="D9" s="24" t="str">
+      <c r="D9" s="16" t="str">
         <f t="shared" ref="D9:D11" si="0">$C$30</f>
         <v>FY23</v>
       </c>
-      <c r="F9" s="20"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9" t="s">
+      <c r="F9" s="12"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="9"/>
-      <c r="Q9" s="10"/>
-      <c r="W9" s="56" t="s">
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="6"/>
+      <c r="W9" s="41" t="s">
         <v>114</v>
       </c>
-      <c r="X9" s="10"/>
+      <c r="X9" s="6"/>
     </row>
     <row r="10" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="22">
+      <c r="C10" s="14">
         <f>+'Financial Model'!V89</f>
         <v>954</v>
       </c>
-      <c r="D10" s="24" t="str">
+      <c r="D10" s="16" t="str">
         <f t="shared" si="0"/>
         <v>FY23</v>
       </c>
-      <c r="F10" s="20"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="9"/>
-      <c r="Q10" s="10"/>
-      <c r="W10" s="56" t="s">
+      <c r="F10" s="12"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="6"/>
+      <c r="W10" s="41" t="s">
         <v>113</v>
       </c>
-      <c r="X10" s="10"/>
+      <c r="X10" s="6"/>
     </row>
     <row r="11" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="22">
+      <c r="C11" s="14">
         <f>C9-C10</f>
         <v>-716</v>
       </c>
-      <c r="D11" s="24" t="str">
+      <c r="D11" s="16" t="str">
         <f t="shared" si="0"/>
         <v>FY23</v>
       </c>
-      <c r="F11" s="20"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="9"/>
-      <c r="Q11" s="10"/>
-      <c r="W11" s="57" t="s">
+      <c r="F11" s="12"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="6"/>
+      <c r="W11" s="42" t="s">
         <v>115</v>
       </c>
-      <c r="X11" s="12"/>
+      <c r="X11" s="8"/>
     </row>
     <row r="12" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="23">
+      <c r="C12" s="15">
         <f>C8-C11</f>
         <v>6460.0356956999995</v>
       </c>
-      <c r="D12" s="25"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="9"/>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="10"/>
+      <c r="D12" s="17"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="6"/>
     </row>
     <row r="13" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="F13" s="20"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="9"/>
-      <c r="P13" s="9"/>
-      <c r="Q13" s="10"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="6"/>
     </row>
     <row r="14" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="F14" s="20"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="9"/>
-      <c r="Q14" s="10"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="6"/>
     </row>
     <row r="15" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="5"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="9"/>
-      <c r="P15" s="9"/>
-      <c r="Q15" s="10"/>
+      <c r="C15" s="85"/>
+      <c r="D15" s="80"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="6"/>
     </row>
     <row r="16" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="17"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
-      <c r="O16" s="9"/>
-      <c r="P16" s="9"/>
-      <c r="Q16" s="10"/>
+      <c r="D16" s="87"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="6"/>
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="88" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="17"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="9"/>
-      <c r="P17" s="9"/>
-      <c r="Q17" s="10"/>
+      <c r="D17" s="87"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="6"/>
     </row>
     <row r="18" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="16"/>
-      <c r="D18" s="17"/>
-      <c r="F18" s="59">
+      <c r="C18" s="88"/>
+      <c r="D18" s="87"/>
+      <c r="F18" s="44">
         <v>43891</v>
       </c>
-      <c r="G18" s="91" t="s">
+      <c r="G18" s="76" t="s">
         <v>132</v>
       </c>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="9"/>
-      <c r="O18" s="9"/>
-      <c r="P18" s="9"/>
-      <c r="Q18" s="10"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="6"/>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="C19" s="83" t="s">
         <v>25</v>
       </c>
-      <c r="D19" s="19"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="9"/>
-      <c r="O19" s="9"/>
-      <c r="P19" s="9"/>
-      <c r="Q19" s="10"/>
+      <c r="D19" s="84"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="6"/>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="F20" s="20"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="9"/>
-      <c r="N20" s="9"/>
-      <c r="O20" s="9"/>
-      <c r="P20" s="9"/>
-      <c r="Q20" s="10"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="6"/>
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="F21" s="20"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
-      <c r="M21" s="9"/>
-      <c r="N21" s="9"/>
-      <c r="O21" s="9"/>
-      <c r="P21" s="9"/>
-      <c r="Q21" s="10"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="6"/>
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="4"/>
-      <c r="D22" s="5"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
-      <c r="M22" s="9"/>
-      <c r="N22" s="9"/>
-      <c r="O22" s="9"/>
-      <c r="P22" s="9"/>
-      <c r="Q22" s="10"/>
+      <c r="C22" s="85"/>
+      <c r="D22" s="80"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="6"/>
     </row>
     <row r="23" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B23" s="20" t="s">
+      <c r="B23" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="16" t="s">
+      <c r="C23" s="88" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="17"/>
-      <c r="F23" s="59">
+      <c r="D23" s="87"/>
+      <c r="F23" s="44">
         <v>42948</v>
       </c>
-      <c r="G23" s="9" t="s">
+      <c r="G23" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="9"/>
-      <c r="M23" s="9"/>
-      <c r="N23" s="9"/>
-      <c r="O23" s="9"/>
-      <c r="P23" s="9"/>
-      <c r="Q23" s="10"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="6"/>
     </row>
     <row r="24" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B24" s="20" t="s">
+      <c r="B24" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="16">
+      <c r="C24" s="88">
         <v>1978</v>
       </c>
-      <c r="D24" s="17"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9"/>
-      <c r="M24" s="9"/>
-      <c r="N24" s="9"/>
-      <c r="O24" s="9"/>
-      <c r="P24" s="9"/>
-      <c r="Q24" s="10"/>
+      <c r="D24" s="87"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="6"/>
     </row>
     <row r="25" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B25" s="20" t="s">
+      <c r="B25" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="16">
+      <c r="C25" s="88">
         <v>2014</v>
       </c>
-      <c r="D25" s="17"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
-      <c r="L25" s="9"/>
-      <c r="M25" s="9"/>
-      <c r="N25" s="9"/>
-      <c r="O25" s="9"/>
-      <c r="P25" s="9"/>
-      <c r="Q25" s="10"/>
+      <c r="D25" s="87"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="6"/>
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B26" s="20"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="17"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="9"/>
-      <c r="M26" s="9"/>
-      <c r="N26" s="9"/>
-      <c r="O26" s="9"/>
-      <c r="P26" s="9"/>
-      <c r="Q26" s="10"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="88"/>
+      <c r="D26" s="87"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="5"/>
+      <c r="P26" s="5"/>
+      <c r="Q26" s="6"/>
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B27" s="20" t="s">
+      <c r="B27" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C27" s="51">
+      <c r="C27" s="86">
         <f>+'Financial Model'!V34</f>
         <v>1140</v>
       </c>
-      <c r="D27" s="17"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="9"/>
-      <c r="L27" s="9"/>
-      <c r="M27" s="9"/>
-      <c r="N27" s="9"/>
-      <c r="O27" s="9"/>
-      <c r="P27" s="9"/>
-      <c r="Q27" s="10"/>
+      <c r="D27" s="87"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="5"/>
+      <c r="P27" s="5"/>
+      <c r="Q27" s="6"/>
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B28" s="20" t="s">
+      <c r="B28" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C28" s="51">
+      <c r="C28" s="86">
         <f>+'Financial Model'!V63</f>
         <v>764</v>
       </c>
-      <c r="D28" s="17"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="9"/>
-      <c r="L28" s="9"/>
-      <c r="M28" s="9"/>
-      <c r="N28" s="9"/>
-      <c r="O28" s="9"/>
-      <c r="P28" s="9"/>
-      <c r="Q28" s="10"/>
+      <c r="D28" s="87"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="5"/>
+      <c r="P28" s="5"/>
+      <c r="Q28" s="6"/>
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B29" s="20"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="17"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="9"/>
-      <c r="K29" s="9"/>
-      <c r="L29" s="9"/>
-      <c r="M29" s="9"/>
-      <c r="N29" s="9"/>
-      <c r="O29" s="9"/>
-      <c r="P29" s="9"/>
-      <c r="Q29" s="10"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="88"/>
+      <c r="D29" s="87"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="5"/>
+      <c r="P29" s="5"/>
+      <c r="Q29" s="6"/>
     </row>
     <row r="30" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B30" s="20" t="s">
+      <c r="B30" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C30" s="15" t="s">
+      <c r="C30" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D30" s="43">
+      <c r="D30" s="31">
         <v>45096</v>
       </c>
-      <c r="F30" s="20"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="9"/>
-      <c r="K30" s="9"/>
-      <c r="L30" s="9"/>
-      <c r="M30" s="9"/>
-      <c r="N30" s="9"/>
-      <c r="O30" s="9"/>
-      <c r="P30" s="9"/>
-      <c r="Q30" s="10"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="5"/>
+      <c r="P30" s="5"/>
+      <c r="Q30" s="6"/>
     </row>
     <row r="31" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B31" s="21" t="s">
+      <c r="B31" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C31" s="28" t="s">
+      <c r="C31" s="89" t="s">
         <v>38</v>
       </c>
-      <c r="D31" s="29"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="9"/>
-      <c r="K31" s="9"/>
-      <c r="L31" s="9"/>
-      <c r="M31" s="9"/>
-      <c r="N31" s="9"/>
-      <c r="O31" s="9"/>
-      <c r="P31" s="9"/>
-      <c r="Q31" s="10"/>
+      <c r="D31" s="90"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
+      <c r="N31" s="5"/>
+      <c r="O31" s="5"/>
+      <c r="P31" s="5"/>
+      <c r="Q31" s="6"/>
     </row>
     <row r="32" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="F32" s="20"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
-      <c r="J32" s="9"/>
-      <c r="K32" s="9"/>
-      <c r="L32" s="9"/>
-      <c r="M32" s="9"/>
-      <c r="N32" s="9"/>
-      <c r="O32" s="9"/>
-      <c r="P32" s="9"/>
-      <c r="Q32" s="10"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
+      <c r="N32" s="5"/>
+      <c r="O32" s="5"/>
+      <c r="P32" s="5"/>
+      <c r="Q32" s="6"/>
     </row>
     <row r="33" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="F33" s="20"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9"/>
-      <c r="J33" s="9"/>
-      <c r="K33" s="9"/>
-      <c r="L33" s="9"/>
-      <c r="M33" s="9"/>
-      <c r="N33" s="9"/>
-      <c r="O33" s="9"/>
-      <c r="P33" s="9"/>
-      <c r="Q33" s="10"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="5"/>
+      <c r="N33" s="5"/>
+      <c r="O33" s="5"/>
+      <c r="P33" s="5"/>
+      <c r="Q33" s="6"/>
     </row>
     <row r="34" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="79" t="s">
         <v>30</v>
       </c>
-      <c r="C34" s="4"/>
-      <c r="D34" s="5"/>
-      <c r="F34" s="20"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="9"/>
-      <c r="J34" s="9"/>
-      <c r="K34" s="9"/>
-      <c r="L34" s="9"/>
-      <c r="M34" s="9"/>
-      <c r="N34" s="9"/>
-      <c r="O34" s="9"/>
-      <c r="P34" s="9"/>
-      <c r="Q34" s="10"/>
+      <c r="C34" s="85"/>
+      <c r="D34" s="80"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="5"/>
+      <c r="N34" s="5"/>
+      <c r="O34" s="5"/>
+      <c r="P34" s="5"/>
+      <c r="Q34" s="6"/>
     </row>
     <row r="35" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B35" s="20" t="s">
+      <c r="B35" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C35" s="45">
+      <c r="C35" s="81">
         <f>C6/'Financial Model'!V86</f>
         <v>7.9778273551388885</v>
       </c>
-      <c r="D35" s="46"/>
-      <c r="F35" s="20"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="9"/>
-      <c r="J35" s="9"/>
-      <c r="K35" s="9"/>
-      <c r="L35" s="9"/>
-      <c r="M35" s="9"/>
-      <c r="N35" s="9"/>
-      <c r="O35" s="9"/>
-      <c r="P35" s="9"/>
-      <c r="Q35" s="10"/>
+      <c r="D35" s="82"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5"/>
+      <c r="L35" s="5"/>
+      <c r="M35" s="5"/>
+      <c r="N35" s="5"/>
+      <c r="O35" s="5"/>
+      <c r="P35" s="5"/>
+      <c r="Q35" s="6"/>
     </row>
     <row r="36" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B36" s="20" t="s">
+      <c r="B36" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="C36" s="45">
+      <c r="C36" s="81">
         <f>C8/'Financial Model'!V4</f>
         <v>1.152726408930363</v>
       </c>
-      <c r="D36" s="46"/>
-      <c r="F36" s="20"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="9"/>
-      <c r="J36" s="9"/>
-      <c r="K36" s="9"/>
-      <c r="L36" s="9"/>
-      <c r="M36" s="9"/>
-      <c r="N36" s="9"/>
-      <c r="O36" s="9"/>
-      <c r="P36" s="9"/>
-      <c r="Q36" s="10"/>
+      <c r="D36" s="82"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="5"/>
+      <c r="L36" s="5"/>
+      <c r="M36" s="5"/>
+      <c r="N36" s="5"/>
+      <c r="O36" s="5"/>
+      <c r="P36" s="5"/>
+      <c r="Q36" s="6"/>
     </row>
     <row r="37" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B37" s="20" t="s">
+      <c r="B37" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C37" s="45">
+      <c r="C37" s="81">
         <f>C12/'Financial Model'!V4</f>
         <v>1.2964149499698976</v>
       </c>
-      <c r="D37" s="46"/>
-      <c r="F37" s="20"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="9"/>
-      <c r="J37" s="9"/>
-      <c r="K37" s="9"/>
-      <c r="L37" s="9"/>
-      <c r="M37" s="9"/>
-      <c r="N37" s="9"/>
-      <c r="O37" s="9"/>
-      <c r="P37" s="9"/>
-      <c r="Q37" s="10"/>
+      <c r="D37" s="82"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="5"/>
+      <c r="L37" s="5"/>
+      <c r="M37" s="5"/>
+      <c r="N37" s="5"/>
+      <c r="O37" s="5"/>
+      <c r="P37" s="5"/>
+      <c r="Q37" s="6"/>
     </row>
     <row r="38" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B38" s="20" t="s">
+      <c r="B38" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C38" s="45">
+      <c r="C38" s="81">
         <f>C6/'Financial Model'!V21</f>
         <v>14.880921491450774</v>
       </c>
-      <c r="D38" s="46"/>
-      <c r="F38" s="20"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="9"/>
-      <c r="J38" s="9"/>
-      <c r="K38" s="9"/>
-      <c r="L38" s="9"/>
-      <c r="M38" s="9"/>
-      <c r="N38" s="9"/>
-      <c r="O38" s="9"/>
-      <c r="P38" s="9"/>
-      <c r="Q38" s="10"/>
+      <c r="D38" s="82"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="5"/>
+      <c r="L38" s="5"/>
+      <c r="M38" s="5"/>
+      <c r="N38" s="5"/>
+      <c r="O38" s="5"/>
+      <c r="P38" s="5"/>
+      <c r="Q38" s="6"/>
     </row>
     <row r="39" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B39" s="20" t="s">
+      <c r="B39" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C39" s="45">
+      <c r="C39" s="81">
         <f>C12/'Financial Model'!V16</f>
         <v>18.563320964655169</v>
       </c>
-      <c r="D39" s="46"/>
-      <c r="F39" s="20"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="9"/>
-      <c r="J39" s="9"/>
-      <c r="K39" s="9"/>
-      <c r="L39" s="9"/>
-      <c r="M39" s="9"/>
-      <c r="N39" s="9"/>
-      <c r="O39" s="9"/>
-      <c r="P39" s="9"/>
-      <c r="Q39" s="10"/>
+      <c r="D39" s="82"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="5"/>
+      <c r="L39" s="5"/>
+      <c r="M39" s="5"/>
+      <c r="N39" s="5"/>
+      <c r="O39" s="5"/>
+      <c r="P39" s="5"/>
+      <c r="Q39" s="6"/>
     </row>
     <row r="40" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B40" s="21" t="s">
+      <c r="B40" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C40" s="18"/>
-      <c r="D40" s="19"/>
-      <c r="F40" s="21"/>
-      <c r="G40" s="11"/>
-      <c r="H40" s="11"/>
-      <c r="I40" s="11"/>
-      <c r="J40" s="11"/>
-      <c r="K40" s="11"/>
-      <c r="L40" s="11"/>
-      <c r="M40" s="11"/>
-      <c r="N40" s="11"/>
-      <c r="O40" s="11"/>
-      <c r="P40" s="11"/>
-      <c r="Q40" s="12"/>
+      <c r="C40" s="83"/>
+      <c r="D40" s="84"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="7"/>
+      <c r="K40" s="7"/>
+      <c r="L40" s="7"/>
+      <c r="M40" s="7"/>
+      <c r="N40" s="7"/>
+      <c r="O40" s="7"/>
+      <c r="P40" s="7"/>
+      <c r="Q40" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="W4:X4"/>
-    <mergeCell ref="T4:U4"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
     <mergeCell ref="C39:D39"/>
     <mergeCell ref="C40:D40"/>
     <mergeCell ref="F5:Q5"/>
@@ -2209,6 +2242,11 @@
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="B15:D15"/>
+    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="T4:U4"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C18:D18"/>
@@ -2229,10 +2267,10 @@
   <dimension ref="B1:AE107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C64" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C79" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="O92" sqref="O92"/>
+      <selection pane="bottomRight" activeCell="T107" sqref="T107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2240,172 +2278,227 @@
     <col min="1" max="1" width="4.28515625" style="1" customWidth="1"/>
     <col min="2" max="2" width="28.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.140625" style="1"/>
-    <col min="4" max="4" width="9.140625" style="67"/>
+    <col min="4" max="4" width="9.140625" style="52"/>
     <col min="5" max="5" width="9.140625" style="1"/>
-    <col min="6" max="6" width="9.140625" style="67"/>
+    <col min="6" max="6" width="9.140625" style="52"/>
     <col min="7" max="7" width="9.140625" style="1"/>
-    <col min="8" max="8" width="9.140625" style="67"/>
+    <col min="8" max="8" width="9.140625" style="52"/>
     <col min="9" max="9" width="9.140625" style="1"/>
-    <col min="10" max="10" width="9.140625" style="67"/>
+    <col min="10" max="10" width="9.140625" style="52"/>
     <col min="11" max="11" width="9.140625" style="1"/>
-    <col min="12" max="12" width="9.140625" style="67"/>
+    <col min="12" max="12" width="9.140625" style="52"/>
     <col min="13" max="22" width="9.140625" style="1"/>
-    <col min="23" max="23" width="9.140625" style="79"/>
+    <col min="23" max="23" width="9.140625" style="64"/>
     <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:31" s="30" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="J1" s="64"/>
-      <c r="L1" s="64"/>
-      <c r="O1" s="30" t="s">
+    <row r="1" spans="2:31" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C1" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="D1" s="49" t="s">
+        <v>140</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="F1" s="49" t="s">
+        <v>141</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="H1" s="49" t="s">
+        <v>142</v>
+      </c>
+      <c r="I1" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="J1" s="49" t="s">
+        <v>143</v>
+      </c>
+      <c r="K1" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="L1" s="49" t="s">
+        <v>144</v>
+      </c>
+      <c r="O1" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="P1" s="31" t="s">
+      <c r="P1" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="Q1" s="30" t="s">
+      <c r="Q1" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="R1" s="31" t="s">
+      <c r="R1" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="S1" s="30" t="s">
+      <c r="S1" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="T1" s="31" t="s">
+      <c r="T1" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="U1" s="30" t="s">
+      <c r="U1" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="V1" s="31" t="s">
+      <c r="V1" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="W1" s="77" t="s">
+      <c r="W1" s="62" t="s">
         <v>117</v>
       </c>
-      <c r="X1" s="30" t="s">
+      <c r="X1" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="Y1" s="30" t="s">
+      <c r="Y1" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="Z1" s="30" t="s">
+      <c r="Z1" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="AA1" s="30" t="s">
+      <c r="AA1" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="AB1" s="30" t="s">
+      <c r="AB1" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="AC1" s="30" t="s">
+      <c r="AC1" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="AD1" s="30" t="s">
+      <c r="AD1" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="AE1" s="30" t="s">
+      <c r="AE1" s="20" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="2" spans="2:31" s="35" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="34"/>
-      <c r="D2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="J2" s="65"/>
-      <c r="L2" s="65"/>
-      <c r="O2" s="36">
+    <row r="2" spans="2:31" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="24"/>
+      <c r="D2" s="77">
+        <f>R2</f>
+        <v>43554</v>
+      </c>
+      <c r="F2" s="77">
+        <f>S2</f>
+        <v>43918</v>
+      </c>
+      <c r="H2" s="77">
+        <f>T2</f>
+        <v>44282</v>
+      </c>
+      <c r="J2" s="77">
+        <f>U2</f>
+        <v>44646</v>
+      </c>
+      <c r="L2" s="77">
+        <f>V2</f>
+        <v>45010</v>
+      </c>
+      <c r="O2" s="26">
         <v>42455</v>
       </c>
-      <c r="P2" s="36">
+      <c r="P2" s="26">
         <v>42819</v>
       </c>
-      <c r="Q2" s="36">
+      <c r="Q2" s="26">
         <v>43190</v>
       </c>
-      <c r="R2" s="36">
+      <c r="R2" s="26">
         <v>43554</v>
       </c>
-      <c r="S2" s="36">
+      <c r="S2" s="26">
         <v>43918</v>
       </c>
-      <c r="T2" s="36">
+      <c r="T2" s="26">
         <v>44282</v>
       </c>
-      <c r="U2" s="36">
+      <c r="U2" s="26">
         <v>44646</v>
       </c>
-      <c r="V2" s="36">
+      <c r="V2" s="26">
         <v>45010</v>
       </c>
-      <c r="W2" s="89" t="s">
+      <c r="W2" s="74" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="3" spans="2:31" s="35" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="34"/>
-      <c r="D3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="J3" s="65"/>
-      <c r="L3" s="65"/>
-      <c r="P3" s="44">
+    <row r="3" spans="2:31" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="24"/>
+      <c r="D3" s="78">
+        <f>R3</f>
+        <v>45069</v>
+      </c>
+      <c r="F3" s="50">
+        <f>S3</f>
+        <v>0</v>
+      </c>
+      <c r="H3" s="78">
+        <f>T3</f>
+        <v>45080</v>
+      </c>
+      <c r="J3" s="78">
+        <f>U3</f>
+        <v>45077</v>
+      </c>
+      <c r="L3" s="78">
+        <f>V3</f>
+        <v>45096</v>
+      </c>
+      <c r="P3" s="32">
         <v>45071</v>
       </c>
-      <c r="R3" s="44">
+      <c r="R3" s="32">
         <v>45069</v>
       </c>
-      <c r="T3" s="44">
+      <c r="T3" s="32">
         <v>45080</v>
       </c>
-      <c r="U3" s="44">
+      <c r="U3" s="32">
         <v>45077</v>
       </c>
-      <c r="V3" s="44">
+      <c r="V3" s="32">
         <v>45096</v>
       </c>
-      <c r="W3" s="78"/>
+      <c r="W3" s="63"/>
     </row>
     <row r="4" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="27"/>
-      <c r="D4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="J4" s="66"/>
-      <c r="L4" s="66"/>
-      <c r="O4" s="32">
+      <c r="C4" s="19"/>
+      <c r="D4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="J4" s="51"/>
+      <c r="L4" s="51"/>
+      <c r="O4" s="22">
         <v>2035.2850000000001</v>
       </c>
-      <c r="P4" s="32">
+      <c r="P4" s="22">
         <v>2430.66</v>
       </c>
-      <c r="Q4" s="32">
+      <c r="Q4" s="22">
         <v>3029.8020000000001</v>
       </c>
-      <c r="R4" s="32">
+      <c r="R4" s="22">
         <v>3486.2950000000001</v>
       </c>
-      <c r="S4" s="32">
+      <c r="S4" s="22">
         <v>3813.3870000000002</v>
       </c>
-      <c r="T4" s="32">
+      <c r="T4" s="22">
         <v>4801.4250000000002</v>
       </c>
-      <c r="U4" s="32">
+      <c r="U4" s="22">
         <v>4673</v>
       </c>
-      <c r="V4" s="32">
+      <c r="V4" s="22">
         <v>4983</v>
       </c>
-      <c r="W4" s="84">
+      <c r="W4" s="69">
         <f>V4*(1+W24)</f>
         <v>5381.64</v>
       </c>
@@ -2414,31 +2507,31 @@
       <c r="B5" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="O5" s="33">
+      <c r="O5" s="23">
         <v>1332.2629999999999</v>
       </c>
-      <c r="P5" s="33">
+      <c r="P5" s="23">
         <v>1586.3240000000001</v>
       </c>
-      <c r="Q5" s="33">
+      <c r="Q5" s="23">
         <v>2000.9269999999999</v>
       </c>
-      <c r="R5" s="33">
+      <c r="R5" s="23">
         <v>2296.681</v>
       </c>
-      <c r="S5" s="33">
+      <c r="S5" s="23">
         <v>2530.5790000000002</v>
       </c>
-      <c r="T5" s="33">
+      <c r="T5" s="23">
         <v>3031.4549999999999</v>
       </c>
-      <c r="U5" s="33">
+      <c r="U5" s="23">
         <v>2921</v>
       </c>
-      <c r="V5" s="33">
+      <c r="V5" s="23">
         <v>3182</v>
       </c>
-      <c r="W5" s="54">
+      <c r="W5" s="39">
         <f>W4*(1-W27)</f>
         <v>3444.2496000000001</v>
       </c>
@@ -2447,44 +2540,44 @@
       <c r="B6" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="66"/>
-      <c r="F6" s="66"/>
-      <c r="H6" s="66"/>
-      <c r="J6" s="66"/>
-      <c r="L6" s="66"/>
-      <c r="O6" s="32">
+      <c r="D6" s="51"/>
+      <c r="F6" s="51"/>
+      <c r="H6" s="51"/>
+      <c r="J6" s="51"/>
+      <c r="L6" s="51"/>
+      <c r="O6" s="22">
         <f t="shared" ref="O6" si="0">O4-O5</f>
         <v>703.02200000000016</v>
       </c>
-      <c r="P6" s="32">
+      <c r="P6" s="22">
         <f t="shared" ref="P6" si="1">P4-P5</f>
         <v>844.33599999999979</v>
       </c>
-      <c r="Q6" s="32">
+      <c r="Q6" s="22">
         <f t="shared" ref="Q6" si="2">Q4-Q5</f>
         <v>1028.8750000000002</v>
       </c>
-      <c r="R6" s="32">
+      <c r="R6" s="22">
         <f t="shared" ref="R6" si="3">R4-R5</f>
         <v>1189.614</v>
       </c>
-      <c r="S6" s="32">
+      <c r="S6" s="22">
         <f t="shared" ref="S6" si="4">S4-S5</f>
         <v>1282.808</v>
       </c>
-      <c r="T6" s="32">
+      <c r="T6" s="22">
         <f t="shared" ref="T6" si="5">T4-T5</f>
         <v>1769.9700000000003</v>
       </c>
-      <c r="U6" s="32">
+      <c r="U6" s="22">
         <f>U4-U5</f>
         <v>1752</v>
       </c>
-      <c r="V6" s="32">
+      <c r="V6" s="22">
         <f>V4-V5</f>
         <v>1801</v>
       </c>
-      <c r="W6" s="84">
+      <c r="W6" s="69">
         <f>W4-W5</f>
         <v>1937.3904000000002</v>
       </c>
@@ -2493,559 +2586,559 @@
       <c r="B7" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="O7" s="33">
+      <c r="O7" s="23">
         <v>528.53</v>
       </c>
-      <c r="P7" s="33">
+      <c r="P7" s="23">
         <v>639.83299999999997</v>
       </c>
-      <c r="Q7" s="33">
+      <c r="Q7" s="23">
         <v>789.072</v>
       </c>
-      <c r="R7" s="33">
+      <c r="R7" s="23">
         <v>925.05799999999999</v>
       </c>
-      <c r="S7" s="33">
+      <c r="S7" s="23">
         <f>966.928-16.932</f>
         <v>949.99599999999998</v>
       </c>
-      <c r="T7" s="33">
+      <c r="T7" s="23">
         <v>1156.556</v>
       </c>
-      <c r="U7" s="33">
+      <c r="U7" s="23">
         <v>1142</v>
       </c>
-      <c r="V7" s="33">
+      <c r="V7" s="23">
         <v>1265</v>
       </c>
-      <c r="W7" s="54"/>
+      <c r="W7" s="39"/>
     </row>
     <row r="8" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D8" s="66"/>
-      <c r="F8" s="66"/>
-      <c r="H8" s="66"/>
-      <c r="J8" s="66"/>
-      <c r="L8" s="66"/>
-      <c r="O8" s="32">
+      <c r="D8" s="51"/>
+      <c r="F8" s="51"/>
+      <c r="H8" s="51"/>
+      <c r="J8" s="51"/>
+      <c r="L8" s="51"/>
+      <c r="O8" s="22">
         <f t="shared" ref="O8:T8" si="6">O6-O7</f>
         <v>174.49200000000019</v>
       </c>
-      <c r="P8" s="32">
+      <c r="P8" s="22">
         <f t="shared" si="6"/>
         <v>204.50299999999982</v>
       </c>
-      <c r="Q8" s="32">
+      <c r="Q8" s="22">
         <f t="shared" si="6"/>
         <v>239.80300000000022</v>
       </c>
-      <c r="R8" s="32">
+      <c r="R8" s="22">
         <f t="shared" si="6"/>
         <v>264.55600000000004</v>
       </c>
-      <c r="S8" s="32">
+      <c r="S8" s="22">
         <f t="shared" si="6"/>
         <v>332.81200000000001</v>
       </c>
-      <c r="T8" s="32">
+      <c r="T8" s="22">
         <f t="shared" si="6"/>
         <v>613.41400000000021</v>
       </c>
-      <c r="U8" s="32">
+      <c r="U8" s="22">
         <f>U6-U7</f>
         <v>610</v>
       </c>
-      <c r="V8" s="32">
+      <c r="V8" s="22">
         <f>V6-V7</f>
         <v>536</v>
       </c>
-      <c r="W8" s="84"/>
+      <c r="W8" s="69"/>
     </row>
     <row r="9" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="O9" s="33">
+      <c r="O9" s="23">
         <v>1.1659999999999999</v>
       </c>
-      <c r="P9" s="33">
+      <c r="P9" s="23">
         <v>1.0049999999999999</v>
       </c>
-      <c r="Q9" s="33">
+      <c r="Q9" s="23">
         <v>1.7110000000000001</v>
       </c>
-      <c r="R9" s="33">
+      <c r="R9" s="23">
         <v>0.77500000000000002</v>
       </c>
-      <c r="S9" s="33">
+      <c r="S9" s="23">
         <v>0.879</v>
       </c>
-      <c r="T9" s="33">
+      <c r="T9" s="23">
         <v>1.7949999999999999</v>
       </c>
-      <c r="U9" s="33">
+      <c r="U9" s="23">
         <v>3</v>
       </c>
-      <c r="V9" s="33">
+      <c r="V9" s="23">
         <v>-1</v>
       </c>
-      <c r="W9" s="54"/>
+      <c r="W9" s="39"/>
     </row>
     <row r="10" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="O10" s="33">
+      <c r="O10" s="23">
         <f t="shared" ref="O10:T10" si="7">O8+O9</f>
         <v>175.65800000000019</v>
       </c>
-      <c r="P10" s="33">
+      <c r="P10" s="23">
         <f t="shared" si="7"/>
         <v>205.50799999999981</v>
       </c>
-      <c r="Q10" s="33">
+      <c r="Q10" s="23">
         <f t="shared" si="7"/>
         <v>241.51400000000024</v>
       </c>
-      <c r="R10" s="33">
+      <c r="R10" s="23">
         <f t="shared" si="7"/>
         <v>265.33100000000002</v>
       </c>
-      <c r="S10" s="33">
+      <c r="S10" s="23">
         <f t="shared" si="7"/>
         <v>333.69100000000003</v>
       </c>
-      <c r="T10" s="33">
+      <c r="T10" s="23">
         <f t="shared" si="7"/>
         <v>615.20900000000017</v>
       </c>
-      <c r="U10" s="33">
+      <c r="U10" s="23">
         <f>U8+U9</f>
         <v>613</v>
       </c>
-      <c r="V10" s="33">
+      <c r="V10" s="23">
         <f>V8+V9</f>
         <v>535</v>
       </c>
-      <c r="W10" s="54"/>
+      <c r="W10" s="39"/>
     </row>
     <row r="11" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="O11" s="33">
+      <c r="O11" s="23">
         <v>21.573</v>
       </c>
-      <c r="P11" s="33">
+      <c r="P11" s="23">
         <v>24.11</v>
       </c>
-      <c r="Q11" s="33">
+      <c r="Q11" s="23">
         <v>23.948</v>
       </c>
-      <c r="R11" s="33">
+      <c r="R11" s="23">
         <v>25.951000000000001</v>
       </c>
-      <c r="S11" s="33">
+      <c r="S11" s="23">
         <v>57.206000000000003</v>
       </c>
-      <c r="T11" s="33">
+      <c r="T11" s="23">
         <v>61.411000000000001</v>
       </c>
-      <c r="U11" s="33">
+      <c r="U11" s="23">
         <v>59</v>
       </c>
-      <c r="V11" s="33">
+      <c r="V11" s="23">
         <v>61</v>
       </c>
-      <c r="W11" s="54"/>
+      <c r="W11" s="39"/>
     </row>
     <row r="12" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="O12" s="33">
+      <c r="O12" s="23">
         <v>0.46</v>
       </c>
-      <c r="P12" s="33">
+      <c r="P12" s="23">
         <v>1.52</v>
       </c>
-      <c r="Q12" s="33">
+      <c r="Q12" s="23">
         <v>0.182</v>
       </c>
-      <c r="R12" s="33">
+      <c r="R12" s="23">
         <v>0.36899999999999999</v>
       </c>
-      <c r="S12" s="33">
+      <c r="S12" s="23">
         <v>24.809000000000001</v>
       </c>
-      <c r="T12" s="33">
+      <c r="T12" s="23">
         <v>28.654</v>
       </c>
-      <c r="U12" s="33">
+      <c r="U12" s="23">
         <v>29</v>
       </c>
-      <c r="V12" s="33">
+      <c r="V12" s="23">
         <v>40</v>
       </c>
-      <c r="W12" s="54"/>
+      <c r="W12" s="39"/>
     </row>
     <row r="13" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="O13" s="33">
+      <c r="O13" s="23">
         <v>0</v>
       </c>
-      <c r="P13" s="33">
+      <c r="P13" s="23">
         <v>0</v>
       </c>
-      <c r="Q13" s="33">
+      <c r="Q13" s="23">
         <v>11.568</v>
       </c>
-      <c r="R13" s="33">
+      <c r="R13" s="23">
         <v>9.8569999999999993</v>
       </c>
-      <c r="S13" s="33">
+      <c r="S13" s="23">
         <f>0.213+0.134</f>
         <v>0.34699999999999998</v>
       </c>
-      <c r="T13" s="33">
+      <c r="T13" s="23">
         <v>0.29499999999999998</v>
       </c>
-      <c r="U13" s="33">
+      <c r="U13" s="23">
         <v>0</v>
       </c>
-      <c r="V13" s="33">
+      <c r="V13" s="23">
         <v>2</v>
       </c>
-      <c r="W13" s="54"/>
+      <c r="W13" s="39"/>
     </row>
     <row r="14" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="O14" s="33">
+      <c r="O14" s="23">
         <f t="shared" ref="O14:T14" si="8">O10-O11-O12+O13</f>
         <v>153.62500000000017</v>
       </c>
-      <c r="P14" s="33">
+      <c r="P14" s="23">
         <f t="shared" si="8"/>
         <v>179.87799999999979</v>
       </c>
-      <c r="Q14" s="33">
+      <c r="Q14" s="23">
         <f t="shared" si="8"/>
         <v>228.95200000000025</v>
       </c>
-      <c r="R14" s="33">
+      <c r="R14" s="23">
         <f t="shared" si="8"/>
         <v>248.86800000000002</v>
       </c>
-      <c r="S14" s="33">
+      <c r="S14" s="23">
         <f t="shared" si="8"/>
         <v>252.02300000000002</v>
       </c>
-      <c r="T14" s="33">
+      <c r="T14" s="23">
         <f t="shared" si="8"/>
         <v>525.43900000000019</v>
       </c>
-      <c r="U14" s="33">
+      <c r="U14" s="23">
         <f>U10-U11-U12+U13</f>
         <v>525</v>
       </c>
-      <c r="V14" s="33">
+      <c r="V14" s="23">
         <f>V10-V11-V12+V13</f>
         <v>436</v>
       </c>
-      <c r="W14" s="54"/>
+      <c r="W14" s="39"/>
     </row>
     <row r="15" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="O15" s="33">
+      <c r="O15" s="23">
         <v>28.745000000000001</v>
       </c>
-      <c r="P15" s="33">
+      <c r="P15" s="23">
         <v>38.884999999999998</v>
       </c>
-      <c r="Q15" s="33">
+      <c r="Q15" s="23">
         <v>43.511000000000003</v>
       </c>
-      <c r="R15" s="33">
+      <c r="R15" s="23">
         <v>46.716999999999999</v>
       </c>
-      <c r="S15" s="33">
+      <c r="S15" s="23">
         <v>57.246000000000002</v>
       </c>
-      <c r="T15" s="33">
+      <c r="T15" s="23">
         <v>97.334999999999994</v>
       </c>
-      <c r="U15" s="33">
+      <c r="U15" s="23">
         <v>103</v>
       </c>
-      <c r="V15" s="33">
+      <c r="V15" s="23">
         <v>88</v>
       </c>
-      <c r="W15" s="54"/>
+      <c r="W15" s="39"/>
     </row>
     <row r="16" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D16" s="66"/>
-      <c r="F16" s="66"/>
-      <c r="H16" s="66"/>
-      <c r="J16" s="66"/>
-      <c r="L16" s="66"/>
-      <c r="O16" s="32">
+      <c r="D16" s="51"/>
+      <c r="F16" s="51"/>
+      <c r="H16" s="51"/>
+      <c r="J16" s="51"/>
+      <c r="L16" s="51"/>
+      <c r="O16" s="22">
         <f t="shared" ref="O16:T16" si="9">O14-O15</f>
         <v>124.88000000000017</v>
       </c>
-      <c r="P16" s="32">
+      <c r="P16" s="22">
         <f t="shared" si="9"/>
         <v>140.9929999999998</v>
       </c>
-      <c r="Q16" s="32">
+      <c r="Q16" s="22">
         <f t="shared" si="9"/>
         <v>185.44100000000026</v>
       </c>
-      <c r="R16" s="32">
+      <c r="R16" s="22">
         <f t="shared" si="9"/>
         <v>202.15100000000001</v>
       </c>
-      <c r="S16" s="32">
+      <c r="S16" s="22">
         <f t="shared" si="9"/>
         <v>194.77700000000002</v>
       </c>
-      <c r="T16" s="32">
+      <c r="T16" s="22">
         <f t="shared" si="9"/>
         <v>428.10400000000021</v>
       </c>
-      <c r="U16" s="32">
+      <c r="U16" s="22">
         <f>U14-U15</f>
         <v>422</v>
       </c>
-      <c r="V16" s="32">
+      <c r="V16" s="22">
         <f>V14-V15</f>
         <v>348</v>
       </c>
-      <c r="W16" s="84"/>
+      <c r="W16" s="69"/>
     </row>
     <row r="17" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="O17" s="33">
+      <c r="O17" s="23">
         <v>5.5</v>
       </c>
-      <c r="P17" s="33">
+      <c r="P17" s="23">
         <v>7.4790000000000001</v>
       </c>
-      <c r="Q17" s="33">
+      <c r="Q17" s="23">
         <v>-15.659000000000001</v>
       </c>
-      <c r="R17" s="33">
+      <c r="R17" s="23">
         <v>-2.2850000000000001</v>
       </c>
-      <c r="S17" s="33">
+      <c r="S17" s="23">
         <v>1.661</v>
       </c>
-      <c r="T17" s="33">
+      <c r="T17" s="23">
         <v>-1.222</v>
       </c>
-      <c r="U17" s="33">
+      <c r="U17" s="23">
         <v>-2</v>
       </c>
-      <c r="V17" s="33">
+      <c r="V17" s="23">
         <v>5</v>
       </c>
-      <c r="W17" s="54"/>
+      <c r="W17" s="39"/>
     </row>
     <row r="18" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="O18" s="33">
+      <c r="O18" s="23">
         <v>0</v>
       </c>
-      <c r="P18" s="33">
+      <c r="P18" s="23">
         <v>-1.667</v>
       </c>
-      <c r="Q18" s="33">
+      <c r="Q18" s="23">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="R18" s="33">
+      <c r="R18" s="23">
         <v>19.995999999999999</v>
       </c>
-      <c r="S18" s="33">
+      <c r="S18" s="23">
         <v>8.6790000000000003</v>
       </c>
-      <c r="T18" s="33">
+      <c r="T18" s="23">
         <v>-20.939</v>
       </c>
-      <c r="U18" s="33">
+      <c r="U18" s="23">
         <v>20</v>
       </c>
-      <c r="V18" s="33">
+      <c r="V18" s="23">
         <v>28</v>
       </c>
-      <c r="W18" s="54"/>
+      <c r="W18" s="39"/>
     </row>
     <row r="19" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="O19" s="33">
+      <c r="O19" s="23">
         <f>0.005+0.013</f>
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="P19" s="33">
+      <c r="P19" s="23">
         <f>0.016+0.324</f>
         <v>0.34</v>
       </c>
-      <c r="Q19" s="33">
+      <c r="Q19" s="23">
         <v>2.4700000000000002</v>
       </c>
-      <c r="R19" s="33">
+      <c r="R19" s="23">
         <f>0.005-3.481</f>
         <v>-3.476</v>
       </c>
-      <c r="S19" s="33">
+      <c r="S19" s="23">
         <v>-1.383</v>
       </c>
-      <c r="T19" s="33">
+      <c r="T19" s="23">
         <v>4.5090000000000003</v>
       </c>
-      <c r="U19" s="33">
+      <c r="U19" s="23">
         <v>-4</v>
       </c>
-      <c r="V19" s="33">
+      <c r="V19" s="23">
         <v>5</v>
       </c>
-      <c r="W19" s="54"/>
+      <c r="W19" s="39"/>
     </row>
     <row r="20" spans="2:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D20" s="66"/>
-      <c r="F20" s="66"/>
-      <c r="H20" s="66"/>
-      <c r="J20" s="66"/>
-      <c r="L20" s="66"/>
-      <c r="O20" s="32">
+      <c r="D20" s="51"/>
+      <c r="F20" s="51"/>
+      <c r="H20" s="51"/>
+      <c r="J20" s="51"/>
+      <c r="L20" s="51"/>
+      <c r="O20" s="22">
         <f t="shared" ref="O20:T20" si="10">O16+SUM(O17:O19)</f>
         <v>130.39800000000017</v>
       </c>
-      <c r="P20" s="32">
+      <c r="P20" s="22">
         <f t="shared" si="10"/>
         <v>147.14499999999978</v>
       </c>
-      <c r="Q20" s="32">
+      <c r="Q20" s="22">
         <f t="shared" si="10"/>
         <v>172.27300000000025</v>
       </c>
-      <c r="R20" s="32">
+      <c r="R20" s="22">
         <f t="shared" si="10"/>
         <v>216.38600000000002</v>
       </c>
-      <c r="S20" s="32">
+      <c r="S20" s="22">
         <f t="shared" si="10"/>
         <v>203.73400000000001</v>
       </c>
-      <c r="T20" s="32">
+      <c r="T20" s="22">
         <f t="shared" si="10"/>
         <v>410.45200000000023</v>
       </c>
-      <c r="U20" s="32">
+      <c r="U20" s="22">
         <f>U16+SUM(U17:U19)</f>
         <v>436</v>
       </c>
-      <c r="V20" s="32">
+      <c r="V20" s="22">
         <f>V16+SUM(V17:V19)</f>
         <v>386</v>
       </c>
-      <c r="W20" s="84"/>
-    </row>
-    <row r="21" spans="2:23" s="40" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="40" t="s">
+      <c r="W20" s="69"/>
+    </row>
+    <row r="21" spans="2:23" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="D21" s="68"/>
-      <c r="F21" s="68"/>
-      <c r="H21" s="68"/>
-      <c r="J21" s="68"/>
-      <c r="L21" s="68"/>
-      <c r="O21" s="40">
+      <c r="D21" s="53"/>
+      <c r="F21" s="53"/>
+      <c r="H21" s="53"/>
+      <c r="J21" s="53"/>
+      <c r="L21" s="53"/>
+      <c r="O21" s="30">
         <f t="shared" ref="O21" si="11">O20/O22</f>
         <v>0.13033609035708055</v>
       </c>
-      <c r="P21" s="40">
+      <c r="P21" s="30">
         <f t="shared" ref="P21" si="12">P20/P22</f>
         <v>0.14712322576258691</v>
       </c>
-      <c r="Q21" s="40">
+      <c r="Q21" s="30">
         <f t="shared" ref="Q21" si="13">Q20/Q22</f>
         <v>0.1721609232389717</v>
       </c>
-      <c r="R21" s="40">
+      <c r="R21" s="30">
         <f t="shared" ref="R21" si="14">R20/R22</f>
         <v>0.21616680685784617</v>
       </c>
-      <c r="S21" s="40">
+      <c r="S21" s="30">
         <f t="shared" ref="S21:T21" si="15">S20/S22</f>
         <v>0.20361793777546799</v>
       </c>
-      <c r="T21" s="40">
+      <c r="T21" s="30">
         <f t="shared" si="15"/>
         <v>0.4101669339808835</v>
       </c>
-      <c r="U21" s="40">
+      <c r="U21" s="30">
         <f>U20/U22</f>
         <v>0.4355378942941539</v>
       </c>
-      <c r="V21" s="40">
+      <c r="V21" s="30">
         <f t="shared" ref="V21" si="16">V20/V22</f>
         <v>0.3853860799746005</v>
       </c>
-      <c r="W21" s="81"/>
-    </row>
-    <row r="22" spans="2:23" s="41" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="41" t="s">
+      <c r="W21" s="66"/>
+    </row>
+    <row r="22" spans="2:23" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D22" s="69"/>
-      <c r="F22" s="69"/>
-      <c r="H22" s="69"/>
-      <c r="J22" s="69"/>
-      <c r="L22" s="69"/>
-      <c r="O22" s="41">
+      <c r="D22" s="54"/>
+      <c r="F22" s="54"/>
+      <c r="H22" s="54"/>
+      <c r="J22" s="54"/>
+      <c r="L22" s="54"/>
+      <c r="O22" s="14">
         <v>1000.475</v>
       </c>
-      <c r="P22" s="41">
+      <c r="P22" s="14">
         <v>1000.148</v>
       </c>
-      <c r="Q22" s="41">
+      <c r="Q22" s="14">
         <v>1000.651</v>
       </c>
-      <c r="R22" s="41">
+      <c r="R22" s="14">
         <v>1001.014</v>
       </c>
-      <c r="S22" s="41">
+      <c r="S22" s="14">
         <v>1000.57</v>
       </c>
-      <c r="T22" s="41">
+      <c r="T22" s="14">
         <v>1000.6950000000001</v>
       </c>
-      <c r="U22" s="41">
+      <c r="U22" s="14">
         <v>1001.061</v>
       </c>
-      <c r="V22" s="41">
+      <c r="V22" s="14">
         <v>1001.593</v>
       </c>
-      <c r="W22" s="82">
+      <c r="W22" s="67">
         <f>V22</f>
         <v>1001.593</v>
       </c>
@@ -3054,43 +3147,43 @@
       <c r="B24" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D24" s="66"/>
-      <c r="F24" s="66"/>
-      <c r="H24" s="66"/>
-      <c r="J24" s="66"/>
-      <c r="L24" s="66"/>
-      <c r="O24" s="26" t="s">
+      <c r="D24" s="51"/>
+      <c r="F24" s="51"/>
+      <c r="H24" s="51"/>
+      <c r="J24" s="51"/>
+      <c r="L24" s="51"/>
+      <c r="O24" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="P24" s="38">
-        <f t="shared" ref="P24:T24" si="17">P4/O4-1</f>
+      <c r="P24" s="28">
+        <f t="shared" ref="P24:S24" si="17">P4/O4-1</f>
         <v>0.19426026330464774</v>
       </c>
-      <c r="Q24" s="38">
+      <c r="Q24" s="28">
         <f t="shared" si="17"/>
         <v>0.2464935449630965</v>
       </c>
-      <c r="R24" s="38">
+      <c r="R24" s="28">
         <f t="shared" si="17"/>
         <v>0.15066760138121227</v>
       </c>
-      <c r="S24" s="38">
+      <c r="S24" s="28">
         <f t="shared" si="17"/>
         <v>9.3822238221378251E-2</v>
       </c>
-      <c r="T24" s="38">
+      <c r="T24" s="28">
         <f>T4/S4-1</f>
         <v>0.25909722774006405</v>
       </c>
-      <c r="U24" s="38">
+      <c r="U24" s="28">
         <f>U4/T4-1</f>
         <v>-2.6747267738223557E-2</v>
       </c>
-      <c r="V24" s="38">
+      <c r="V24" s="28">
         <f>V4/U4-1</f>
         <v>6.633854055210775E-2</v>
       </c>
-      <c r="W24" s="83">
+      <c r="W24" s="68">
         <v>0.08</v>
       </c>
     </row>
@@ -3098,74 +3191,74 @@
       <c r="B25" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D25" s="66"/>
-      <c r="F25" s="66"/>
-      <c r="H25" s="66"/>
-      <c r="J25" s="66"/>
-      <c r="L25" s="66"/>
-      <c r="O25" s="26" t="s">
+      <c r="D25" s="51"/>
+      <c r="F25" s="51"/>
+      <c r="H25" s="51"/>
+      <c r="J25" s="51"/>
+      <c r="L25" s="51"/>
+      <c r="O25" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="P25" s="26" t="s">
+      <c r="P25" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="Q25" s="26" t="s">
+      <c r="Q25" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="R25" s="26" t="s">
+      <c r="R25" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="S25" s="26" t="s">
+      <c r="S25" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="T25" s="26" t="s">
+      <c r="T25" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="U25" s="26" t="s">
+      <c r="U25" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="V25" s="26" t="s">
+      <c r="V25" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="W25" s="80"/>
+      <c r="W25" s="65"/>
     </row>
     <row r="27" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="O27" s="37">
-        <f t="shared" ref="O27:P27" si="18">O6/O4</f>
+      <c r="O27" s="27">
+        <f t="shared" ref="O27" si="18">O6/O4</f>
         <v>0.34541698091422091</v>
       </c>
-      <c r="P27" s="37">
-        <f t="shared" ref="P27:Q27" si="19">P6/P4</f>
+      <c r="P27" s="27">
+        <f t="shared" ref="P27" si="19">P6/P4</f>
         <v>0.34736902734236785</v>
       </c>
-      <c r="Q27" s="37">
-        <f t="shared" ref="Q27:S27" si="20">Q6/Q4</f>
+      <c r="Q27" s="27">
+        <f t="shared" ref="Q27:R27" si="20">Q6/Q4</f>
         <v>0.33958489696686456</v>
       </c>
-      <c r="R27" s="37">
+      <c r="R27" s="27">
         <f t="shared" si="20"/>
         <v>0.34122585724960164</v>
       </c>
-      <c r="S27" s="37">
-        <f t="shared" ref="S27:T27" si="21">S6/S4</f>
+      <c r="S27" s="27">
+        <f t="shared" ref="S27" si="21">S6/S4</f>
         <v>0.33639596505678548</v>
       </c>
-      <c r="T27" s="37">
-        <f t="shared" ref="T27:U27" si="22">T6/T4</f>
+      <c r="T27" s="27">
+        <f t="shared" ref="T27" si="22">T6/T4</f>
         <v>0.36863431168871746</v>
       </c>
-      <c r="U27" s="37">
-        <f t="shared" ref="U27:V27" si="23">U6/U4</f>
+      <c r="U27" s="27">
+        <f t="shared" ref="U27" si="23">U6/U4</f>
         <v>0.37491975176546116</v>
       </c>
-      <c r="V27" s="37">
+      <c r="V27" s="27">
         <f>V6/V4</f>
         <v>0.36142885811759984</v>
       </c>
-      <c r="W27" s="90">
+      <c r="W27" s="75">
         <v>0.36</v>
       </c>
     </row>
@@ -3173,73 +3266,73 @@
       <c r="B28" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="O28" s="37">
-        <f t="shared" ref="O28:P28" si="24">O8/O4</f>
+      <c r="O28" s="27">
+        <f t="shared" ref="O28" si="24">O8/O4</f>
         <v>8.5733447649837827E-2</v>
       </c>
-      <c r="P28" s="37">
-        <f t="shared" ref="P28:Q28" si="25">P8/P4</f>
+      <c r="P28" s="27">
+        <f t="shared" ref="P28" si="25">P8/P4</f>
         <v>8.4134761751952072E-2</v>
       </c>
-      <c r="Q28" s="37">
-        <f t="shared" ref="Q28:S28" si="26">Q8/Q4</f>
+      <c r="Q28" s="27">
+        <f t="shared" ref="Q28:R28" si="26">Q8/Q4</f>
         <v>7.9148076342942617E-2</v>
       </c>
-      <c r="R28" s="37">
+      <c r="R28" s="27">
         <f t="shared" si="26"/>
         <v>7.5884570869648157E-2</v>
       </c>
-      <c r="S28" s="37">
-        <f t="shared" ref="S28:T28" si="27">S8/S4</f>
+      <c r="S28" s="27">
+        <f t="shared" ref="S28" si="27">S8/S4</f>
         <v>8.7274645872553722E-2</v>
       </c>
-      <c r="T28" s="37">
-        <f t="shared" ref="T28:U28" si="28">T8/T4</f>
+      <c r="T28" s="27">
+        <f t="shared" ref="T28" si="28">T8/T4</f>
         <v>0.12775665557620919</v>
       </c>
-      <c r="U28" s="37">
-        <f t="shared" ref="U28:V28" si="29">U8/U4</f>
+      <c r="U28" s="27">
+        <f t="shared" ref="U28" si="29">U8/U4</f>
         <v>0.13053712818317997</v>
       </c>
-      <c r="V28" s="37">
+      <c r="V28" s="27">
         <f>V8/V4</f>
         <v>0.1075657234597632</v>
       </c>
-      <c r="W28" s="90"/>
+      <c r="W28" s="75"/>
     </row>
     <row r="29" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="O29" s="37">
-        <f t="shared" ref="O29:P29" si="30">O16/O4</f>
+      <c r="O29" s="27">
+        <f t="shared" ref="O29" si="30">O16/O4</f>
         <v>6.1357500300940733E-2</v>
       </c>
-      <c r="P29" s="37">
-        <f t="shared" ref="P29:Q29" si="31">P16/P4</f>
+      <c r="P29" s="27">
+        <f t="shared" ref="P29" si="31">P16/P4</f>
         <v>5.8006055968337737E-2</v>
       </c>
-      <c r="Q29" s="37">
-        <f t="shared" ref="Q29:S29" si="32">Q16/Q4</f>
+      <c r="Q29" s="27">
+        <f t="shared" ref="Q29:R29" si="32">Q16/Q4</f>
         <v>6.1205649742128443E-2</v>
       </c>
-      <c r="R29" s="37">
+      <c r="R29" s="27">
         <f t="shared" si="32"/>
         <v>5.7984479225079918E-2</v>
       </c>
-      <c r="S29" s="37">
-        <f t="shared" ref="S29:T29" si="33">S16/S4</f>
+      <c r="S29" s="27">
+        <f t="shared" ref="S29" si="33">S16/S4</f>
         <v>5.1077165784642366E-2</v>
       </c>
-      <c r="T29" s="37">
-        <f t="shared" ref="T29:U29" si="34">T16/T4</f>
+      <c r="T29" s="27">
+        <f t="shared" ref="T29" si="34">T16/T4</f>
         <v>8.9161863405134975E-2</v>
       </c>
-      <c r="U29" s="37">
-        <f t="shared" ref="U29:V29" si="35">U16/U4</f>
+      <c r="U29" s="27">
+        <f t="shared" ref="U29" si="35">U16/U4</f>
         <v>9.030601326770811E-2</v>
       </c>
-      <c r="V29" s="37">
+      <c r="V29" s="27">
         <f>V16/V4</f>
         <v>6.9837447320891033E-2</v>
       </c>
@@ -3248,2201 +3341,2341 @@
       <c r="B30" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="O30" s="37">
-        <f t="shared" ref="O30:P30" si="36">O15/O14</f>
+      <c r="O30" s="27">
+        <f t="shared" ref="O30" si="36">O15/O14</f>
         <v>0.18711147274206652</v>
       </c>
-      <c r="P30" s="37">
-        <f t="shared" ref="P30:Q30" si="37">P15/P14</f>
+      <c r="P30" s="27">
+        <f t="shared" ref="P30" si="37">P15/P14</f>
         <v>0.21617429591167373</v>
       </c>
-      <c r="Q30" s="37">
-        <f t="shared" ref="Q30:S30" si="38">Q15/Q14</f>
+      <c r="Q30" s="27">
+        <f t="shared" ref="Q30:R30" si="38">Q15/Q14</f>
         <v>0.19004420140466105</v>
       </c>
-      <c r="R30" s="37">
+      <c r="R30" s="27">
         <f t="shared" si="38"/>
         <v>0.18771798704534129</v>
       </c>
-      <c r="S30" s="37">
-        <f t="shared" ref="S30:T30" si="39">S15/S14</f>
+      <c r="S30" s="27">
+        <f t="shared" ref="S30" si="39">S15/S14</f>
         <v>0.22714593509322561</v>
       </c>
-      <c r="T30" s="37">
-        <f t="shared" ref="T30:U30" si="40">T15/T14</f>
+      <c r="T30" s="27">
+        <f t="shared" ref="T30" si="40">T15/T14</f>
         <v>0.18524509981177636</v>
       </c>
-      <c r="U30" s="37">
-        <f t="shared" ref="U30:V30" si="41">U15/U14</f>
+      <c r="U30" s="27">
+        <f t="shared" ref="U30" si="41">U15/U14</f>
         <v>0.19619047619047619</v>
       </c>
-      <c r="V30" s="37">
+      <c r="V30" s="27">
         <f>V15/V14</f>
         <v>0.20183486238532111</v>
       </c>
     </row>
     <row r="33" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B33" s="39" t="s">
+      <c r="B33" s="29" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="34" spans="2:23" s="32" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="32" t="s">
+    <row r="34" spans="2:23" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="D34" s="70"/>
-      <c r="F34" s="70"/>
-      <c r="H34" s="70"/>
-      <c r="J34" s="70"/>
-      <c r="L34" s="70"/>
-      <c r="O34" s="32">
+      <c r="D34" s="55"/>
+      <c r="F34" s="55"/>
+      <c r="H34" s="55"/>
+      <c r="J34" s="55"/>
+      <c r="L34" s="55"/>
+      <c r="O34" s="22">
         <f t="shared" ref="O34:S34" si="42">+O35+O38+O40</f>
         <v>0</v>
       </c>
-      <c r="P34" s="32">
+      <c r="P34" s="22">
         <f t="shared" si="42"/>
         <v>648</v>
       </c>
-      <c r="Q34" s="32">
+      <c r="Q34" s="22">
         <f t="shared" si="42"/>
         <v>927</v>
       </c>
-      <c r="R34" s="32">
+      <c r="R34" s="22">
         <f t="shared" si="42"/>
         <v>1093</v>
       </c>
-      <c r="S34" s="32">
+      <c r="S34" s="22">
         <f t="shared" si="42"/>
         <v>1050</v>
       </c>
-      <c r="T34" s="32">
+      <c r="T34" s="22">
         <f>+T35+T38+T40</f>
         <v>1091</v>
       </c>
-      <c r="U34" s="32">
+      <c r="U34" s="22">
         <f t="shared" ref="U34:V34" si="43">+U35+U38+U40</f>
         <v>1119</v>
       </c>
-      <c r="V34" s="32">
+      <c r="V34" s="22">
         <f t="shared" si="43"/>
         <v>1140</v>
       </c>
-      <c r="W34" s="84"/>
-    </row>
-    <row r="35" spans="2:23" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="47" t="s">
+      <c r="W34" s="69"/>
+    </row>
+    <row r="35" spans="2:23" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="D35" s="71"/>
-      <c r="F35" s="71"/>
-      <c r="H35" s="71"/>
-      <c r="J35" s="71"/>
-      <c r="L35" s="71"/>
-      <c r="O35" s="33">
+      <c r="D35" s="56"/>
+      <c r="F35" s="56"/>
+      <c r="H35" s="56"/>
+      <c r="J35" s="56"/>
+      <c r="L35" s="56"/>
+      <c r="O35" s="23">
         <f t="shared" ref="O35:U35" si="44">SUM(O36:O37)</f>
         <v>0</v>
       </c>
-      <c r="P35" s="33">
+      <c r="P35" s="23">
         <f t="shared" si="44"/>
         <v>573</v>
       </c>
-      <c r="Q35" s="33">
+      <c r="Q35" s="23">
         <f t="shared" si="44"/>
         <v>576</v>
       </c>
-      <c r="R35" s="33">
+      <c r="R35" s="23">
         <f t="shared" si="44"/>
         <v>716</v>
       </c>
-      <c r="S35" s="33">
+      <c r="S35" s="23">
         <f t="shared" si="44"/>
         <v>757</v>
       </c>
-      <c r="T35" s="33">
+      <c r="T35" s="23">
         <f t="shared" si="44"/>
         <v>785</v>
       </c>
-      <c r="U35" s="33">
+      <c r="U35" s="23">
         <f t="shared" si="44"/>
         <v>808</v>
       </c>
-      <c r="V35" s="33">
+      <c r="V35" s="23">
         <f>SUM(V36:V37)</f>
         <v>821</v>
       </c>
-      <c r="W35" s="54"/>
-    </row>
-    <row r="36" spans="2:23" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="48" t="s">
+      <c r="W35" s="39"/>
+    </row>
+    <row r="36" spans="2:23" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="D36" s="71"/>
-      <c r="F36" s="71"/>
-      <c r="H36" s="71"/>
-      <c r="J36" s="71"/>
-      <c r="L36" s="71"/>
-      <c r="P36" s="33">
+      <c r="D36" s="56"/>
+      <c r="F36" s="56"/>
+      <c r="H36" s="56"/>
+      <c r="J36" s="56"/>
+      <c r="L36" s="56"/>
+      <c r="P36" s="23">
         <v>573</v>
       </c>
-      <c r="Q36" s="33">
+      <c r="Q36" s="23">
         <v>576</v>
       </c>
-      <c r="R36" s="33">
+      <c r="R36" s="23">
         <v>620</v>
       </c>
-      <c r="S36" s="33">
+      <c r="S36" s="23">
         <v>656</v>
       </c>
-      <c r="T36" s="33">
+      <c r="T36" s="23">
         <v>681</v>
       </c>
-      <c r="U36" s="33">
+      <c r="U36" s="23">
         <v>701</v>
       </c>
-      <c r="V36" s="33">
+      <c r="V36" s="23">
         <v>707</v>
       </c>
-      <c r="W36" s="54"/>
-    </row>
-    <row r="37" spans="2:23" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="48" t="s">
+      <c r="W36" s="39"/>
+    </row>
+    <row r="37" spans="2:23" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="D37" s="71"/>
-      <c r="F37" s="71"/>
-      <c r="H37" s="71"/>
-      <c r="J37" s="71"/>
-      <c r="L37" s="71"/>
-      <c r="P37" s="33">
+      <c r="D37" s="56"/>
+      <c r="F37" s="56"/>
+      <c r="H37" s="56"/>
+      <c r="J37" s="56"/>
+      <c r="L37" s="56"/>
+      <c r="P37" s="23">
         <v>0</v>
       </c>
-      <c r="Q37" s="33">
+      <c r="Q37" s="23">
         <v>0</v>
       </c>
-      <c r="R37" s="33">
+      <c r="R37" s="23">
         <v>96</v>
       </c>
-      <c r="S37" s="33">
+      <c r="S37" s="23">
         <v>101</v>
       </c>
-      <c r="T37" s="33">
+      <c r="T37" s="23">
         <v>104</v>
       </c>
-      <c r="U37" s="33">
+      <c r="U37" s="23">
         <v>107</v>
       </c>
-      <c r="V37" s="33">
+      <c r="V37" s="23">
         <v>114</v>
       </c>
-      <c r="W37" s="54"/>
-    </row>
-    <row r="38" spans="2:23" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="47" t="s">
+      <c r="W37" s="39"/>
+    </row>
+    <row r="38" spans="2:23" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="D38" s="71"/>
-      <c r="F38" s="71"/>
-      <c r="H38" s="71"/>
-      <c r="J38" s="71"/>
-      <c r="L38" s="71"/>
-      <c r="O38" s="33">
+      <c r="D38" s="56"/>
+      <c r="F38" s="56"/>
+      <c r="H38" s="56"/>
+      <c r="J38" s="56"/>
+      <c r="L38" s="56"/>
+      <c r="O38" s="23">
         <f t="shared" ref="O38:U38" si="45">+O39</f>
         <v>0</v>
       </c>
-      <c r="P38" s="33">
+      <c r="P38" s="23">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="Q38" s="33">
+      <c r="Q38" s="23">
         <f t="shared" si="45"/>
         <v>265</v>
       </c>
-      <c r="R38" s="33">
+      <c r="R38" s="23">
         <f t="shared" si="45"/>
         <v>281</v>
       </c>
-      <c r="S38" s="33">
+      <c r="S38" s="23">
         <f t="shared" si="45"/>
         <v>293</v>
       </c>
-      <c r="T38" s="33">
+      <c r="T38" s="23">
         <f t="shared" si="45"/>
         <v>306</v>
       </c>
-      <c r="U38" s="33">
+      <c r="U38" s="23">
         <f t="shared" si="45"/>
         <v>311</v>
       </c>
-      <c r="V38" s="33">
+      <c r="V38" s="23">
         <f>+V39</f>
         <v>319</v>
       </c>
-      <c r="W38" s="54"/>
-    </row>
-    <row r="39" spans="2:23" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="48" t="s">
+      <c r="W38" s="39"/>
+    </row>
+    <row r="39" spans="2:23" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="D39" s="71"/>
-      <c r="F39" s="71"/>
-      <c r="H39" s="71"/>
-      <c r="J39" s="71"/>
-      <c r="L39" s="71"/>
-      <c r="P39" s="33">
+      <c r="D39" s="56"/>
+      <c r="F39" s="56"/>
+      <c r="H39" s="56"/>
+      <c r="J39" s="56"/>
+      <c r="L39" s="56"/>
+      <c r="P39" s="23">
         <v>0</v>
       </c>
-      <c r="Q39" s="33">
+      <c r="Q39" s="23">
         <v>265</v>
       </c>
-      <c r="R39" s="33">
+      <c r="R39" s="23">
         <v>281</v>
       </c>
-      <c r="S39" s="33">
+      <c r="S39" s="23">
         <v>293</v>
       </c>
-      <c r="T39" s="33">
+      <c r="T39" s="23">
         <v>306</v>
       </c>
-      <c r="U39" s="33">
+      <c r="U39" s="23">
         <v>311</v>
       </c>
-      <c r="V39" s="33">
+      <c r="V39" s="23">
         <v>319</v>
       </c>
-      <c r="W39" s="54"/>
-    </row>
-    <row r="40" spans="2:23" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="47" t="s">
+      <c r="W39" s="39"/>
+    </row>
+    <row r="40" spans="2:23" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="33" t="s">
         <v>133</v>
       </c>
-      <c r="D40" s="71"/>
-      <c r="F40" s="71"/>
-      <c r="H40" s="71"/>
-      <c r="J40" s="71"/>
-      <c r="L40" s="71"/>
-      <c r="O40" s="33">
+      <c r="D40" s="56"/>
+      <c r="F40" s="56"/>
+      <c r="H40" s="56"/>
+      <c r="J40" s="56"/>
+      <c r="L40" s="56"/>
+      <c r="O40" s="23">
         <f t="shared" ref="O40:R40" si="46">O41</f>
         <v>0</v>
       </c>
-      <c r="P40" s="33">
+      <c r="P40" s="23">
         <f t="shared" si="46"/>
         <v>75</v>
       </c>
-      <c r="Q40" s="33">
+      <c r="Q40" s="23">
         <f t="shared" si="46"/>
         <v>86</v>
       </c>
-      <c r="R40" s="33">
+      <c r="R40" s="23">
         <f t="shared" si="46"/>
         <v>96</v>
       </c>
-      <c r="S40" s="33">
+      <c r="S40" s="23">
         <f>S41</f>
         <v>0</v>
       </c>
-      <c r="T40" s="33">
+      <c r="T40" s="23">
         <f t="shared" ref="T40:V40" si="47">T41</f>
         <v>0</v>
       </c>
-      <c r="U40" s="33">
+      <c r="U40" s="23">
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="V40" s="33">
+      <c r="V40" s="23">
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="W40" s="54"/>
-    </row>
-    <row r="41" spans="2:23" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="48" t="s">
+      <c r="W40" s="39"/>
+    </row>
+    <row r="41" spans="2:23" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="34" t="s">
         <v>134</v>
       </c>
-      <c r="D41" s="71"/>
-      <c r="F41" s="71"/>
-      <c r="H41" s="71"/>
-      <c r="J41" s="71"/>
-      <c r="L41" s="71"/>
-      <c r="P41" s="33">
+      <c r="D41" s="56"/>
+      <c r="F41" s="56"/>
+      <c r="H41" s="56"/>
+      <c r="J41" s="56"/>
+      <c r="L41" s="56"/>
+      <c r="P41" s="23">
         <v>75</v>
       </c>
-      <c r="Q41" s="33">
+      <c r="Q41" s="23">
         <v>86</v>
       </c>
-      <c r="R41" s="33">
+      <c r="R41" s="23">
         <v>96</v>
       </c>
-      <c r="S41" s="33">
+      <c r="S41" s="23">
         <v>0</v>
       </c>
-      <c r="T41" s="33">
+      <c r="T41" s="23">
         <v>0</v>
       </c>
-      <c r="U41" s="33">
+      <c r="U41" s="23">
         <v>0</v>
       </c>
-      <c r="V41" s="33">
+      <c r="V41" s="23">
         <v>0</v>
       </c>
-      <c r="W41" s="54"/>
-    </row>
-    <row r="42" spans="2:23" s="61" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="60" t="s">
+      <c r="W41" s="39"/>
+    </row>
+    <row r="42" spans="2:23" s="46" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="45" t="s">
         <v>78</v>
       </c>
-      <c r="D42" s="72"/>
-      <c r="F42" s="72"/>
-      <c r="H42" s="72"/>
-      <c r="J42" s="72"/>
-      <c r="L42" s="72"/>
-      <c r="Q42" s="61">
+      <c r="D42" s="57"/>
+      <c r="F42" s="57"/>
+      <c r="H42" s="57"/>
+      <c r="J42" s="57"/>
+      <c r="L42" s="57"/>
+      <c r="Q42" s="46">
         <f>Q34-P34</f>
         <v>279</v>
       </c>
-      <c r="R42" s="61">
+      <c r="R42" s="46">
         <f>R34-Q34</f>
         <v>166</v>
       </c>
-      <c r="S42" s="61">
+      <c r="S42" s="46">
         <f>S34-R34</f>
         <v>-43</v>
       </c>
-      <c r="T42" s="61">
+      <c r="T42" s="46">
         <f>T34-S34</f>
         <v>41</v>
       </c>
-      <c r="U42" s="61">
+      <c r="U42" s="46">
         <f t="shared" ref="U42:V42" si="48">U34-T34</f>
         <v>28</v>
       </c>
-      <c r="V42" s="61">
+      <c r="V42" s="46">
         <f t="shared" si="48"/>
         <v>21</v>
       </c>
-      <c r="W42" s="85"/>
-    </row>
-    <row r="43" spans="2:23" s="32" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="33"/>
-      <c r="D43" s="70"/>
-      <c r="F43" s="70"/>
-      <c r="H43" s="70"/>
-      <c r="J43" s="70"/>
-      <c r="L43" s="70"/>
-      <c r="T43" s="32">
+      <c r="W42" s="70"/>
+    </row>
+    <row r="43" spans="2:23" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="23"/>
+      <c r="D43" s="55"/>
+      <c r="F43" s="55"/>
+      <c r="H43" s="55"/>
+      <c r="J43" s="55"/>
+      <c r="L43" s="55"/>
+      <c r="T43" s="22">
         <v>0</v>
       </c>
-      <c r="W43" s="84"/>
-    </row>
-    <row r="44" spans="2:23" s="32" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="32" t="s">
+      <c r="W43" s="69"/>
+    </row>
+    <row r="44" spans="2:23" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="D44" s="70"/>
-      <c r="F44" s="70"/>
-      <c r="H44" s="70"/>
-      <c r="J44" s="70"/>
-      <c r="L44" s="70"/>
-      <c r="O44" s="32">
+      <c r="D44" s="55"/>
+      <c r="F44" s="55"/>
+      <c r="H44" s="55"/>
+      <c r="J44" s="55"/>
+      <c r="L44" s="55"/>
+      <c r="O44" s="22">
         <f t="shared" ref="O44:U44" si="49">O45+O48</f>
         <v>0</v>
       </c>
-      <c r="P44" s="32">
+      <c r="P44" s="22">
         <f t="shared" si="49"/>
         <v>0</v>
       </c>
-      <c r="Q44" s="32">
+      <c r="Q44" s="22">
         <f t="shared" si="49"/>
         <v>0</v>
       </c>
-      <c r="R44" s="32">
+      <c r="R44" s="22">
         <f t="shared" si="49"/>
         <v>0</v>
       </c>
-      <c r="S44" s="32">
+      <c r="S44" s="22">
         <f t="shared" si="49"/>
         <v>0</v>
       </c>
-      <c r="T44" s="32">
+      <c r="T44" s="22">
         <f t="shared" si="49"/>
         <v>0</v>
       </c>
-      <c r="U44" s="32">
+      <c r="U44" s="22">
         <f t="shared" si="49"/>
         <v>0</v>
       </c>
-      <c r="V44" s="32">
+      <c r="V44" s="22">
         <f>V45+V48</f>
         <v>39484</v>
       </c>
-      <c r="W44" s="84"/>
-    </row>
-    <row r="45" spans="2:23" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="47" t="s">
+      <c r="W44" s="69"/>
+    </row>
+    <row r="45" spans="2:23" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B45" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="D45" s="71"/>
-      <c r="F45" s="71"/>
-      <c r="H45" s="71"/>
-      <c r="J45" s="71"/>
-      <c r="L45" s="71"/>
-      <c r="O45" s="33">
+      <c r="D45" s="56"/>
+      <c r="F45" s="56"/>
+      <c r="H45" s="56"/>
+      <c r="J45" s="56"/>
+      <c r="L45" s="56"/>
+      <c r="O45" s="23">
         <f t="shared" ref="O45:U45" si="50">SUM(O46:O47)</f>
         <v>0</v>
       </c>
-      <c r="P45" s="33">
+      <c r="P45" s="23">
         <f t="shared" si="50"/>
         <v>0</v>
       </c>
-      <c r="Q45" s="33">
+      <c r="Q45" s="23">
         <f t="shared" si="50"/>
         <v>0</v>
       </c>
-      <c r="R45" s="33">
+      <c r="R45" s="23">
         <f t="shared" si="50"/>
         <v>0</v>
       </c>
-      <c r="S45" s="33">
+      <c r="S45" s="23">
         <f t="shared" si="50"/>
         <v>0</v>
       </c>
-      <c r="T45" s="33">
+      <c r="T45" s="23">
         <f t="shared" si="50"/>
         <v>0</v>
       </c>
-      <c r="U45" s="33">
+      <c r="U45" s="23">
         <f t="shared" si="50"/>
         <v>0</v>
       </c>
-      <c r="V45" s="33">
+      <c r="V45" s="23">
         <f>SUM(V46:V47)</f>
         <v>34145</v>
       </c>
-      <c r="W45" s="54"/>
-    </row>
-    <row r="46" spans="2:23" s="49" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="48" t="s">
+      <c r="W45" s="39"/>
+    </row>
+    <row r="46" spans="2:23" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B46" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="D46" s="73"/>
-      <c r="F46" s="73"/>
-      <c r="H46" s="73"/>
-      <c r="J46" s="73"/>
-      <c r="L46" s="73"/>
-      <c r="V46" s="49">
+      <c r="D46" s="58"/>
+      <c r="F46" s="58"/>
+      <c r="H46" s="58"/>
+      <c r="J46" s="58"/>
+      <c r="L46" s="58"/>
+      <c r="V46" s="35">
         <v>33156</v>
       </c>
-      <c r="W46" s="54"/>
-    </row>
-    <row r="47" spans="2:23" s="49" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="48" t="s">
+      <c r="W46" s="39"/>
+    </row>
+    <row r="47" spans="2:23" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B47" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="D47" s="73"/>
-      <c r="F47" s="73"/>
-      <c r="H47" s="73"/>
-      <c r="J47" s="73"/>
-      <c r="L47" s="73"/>
-      <c r="V47" s="49">
+      <c r="D47" s="58"/>
+      <c r="F47" s="58"/>
+      <c r="H47" s="58"/>
+      <c r="J47" s="58"/>
+      <c r="L47" s="58"/>
+      <c r="V47" s="35">
         <v>989</v>
       </c>
-      <c r="W47" s="54"/>
-    </row>
-    <row r="48" spans="2:23" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="47" t="s">
+      <c r="W47" s="39"/>
+    </row>
+    <row r="48" spans="2:23" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B48" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="D48" s="71"/>
-      <c r="F48" s="71"/>
-      <c r="H48" s="71"/>
-      <c r="J48" s="71"/>
-      <c r="L48" s="71"/>
-      <c r="O48" s="33">
+      <c r="D48" s="56"/>
+      <c r="F48" s="56"/>
+      <c r="H48" s="56"/>
+      <c r="J48" s="56"/>
+      <c r="L48" s="56"/>
+      <c r="O48" s="23">
         <f t="shared" ref="O48:U48" si="51">O49</f>
         <v>0</v>
       </c>
-      <c r="P48" s="33">
+      <c r="P48" s="23">
         <f t="shared" si="51"/>
         <v>0</v>
       </c>
-      <c r="Q48" s="33">
+      <c r="Q48" s="23">
         <f t="shared" si="51"/>
         <v>0</v>
       </c>
-      <c r="R48" s="33">
+      <c r="R48" s="23">
         <f t="shared" si="51"/>
         <v>0</v>
       </c>
-      <c r="S48" s="33">
+      <c r="S48" s="23">
         <f t="shared" si="51"/>
         <v>0</v>
       </c>
-      <c r="T48" s="33">
+      <c r="T48" s="23">
         <f t="shared" si="51"/>
         <v>0</v>
       </c>
-      <c r="U48" s="33">
+      <c r="U48" s="23">
         <f t="shared" si="51"/>
         <v>0</v>
       </c>
-      <c r="V48" s="33">
+      <c r="V48" s="23">
         <f>V49</f>
         <v>5339</v>
       </c>
-      <c r="W48" s="54"/>
-    </row>
-    <row r="49" spans="2:23" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="48" t="s">
+      <c r="W48" s="39"/>
+    </row>
+    <row r="49" spans="2:23" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B49" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="D49" s="71"/>
-      <c r="F49" s="71"/>
-      <c r="H49" s="71"/>
-      <c r="J49" s="71"/>
-      <c r="L49" s="71"/>
-      <c r="V49" s="33">
+      <c r="D49" s="56"/>
+      <c r="F49" s="56"/>
+      <c r="H49" s="56"/>
+      <c r="J49" s="56"/>
+      <c r="L49" s="56"/>
+      <c r="V49" s="23">
         <v>5339</v>
       </c>
-      <c r="W49" s="54"/>
-    </row>
-    <row r="50" spans="2:23" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="60" t="s">
+      <c r="W49" s="39"/>
+    </row>
+    <row r="50" spans="2:23" s="45" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B50" s="45" t="s">
         <v>77</v>
       </c>
-      <c r="D50" s="74"/>
-      <c r="F50" s="74"/>
-      <c r="H50" s="74"/>
-      <c r="J50" s="74"/>
-      <c r="L50" s="74"/>
-      <c r="W50" s="86"/>
+      <c r="D50" s="59"/>
+      <c r="F50" s="59"/>
+      <c r="H50" s="59"/>
+      <c r="J50" s="59"/>
+      <c r="L50" s="59"/>
+      <c r="W50" s="71"/>
     </row>
     <row r="54" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B54" s="39" t="s">
+      <c r="B54" s="29" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="55" spans="2:23" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="33" t="s">
+    <row r="55" spans="2:23" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B55" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="D55" s="71"/>
-      <c r="F55" s="71"/>
-      <c r="H55" s="71"/>
-      <c r="J55" s="71"/>
-      <c r="L55" s="71"/>
-      <c r="O55" s="33">
+      <c r="D55" s="56"/>
+      <c r="F55" s="56"/>
+      <c r="H55" s="56"/>
+      <c r="J55" s="56"/>
+      <c r="L55" s="56"/>
+      <c r="O55" s="23">
         <f>837.45+101.174</f>
         <v>938.62400000000002</v>
       </c>
-      <c r="P55" s="33">
+      <c r="P55" s="23">
         <f>841.691+103.693</f>
         <v>945.38400000000001</v>
       </c>
-      <c r="Q55" s="33">
+      <c r="Q55" s="23">
         <f>929.718+120.962</f>
         <v>1050.68</v>
       </c>
-      <c r="R55" s="33">
+      <c r="R55" s="23">
         <f>949.606+126.559</f>
         <v>1076.165</v>
       </c>
-      <c r="S55" s="33">
+      <c r="S55" s="23">
         <f>921.911+119.696</f>
         <v>1041.607</v>
       </c>
-      <c r="T55" s="33">
+      <c r="T55" s="23">
         <f>920.729+118.24</f>
         <v>1038.9690000000001</v>
       </c>
-      <c r="U55" s="33">
+      <c r="U55" s="23">
         <f>920+120</f>
         <v>1040</v>
       </c>
-      <c r="V55" s="33">
+      <c r="V55" s="23">
         <f>921+120</f>
         <v>1041</v>
       </c>
-      <c r="W55" s="54"/>
-    </row>
-    <row r="56" spans="2:23" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B56" s="33" t="s">
+      <c r="W55" s="39"/>
+    </row>
+    <row r="56" spans="2:23" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B56" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="D56" s="71"/>
-      <c r="F56" s="71"/>
-      <c r="H56" s="71"/>
-      <c r="J56" s="71"/>
-      <c r="L56" s="71"/>
-      <c r="O56" s="33">
+      <c r="D56" s="56"/>
+      <c r="F56" s="56"/>
+      <c r="H56" s="56"/>
+      <c r="J56" s="56"/>
+      <c r="L56" s="56"/>
+      <c r="O56" s="23">
         <v>138.05000000000001</v>
       </c>
-      <c r="P56" s="33">
+      <c r="P56" s="23">
         <v>165.74799999999999</v>
       </c>
-      <c r="Q56" s="33">
+      <c r="Q56" s="23">
         <v>308.65300000000002</v>
       </c>
-      <c r="R56" s="33">
+      <c r="R56" s="23">
         <v>389.952</v>
       </c>
-      <c r="S56" s="33">
+      <c r="S56" s="23">
         <v>312.19799999999998</v>
       </c>
-      <c r="T56" s="33">
+      <c r="T56" s="23">
         <v>336.36399999999998</v>
       </c>
-      <c r="U56" s="33">
+      <c r="U56" s="23">
         <v>363</v>
       </c>
-      <c r="V56" s="33">
+      <c r="V56" s="23">
         <v>380</v>
       </c>
-      <c r="W56" s="54"/>
-    </row>
-    <row r="57" spans="2:23" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="33" t="s">
+      <c r="W56" s="39"/>
+    </row>
+    <row r="57" spans="2:23" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B57" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="D57" s="71"/>
-      <c r="F57" s="71"/>
-      <c r="H57" s="71"/>
-      <c r="J57" s="71"/>
-      <c r="L57" s="71"/>
-      <c r="O57" s="33">
+      <c r="D57" s="56"/>
+      <c r="F57" s="56"/>
+      <c r="H57" s="56"/>
+      <c r="J57" s="56"/>
+      <c r="L57" s="56"/>
+      <c r="O57" s="23">
         <v>0</v>
       </c>
-      <c r="P57" s="33">
+      <c r="P57" s="23">
         <v>0</v>
       </c>
-      <c r="Q57" s="33">
+      <c r="Q57" s="23">
         <v>0</v>
       </c>
-      <c r="R57" s="33">
+      <c r="R57" s="23">
         <v>0</v>
       </c>
-      <c r="S57" s="33">
+      <c r="S57" s="23">
         <v>1086.6179999999999</v>
       </c>
-      <c r="T57" s="33">
+      <c r="T57" s="23">
         <v>1070.5809999999999</v>
       </c>
-      <c r="U57" s="33">
+      <c r="U57" s="23">
         <v>1066</v>
       </c>
-      <c r="V57" s="33">
+      <c r="V57" s="23">
         <v>1056</v>
       </c>
-      <c r="W57" s="54"/>
-    </row>
-    <row r="58" spans="2:23" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="33" t="s">
+      <c r="W57" s="39"/>
+    </row>
+    <row r="58" spans="2:23" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B58" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="D58" s="71"/>
-      <c r="F58" s="71"/>
-      <c r="H58" s="71"/>
-      <c r="J58" s="71"/>
-      <c r="L58" s="71"/>
-      <c r="O58" s="33">
+      <c r="D58" s="56"/>
+      <c r="F58" s="56"/>
+      <c r="H58" s="56"/>
+      <c r="J58" s="56"/>
+      <c r="L58" s="56"/>
+      <c r="O58" s="23">
         <v>3.9950000000000001</v>
       </c>
-      <c r="P58" s="33">
+      <c r="P58" s="23">
         <v>5.6689999999999996</v>
       </c>
-      <c r="Q58" s="33">
+      <c r="Q58" s="23">
         <v>5.14</v>
       </c>
-      <c r="R58" s="33">
+      <c r="R58" s="23">
         <v>6.92</v>
       </c>
-      <c r="S58" s="33">
+      <c r="S58" s="23">
         <v>5.7</v>
       </c>
-      <c r="T58" s="33">
+      <c r="T58" s="23">
         <v>4.4790000000000001</v>
       </c>
-      <c r="U58" s="33">
+      <c r="U58" s="23">
         <v>8</v>
       </c>
-      <c r="V58" s="33">
+      <c r="V58" s="23">
         <v>8</v>
       </c>
-      <c r="W58" s="54"/>
-    </row>
-    <row r="59" spans="2:23" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B59" s="33" t="s">
+      <c r="W58" s="39"/>
+    </row>
+    <row r="59" spans="2:23" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B59" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="D59" s="71"/>
-      <c r="F59" s="71"/>
-      <c r="H59" s="71"/>
-      <c r="J59" s="71"/>
-      <c r="L59" s="71"/>
-      <c r="O59" s="33">
+      <c r="D59" s="56"/>
+      <c r="F59" s="56"/>
+      <c r="H59" s="56"/>
+      <c r="J59" s="56"/>
+      <c r="L59" s="56"/>
+      <c r="O59" s="23">
         <v>2.7709999999999999</v>
       </c>
-      <c r="P59" s="33">
+      <c r="P59" s="23">
         <v>2.4129999999999998</v>
       </c>
-      <c r="Q59" s="33">
+      <c r="Q59" s="23">
         <v>3.1869999999999998</v>
       </c>
-      <c r="R59" s="33">
+      <c r="R59" s="23">
         <v>10.989000000000001</v>
       </c>
-      <c r="S59" s="33">
+      <c r="S59" s="23">
         <v>7.5170000000000003</v>
       </c>
-      <c r="T59" s="33">
+      <c r="T59" s="23">
         <v>7.0839999999999996</v>
       </c>
-      <c r="U59" s="33">
+      <c r="U59" s="23">
         <v>7</v>
       </c>
-      <c r="V59" s="33">
+      <c r="V59" s="23">
         <v>6</v>
       </c>
-      <c r="W59" s="54"/>
-    </row>
-    <row r="60" spans="2:23" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B60" s="33" t="s">
+      <c r="W59" s="39"/>
+    </row>
+    <row r="60" spans="2:23" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B60" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="D60" s="71"/>
-      <c r="F60" s="71"/>
-      <c r="H60" s="71"/>
-      <c r="J60" s="71"/>
-      <c r="L60" s="71"/>
-      <c r="O60" s="33">
+      <c r="D60" s="56"/>
+      <c r="F60" s="56"/>
+      <c r="H60" s="56"/>
+      <c r="J60" s="56"/>
+      <c r="L60" s="56"/>
+      <c r="O60" s="23">
         <v>0.47299999999999998</v>
       </c>
-      <c r="P60" s="33">
+      <c r="P60" s="23">
         <v>0.82399999999999995</v>
       </c>
-      <c r="Q60" s="33">
+      <c r="Q60" s="23">
         <v>5.6539999999999999</v>
       </c>
-      <c r="R60" s="33">
+      <c r="R60" s="23">
         <v>9.1950000000000003</v>
       </c>
-      <c r="S60" s="33">
+      <c r="S60" s="23">
         <v>22.988</v>
       </c>
-      <c r="T60" s="33">
+      <c r="T60" s="23">
         <v>32.241999999999997</v>
       </c>
-      <c r="U60" s="33">
+      <c r="U60" s="23">
         <v>31</v>
       </c>
-      <c r="V60" s="33">
+      <c r="V60" s="23">
         <v>30</v>
       </c>
-      <c r="W60" s="54"/>
-    </row>
-    <row r="61" spans="2:23" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B61" s="33" t="s">
+      <c r="W60" s="39"/>
+    </row>
+    <row r="61" spans="2:23" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B61" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="D61" s="71"/>
-      <c r="F61" s="71"/>
-      <c r="H61" s="71"/>
-      <c r="J61" s="71"/>
-      <c r="L61" s="71"/>
-      <c r="O61" s="33">
+      <c r="D61" s="56"/>
+      <c r="F61" s="56"/>
+      <c r="H61" s="56"/>
+      <c r="J61" s="56"/>
+      <c r="L61" s="56"/>
+      <c r="O61" s="23">
         <f t="shared" ref="O61:U61" si="52">SUM(O55:O60)</f>
         <v>1083.9129999999998</v>
       </c>
-      <c r="P61" s="33">
+      <c r="P61" s="23">
         <f t="shared" si="52"/>
         <v>1120.0380000000002</v>
       </c>
-      <c r="Q61" s="33">
+      <c r="Q61" s="23">
         <f t="shared" si="52"/>
         <v>1373.3140000000001</v>
       </c>
-      <c r="R61" s="33">
+      <c r="R61" s="23">
         <f t="shared" si="52"/>
         <v>1493.221</v>
       </c>
-      <c r="S61" s="33">
+      <c r="S61" s="23">
         <f t="shared" si="52"/>
         <v>2476.6279999999992</v>
       </c>
-      <c r="T61" s="33">
+      <c r="T61" s="23">
         <f t="shared" si="52"/>
         <v>2489.7189999999996</v>
       </c>
-      <c r="U61" s="33">
+      <c r="U61" s="23">
         <f t="shared" si="52"/>
         <v>2515</v>
       </c>
-      <c r="V61" s="33">
+      <c r="V61" s="23">
         <f>SUM(V55:V60)</f>
         <v>2521</v>
       </c>
-      <c r="W61" s="54"/>
-    </row>
-    <row r="62" spans="2:23" s="32" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="32" t="s">
+      <c r="W61" s="39"/>
+    </row>
+    <row r="62" spans="2:23" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B62" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="D62" s="70"/>
-      <c r="F62" s="70"/>
-      <c r="H62" s="70"/>
-      <c r="J62" s="70"/>
-      <c r="L62" s="70"/>
-      <c r="O62" s="32">
+      <c r="D62" s="55"/>
+      <c r="F62" s="55"/>
+      <c r="H62" s="55"/>
+      <c r="J62" s="55"/>
+      <c r="L62" s="55"/>
+      <c r="O62" s="22">
         <v>91.147999999999996</v>
       </c>
-      <c r="P62" s="32">
+      <c r="P62" s="22">
         <v>155.511</v>
       </c>
-      <c r="Q62" s="32">
+      <c r="Q62" s="22">
         <v>90.816000000000003</v>
       </c>
-      <c r="R62" s="32">
+      <c r="R62" s="22">
         <v>86.201999999999998</v>
       </c>
-      <c r="S62" s="32">
+      <c r="S62" s="22">
         <v>428.20499999999998</v>
       </c>
-      <c r="T62" s="32">
+      <c r="T62" s="22">
         <v>217.68199999999999</v>
       </c>
-      <c r="U62" s="32">
+      <c r="U62" s="22">
         <v>173</v>
       </c>
-      <c r="V62" s="32">
+      <c r="V62" s="22">
         <v>237</v>
       </c>
-      <c r="W62" s="84"/>
-    </row>
-    <row r="63" spans="2:23" s="32" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B63" s="32" t="s">
+      <c r="W62" s="69"/>
+    </row>
+    <row r="63" spans="2:23" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B63" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="D63" s="70"/>
-      <c r="F63" s="70"/>
-      <c r="H63" s="70"/>
-      <c r="J63" s="70"/>
-      <c r="L63" s="70"/>
-      <c r="O63" s="32">
+      <c r="D63" s="55"/>
+      <c r="F63" s="55"/>
+      <c r="H63" s="55"/>
+      <c r="J63" s="55"/>
+      <c r="L63" s="55"/>
+      <c r="O63" s="22">
         <v>356.31200000000001</v>
       </c>
-      <c r="P63" s="32">
+      <c r="P63" s="22">
         <v>462.11900000000003</v>
       </c>
-      <c r="Q63" s="32">
+      <c r="Q63" s="22">
         <v>558.69000000000005</v>
       </c>
-      <c r="R63" s="32">
+      <c r="R63" s="22">
         <v>670.721</v>
       </c>
-      <c r="S63" s="32">
+      <c r="S63" s="22">
         <v>588</v>
       </c>
-      <c r="T63" s="32">
+      <c r="T63" s="22">
         <v>605.12599999999998</v>
       </c>
-      <c r="U63" s="32">
+      <c r="U63" s="22">
         <v>863</v>
       </c>
-      <c r="V63" s="32">
+      <c r="V63" s="22">
         <v>764</v>
       </c>
-      <c r="W63" s="84"/>
-    </row>
-    <row r="64" spans="2:23" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B64" s="33" t="s">
+      <c r="W63" s="69"/>
+    </row>
+    <row r="64" spans="2:23" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B64" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="D64" s="71"/>
-      <c r="F64" s="71"/>
-      <c r="H64" s="71"/>
-      <c r="J64" s="71"/>
-      <c r="L64" s="71"/>
-      <c r="O64" s="33">
+      <c r="D64" s="56"/>
+      <c r="F64" s="56"/>
+      <c r="H64" s="56"/>
+      <c r="J64" s="56"/>
+      <c r="L64" s="56"/>
+      <c r="O64" s="23">
         <v>28.760999999999999</v>
       </c>
-      <c r="P64" s="33">
+      <c r="P64" s="23">
         <v>35.398000000000003</v>
       </c>
-      <c r="Q64" s="33">
+      <c r="Q64" s="23">
         <v>34.042000000000002</v>
       </c>
-      <c r="R64" s="33">
+      <c r="R64" s="23">
         <v>71.64</v>
       </c>
-      <c r="S64" s="33">
+      <c r="S64" s="23">
         <v>60.588000000000001</v>
       </c>
-      <c r="T64" s="33">
+      <c r="T64" s="23">
         <v>42.16</v>
       </c>
-      <c r="U64" s="33">
+      <c r="U64" s="23">
         <v>53</v>
       </c>
-      <c r="V64" s="33">
+      <c r="V64" s="23">
         <v>52</v>
       </c>
-      <c r="W64" s="54"/>
-    </row>
-    <row r="65" spans="2:23" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B65" s="33" t="s">
+      <c r="W64" s="39"/>
+    </row>
+    <row r="65" spans="2:23" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B65" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="D65" s="71"/>
-      <c r="F65" s="71"/>
-      <c r="H65" s="71"/>
-      <c r="J65" s="71"/>
-      <c r="L65" s="71"/>
-      <c r="O65" s="33">
+      <c r="D65" s="56"/>
+      <c r="F65" s="56"/>
+      <c r="H65" s="56"/>
+      <c r="J65" s="56"/>
+      <c r="L65" s="56"/>
+      <c r="O65" s="23">
         <v>0</v>
       </c>
-      <c r="P65" s="33">
+      <c r="P65" s="23">
         <v>0</v>
       </c>
-      <c r="Q65" s="33">
+      <c r="Q65" s="23">
         <v>0</v>
       </c>
-      <c r="R65" s="33">
+      <c r="R65" s="23">
         <v>6.2939999999999996</v>
       </c>
-      <c r="S65" s="33">
+      <c r="S65" s="23">
         <v>0</v>
       </c>
-      <c r="T65" s="33">
+      <c r="T65" s="23">
         <v>0</v>
       </c>
-      <c r="U65" s="33">
+      <c r="U65" s="23">
         <v>9</v>
       </c>
-      <c r="V65" s="33">
+      <c r="V65" s="23">
         <v>12</v>
       </c>
-      <c r="W65" s="54"/>
-    </row>
-    <row r="66" spans="2:23" s="32" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B66" s="32" t="s">
+      <c r="W65" s="39"/>
+    </row>
+    <row r="66" spans="2:23" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B66" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="D66" s="70"/>
-      <c r="F66" s="70"/>
-      <c r="H66" s="70"/>
-      <c r="J66" s="70"/>
-      <c r="L66" s="70"/>
-      <c r="O66" s="32">
+      <c r="D66" s="55"/>
+      <c r="F66" s="55"/>
+      <c r="H66" s="55"/>
+      <c r="J66" s="55"/>
+      <c r="L66" s="55"/>
+      <c r="O66" s="22">
         <v>4.7690000000000001</v>
       </c>
-      <c r="P66" s="32">
+      <c r="P66" s="22">
         <v>0.41</v>
       </c>
-      <c r="Q66" s="32">
+      <c r="Q66" s="22">
         <v>0</v>
       </c>
-      <c r="R66" s="32">
+      <c r="R66" s="22">
         <v>3.7810000000000001</v>
       </c>
-      <c r="S66" s="32">
+      <c r="S66" s="22">
         <v>16.702000000000002</v>
       </c>
-      <c r="T66" s="32">
+      <c r="T66" s="22">
         <v>3.7669999999999999</v>
       </c>
-      <c r="U66" s="32">
+      <c r="U66" s="22">
         <v>25</v>
       </c>
-      <c r="V66" s="32">
+      <c r="V66" s="22">
         <v>1</v>
       </c>
-      <c r="W66" s="84"/>
-    </row>
-    <row r="67" spans="2:23" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B67" s="33" t="s">
+      <c r="W66" s="69"/>
+    </row>
+    <row r="67" spans="2:23" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B67" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="D67" s="71"/>
-      <c r="F67" s="71"/>
-      <c r="H67" s="71"/>
-      <c r="J67" s="71"/>
-      <c r="L67" s="71"/>
-      <c r="O67" s="33">
+      <c r="D67" s="56"/>
+      <c r="F67" s="56"/>
+      <c r="H67" s="56"/>
+      <c r="J67" s="56"/>
+      <c r="L67" s="56"/>
+      <c r="O67" s="23">
         <f t="shared" ref="O67:U67" si="53">SUM(O61:O66)</f>
         <v>1564.9029999999996</v>
       </c>
-      <c r="P67" s="33">
+      <c r="P67" s="23">
         <f t="shared" si="53"/>
         <v>1773.4760000000001</v>
       </c>
-      <c r="Q67" s="33">
+      <c r="Q67" s="23">
         <f t="shared" si="53"/>
         <v>2056.8620000000001</v>
       </c>
-      <c r="R67" s="33">
+      <c r="R67" s="23">
         <f t="shared" si="53"/>
         <v>2331.8589999999999</v>
       </c>
-      <c r="S67" s="33">
+      <c r="S67" s="23">
         <f t="shared" si="53"/>
         <v>3570.1229999999996</v>
       </c>
-      <c r="T67" s="33">
+      <c r="T67" s="23">
         <f t="shared" si="53"/>
         <v>3358.4539999999988</v>
       </c>
-      <c r="U67" s="33">
+      <c r="U67" s="23">
         <f t="shared" si="53"/>
         <v>3638</v>
       </c>
-      <c r="V67" s="33">
+      <c r="V67" s="23">
         <f>SUM(V61:V66)</f>
         <v>3587</v>
       </c>
-      <c r="W67" s="54"/>
-    </row>
-    <row r="68" spans="2:23" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D68" s="71"/>
-      <c r="F68" s="71"/>
-      <c r="H68" s="71"/>
-      <c r="J68" s="71"/>
-      <c r="L68" s="71"/>
-      <c r="W68" s="54"/>
-    </row>
-    <row r="69" spans="2:23" s="32" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B69" s="32" t="s">
+      <c r="W67" s="39"/>
+    </row>
+    <row r="68" spans="2:23" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D68" s="56"/>
+      <c r="F68" s="56"/>
+      <c r="H68" s="56"/>
+      <c r="J68" s="56"/>
+      <c r="L68" s="56"/>
+      <c r="W68" s="39"/>
+    </row>
+    <row r="69" spans="2:23" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B69" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="D69" s="70"/>
-      <c r="F69" s="70"/>
-      <c r="H69" s="70"/>
-      <c r="J69" s="70"/>
-      <c r="L69" s="70"/>
-      <c r="O69" s="32">
+      <c r="D69" s="55"/>
+      <c r="F69" s="55"/>
+      <c r="H69" s="55"/>
+      <c r="J69" s="55"/>
+      <c r="L69" s="55"/>
+      <c r="O69" s="22">
         <f>435.142+16.041</f>
         <v>451.18299999999999</v>
       </c>
-      <c r="P69" s="32">
+      <c r="P69" s="22">
         <f>17.886+543.725</f>
         <v>561.61099999999999</v>
       </c>
-      <c r="Q69" s="32">
+      <c r="Q69" s="22">
         <f>558.426+19.209</f>
         <v>577.63499999999999</v>
       </c>
-      <c r="R69" s="32">
+      <c r="R69" s="22">
         <v>562.94100000000003</v>
       </c>
-      <c r="S69" s="32">
+      <c r="S69" s="22">
         <v>561.41800000000001</v>
       </c>
-      <c r="T69" s="32">
+      <c r="T69" s="22">
         <v>723.73599999999999</v>
       </c>
-      <c r="U69" s="32">
+      <c r="U69" s="22">
         <v>950</v>
       </c>
-      <c r="V69" s="32">
+      <c r="V69" s="22">
         <v>873</v>
       </c>
-      <c r="W69" s="84"/>
-    </row>
-    <row r="70" spans="2:23" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B70" s="33" t="s">
+      <c r="W69" s="69"/>
+    </row>
+    <row r="70" spans="2:23" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B70" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="D70" s="71"/>
-      <c r="F70" s="71"/>
-      <c r="H70" s="71"/>
-      <c r="J70" s="71"/>
-      <c r="L70" s="71"/>
-      <c r="O70" s="33">
+      <c r="D70" s="56"/>
+      <c r="F70" s="56"/>
+      <c r="H70" s="56"/>
+      <c r="J70" s="56"/>
+      <c r="L70" s="56"/>
+      <c r="O70" s="23">
         <f>4.252+66.544</f>
         <v>70.795999999999992</v>
       </c>
-      <c r="P70" s="33">
+      <c r="P70" s="23">
         <f>76.961+6.469</f>
         <v>83.429999999999993</v>
       </c>
-      <c r="Q70" s="33">
+      <c r="Q70" s="23">
         <f>7.306+87.13</f>
         <v>94.435999999999993</v>
       </c>
-      <c r="R70" s="33">
+      <c r="R70" s="23">
         <f>92.891+7.104</f>
         <v>99.995000000000005</v>
       </c>
-      <c r="S70" s="33">
+      <c r="S70" s="23">
         <f>1146.233+0.171</f>
         <v>1146.404</v>
       </c>
-      <c r="T70" s="33">
+      <c r="T70" s="23">
         <v>1138.634</v>
       </c>
-      <c r="U70" s="33">
+      <c r="U70" s="23">
         <v>1140</v>
       </c>
-      <c r="V70" s="33">
+      <c r="V70" s="23">
         <v>1124</v>
       </c>
-      <c r="W70" s="54"/>
-    </row>
-    <row r="71" spans="2:23" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B71" s="33" t="s">
+      <c r="W70" s="39"/>
+    </row>
+    <row r="71" spans="2:23" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B71" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="D71" s="71"/>
-      <c r="F71" s="71"/>
-      <c r="H71" s="71"/>
-      <c r="J71" s="71"/>
-      <c r="L71" s="71"/>
-      <c r="O71" s="33">
+      <c r="D71" s="56"/>
+      <c r="F71" s="56"/>
+      <c r="H71" s="56"/>
+      <c r="J71" s="56"/>
+      <c r="L71" s="56"/>
+      <c r="O71" s="23">
         <v>20.119</v>
       </c>
-      <c r="P71" s="33">
+      <c r="P71" s="23">
         <v>18.844999999999999</v>
       </c>
-      <c r="Q71" s="33">
+      <c r="Q71" s="23">
         <v>24.495000000000001</v>
       </c>
-      <c r="R71" s="33">
+      <c r="R71" s="23">
         <v>27.148</v>
       </c>
-      <c r="S71" s="33">
+      <c r="S71" s="23">
         <v>29.007999999999999</v>
       </c>
-      <c r="T71" s="33">
+      <c r="T71" s="23">
         <v>27.475999999999999</v>
       </c>
-      <c r="U71" s="33">
+      <c r="U71" s="23">
         <v>43</v>
       </c>
-      <c r="V71" s="33">
+      <c r="V71" s="23">
         <v>43</v>
       </c>
-      <c r="W71" s="54"/>
-    </row>
-    <row r="72" spans="2:23" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B72" s="33" t="s">
+      <c r="W71" s="39"/>
+    </row>
+    <row r="72" spans="2:23" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B72" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="D72" s="71"/>
-      <c r="F72" s="71"/>
-      <c r="H72" s="71"/>
-      <c r="J72" s="71"/>
-      <c r="L72" s="71"/>
-      <c r="O72" s="33">
+      <c r="D72" s="56"/>
+      <c r="F72" s="56"/>
+      <c r="H72" s="56"/>
+      <c r="J72" s="56"/>
+      <c r="L72" s="56"/>
+      <c r="O72" s="23">
         <v>2.0470000000000002</v>
       </c>
-      <c r="P72" s="33">
+      <c r="P72" s="23">
         <v>0.92200000000000004</v>
       </c>
-      <c r="Q72" s="33">
+      <c r="Q72" s="23">
         <v>0.379</v>
       </c>
-      <c r="R72" s="33">
+      <c r="R72" s="23">
         <v>0.374</v>
       </c>
-      <c r="S72" s="33">
+      <c r="S72" s="23">
         <v>0.76600000000000001</v>
       </c>
-      <c r="T72" s="33">
+      <c r="T72" s="23">
         <v>4.5110000000000001</v>
       </c>
-      <c r="U72" s="33">
+      <c r="U72" s="23">
         <v>4</v>
       </c>
-      <c r="V72" s="33">
+      <c r="V72" s="23">
         <v>3</v>
       </c>
-      <c r="W72" s="54"/>
-    </row>
-    <row r="73" spans="2:23" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B73" s="33" t="s">
+      <c r="W72" s="39"/>
+    </row>
+    <row r="73" spans="2:23" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B73" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="D73" s="71"/>
-      <c r="F73" s="71"/>
-      <c r="H73" s="71"/>
-      <c r="J73" s="71"/>
-      <c r="L73" s="71"/>
-      <c r="O73" s="33">
+      <c r="D73" s="56"/>
+      <c r="F73" s="56"/>
+      <c r="H73" s="56"/>
+      <c r="J73" s="56"/>
+      <c r="L73" s="56"/>
+      <c r="O73" s="23">
         <f t="shared" ref="O73:U73" si="54">SUM(O69:O72)</f>
         <v>544.1450000000001</v>
       </c>
-      <c r="P73" s="33">
+      <c r="P73" s="23">
         <f t="shared" si="54"/>
         <v>664.80799999999999</v>
       </c>
-      <c r="Q73" s="33">
+      <c r="Q73" s="23">
         <f t="shared" si="54"/>
         <v>696.94500000000005</v>
       </c>
-      <c r="R73" s="33">
+      <c r="R73" s="23">
         <f t="shared" si="54"/>
         <v>690.45800000000008</v>
       </c>
-      <c r="S73" s="33">
+      <c r="S73" s="23">
         <f t="shared" si="54"/>
         <v>1737.5960000000002</v>
       </c>
-      <c r="T73" s="33">
+      <c r="T73" s="23">
         <f t="shared" si="54"/>
         <v>1894.357</v>
       </c>
-      <c r="U73" s="33">
+      <c r="U73" s="23">
         <f t="shared" si="54"/>
         <v>2137</v>
       </c>
-      <c r="V73" s="33">
+      <c r="V73" s="23">
         <f>SUM(V69:V72)</f>
         <v>2043</v>
       </c>
-      <c r="W73" s="54"/>
-    </row>
-    <row r="74" spans="2:23" s="32" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B74" s="32" t="s">
+      <c r="W73" s="39"/>
+    </row>
+    <row r="74" spans="2:23" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B74" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="D74" s="70"/>
-      <c r="F74" s="70"/>
-      <c r="H74" s="70"/>
-      <c r="J74" s="70"/>
-      <c r="L74" s="70"/>
-      <c r="O74" s="32">
+      <c r="D74" s="55"/>
+      <c r="F74" s="55"/>
+      <c r="H74" s="55"/>
+      <c r="J74" s="55"/>
+      <c r="L74" s="55"/>
+      <c r="O74" s="22">
         <v>0</v>
       </c>
-      <c r="P74" s="32">
+      <c r="P74" s="22">
         <v>0</v>
       </c>
-      <c r="Q74" s="32">
+      <c r="Q74" s="22">
         <f>47.212+6.112</f>
         <v>53.324000000000005</v>
       </c>
-      <c r="R74" s="32">
+      <c r="R74" s="22">
         <f>5.646+124.272</f>
         <v>129.91800000000001</v>
       </c>
-      <c r="S74" s="32">
+      <c r="S74" s="22">
         <f>0.928+211.062</f>
         <v>211.99</v>
       </c>
-      <c r="T74" s="32">
+      <c r="T74" s="22">
         <v>6.875</v>
       </c>
-      <c r="U74" s="32">
+      <c r="U74" s="22">
         <v>6</v>
       </c>
-      <c r="V74" s="32">
+      <c r="V74" s="22">
         <v>81</v>
       </c>
-      <c r="W74" s="84"/>
-    </row>
-    <row r="75" spans="2:23" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B75" s="33" t="s">
+      <c r="W74" s="69"/>
+    </row>
+    <row r="75" spans="2:23" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B75" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="D75" s="71"/>
-      <c r="F75" s="71"/>
-      <c r="H75" s="71"/>
-      <c r="J75" s="71"/>
-      <c r="L75" s="71"/>
-      <c r="O75" s="33">
+      <c r="D75" s="56"/>
+      <c r="F75" s="56"/>
+      <c r="H75" s="56"/>
+      <c r="J75" s="56"/>
+      <c r="L75" s="56"/>
+      <c r="O75" s="23">
         <v>189.74299999999999</v>
       </c>
-      <c r="P75" s="33">
+      <c r="P75" s="23">
         <v>267.815</v>
       </c>
-      <c r="Q75" s="33">
+      <c r="Q75" s="23">
         <v>336.072</v>
       </c>
-      <c r="R75" s="33">
+      <c r="R75" s="23">
         <v>395.96600000000001</v>
       </c>
-      <c r="S75" s="33">
+      <c r="S75" s="23">
         <v>419.99900000000002</v>
       </c>
-      <c r="T75" s="33">
+      <c r="T75" s="23">
         <v>524.26</v>
       </c>
-      <c r="U75" s="33">
+      <c r="U75" s="23">
         <v>564</v>
       </c>
-      <c r="V75" s="33">
+      <c r="V75" s="23">
         <v>541</v>
       </c>
-      <c r="W75" s="54"/>
-    </row>
-    <row r="76" spans="2:23" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B76" s="33" t="s">
+      <c r="W75" s="39"/>
+    </row>
+    <row r="76" spans="2:23" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B76" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="D76" s="71"/>
-      <c r="F76" s="71"/>
-      <c r="H76" s="71"/>
-      <c r="J76" s="71"/>
-      <c r="L76" s="71"/>
-      <c r="O76" s="33">
+      <c r="D76" s="56"/>
+      <c r="F76" s="56"/>
+      <c r="H76" s="56"/>
+      <c r="J76" s="56"/>
+      <c r="L76" s="56"/>
+      <c r="O76" s="23">
         <v>1.119</v>
       </c>
-      <c r="P76" s="33">
+      <c r="P76" s="23">
         <v>0.99399999999999999</v>
       </c>
-      <c r="Q76" s="33">
+      <c r="Q76" s="23">
         <v>1.87</v>
       </c>
-      <c r="R76" s="33">
+      <c r="R76" s="23">
         <v>3.63</v>
       </c>
-      <c r="S76" s="33">
+      <c r="S76" s="23">
         <v>149.011</v>
       </c>
-      <c r="T76" s="33">
+      <c r="T76" s="23">
         <v>162.73500000000001</v>
       </c>
-      <c r="U76" s="33">
+      <c r="U76" s="23">
         <v>170</v>
       </c>
-      <c r="V76" s="33">
+      <c r="V76" s="23">
         <v>177</v>
       </c>
-      <c r="W76" s="54"/>
-    </row>
-    <row r="77" spans="2:23" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B77" s="33" t="s">
+      <c r="W76" s="39"/>
+    </row>
+    <row r="77" spans="2:23" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B77" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="D77" s="71"/>
-      <c r="F77" s="71"/>
-      <c r="H77" s="71"/>
-      <c r="J77" s="71"/>
-      <c r="L77" s="71"/>
-      <c r="O77" s="33">
+      <c r="D77" s="56"/>
+      <c r="F77" s="56"/>
+      <c r="H77" s="56"/>
+      <c r="J77" s="56"/>
+      <c r="L77" s="56"/>
+      <c r="O77" s="23">
         <v>0.48699999999999999</v>
       </c>
-      <c r="P77" s="33">
+      <c r="P77" s="23">
         <v>2.0699999999999998</v>
       </c>
-      <c r="Q77" s="33">
+      <c r="Q77" s="23">
         <v>16.666</v>
       </c>
-      <c r="R77" s="33">
+      <c r="R77" s="23">
         <v>13.731</v>
       </c>
-      <c r="S77" s="33">
+      <c r="S77" s="23">
         <f>150.087+1.847</f>
         <v>151.934</v>
       </c>
-      <c r="T77" s="33">
+      <c r="T77" s="23">
         <v>16.140999999999998</v>
       </c>
-      <c r="U77" s="33">
+      <c r="U77" s="23">
         <v>0</v>
       </c>
-      <c r="V77" s="33">
+      <c r="V77" s="23">
         <v>13</v>
       </c>
-      <c r="W77" s="54"/>
-    </row>
-    <row r="78" spans="2:23" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B78" s="33" t="s">
+      <c r="W77" s="39"/>
+    </row>
+    <row r="78" spans="2:23" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B78" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="D78" s="71"/>
-      <c r="F78" s="71"/>
-      <c r="H78" s="71"/>
-      <c r="J78" s="71"/>
-      <c r="L78" s="71"/>
-      <c r="O78" s="33">
+      <c r="D78" s="56"/>
+      <c r="F78" s="56"/>
+      <c r="H78" s="56"/>
+      <c r="J78" s="56"/>
+      <c r="L78" s="56"/>
+      <c r="O78" s="23">
         <v>10.29</v>
       </c>
-      <c r="P78" s="33">
+      <c r="P78" s="23">
         <v>19.338999999999999</v>
       </c>
-      <c r="Q78" s="33">
+      <c r="Q78" s="23">
         <v>19.677</v>
       </c>
-      <c r="R78" s="33">
+      <c r="R78" s="23">
         <v>23.196999999999999</v>
       </c>
-      <c r="S78" s="33">
+      <c r="S78" s="23">
         <v>26.114999999999998</v>
       </c>
-      <c r="T78" s="33">
+      <c r="T78" s="23">
         <v>12.510999999999999</v>
       </c>
-      <c r="U78" s="33">
+      <c r="U78" s="23">
         <v>4</v>
       </c>
-      <c r="V78" s="33">
+      <c r="V78" s="23">
         <v>6</v>
       </c>
-      <c r="W78" s="54"/>
-    </row>
-    <row r="79" spans="2:23" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B79" s="33" t="s">
+      <c r="W78" s="39"/>
+    </row>
+    <row r="79" spans="2:23" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B79" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="D79" s="71"/>
-      <c r="F79" s="71"/>
-      <c r="H79" s="71"/>
-      <c r="J79" s="71"/>
-      <c r="L79" s="71"/>
-      <c r="O79" s="33">
+      <c r="D79" s="56"/>
+      <c r="F79" s="56"/>
+      <c r="H79" s="56"/>
+      <c r="J79" s="56"/>
+      <c r="L79" s="56"/>
+      <c r="O79" s="23">
         <v>4.7690000000000001</v>
       </c>
-      <c r="P79" s="33">
+      <c r="P79" s="23">
         <v>4.8689999999999998</v>
       </c>
-      <c r="Q79" s="33">
+      <c r="Q79" s="23">
         <v>6.2930000000000001</v>
       </c>
-      <c r="R79" s="33">
+      <c r="R79" s="23">
         <v>6.718</v>
       </c>
-      <c r="S79" s="33">
+      <c r="S79" s="23">
         <v>6.0789999999999997</v>
       </c>
-      <c r="T79" s="33">
+      <c r="T79" s="23">
         <v>8.6069999999999993</v>
       </c>
-      <c r="U79" s="33">
+      <c r="U79" s="23">
         <v>11</v>
       </c>
-      <c r="V79" s="33">
+      <c r="V79" s="23">
         <v>6</v>
       </c>
-      <c r="W79" s="54"/>
-    </row>
-    <row r="80" spans="2:23" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B80" s="33" t="s">
+      <c r="W79" s="39"/>
+    </row>
+    <row r="80" spans="2:23" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B80" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="D80" s="71"/>
-      <c r="F80" s="71"/>
-      <c r="H80" s="71"/>
-      <c r="J80" s="71"/>
-      <c r="L80" s="71"/>
-      <c r="O80" s="33">
+      <c r="D80" s="56"/>
+      <c r="F80" s="56"/>
+      <c r="H80" s="56"/>
+      <c r="J80" s="56"/>
+      <c r="L80" s="56"/>
+      <c r="O80" s="23">
         <f>SUM(O73:O79)</f>
         <v>750.55300000000011</v>
       </c>
-      <c r="P80" s="33">
-        <f t="shared" ref="O80:U80" si="55">SUM(P73:P79)</f>
+      <c r="P80" s="23">
+        <f t="shared" ref="P80:U80" si="55">SUM(P73:P79)</f>
         <v>959.8950000000001</v>
       </c>
-      <c r="Q80" s="33">
+      <c r="Q80" s="23">
         <f t="shared" si="55"/>
         <v>1130.8469999999995</v>
       </c>
-      <c r="R80" s="33">
+      <c r="R80" s="23">
         <f t="shared" si="55"/>
         <v>1263.6180000000002</v>
       </c>
-      <c r="S80" s="33">
+      <c r="S80" s="23">
         <f t="shared" si="55"/>
         <v>2702.7240000000002</v>
       </c>
-      <c r="T80" s="33">
+      <c r="T80" s="23">
         <f t="shared" si="55"/>
         <v>2625.4860000000003</v>
       </c>
-      <c r="U80" s="33">
+      <c r="U80" s="23">
         <f t="shared" si="55"/>
         <v>2892</v>
       </c>
-      <c r="V80" s="33">
+      <c r="V80" s="23">
         <f>SUM(V73:V79)</f>
         <v>2867</v>
       </c>
-      <c r="W80" s="54"/>
-    </row>
-    <row r="81" spans="2:23" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D81" s="71"/>
-      <c r="F81" s="71"/>
-      <c r="H81" s="71"/>
-      <c r="J81" s="71"/>
-      <c r="L81" s="71"/>
-      <c r="W81" s="54"/>
-    </row>
-    <row r="82" spans="2:23" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B82" s="33" t="s">
+      <c r="W80" s="39"/>
+    </row>
+    <row r="81" spans="2:23" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D81" s="56"/>
+      <c r="F81" s="56"/>
+      <c r="H81" s="56"/>
+      <c r="J81" s="56"/>
+      <c r="L81" s="56"/>
+      <c r="W81" s="39"/>
+    </row>
+    <row r="82" spans="2:23" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B82" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="D82" s="71"/>
-      <c r="F82" s="71"/>
-      <c r="H82" s="71"/>
-      <c r="J82" s="71"/>
-      <c r="L82" s="71"/>
-      <c r="O82" s="33">
+      <c r="D82" s="56"/>
+      <c r="F82" s="56"/>
+      <c r="H82" s="56"/>
+      <c r="J82" s="56"/>
+      <c r="L82" s="56"/>
+      <c r="O82" s="23">
         <v>814.35</v>
       </c>
-      <c r="P82" s="33">
+      <c r="P82" s="23">
         <v>813.62099999999998</v>
       </c>
-      <c r="Q82" s="33">
+      <c r="Q82" s="23">
         <v>925.38499999999999</v>
       </c>
-      <c r="R82" s="33">
+      <c r="R82" s="23">
         <v>1068.241</v>
       </c>
-      <c r="S82" s="33">
+      <c r="S82" s="23">
         <v>867.399</v>
       </c>
-      <c r="T82" s="33">
+      <c r="T82" s="23">
         <v>732.96799999999996</v>
       </c>
-      <c r="U82" s="33">
+      <c r="U82" s="23">
         <v>746</v>
       </c>
-      <c r="V82" s="33">
+      <c r="V82" s="23">
         <v>720</v>
       </c>
-      <c r="W82" s="54"/>
-    </row>
-    <row r="83" spans="2:23" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B83" s="33" t="s">
+      <c r="W82" s="39"/>
+    </row>
+    <row r="83" spans="2:23" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B83" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="D83" s="71"/>
-      <c r="F83" s="71"/>
-      <c r="H83" s="71"/>
-      <c r="J83" s="71"/>
-      <c r="L83" s="71"/>
-      <c r="O83" s="33">
+      <c r="D83" s="56"/>
+      <c r="F83" s="56"/>
+      <c r="H83" s="56"/>
+      <c r="J83" s="56"/>
+      <c r="L83" s="56"/>
+      <c r="O83" s="23">
         <f t="shared" ref="O83:P83" si="56">+O82+O80</f>
         <v>1564.9030000000002</v>
       </c>
-      <c r="P83" s="33">
+      <c r="P83" s="23">
         <f t="shared" si="56"/>
         <v>1773.5160000000001</v>
       </c>
-      <c r="Q83" s="33">
-        <f>+Q82+Q80</f>
+      <c r="Q83" s="23">
+        <f t="shared" ref="Q83:V83" si="57">+Q82+Q80</f>
         <v>2056.2319999999995</v>
       </c>
-      <c r="R83" s="33">
-        <f>+R82+R80</f>
+      <c r="R83" s="23">
+        <f t="shared" si="57"/>
         <v>2331.8590000000004</v>
       </c>
-      <c r="S83" s="33">
-        <f>+S82+S80</f>
+      <c r="S83" s="23">
+        <f t="shared" si="57"/>
         <v>3570.123</v>
       </c>
-      <c r="T83" s="33">
-        <f>+T82+T80</f>
+      <c r="T83" s="23">
+        <f t="shared" si="57"/>
         <v>3358.4540000000002</v>
       </c>
-      <c r="U83" s="33">
-        <f>+U82+U80</f>
+      <c r="U83" s="23">
+        <f t="shared" si="57"/>
         <v>3638</v>
       </c>
-      <c r="V83" s="33">
-        <f>+V82+V80</f>
+      <c r="V83" s="23">
+        <f t="shared" si="57"/>
         <v>3587</v>
       </c>
-      <c r="W83" s="54"/>
-    </row>
-    <row r="84" spans="2:23" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D84" s="71"/>
-      <c r="F84" s="71"/>
-      <c r="H84" s="71"/>
-      <c r="J84" s="71"/>
-      <c r="L84" s="71"/>
-      <c r="W84" s="54"/>
-    </row>
-    <row r="85" spans="2:23" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B85" s="33" t="s">
+      <c r="W83" s="39"/>
+    </row>
+    <row r="84" spans="2:23" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D84" s="56"/>
+      <c r="F84" s="56"/>
+      <c r="H84" s="56"/>
+      <c r="J84" s="56"/>
+      <c r="L84" s="56"/>
+      <c r="W84" s="39"/>
+    </row>
+    <row r="85" spans="2:23" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B85" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="D85" s="71"/>
-      <c r="F85" s="71"/>
-      <c r="H85" s="71"/>
-      <c r="J85" s="71"/>
-      <c r="L85" s="71"/>
-      <c r="O85" s="33">
-        <f t="shared" ref="O85:Q85" si="57">O67-O80</f>
+      <c r="D85" s="56"/>
+      <c r="F85" s="56"/>
+      <c r="H85" s="56"/>
+      <c r="J85" s="56"/>
+      <c r="L85" s="56"/>
+      <c r="O85" s="23">
+        <f t="shared" ref="O85:P85" si="58">O67-O80</f>
         <v>814.34999999999945</v>
       </c>
-      <c r="P85" s="33">
-        <f t="shared" si="57"/>
+      <c r="P85" s="23">
+        <f t="shared" si="58"/>
         <v>813.58100000000002</v>
       </c>
-      <c r="Q85" s="33">
-        <f t="shared" ref="Q85:S85" si="58">Q67-Q80</f>
+      <c r="Q85" s="23">
+        <f t="shared" ref="Q85:S85" si="59">Q67-Q80</f>
         <v>926.01500000000055</v>
       </c>
-      <c r="R85" s="33">
-        <f t="shared" si="58"/>
+      <c r="R85" s="23">
+        <f t="shared" si="59"/>
         <v>1068.2409999999998</v>
       </c>
-      <c r="S85" s="33">
-        <f t="shared" si="58"/>
+      <c r="S85" s="23">
+        <f t="shared" si="59"/>
         <v>867.39899999999943</v>
       </c>
-      <c r="T85" s="33">
-        <f t="shared" ref="T85:U85" si="59">T67-T80</f>
+      <c r="T85" s="23">
+        <f t="shared" ref="T85" si="60">T67-T80</f>
         <v>732.96799999999848</v>
       </c>
-      <c r="U85" s="33">
-        <f t="shared" ref="U85:V85" si="60">U67-U80</f>
+      <c r="U85" s="23">
+        <f t="shared" ref="U85" si="61">U67-U80</f>
         <v>746</v>
       </c>
-      <c r="V85" s="33">
+      <c r="V85" s="23">
         <f>V67-V80</f>
         <v>720</v>
       </c>
-      <c r="W85" s="54"/>
-    </row>
-    <row r="86" spans="2:23" s="53" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B86" s="53" t="s">
+      <c r="W85" s="39"/>
+    </row>
+    <row r="86" spans="2:23" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B86" s="38" t="s">
         <v>103</v>
       </c>
-      <c r="D86" s="75"/>
-      <c r="F86" s="75"/>
-      <c r="H86" s="75"/>
-      <c r="J86" s="75"/>
-      <c r="L86" s="75"/>
-      <c r="O86" s="53">
-        <f t="shared" ref="O86" si="61">O85/O22</f>
+      <c r="D86" s="60"/>
+      <c r="F86" s="60"/>
+      <c r="H86" s="60"/>
+      <c r="J86" s="60"/>
+      <c r="L86" s="60"/>
+      <c r="O86" s="38">
+        <f t="shared" ref="O86" si="62">O85/O22</f>
         <v>0.81396336740048425</v>
       </c>
-      <c r="P86" s="53">
-        <f t="shared" ref="P86" si="62">P85/P22</f>
+      <c r="P86" s="38">
+        <f t="shared" ref="P86" si="63">P85/P22</f>
         <v>0.81346060783004115</v>
       </c>
-      <c r="Q86" s="53">
-        <f t="shared" ref="Q86" si="63">Q85/Q22</f>
+      <c r="Q86" s="38">
+        <f t="shared" ref="Q86" si="64">Q85/Q22</f>
         <v>0.92541255642576747</v>
       </c>
-      <c r="R86" s="53">
-        <f t="shared" ref="R86" si="64">R85/R22</f>
+      <c r="R86" s="38">
+        <f t="shared" ref="R86" si="65">R85/R22</f>
         <v>1.067158900874513</v>
       </c>
-      <c r="S86" s="53">
-        <f t="shared" ref="S86" si="65">S85/S22</f>
+      <c r="S86" s="38">
+        <f t="shared" ref="S86" si="66">S85/S22</f>
         <v>0.86690486422738977</v>
       </c>
-      <c r="T86" s="53">
-        <f t="shared" ref="T86" si="66">T85/T22</f>
+      <c r="T86" s="38">
+        <f t="shared" ref="T86" si="67">T85/T22</f>
         <v>0.73245894103597842</v>
       </c>
-      <c r="U86" s="53">
+      <c r="U86" s="38">
         <f>U85/U22</f>
         <v>0.74520933289779545</v>
       </c>
-      <c r="V86" s="53">
+      <c r="V86" s="38">
         <f>V85/V22</f>
         <v>0.71885486420132727</v>
       </c>
-      <c r="W86" s="87"/>
-    </row>
-    <row r="87" spans="2:23" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D87" s="71"/>
-      <c r="F87" s="71"/>
-      <c r="H87" s="71"/>
-      <c r="J87" s="71"/>
-      <c r="L87" s="71"/>
-      <c r="W87" s="54"/>
-    </row>
-    <row r="88" spans="2:23" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B88" s="33" t="s">
+      <c r="W86" s="72"/>
+    </row>
+    <row r="87" spans="2:23" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D87" s="56"/>
+      <c r="F87" s="56"/>
+      <c r="H87" s="56"/>
+      <c r="J87" s="56"/>
+      <c r="L87" s="56"/>
+      <c r="W87" s="39"/>
+    </row>
+    <row r="88" spans="2:23" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B88" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="D88" s="71"/>
-      <c r="F88" s="71"/>
-      <c r="H88" s="71"/>
-      <c r="J88" s="71"/>
-      <c r="L88" s="71"/>
-      <c r="O88" s="33">
-        <f t="shared" ref="O88:Q88" si="67">+O62+O66</f>
+      <c r="D88" s="56"/>
+      <c r="F88" s="56"/>
+      <c r="H88" s="56"/>
+      <c r="J88" s="56"/>
+      <c r="L88" s="56"/>
+      <c r="O88" s="23">
+        <f t="shared" ref="O88:P88" si="68">+O62+O66</f>
         <v>95.917000000000002</v>
       </c>
-      <c r="P88" s="33">
-        <f t="shared" si="67"/>
+      <c r="P88" s="23">
+        <f t="shared" si="68"/>
         <v>155.92099999999999</v>
       </c>
-      <c r="Q88" s="33">
-        <f t="shared" ref="Q88:S88" si="68">+Q62+Q66</f>
+      <c r="Q88" s="23">
+        <f t="shared" ref="Q88:R88" si="69">+Q62+Q66</f>
         <v>90.816000000000003</v>
       </c>
-      <c r="R88" s="33">
-        <f t="shared" si="68"/>
+      <c r="R88" s="23">
+        <f t="shared" si="69"/>
         <v>89.983000000000004</v>
       </c>
-      <c r="S88" s="33">
-        <f t="shared" ref="S88:T88" si="69">+S62+S66</f>
+      <c r="S88" s="23">
+        <f t="shared" ref="S88" si="70">+S62+S66</f>
         <v>444.90699999999998</v>
       </c>
-      <c r="T88" s="33">
-        <f t="shared" ref="T88:U88" si="70">+T62+T66</f>
+      <c r="T88" s="23">
+        <f t="shared" ref="T88" si="71">+T62+T66</f>
         <v>221.44899999999998</v>
       </c>
-      <c r="U88" s="33">
-        <f t="shared" ref="U88:V88" si="71">+U62+U66</f>
+      <c r="U88" s="23">
+        <f t="shared" ref="U88" si="72">+U62+U66</f>
         <v>198</v>
       </c>
-      <c r="V88" s="33">
+      <c r="V88" s="23">
         <f>+V62+V66</f>
         <v>238</v>
       </c>
-      <c r="W88" s="54"/>
-    </row>
-    <row r="89" spans="2:23" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B89" s="33" t="s">
+      <c r="W88" s="39"/>
+    </row>
+    <row r="89" spans="2:23" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B89" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="D89" s="71"/>
-      <c r="F89" s="71"/>
-      <c r="H89" s="71"/>
-      <c r="J89" s="71"/>
-      <c r="L89" s="71"/>
-      <c r="O89" s="33">
-        <f t="shared" ref="O89:Q89" si="72">+O69+O74</f>
+      <c r="D89" s="56"/>
+      <c r="F89" s="56"/>
+      <c r="H89" s="56"/>
+      <c r="J89" s="56"/>
+      <c r="L89" s="56"/>
+      <c r="O89" s="23">
+        <f t="shared" ref="O89:P89" si="73">+O69+O74</f>
         <v>451.18299999999999</v>
       </c>
-      <c r="P89" s="33">
-        <f t="shared" si="72"/>
+      <c r="P89" s="23">
+        <f t="shared" si="73"/>
         <v>561.61099999999999</v>
       </c>
-      <c r="Q89" s="33">
-        <f t="shared" ref="Q89:S89" si="73">+Q69+Q74</f>
+      <c r="Q89" s="23">
+        <f t="shared" ref="Q89:R89" si="74">+Q69+Q74</f>
         <v>630.95899999999995</v>
       </c>
-      <c r="R89" s="33">
-        <f t="shared" si="73"/>
+      <c r="R89" s="23">
+        <f t="shared" si="74"/>
         <v>692.85900000000004</v>
       </c>
-      <c r="S89" s="33">
-        <f t="shared" ref="S89:T89" si="74">+S69+S74</f>
+      <c r="S89" s="23">
+        <f t="shared" ref="S89" si="75">+S69+S74</f>
         <v>773.40800000000002</v>
       </c>
-      <c r="T89" s="33">
-        <f t="shared" ref="T89:U89" si="75">+T69+T74</f>
+      <c r="T89" s="23">
+        <f t="shared" ref="T89" si="76">+T69+T74</f>
         <v>730.61099999999999</v>
       </c>
-      <c r="U89" s="33">
-        <f t="shared" ref="U89:V89" si="76">+U69+U74</f>
+      <c r="U89" s="23">
+        <f t="shared" ref="U89" si="77">+U69+U74</f>
         <v>956</v>
       </c>
-      <c r="V89" s="33">
+      <c r="V89" s="23">
         <f>+V69+V74</f>
         <v>954</v>
       </c>
-      <c r="W89" s="54"/>
-    </row>
-    <row r="90" spans="2:23" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="33" t="s">
+      <c r="W89" s="39"/>
+    </row>
+    <row r="90" spans="2:23" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B90" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="D90" s="71"/>
-      <c r="F90" s="71"/>
-      <c r="H90" s="71"/>
-      <c r="J90" s="71"/>
-      <c r="L90" s="71"/>
-      <c r="O90" s="33">
-        <f t="shared" ref="O90:U90" si="77">O88-O89</f>
+      <c r="D90" s="56"/>
+      <c r="F90" s="56"/>
+      <c r="H90" s="56"/>
+      <c r="J90" s="56"/>
+      <c r="L90" s="56"/>
+      <c r="O90" s="23">
+        <f t="shared" ref="O90:U90" si="78">O88-O89</f>
         <v>-355.26599999999996</v>
       </c>
-      <c r="P90" s="33">
-        <f t="shared" si="77"/>
+      <c r="P90" s="23">
+        <f t="shared" si="78"/>
         <v>-405.69</v>
       </c>
-      <c r="Q90" s="33">
-        <f t="shared" si="77"/>
+      <c r="Q90" s="23">
+        <f t="shared" si="78"/>
         <v>-540.14299999999992</v>
       </c>
-      <c r="R90" s="33">
-        <f t="shared" si="77"/>
+      <c r="R90" s="23">
+        <f t="shared" si="78"/>
         <v>-602.87599999999998</v>
       </c>
-      <c r="S90" s="33">
-        <f t="shared" si="77"/>
+      <c r="S90" s="23">
+        <f t="shared" si="78"/>
         <v>-328.50100000000003</v>
       </c>
-      <c r="T90" s="33">
-        <f t="shared" si="77"/>
+      <c r="T90" s="23">
+        <f t="shared" si="78"/>
         <v>-509.16200000000003</v>
       </c>
-      <c r="U90" s="33">
-        <f t="shared" si="77"/>
+      <c r="U90" s="23">
+        <f t="shared" si="78"/>
         <v>-758</v>
       </c>
-      <c r="V90" s="33">
+      <c r="V90" s="23">
         <f>V88-V89</f>
         <v>-716</v>
       </c>
-      <c r="W90" s="54"/>
-    </row>
-    <row r="91" spans="2:23" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D91" s="71"/>
-      <c r="F91" s="71"/>
-      <c r="H91" s="71"/>
-      <c r="J91" s="71"/>
-      <c r="L91" s="71"/>
-      <c r="W91" s="54"/>
-    </row>
-    <row r="92" spans="2:23" s="32" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B92" s="32" t="s">
+      <c r="W90" s="39"/>
+    </row>
+    <row r="91" spans="2:23" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D91" s="56"/>
+      <c r="F91" s="56"/>
+      <c r="H91" s="56"/>
+      <c r="J91" s="56"/>
+      <c r="L91" s="56"/>
+      <c r="W91" s="39"/>
+    </row>
+    <row r="92" spans="2:23" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B92" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="D92" s="70"/>
-      <c r="F92" s="70"/>
-      <c r="H92" s="70"/>
-      <c r="J92" s="70"/>
-      <c r="L92" s="70"/>
-      <c r="O92" s="52" t="s">
+      <c r="D92" s="55"/>
+      <c r="F92" s="55"/>
+      <c r="H92" s="55"/>
+      <c r="J92" s="55"/>
+      <c r="L92" s="55"/>
+      <c r="O92" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="P92" s="38">
-        <f t="shared" ref="P92:T92" si="78">P63/O63-1</f>
+      <c r="P92" s="28">
+        <f t="shared" ref="P92:S92" si="79">P63/O63-1</f>
         <v>0.29695042546981298</v>
       </c>
-      <c r="Q92" s="38">
-        <f t="shared" si="78"/>
+      <c r="Q92" s="28">
+        <f t="shared" si="79"/>
         <v>0.20897431181145976</v>
       </c>
-      <c r="R92" s="38">
-        <f t="shared" si="78"/>
+      <c r="R92" s="28">
+        <f t="shared" si="79"/>
         <v>0.20052444110329515</v>
       </c>
-      <c r="S92" s="38">
-        <f t="shared" si="78"/>
+      <c r="S92" s="28">
+        <f t="shared" si="79"/>
         <v>-0.12333145972766624</v>
       </c>
-      <c r="T92" s="38">
+      <c r="T92" s="28">
         <f>T63/S63-1</f>
         <v>2.9125850340135928E-2</v>
       </c>
-      <c r="U92" s="38">
+      <c r="U92" s="28">
         <f>U63/T63-1</f>
         <v>0.42614926478121928</v>
       </c>
-      <c r="V92" s="38">
+      <c r="V92" s="28">
         <f>V63/U63-1</f>
         <v>-0.11471610660486675</v>
       </c>
-      <c r="W92" s="84"/>
-    </row>
-    <row r="93" spans="2:23" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B93" s="33" t="s">
+      <c r="W92" s="69"/>
+    </row>
+    <row r="93" spans="2:23" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B93" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="D93" s="71"/>
-      <c r="F93" s="71"/>
-      <c r="H93" s="71"/>
-      <c r="J93" s="71"/>
-      <c r="L93" s="71"/>
-      <c r="O93" s="52" t="s">
+      <c r="D93" s="56"/>
+      <c r="F93" s="56"/>
+      <c r="H93" s="56"/>
+      <c r="J93" s="56"/>
+      <c r="L93" s="56"/>
+      <c r="O93" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="P93" s="52" t="s">
+      <c r="P93" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="Q93" s="52" t="s">
+      <c r="Q93" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="R93" s="52" t="s">
+      <c r="R93" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="S93" s="52" t="s">
+      <c r="S93" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="T93" s="52" t="s">
+      <c r="T93" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="U93" s="52" t="s">
+      <c r="U93" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="V93" s="52" t="s">
+      <c r="V93" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="W93" s="54"/>
-    </row>
-    <row r="94" spans="2:23" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B94" s="33" t="s">
+      <c r="W93" s="39"/>
+    </row>
+    <row r="94" spans="2:23" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B94" s="23" t="s">
         <v>127</v>
       </c>
-      <c r="D94" s="71"/>
-      <c r="F94" s="71"/>
-      <c r="H94" s="71"/>
-      <c r="J94" s="71"/>
-      <c r="L94" s="71"/>
-      <c r="O94" s="55">
-        <f t="shared" ref="O94:V94" si="79">O63/O4</f>
+      <c r="D94" s="56"/>
+      <c r="F94" s="56"/>
+      <c r="H94" s="56"/>
+      <c r="J94" s="56"/>
+      <c r="L94" s="56"/>
+      <c r="O94" s="40">
+        <f t="shared" ref="O94:U94" si="80">O63/O4</f>
         <v>0.1750673738567326</v>
       </c>
-      <c r="P94" s="55">
-        <f t="shared" si="79"/>
+      <c r="P94" s="40">
+        <f t="shared" si="80"/>
         <v>0.19012079023804238</v>
       </c>
-      <c r="Q94" s="55">
-        <f t="shared" si="79"/>
+      <c r="Q94" s="40">
+        <f t="shared" si="80"/>
         <v>0.18439818839646949</v>
       </c>
-      <c r="R94" s="55">
-        <f t="shared" si="79"/>
+      <c r="R94" s="40">
+        <f t="shared" si="80"/>
         <v>0.1923879075063929</v>
       </c>
-      <c r="S94" s="55">
-        <f t="shared" si="79"/>
+      <c r="S94" s="40">
+        <f t="shared" si="80"/>
         <v>0.15419363416301571</v>
       </c>
-      <c r="T94" s="55">
-        <f t="shared" si="79"/>
+      <c r="T94" s="40">
+        <f t="shared" si="80"/>
         <v>0.12603050136157493</v>
       </c>
-      <c r="U94" s="55">
-        <f t="shared" si="79"/>
+      <c r="U94" s="40">
+        <f t="shared" si="80"/>
         <v>0.18467793708538413</v>
       </c>
-      <c r="V94" s="55">
+      <c r="V94" s="40">
         <f>V63/V4</f>
         <v>0.15332129239414008</v>
       </c>
-      <c r="W94" s="54"/>
-    </row>
-    <row r="96" spans="2:23" s="40" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B96" s="40" t="s">
+      <c r="W94" s="39"/>
+    </row>
+    <row r="96" spans="2:23" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B96" s="30" t="s">
         <v>106</v>
       </c>
-      <c r="D96" s="68"/>
-      <c r="F96" s="68"/>
-      <c r="H96" s="68"/>
-      <c r="J96" s="68"/>
-      <c r="L96" s="68"/>
-      <c r="S96" s="40">
+      <c r="D96" s="53"/>
+      <c r="F96" s="53"/>
+      <c r="H96" s="53"/>
+      <c r="J96" s="53"/>
+      <c r="L96" s="53"/>
+      <c r="O96" s="30">
+        <v>1.6907000000000001</v>
+      </c>
+      <c r="P96" s="30">
+        <v>2.0636000000000001</v>
+      </c>
+      <c r="Q96" s="30">
+        <v>2.6928999999999998</v>
+      </c>
+      <c r="R96" s="30">
+        <v>2.6215999999999999</v>
+      </c>
+      <c r="S96" s="30">
         <v>2.0379999999999998</v>
       </c>
-      <c r="T96" s="40">
+      <c r="T96" s="30">
         <v>4.5180999999999996</v>
       </c>
-      <c r="U96" s="40">
+      <c r="U96" s="30">
         <v>5.0332999999999997</v>
       </c>
-      <c r="V96" s="40">
+      <c r="V96" s="30">
         <v>4.6698000000000004</v>
       </c>
-      <c r="W96" s="81"/>
-    </row>
-    <row r="97" spans="2:23" s="49" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B97" s="49" t="s">
+      <c r="W96" s="66"/>
+    </row>
+    <row r="97" spans="2:23" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B97" s="35" t="s">
         <v>107</v>
       </c>
-      <c r="D97" s="73"/>
-      <c r="F97" s="73"/>
-      <c r="H97" s="73"/>
-      <c r="J97" s="73"/>
-      <c r="L97" s="73"/>
-      <c r="S97" s="49">
-        <f t="shared" ref="S97" si="80">S96*S22</f>
+      <c r="D97" s="58"/>
+      <c r="F97" s="58"/>
+      <c r="H97" s="58"/>
+      <c r="J97" s="58"/>
+      <c r="L97" s="58"/>
+      <c r="O97" s="35">
+        <f t="shared" ref="O97:S97" si="81">O96*O22</f>
+        <v>1691.5030825000001</v>
+      </c>
+      <c r="P97" s="35">
+        <f t="shared" si="81"/>
+        <v>2063.9054128000002</v>
+      </c>
+      <c r="Q97" s="35">
+        <f t="shared" si="81"/>
+        <v>2694.6530778999995</v>
+      </c>
+      <c r="R97" s="35">
+        <f t="shared" si="81"/>
+        <v>2624.2583024</v>
+      </c>
+      <c r="S97" s="35">
+        <f t="shared" ref="S97" si="82">S96*S22</f>
         <v>2039.16166</v>
       </c>
-      <c r="T97" s="49">
-        <f t="shared" ref="T97" si="81">T96*T22</f>
+      <c r="T97" s="35">
+        <f t="shared" ref="T97" si="83">T96*T22</f>
         <v>4521.2400794999994</v>
       </c>
-      <c r="U97" s="49">
-        <f t="shared" ref="U97" si="82">U96*U22</f>
+      <c r="U97" s="35">
+        <f t="shared" ref="U97" si="84">U96*U22</f>
         <v>5038.6403313000001</v>
       </c>
-      <c r="V97" s="49">
+      <c r="V97" s="35">
         <f>V96*V22</f>
         <v>4677.2389914000005</v>
       </c>
-      <c r="W97" s="54"/>
-    </row>
-    <row r="98" spans="2:23" s="49" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B98" s="49" t="s">
+      <c r="W97" s="39"/>
+    </row>
+    <row r="98" spans="2:23" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B98" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="D98" s="73"/>
-      <c r="F98" s="73"/>
-      <c r="H98" s="73"/>
-      <c r="J98" s="73"/>
-      <c r="L98" s="73"/>
-      <c r="S98" s="49">
-        <f t="shared" ref="S98" si="83">S97-S90</f>
+      <c r="D98" s="58"/>
+      <c r="F98" s="58"/>
+      <c r="H98" s="58"/>
+      <c r="J98" s="58"/>
+      <c r="L98" s="58"/>
+      <c r="O98" s="35">
+        <f t="shared" ref="O98:S98" si="85">O97-O90</f>
+        <v>2046.7690825</v>
+      </c>
+      <c r="P98" s="35">
+        <f t="shared" si="85"/>
+        <v>2469.5954128000003</v>
+      </c>
+      <c r="Q98" s="35">
+        <f t="shared" si="85"/>
+        <v>3234.7960778999995</v>
+      </c>
+      <c r="R98" s="35">
+        <f t="shared" si="85"/>
+        <v>3227.1343023999998</v>
+      </c>
+      <c r="S98" s="35">
+        <f t="shared" ref="S98" si="86">S97-S90</f>
         <v>2367.66266</v>
       </c>
-      <c r="T98" s="49">
-        <f t="shared" ref="T98" si="84">T97-T90</f>
+      <c r="T98" s="35">
+        <f t="shared" ref="T98" si="87">T97-T90</f>
         <v>5030.4020794999997</v>
       </c>
-      <c r="U98" s="49">
-        <f t="shared" ref="U98" si="85">U97-U90</f>
+      <c r="U98" s="35">
+        <f t="shared" ref="U98" si="88">U97-U90</f>
         <v>5796.6403313000001</v>
       </c>
-      <c r="V98" s="49">
+      <c r="V98" s="35">
         <f>V97-V90</f>
         <v>5393.2389914000005</v>
       </c>
-      <c r="W98" s="54"/>
+      <c r="W98" s="39"/>
     </row>
     <row r="100" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B100" s="39" t="s">
+      <c r="B100" s="29" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="101" spans="2:23" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B101" s="60" t="s">
+    <row r="101" spans="2:23" s="45" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B101" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="D101" s="74"/>
-      <c r="F101" s="74"/>
-      <c r="H101" s="74"/>
-      <c r="J101" s="74"/>
-      <c r="L101" s="74"/>
-      <c r="S101" s="63">
-        <f t="shared" ref="S101:V101" si="86">S96/S86</f>
+      <c r="D101" s="59"/>
+      <c r="F101" s="59"/>
+      <c r="H101" s="59"/>
+      <c r="J101" s="59"/>
+      <c r="L101" s="59"/>
+      <c r="O101" s="48">
+        <f t="shared" ref="O101:S101" si="89">O96/O86</f>
+        <v>2.0771205040830125</v>
+      </c>
+      <c r="P101" s="48">
+        <f t="shared" si="89"/>
+        <v>2.5368161409865766</v>
+      </c>
+      <c r="Q101" s="48">
+        <f t="shared" si="89"/>
+        <v>2.9099453873857315</v>
+      </c>
+      <c r="R101" s="48">
+        <f t="shared" si="89"/>
+        <v>2.4566163463113666</v>
+      </c>
+      <c r="S101" s="48">
+        <f t="shared" ref="S101:U101" si="90">S96/S86</f>
         <v>2.3508923344389392</v>
       </c>
-      <c r="T101" s="63">
-        <f t="shared" si="86"/>
+      <c r="T101" s="48">
+        <f t="shared" si="90"/>
         <v>6.1684003660460069</v>
       </c>
-      <c r="U101" s="63">
-        <f t="shared" si="86"/>
+      <c r="U101" s="48">
+        <f t="shared" si="90"/>
         <v>6.7542095593833773</v>
       </c>
-      <c r="V101" s="63">
+      <c r="V101" s="48">
         <f>V96/V86</f>
         <v>6.4961652658333344</v>
       </c>
-      <c r="W101" s="86"/>
-    </row>
-    <row r="102" spans="2:23" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B102" s="60" t="s">
+      <c r="W101" s="71"/>
+    </row>
+    <row r="102" spans="2:23" s="45" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B102" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="D102" s="74"/>
-      <c r="F102" s="74"/>
-      <c r="H102" s="74"/>
-      <c r="J102" s="74"/>
-      <c r="L102" s="74"/>
-      <c r="S102" s="63">
-        <f t="shared" ref="S102:V102" si="87">S97/S4</f>
+      <c r="D102" s="59"/>
+      <c r="F102" s="59"/>
+      <c r="H102" s="59"/>
+      <c r="J102" s="59"/>
+      <c r="L102" s="59"/>
+      <c r="O102" s="48">
+        <f t="shared" ref="O102:S102" si="91">O97/O4</f>
+        <v>0.8310890526388196</v>
+      </c>
+      <c r="P102" s="48">
+        <f t="shared" si="91"/>
+        <v>0.84911316794615466</v>
+      </c>
+      <c r="Q102" s="48">
+        <f t="shared" si="91"/>
+        <v>0.88938256622049872</v>
+      </c>
+      <c r="R102" s="48">
+        <f t="shared" si="91"/>
+        <v>0.75273558387916106</v>
+      </c>
+      <c r="S102" s="48">
+        <f t="shared" ref="S102:U102" si="92">S97/S4</f>
         <v>0.53473766496817654</v>
       </c>
-      <c r="T102" s="63">
-        <f t="shared" si="87"/>
+      <c r="T102" s="48">
+        <f t="shared" si="92"/>
         <v>0.94164546556491024</v>
       </c>
-      <c r="U102" s="63">
-        <f t="shared" si="87"/>
+      <c r="U102" s="48">
+        <f t="shared" si="92"/>
         <v>1.0782453095013911</v>
       </c>
-      <c r="V102" s="63">
+      <c r="V102" s="48">
         <f>V97/V4</f>
         <v>0.93863917146297426</v>
       </c>
-      <c r="W102" s="86"/>
-    </row>
-    <row r="103" spans="2:23" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B103" s="60" t="s">
+      <c r="W102" s="71"/>
+    </row>
+    <row r="103" spans="2:23" s="45" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B103" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="D103" s="74"/>
-      <c r="F103" s="74"/>
-      <c r="H103" s="74"/>
-      <c r="J103" s="74"/>
-      <c r="L103" s="74"/>
-      <c r="S103" s="63">
-        <f t="shared" ref="S103:V103" si="88">S96/S21</f>
+      <c r="D103" s="59"/>
+      <c r="F103" s="59"/>
+      <c r="H103" s="59"/>
+      <c r="J103" s="59"/>
+      <c r="L103" s="59"/>
+      <c r="O103" s="48">
+        <f t="shared" ref="O103:S103" si="93">O96/O21</f>
+        <v>12.971848360404286</v>
+      </c>
+      <c r="P103" s="48">
+        <f t="shared" si="93"/>
+        <v>14.026337373339246</v>
+      </c>
+      <c r="Q103" s="48">
+        <f t="shared" si="93"/>
+        <v>15.64176091378217</v>
+      </c>
+      <c r="R103" s="48">
+        <f t="shared" si="93"/>
+        <v>12.127671394637359</v>
+      </c>
+      <c r="S103" s="48">
+        <f t="shared" ref="S103:U103" si="94">S96/S21</f>
         <v>10.008941364720664</v>
       </c>
-      <c r="T103" s="63">
-        <f t="shared" si="88"/>
+      <c r="T103" s="48">
+        <f t="shared" si="94"/>
         <v>11.015271163254162</v>
       </c>
-      <c r="U103" s="63">
-        <f t="shared" si="88"/>
+      <c r="U103" s="48">
+        <f t="shared" si="94"/>
         <v>11.556514521330275</v>
       </c>
-      <c r="V103" s="63">
+      <c r="V103" s="48">
         <f>V96/V21</f>
         <v>12.117199459585493</v>
       </c>
-      <c r="W103" s="86"/>
-    </row>
-    <row r="104" spans="2:23" s="50" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B104" s="50" t="s">
+      <c r="W103" s="71"/>
+    </row>
+    <row r="104" spans="2:23" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B104" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="D104" s="76"/>
-      <c r="F104" s="76"/>
-      <c r="H104" s="76"/>
-      <c r="J104" s="76"/>
-      <c r="L104" s="76"/>
-      <c r="S104" s="62">
-        <f t="shared" ref="S104:V104" si="89">S98/S4</f>
+      <c r="D104" s="61"/>
+      <c r="F104" s="61"/>
+      <c r="H104" s="61"/>
+      <c r="J104" s="61"/>
+      <c r="L104" s="61"/>
+      <c r="O104" s="47">
+        <f t="shared" ref="O104:S104" si="95">O98/O4</f>
+        <v>1.0056424935574133</v>
+      </c>
+      <c r="P104" s="47">
+        <f t="shared" si="95"/>
+        <v>1.0160184529304799</v>
+      </c>
+      <c r="Q104" s="47">
+        <f t="shared" si="95"/>
+        <v>1.0676592324844989</v>
+      </c>
+      <c r="R104" s="47">
+        <f t="shared" si="95"/>
+        <v>0.92566300396265944</v>
+      </c>
+      <c r="S104" s="47">
+        <f t="shared" ref="S104:U104" si="96">S98/S4</f>
         <v>0.62088181975760648</v>
       </c>
-      <c r="T104" s="62">
-        <f t="shared" si="89"/>
+      <c r="T104" s="47">
+        <f t="shared" si="96"/>
         <v>1.0476894004384114</v>
       </c>
-      <c r="U104" s="62">
-        <f t="shared" si="89"/>
+      <c r="U104" s="47">
+        <f t="shared" si="96"/>
         <v>1.2404537409158998</v>
       </c>
-      <c r="V104" s="62">
+      <c r="V104" s="47">
         <f>V98/V4</f>
         <v>1.0823277125025086</v>
       </c>
-      <c r="W104" s="88"/>
-    </row>
-    <row r="105" spans="2:23" s="50" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B105" s="50" t="s">
+      <c r="W104" s="73"/>
+    </row>
+    <row r="105" spans="2:23" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B105" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="D105" s="76"/>
-      <c r="F105" s="76"/>
-      <c r="H105" s="76"/>
-      <c r="J105" s="76"/>
-      <c r="L105" s="76"/>
-      <c r="S105" s="62">
-        <f t="shared" ref="S105:V105" si="90">S98/S20</f>
+      <c r="D105" s="61"/>
+      <c r="F105" s="61"/>
+      <c r="H105" s="61"/>
+      <c r="J105" s="61"/>
+      <c r="L105" s="61"/>
+      <c r="O105" s="47">
+        <f t="shared" ref="O105:S105" si="97">O98/O20</f>
+        <v>15.696322662157375</v>
+      </c>
+      <c r="P105" s="47">
+        <f t="shared" si="97"/>
+        <v>16.78341372659624</v>
+      </c>
+      <c r="Q105" s="47">
+        <f t="shared" si="97"/>
+        <v>18.777150673059591</v>
+      </c>
+      <c r="R105" s="47">
+        <f t="shared" si="97"/>
+        <v>14.913785098851125</v>
+      </c>
+      <c r="S105" s="47">
+        <f t="shared" ref="S105:U105" si="98">S98/S20</f>
         <v>11.621342829375557</v>
       </c>
-      <c r="T105" s="62">
-        <f t="shared" si="90"/>
+      <c r="T105" s="47">
+        <f t="shared" si="98"/>
         <v>12.255762134183771</v>
       </c>
-      <c r="U105" s="62">
-        <f t="shared" si="90"/>
+      <c r="U105" s="47">
+        <f t="shared" si="98"/>
         <v>13.295046631422018</v>
       </c>
-      <c r="V105" s="62">
+      <c r="V105" s="47">
         <f>V98/V20</f>
         <v>13.97212173937824</v>
       </c>
-      <c r="W105" s="88"/>
-    </row>
-    <row r="107" spans="2:23" s="50" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B107" s="50" t="s">
+      <c r="W105" s="73"/>
+    </row>
+    <row r="107" spans="2:23" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B107" s="36" t="s">
         <v>130</v>
       </c>
-      <c r="D107" s="76"/>
-      <c r="F107" s="76"/>
-      <c r="H107" s="76"/>
-      <c r="J107" s="76"/>
-      <c r="L107" s="76"/>
-      <c r="S107" s="62">
-        <f t="shared" ref="S107:V107" si="91">S89/S82</f>
+      <c r="D107" s="61"/>
+      <c r="F107" s="61"/>
+      <c r="H107" s="61"/>
+      <c r="J107" s="61"/>
+      <c r="L107" s="61"/>
+      <c r="O107" s="47">
+        <f t="shared" ref="O107:S107" si="99">O89/O82</f>
+        <v>0.55404064591391911</v>
+      </c>
+      <c r="P107" s="47">
+        <f t="shared" si="99"/>
+        <v>0.69026119040683565</v>
+      </c>
+      <c r="Q107" s="47">
+        <f t="shared" si="99"/>
+        <v>0.68183404745052056</v>
+      </c>
+      <c r="R107" s="47">
+        <f t="shared" si="99"/>
+        <v>0.64859802235637842</v>
+      </c>
+      <c r="S107" s="47">
+        <f t="shared" ref="S107:U107" si="100">S89/S82</f>
         <v>0.89164041000738992</v>
       </c>
-      <c r="T107" s="62">
-        <f t="shared" si="91"/>
+      <c r="T107" s="47">
+        <f t="shared" si="100"/>
         <v>0.99678430709116905</v>
       </c>
-      <c r="U107" s="62">
-        <f t="shared" si="91"/>
+      <c r="U107" s="47">
+        <f t="shared" si="100"/>
         <v>1.2815013404825737</v>
       </c>
-      <c r="V107" s="62">
+      <c r="V107" s="47">
         <f>V89/V82</f>
         <v>1.325</v>
       </c>
-      <c r="W107" s="88"/>
+      <c r="W107" s="73"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/£BME.xlsx
+++ b/£BME.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20401"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\My Drive\Stocks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9E0E7D5-AD7B-4134-B39D-EF7590779D71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEA5BB76-3177-4A26-A006-3A5DB833312D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{0B0D3E06-E58D-4F1F-A8B8-3BC216B2A3D5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0B0D3E06-E58D-4F1F-A8B8-3BC216B2A3D5}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -20,15 +20,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -69,14 +60,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="145">
   <si>
     <t>£BME</t>
   </si>
   <si>
-    <t>B&amp;M European Value Retal S.A.</t>
-  </si>
-  <si>
     <t>Stock Snapshot</t>
   </si>
   <si>
@@ -504,6 +492,9 @@
   </si>
   <si>
     <t>H223</t>
+  </si>
+  <si>
+    <t>B&amp;M European Value Retail S.A.</t>
   </si>
 </sst>
 </file>
@@ -515,7 +506,7 @@
     <numFmt numFmtId="165" formatCode="0.0\x"/>
     <numFmt numFmtId="166" formatCode="#,##0.00000"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -637,6 +628,13 @@
       <i/>
       <sz val="10"/>
       <color theme="4"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="1" tint="0.499984740745262"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -772,7 +770,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -898,6 +896,24 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="16" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -910,6 +926,12 @@
     <xf numFmtId="165" fontId="1" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -920,12 +942,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1028,7 +1044,7 @@
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>119</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1078,7 +1094,7 @@
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>119</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1418,10 +1434,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF562411-448F-49B1-B6D6-24D041947C33}">
-  <dimension ref="B2:X40"/>
+  <dimension ref="B2:X41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L31" sqref="L31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29:D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1436,51 +1452,51 @@
     </row>
     <row r="3" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="4" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="T4" s="85" t="s">
+        <v>125</v>
+      </c>
+      <c r="U4" s="86"/>
+      <c r="W4" s="85" t="s">
+        <v>115</v>
+      </c>
+      <c r="X4" s="86"/>
+    </row>
+    <row r="5" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B5" s="85" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="T4" s="79" t="s">
-        <v>126</v>
-      </c>
-      <c r="U4" s="80"/>
-      <c r="W4" s="79" t="s">
-        <v>116</v>
-      </c>
-      <c r="X4" s="80"/>
-    </row>
-    <row r="5" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B5" s="79" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="85"/>
-      <c r="D5" s="80"/>
-      <c r="F5" s="79" t="s">
-        <v>128</v>
-      </c>
-      <c r="G5" s="85"/>
-      <c r="H5" s="85"/>
-      <c r="I5" s="85"/>
-      <c r="J5" s="85"/>
-      <c r="K5" s="85"/>
-      <c r="L5" s="85"/>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="85"/>
-      <c r="Q5" s="80"/>
+      <c r="C5" s="93"/>
+      <c r="D5" s="86"/>
+      <c r="F5" s="85" t="s">
+        <v>127</v>
+      </c>
+      <c r="G5" s="93"/>
+      <c r="H5" s="93"/>
+      <c r="I5" s="93"/>
+      <c r="J5" s="93"/>
+      <c r="K5" s="93"/>
+      <c r="L5" s="93"/>
+      <c r="M5" s="93"/>
+      <c r="N5" s="93"/>
+      <c r="O5" s="93"/>
+      <c r="P5" s="93"/>
+      <c r="Q5" s="86"/>
       <c r="T5" s="41" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="U5" s="6"/>
       <c r="W5" s="41" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="X5" s="6"/>
     </row>
     <row r="6" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" s="1">
         <v>5.7348999999999997</v>
@@ -1499,24 +1515,24 @@
       <c r="P6" s="5"/>
       <c r="Q6" s="6"/>
       <c r="T6" s="41" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="U6" s="6"/>
       <c r="W6" s="41" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="X6" s="6"/>
     </row>
     <row r="7" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C7" s="23">
         <f>'Financial Model'!V22</f>
         <v>1001.593</v>
       </c>
       <c r="D7" s="16" t="str">
-        <f>$C$30</f>
+        <f>$C$31</f>
         <v>FY23</v>
       </c>
       <c r="F7" s="12"/>
@@ -1534,13 +1550,13 @@
       <c r="T7" s="41"/>
       <c r="U7" s="6"/>
       <c r="W7" s="41" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="X7" s="6"/>
     </row>
     <row r="8" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C8" s="14">
         <f>C6*C7</f>
@@ -1560,31 +1576,31 @@
       <c r="P8" s="5"/>
       <c r="Q8" s="6"/>
       <c r="T8" s="43" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="U8" s="8"/>
       <c r="W8" s="41" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="X8" s="6"/>
     </row>
     <row r="9" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B9" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C9" s="14">
-        <f>+'Financial Model'!V88</f>
+        <f>+'Financial Model'!V90</f>
         <v>238</v>
       </c>
       <c r="D9" s="16" t="str">
-        <f t="shared" ref="D9:D11" si="0">$C$30</f>
+        <f t="shared" ref="D9:D11" si="0">$C$31</f>
         <v>FY23</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
       <c r="I9" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
@@ -1595,16 +1611,16 @@
       <c r="P9" s="5"/>
       <c r="Q9" s="6"/>
       <c r="W9" s="41" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="X9" s="6"/>
     </row>
     <row r="10" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B10" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10" s="14">
-        <f>+'Financial Model'!V89</f>
+        <f>+'Financial Model'!V91</f>
         <v>954</v>
       </c>
       <c r="D10" s="16" t="str">
@@ -1624,13 +1640,13 @@
       <c r="P10" s="5"/>
       <c r="Q10" s="6"/>
       <c r="W10" s="41" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="X10" s="6"/>
     </row>
     <row r="11" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B11" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C11" s="14">
         <f>C9-C10</f>
@@ -1653,13 +1669,13 @@
       <c r="P11" s="5"/>
       <c r="Q11" s="6"/>
       <c r="W11" s="42" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="X11" s="8"/>
     </row>
     <row r="12" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B12" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C12" s="15">
         <f>C8-C11</f>
@@ -1708,11 +1724,11 @@
       <c r="Q14" s="6"/>
     </row>
     <row r="15" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B15" s="79" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="85"/>
-      <c r="D15" s="80"/>
+      <c r="B15" s="85" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="93"/>
+      <c r="D15" s="86"/>
       <c r="F15" s="12"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
@@ -1728,12 +1744,12 @@
     </row>
     <row r="16" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B16" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="88" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" s="87"/>
+        <v>10</v>
+      </c>
+      <c r="C16" s="89" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="90"/>
       <c r="F16" s="12"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
@@ -1749,12 +1765,12 @@
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B17" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="88" t="s">
-        <v>23</v>
-      </c>
-      <c r="D17" s="87"/>
+        <v>11</v>
+      </c>
+      <c r="C17" s="89" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="90"/>
       <c r="F17" s="12"/>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
@@ -1770,15 +1786,15 @@
     </row>
     <row r="18" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B18" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="88"/>
-      <c r="D18" s="87"/>
+        <v>12</v>
+      </c>
+      <c r="C18" s="89"/>
+      <c r="D18" s="90"/>
       <c r="F18" s="44">
         <v>43891</v>
       </c>
       <c r="G18" s="76" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
@@ -1793,12 +1809,12 @@
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B19" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="91" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="83" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" s="84"/>
+      <c r="D19" s="92"/>
       <c r="F19" s="12"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
@@ -1841,11 +1857,11 @@
       <c r="Q21" s="6"/>
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B22" s="79" t="s">
-        <v>14</v>
-      </c>
-      <c r="C22" s="85"/>
-      <c r="D22" s="80"/>
+      <c r="B22" s="85" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="93"/>
+      <c r="D22" s="86"/>
       <c r="F22" s="12"/>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
@@ -1861,17 +1877,17 @@
     </row>
     <row r="23" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B23" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C23" s="88" t="s">
-        <v>29</v>
-      </c>
-      <c r="D23" s="87"/>
+        <v>14</v>
+      </c>
+      <c r="C23" s="89" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" s="90"/>
       <c r="F23" s="44">
         <v>42948</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
@@ -1886,12 +1902,12 @@
     </row>
     <row r="24" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B24" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C24" s="88">
+        <v>15</v>
+      </c>
+      <c r="C24" s="89">
         <v>1978</v>
       </c>
-      <c r="D24" s="87"/>
+      <c r="D24" s="90"/>
       <c r="F24" s="12"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
@@ -1907,12 +1923,12 @@
     </row>
     <row r="25" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B25" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C25" s="88">
+        <v>16</v>
+      </c>
+      <c r="C25" s="89">
         <v>2014</v>
       </c>
-      <c r="D25" s="87"/>
+      <c r="D25" s="90"/>
       <c r="F25" s="12"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
@@ -1928,8 +1944,8 @@
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B26" s="12"/>
-      <c r="C26" s="88"/>
-      <c r="D26" s="87"/>
+      <c r="C26" s="89"/>
+      <c r="D26" s="90"/>
       <c r="F26" s="12"/>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
@@ -1945,13 +1961,13 @@
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B27" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C27" s="86">
+        <v>17</v>
+      </c>
+      <c r="C27" s="94">
         <f>+'Financial Model'!V34</f>
         <v>1140</v>
       </c>
-      <c r="D27" s="87"/>
+      <c r="D27" s="90"/>
       <c r="F27" s="12"/>
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
@@ -1967,13 +1983,13 @@
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B28" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C28" s="86">
-        <f>+'Financial Model'!V63</f>
+        <v>18</v>
+      </c>
+      <c r="C28" s="94">
+        <f>+'Financial Model'!V65</f>
         <v>764</v>
       </c>
-      <c r="D28" s="87"/>
+      <c r="D28" s="90"/>
       <c r="F28" s="12"/>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
@@ -1988,9 +2004,14 @@
       <c r="Q28" s="6"/>
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B29" s="12"/>
-      <c r="C29" s="88"/>
-      <c r="D29" s="87"/>
+      <c r="B29" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" s="94">
+        <f>'Financial Model'!V44</f>
+        <v>39484</v>
+      </c>
+      <c r="D29" s="90"/>
       <c r="F29" s="12"/>
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
@@ -2005,15 +2026,9 @@
       <c r="Q29" s="6"/>
     </row>
     <row r="30" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B30" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="D30" s="31">
-        <v>45096</v>
-      </c>
+      <c r="B30" s="12"/>
+      <c r="C30" s="84"/>
+      <c r="D30" s="83"/>
       <c r="F30" s="12"/>
       <c r="G30" s="5"/>
       <c r="H30" s="5"/>
@@ -2028,13 +2043,15 @@
       <c r="Q30" s="6"/>
     </row>
     <row r="31" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B31" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C31" s="89" t="s">
-        <v>38</v>
-      </c>
-      <c r="D31" s="90"/>
+      <c r="B31" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D31" s="31">
+        <v>45096</v>
+      </c>
       <c r="F31" s="12"/>
       <c r="G31" s="5"/>
       <c r="H31" s="5"/>
@@ -2049,6 +2066,13 @@
       <c r="Q31" s="6"/>
     </row>
     <row r="32" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B32" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C32" s="95" t="s">
+        <v>37</v>
+      </c>
+      <c r="D32" s="96"/>
       <c r="F32" s="12"/>
       <c r="G32" s="5"/>
       <c r="H32" s="5"/>
@@ -2077,11 +2101,6 @@
       <c r="Q33" s="6"/>
     </row>
     <row r="34" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B34" s="79" t="s">
-        <v>30</v>
-      </c>
-      <c r="C34" s="85"/>
-      <c r="D34" s="80"/>
       <c r="F34" s="12"/>
       <c r="G34" s="5"/>
       <c r="H34" s="5"/>
@@ -2096,14 +2115,11 @@
       <c r="Q34" s="6"/>
     </row>
     <row r="35" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B35" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C35" s="81">
-        <f>C6/'Financial Model'!V86</f>
-        <v>7.9778273551388885</v>
-      </c>
-      <c r="D35" s="82"/>
+      <c r="B35" s="85" t="s">
+        <v>29</v>
+      </c>
+      <c r="C35" s="93"/>
+      <c r="D35" s="86"/>
       <c r="F35" s="12"/>
       <c r="G35" s="5"/>
       <c r="H35" s="5"/>
@@ -2119,13 +2135,13 @@
     </row>
     <row r="36" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B36" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C36" s="81">
-        <f>C8/'Financial Model'!V4</f>
-        <v>1.152726408930363</v>
-      </c>
-      <c r="D36" s="82"/>
+        <v>30</v>
+      </c>
+      <c r="C36" s="87">
+        <f>C6/'Financial Model'!V88</f>
+        <v>7.9778273551388885</v>
+      </c>
+      <c r="D36" s="88"/>
       <c r="F36" s="12"/>
       <c r="G36" s="5"/>
       <c r="H36" s="5"/>
@@ -2141,13 +2157,13 @@
     </row>
     <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C37" s="81">
-        <f>C12/'Financial Model'!V4</f>
-        <v>1.2964149499698976</v>
-      </c>
-      <c r="D37" s="82"/>
+        <v>31</v>
+      </c>
+      <c r="C37" s="87">
+        <f>C8/'Financial Model'!V4</f>
+        <v>1.152726408930363</v>
+      </c>
+      <c r="D37" s="88"/>
       <c r="F37" s="12"/>
       <c r="G37" s="5"/>
       <c r="H37" s="5"/>
@@ -2163,13 +2179,13 @@
     </row>
     <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B38" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C38" s="81">
-        <f>C6/'Financial Model'!V21</f>
-        <v>14.880921491450774</v>
-      </c>
-      <c r="D38" s="82"/>
+        <v>32</v>
+      </c>
+      <c r="C38" s="87">
+        <f>C12/'Financial Model'!V4</f>
+        <v>1.2964149499698976</v>
+      </c>
+      <c r="D38" s="88"/>
       <c r="F38" s="12"/>
       <c r="G38" s="5"/>
       <c r="H38" s="5"/>
@@ -2185,13 +2201,13 @@
     </row>
     <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B39" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C39" s="81">
-        <f>C12/'Financial Model'!V16</f>
-        <v>18.563320964655169</v>
-      </c>
-      <c r="D39" s="82"/>
+        <v>33</v>
+      </c>
+      <c r="C39" s="87">
+        <f>C6/'Financial Model'!V21</f>
+        <v>14.880921491450774</v>
+      </c>
+      <c r="D39" s="88"/>
       <c r="F39" s="12"/>
       <c r="G39" s="5"/>
       <c r="H39" s="5"/>
@@ -2206,34 +2222,56 @@
       <c r="Q39" s="6"/>
     </row>
     <row r="40" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B40" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="C40" s="83"/>
-      <c r="D40" s="84"/>
-      <c r="F40" s="13"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="7"/>
-      <c r="I40" s="7"/>
-      <c r="J40" s="7"/>
-      <c r="K40" s="7"/>
-      <c r="L40" s="7"/>
-      <c r="M40" s="7"/>
-      <c r="N40" s="7"/>
-      <c r="O40" s="7"/>
-      <c r="P40" s="7"/>
-      <c r="Q40" s="8"/>
+      <c r="B40" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C40" s="87">
+        <f>C12/'Financial Model'!V16</f>
+        <v>18.563320964655169</v>
+      </c>
+      <c r="D40" s="88"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="5"/>
+      <c r="K40" s="5"/>
+      <c r="L40" s="5"/>
+      <c r="M40" s="5"/>
+      <c r="N40" s="5"/>
+      <c r="O40" s="5"/>
+      <c r="P40" s="5"/>
+      <c r="Q40" s="6"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B41" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C41" s="91"/>
+      <c r="D41" s="92"/>
+      <c r="F41" s="13"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="7"/>
+      <c r="K41" s="7"/>
+      <c r="L41" s="7"/>
+      <c r="M41" s="7"/>
+      <c r="N41" s="7"/>
+      <c r="O41" s="7"/>
+      <c r="P41" s="7"/>
+      <c r="Q41" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="C39:D39"/>
     <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
     <mergeCell ref="F5:Q5"/>
     <mergeCell ref="C28:D28"/>
     <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="C36:D36"/>
     <mergeCell ref="B22:D22"/>
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="C24:D24"/>
@@ -2244,16 +2282,16 @@
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="W4:X4"/>
     <mergeCell ref="T4:U4"/>
-    <mergeCell ref="C36:D36"/>
     <mergeCell ref="C37:D37"/>
     <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="C19:D19"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C31:D31" r:id="rId1" display="Link" xr:uid="{9BE3B3D4-9498-4B97-998C-C0C12FA77148}"/>
+    <hyperlink ref="C32:D32" r:id="rId1" display="Link" xr:uid="{9BE3B3D4-9498-4B97-998C-C0C12FA77148}"/>
     <hyperlink ref="G18" r:id="rId2" xr:uid="{87BBEC1A-B702-4F90-99BE-E634A1207125}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2264,13 +2302,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E38EA70-0C15-460C-B41E-267C906FFAC5}">
-  <dimension ref="B1:AE107"/>
+  <dimension ref="B1:AE109"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C79" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="T107" sqref="T107"/>
+      <selection pane="bottomRight" activeCell="S18" sqref="S18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2294,85 +2332,85 @@
   <sheetData>
     <row r="1" spans="2:31" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C1" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="D1" s="49" t="s">
         <v>139</v>
       </c>
-      <c r="D1" s="49" t="s">
+      <c r="E1" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="F1" s="49" t="s">
         <v>140</v>
       </c>
-      <c r="E1" s="20" t="s">
-        <v>138</v>
-      </c>
-      <c r="F1" s="49" t="s">
+      <c r="G1" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="H1" s="49" t="s">
         <v>141</v>
       </c>
-      <c r="G1" s="20" t="s">
-        <v>137</v>
-      </c>
-      <c r="H1" s="49" t="s">
+      <c r="I1" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="J1" s="49" t="s">
         <v>142</v>
       </c>
-      <c r="I1" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="J1" s="49" t="s">
+      <c r="K1" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="L1" s="49" t="s">
         <v>143</v>
       </c>
-      <c r="K1" s="20" t="s">
-        <v>135</v>
-      </c>
-      <c r="L1" s="49" t="s">
-        <v>144</v>
-      </c>
       <c r="O1" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="P1" s="21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Q1" s="20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="R1" s="21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="S1" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="T1" s="21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="U1" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="V1" s="21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="W1" s="62" t="s">
+        <v>116</v>
+      </c>
+      <c r="X1" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="X1" s="20" t="s">
+      <c r="Y1" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="Y1" s="20" t="s">
+      <c r="Z1" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="Z1" s="20" t="s">
+      <c r="AA1" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="AA1" s="20" t="s">
+      <c r="AB1" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="AB1" s="20" t="s">
+      <c r="AC1" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="AC1" s="20" t="s">
+      <c r="AD1" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="AD1" s="20" t="s">
+      <c r="AE1" s="20" t="s">
         <v>124</v>
-      </c>
-      <c r="AE1" s="20" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="2" spans="2:31" s="25" customFormat="1" x14ac:dyDescent="0.2">
@@ -2422,7 +2460,7 @@
         <v>45010</v>
       </c>
       <c r="W2" s="74" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="2:31" s="25" customFormat="1" x14ac:dyDescent="0.2">
@@ -2466,7 +2504,7 @@
     </row>
     <row r="4" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C4" s="19"/>
       <c r="D4" s="51"/>
@@ -2505,7 +2543,7 @@
     </row>
     <row r="5" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O5" s="23">
         <v>1332.2629999999999</v>
@@ -2538,7 +2576,7 @@
     </row>
     <row r="6" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D6" s="51"/>
       <c r="F6" s="51"/>
@@ -2584,7 +2622,7 @@
     </row>
     <row r="7" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O7" s="23">
         <v>528.53</v>
@@ -2615,7 +2653,7 @@
     </row>
     <row r="8" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D8" s="51"/>
       <c r="F8" s="51"/>
@@ -2658,7 +2696,7 @@
     </row>
     <row r="9" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O9" s="23">
         <v>1.1659999999999999</v>
@@ -2688,7 +2726,7 @@
     </row>
     <row r="10" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O10" s="23">
         <f t="shared" ref="O10:T10" si="7">O8+O9</f>
@@ -2726,7 +2764,7 @@
     </row>
     <row r="11" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O11" s="23">
         <v>21.573</v>
@@ -2756,7 +2794,7 @@
     </row>
     <row r="12" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O12" s="23">
         <v>0.46</v>
@@ -2786,7 +2824,7 @@
     </row>
     <row r="13" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O13" s="23">
         <v>0</v>
@@ -2817,7 +2855,7 @@
     </row>
     <row r="14" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O14" s="23">
         <f t="shared" ref="O14:T14" si="8">O10-O11-O12+O13</f>
@@ -2855,7 +2893,7 @@
     </row>
     <row r="15" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O15" s="23">
         <v>28.745000000000001</v>
@@ -2885,7 +2923,7 @@
     </row>
     <row r="16" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D16" s="51"/>
       <c r="F16" s="51"/>
@@ -2928,7 +2966,7 @@
     </row>
     <row r="17" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O17" s="23">
         <v>5.5</v>
@@ -2958,7 +2996,7 @@
     </row>
     <row r="18" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O18" s="23">
         <v>0</v>
@@ -2988,7 +3026,7 @@
     </row>
     <row r="19" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O19" s="23">
         <f>0.005+0.013</f>
@@ -3021,7 +3059,7 @@
     </row>
     <row r="20" spans="2:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D20" s="51"/>
       <c r="F20" s="51"/>
@@ -3064,7 +3102,7 @@
     </row>
     <row r="21" spans="2:23" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B21" s="30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D21" s="53"/>
       <c r="F21" s="53"/>
@@ -3107,7 +3145,7 @@
     </row>
     <row r="22" spans="2:23" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D22" s="54"/>
       <c r="F22" s="54"/>
@@ -3145,7 +3183,7 @@
     </row>
     <row r="24" spans="2:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D24" s="51"/>
       <c r="F24" s="51"/>
@@ -3153,7 +3191,7 @@
       <c r="J24" s="51"/>
       <c r="L24" s="51"/>
       <c r="O24" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P24" s="28">
         <f t="shared" ref="P24:S24" si="17">P4/O4-1</f>
@@ -3189,7 +3227,7 @@
     </row>
     <row r="25" spans="2:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D25" s="51"/>
       <c r="F25" s="51"/>
@@ -3197,34 +3235,34 @@
       <c r="J25" s="51"/>
       <c r="L25" s="51"/>
       <c r="O25" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P25" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q25" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R25" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S25" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T25" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="U25" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V25" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="W25" s="65"/>
     </row>
     <row r="27" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O27" s="27">
         <f t="shared" ref="O27" si="18">O6/O4</f>
@@ -3264,7 +3302,7 @@
     </row>
     <row r="28" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O28" s="27">
         <f t="shared" ref="O28" si="24">O8/O4</f>
@@ -3302,7 +3340,7 @@
     </row>
     <row r="29" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O29" s="27">
         <f t="shared" ref="O29" si="30">O16/O4</f>
@@ -3339,7 +3377,7 @@
     </row>
     <row r="30" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B30" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O30" s="27">
         <f t="shared" ref="O30" si="36">O15/O14</f>
@@ -3376,12 +3414,12 @@
     </row>
     <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B33" s="29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34" spans="2:23" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B34" s="22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D34" s="55"/>
       <c r="F34" s="55"/>
@@ -3390,7 +3428,7 @@
       <c r="L34" s="55"/>
       <c r="O34" s="22">
         <f t="shared" ref="O34:S34" si="42">+O35+O38+O40</f>
-        <v>0</v>
+        <v>555</v>
       </c>
       <c r="P34" s="22">
         <f t="shared" si="42"/>
@@ -3424,7 +3462,7 @@
     </row>
     <row r="35" spans="2:23" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B35" s="33" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D35" s="56"/>
       <c r="F35" s="56"/>
@@ -3433,7 +3471,7 @@
       <c r="L35" s="56"/>
       <c r="O35" s="23">
         <f t="shared" ref="O35:U35" si="44">SUM(O36:O37)</f>
-        <v>0</v>
+        <v>499</v>
       </c>
       <c r="P35" s="23">
         <f t="shared" si="44"/>
@@ -3467,13 +3505,16 @@
     </row>
     <row r="36" spans="2:23" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B36" s="34" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D36" s="56"/>
       <c r="F36" s="56"/>
       <c r="H36" s="56"/>
       <c r="J36" s="56"/>
       <c r="L36" s="56"/>
+      <c r="O36" s="23">
+        <v>499</v>
+      </c>
       <c r="P36" s="23">
         <v>573</v>
       </c>
@@ -3499,13 +3540,16 @@
     </row>
     <row r="37" spans="2:23" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B37" s="34" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D37" s="56"/>
       <c r="F37" s="56"/>
       <c r="H37" s="56"/>
       <c r="J37" s="56"/>
       <c r="L37" s="56"/>
+      <c r="O37" s="23">
+        <v>0</v>
+      </c>
       <c r="P37" s="23">
         <v>0</v>
       </c>
@@ -3531,7 +3575,7 @@
     </row>
     <row r="38" spans="2:23" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B38" s="33" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D38" s="56"/>
       <c r="F38" s="56"/>
@@ -3574,13 +3618,16 @@
     </row>
     <row r="39" spans="2:23" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B39" s="34" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D39" s="56"/>
       <c r="F39" s="56"/>
       <c r="H39" s="56"/>
       <c r="J39" s="56"/>
       <c r="L39" s="56"/>
+      <c r="O39" s="23">
+        <v>0</v>
+      </c>
       <c r="P39" s="23">
         <v>0</v>
       </c>
@@ -3606,7 +3653,7 @@
     </row>
     <row r="40" spans="2:23" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B40" s="33" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D40" s="56"/>
       <c r="F40" s="56"/>
@@ -3615,7 +3662,7 @@
       <c r="L40" s="56"/>
       <c r="O40" s="23">
         <f t="shared" ref="O40:R40" si="46">O41</f>
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="P40" s="23">
         <f t="shared" si="46"/>
@@ -3649,13 +3696,16 @@
     </row>
     <row r="41" spans="2:23" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B41" s="34" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D41" s="56"/>
       <c r="F41" s="56"/>
       <c r="H41" s="56"/>
       <c r="J41" s="56"/>
       <c r="L41" s="56"/>
+      <c r="O41" s="23">
+        <v>56</v>
+      </c>
       <c r="P41" s="23">
         <v>75</v>
       </c>
@@ -3681,13 +3731,20 @@
     </row>
     <row r="42" spans="2:23" s="46" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B42" s="45" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D42" s="57"/>
       <c r="F42" s="57"/>
       <c r="H42" s="57"/>
       <c r="J42" s="57"/>
       <c r="L42" s="57"/>
+      <c r="O42" s="79" t="s">
+        <v>73</v>
+      </c>
+      <c r="P42" s="46">
+        <f>P34-O34</f>
+        <v>93</v>
+      </c>
       <c r="Q42" s="46">
         <f>Q34-P34</f>
         <v>279</v>
@@ -3728,7 +3785,7 @@
     </row>
     <row r="44" spans="2:23" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B44" s="22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D44" s="55"/>
       <c r="F44" s="55"/>
@@ -3736,12 +3793,11 @@
       <c r="J44" s="55"/>
       <c r="L44" s="55"/>
       <c r="O44" s="22">
-        <f t="shared" ref="O44:U44" si="49">O45+O48</f>
-        <v>0</v>
+        <v>22351</v>
       </c>
       <c r="P44" s="22">
-        <f t="shared" si="49"/>
-        <v>0</v>
+        <f t="shared" ref="P44:U44" si="49">P45+P48</f>
+        <v>24500</v>
       </c>
       <c r="Q44" s="22">
         <f t="shared" si="49"/>
@@ -3771,20 +3827,19 @@
     </row>
     <row r="45" spans="2:23" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B45" s="33" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D45" s="56"/>
       <c r="F45" s="56"/>
       <c r="H45" s="56"/>
       <c r="J45" s="56"/>
       <c r="L45" s="56"/>
-      <c r="O45" s="23">
-        <f t="shared" ref="O45:U45" si="50">SUM(O46:O47)</f>
-        <v>0</v>
+      <c r="O45" s="80" t="s">
+        <v>73</v>
       </c>
       <c r="P45" s="23">
-        <f t="shared" si="50"/>
-        <v>0</v>
+        <f t="shared" ref="P45:U45" si="50">SUM(P46:P47)</f>
+        <v>24500</v>
       </c>
       <c r="Q45" s="23">
         <f t="shared" si="50"/>
@@ -3814,13 +3869,19 @@
     </row>
     <row r="46" spans="2:23" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B46" s="34" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D46" s="58"/>
       <c r="F46" s="58"/>
       <c r="H46" s="58"/>
       <c r="J46" s="58"/>
       <c r="L46" s="58"/>
+      <c r="O46" s="81" t="s">
+        <v>73</v>
+      </c>
+      <c r="P46" s="35">
+        <v>24500</v>
+      </c>
       <c r="V46" s="35">
         <v>33156</v>
       </c>
@@ -3828,13 +3889,19 @@
     </row>
     <row r="47" spans="2:23" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B47" s="34" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D47" s="58"/>
       <c r="F47" s="58"/>
       <c r="H47" s="58"/>
       <c r="J47" s="58"/>
       <c r="L47" s="58"/>
+      <c r="O47" s="81" t="s">
+        <v>73</v>
+      </c>
+      <c r="P47" s="35">
+        <v>0</v>
+      </c>
       <c r="V47" s="35">
         <v>989</v>
       </c>
@@ -3842,16 +3909,16 @@
     </row>
     <row r="48" spans="2:23" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B48" s="33" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D48" s="56"/>
       <c r="F48" s="56"/>
       <c r="H48" s="56"/>
       <c r="J48" s="56"/>
       <c r="L48" s="56"/>
-      <c r="O48" s="23">
+      <c r="O48" s="80" t="str">
         <f t="shared" ref="O48:U48" si="51">O49</f>
-        <v>0</v>
+        <v>-</v>
       </c>
       <c r="P48" s="23">
         <f t="shared" si="51"/>
@@ -3885,115 +3952,109 @@
     </row>
     <row r="49" spans="2:23" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B49" s="34" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D49" s="56"/>
       <c r="F49" s="56"/>
       <c r="H49" s="56"/>
       <c r="J49" s="56"/>
       <c r="L49" s="56"/>
+      <c r="O49" s="80" t="s">
+        <v>73</v>
+      </c>
+      <c r="P49" s="23">
+        <v>0</v>
+      </c>
       <c r="V49" s="23">
         <v>5339</v>
       </c>
       <c r="W49" s="39"/>
     </row>
-    <row r="50" spans="2:23" s="45" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="45" t="s">
-        <v>77</v>
-      </c>
-      <c r="D50" s="59"/>
-      <c r="F50" s="59"/>
-      <c r="H50" s="59"/>
-      <c r="J50" s="59"/>
-      <c r="L50" s="59"/>
-      <c r="W50" s="71"/>
-    </row>
-    <row r="54" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B54" s="29" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="55" spans="2:23" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="D55" s="56"/>
-      <c r="F55" s="56"/>
-      <c r="H55" s="56"/>
-      <c r="J55" s="56"/>
-      <c r="L55" s="56"/>
-      <c r="O55" s="23">
-        <f>837.45+101.174</f>
-        <v>938.62400000000002</v>
-      </c>
-      <c r="P55" s="23">
-        <f>841.691+103.693</f>
-        <v>945.38400000000001</v>
-      </c>
-      <c r="Q55" s="23">
-        <f>929.718+120.962</f>
-        <v>1050.68</v>
-      </c>
-      <c r="R55" s="23">
-        <f>949.606+126.559</f>
-        <v>1076.165</v>
-      </c>
-      <c r="S55" s="23">
-        <f>921.911+119.696</f>
-        <v>1041.607</v>
-      </c>
-      <c r="T55" s="23">
-        <f>920.729+118.24</f>
-        <v>1038.9690000000001</v>
-      </c>
-      <c r="U55" s="23">
-        <f>920+120</f>
-        <v>1040</v>
-      </c>
-      <c r="V55" s="23">
-        <f>921+120</f>
-        <v>1041</v>
-      </c>
-      <c r="W55" s="39"/>
-    </row>
-    <row r="56" spans="2:23" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B56" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="D56" s="56"/>
-      <c r="F56" s="56"/>
-      <c r="H56" s="56"/>
-      <c r="J56" s="56"/>
-      <c r="L56" s="56"/>
-      <c r="O56" s="23">
-        <v>138.05000000000001</v>
-      </c>
-      <c r="P56" s="23">
-        <v>165.74799999999999</v>
-      </c>
-      <c r="Q56" s="23">
-        <v>308.65300000000002</v>
-      </c>
-      <c r="R56" s="23">
-        <v>389.952</v>
-      </c>
-      <c r="S56" s="23">
-        <v>312.19799999999998</v>
-      </c>
-      <c r="T56" s="23">
-        <v>336.36399999999998</v>
-      </c>
-      <c r="U56" s="23">
-        <v>363</v>
-      </c>
-      <c r="V56" s="23">
-        <v>380</v>
-      </c>
-      <c r="W56" s="39"/>
+    <row r="50" spans="2:23" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B50" s="33" t="s">
+        <v>132</v>
+      </c>
+      <c r="D50" s="56"/>
+      <c r="F50" s="56"/>
+      <c r="H50" s="56"/>
+      <c r="J50" s="56"/>
+      <c r="L50" s="56"/>
+      <c r="O50" s="80" t="s">
+        <v>73</v>
+      </c>
+      <c r="P50" s="23">
+        <f>P51</f>
+        <v>1500</v>
+      </c>
+      <c r="W50" s="39"/>
+    </row>
+    <row r="51" spans="2:23" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B51" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="D51" s="58"/>
+      <c r="F51" s="58"/>
+      <c r="H51" s="58"/>
+      <c r="J51" s="58"/>
+      <c r="L51" s="58"/>
+      <c r="O51" s="81" t="s">
+        <v>73</v>
+      </c>
+      <c r="P51" s="35">
+        <v>1500</v>
+      </c>
+      <c r="W51" s="39"/>
+    </row>
+    <row r="52" spans="2:23" s="45" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B52" s="45" t="s">
+        <v>76</v>
+      </c>
+      <c r="D52" s="59"/>
+      <c r="F52" s="59"/>
+      <c r="H52" s="59"/>
+      <c r="J52" s="59"/>
+      <c r="L52" s="59"/>
+      <c r="O52" s="82" t="s">
+        <v>73</v>
+      </c>
+      <c r="P52" s="46">
+        <f>P44-O44</f>
+        <v>2149</v>
+      </c>
+      <c r="Q52" s="46">
+        <f t="shared" ref="Q52:V52" si="52">Q44-P44</f>
+        <v>-24500</v>
+      </c>
+      <c r="R52" s="46">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="S52" s="46">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="T52" s="46">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="U52" s="46">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="V52" s="46">
+        <f t="shared" si="52"/>
+        <v>39484</v>
+      </c>
+      <c r="W52" s="71"/>
+    </row>
+    <row r="56" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B56" s="29" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="57" spans="2:23" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B57" s="23" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D57" s="56"/>
       <c r="F57" s="56"/>
@@ -4001,34 +4062,42 @@
       <c r="J57" s="56"/>
       <c r="L57" s="56"/>
       <c r="O57" s="23">
-        <v>0</v>
+        <f>837.45+101.174</f>
+        <v>938.62400000000002</v>
       </c>
       <c r="P57" s="23">
-        <v>0</v>
+        <f>841.691+103.693</f>
+        <v>945.38400000000001</v>
       </c>
       <c r="Q57" s="23">
-        <v>0</v>
+        <f>929.718+120.962</f>
+        <v>1050.68</v>
       </c>
       <c r="R57" s="23">
-        <v>0</v>
+        <f>949.606+126.559</f>
+        <v>1076.165</v>
       </c>
       <c r="S57" s="23">
-        <v>1086.6179999999999</v>
+        <f>921.911+119.696</f>
+        <v>1041.607</v>
       </c>
       <c r="T57" s="23">
-        <v>1070.5809999999999</v>
+        <f>920.729+118.24</f>
+        <v>1038.9690000000001</v>
       </c>
       <c r="U57" s="23">
-        <v>1066</v>
+        <f>920+120</f>
+        <v>1040</v>
       </c>
       <c r="V57" s="23">
-        <v>1056</v>
+        <f>921+120</f>
+        <v>1041</v>
       </c>
       <c r="W57" s="39"/>
     </row>
     <row r="58" spans="2:23" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B58" s="23" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D58" s="56"/>
       <c r="F58" s="56"/>
@@ -4036,34 +4105,34 @@
       <c r="J58" s="56"/>
       <c r="L58" s="56"/>
       <c r="O58" s="23">
-        <v>3.9950000000000001</v>
+        <v>138.05000000000001</v>
       </c>
       <c r="P58" s="23">
-        <v>5.6689999999999996</v>
+        <v>165.74799999999999</v>
       </c>
       <c r="Q58" s="23">
-        <v>5.14</v>
+        <v>308.65300000000002</v>
       </c>
       <c r="R58" s="23">
-        <v>6.92</v>
+        <v>389.952</v>
       </c>
       <c r="S58" s="23">
-        <v>5.7</v>
+        <v>312.19799999999998</v>
       </c>
       <c r="T58" s="23">
-        <v>4.4790000000000001</v>
+        <v>336.36399999999998</v>
       </c>
       <c r="U58" s="23">
-        <v>8</v>
+        <v>363</v>
       </c>
       <c r="V58" s="23">
-        <v>8</v>
+        <v>380</v>
       </c>
       <c r="W58" s="39"/>
     </row>
     <row r="59" spans="2:23" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B59" s="23" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D59" s="56"/>
       <c r="F59" s="56"/>
@@ -4071,34 +4140,34 @@
       <c r="J59" s="56"/>
       <c r="L59" s="56"/>
       <c r="O59" s="23">
-        <v>2.7709999999999999</v>
+        <v>0</v>
       </c>
       <c r="P59" s="23">
-        <v>2.4129999999999998</v>
+        <v>0</v>
       </c>
       <c r="Q59" s="23">
-        <v>3.1869999999999998</v>
+        <v>0</v>
       </c>
       <c r="R59" s="23">
-        <v>10.989000000000001</v>
+        <v>0</v>
       </c>
       <c r="S59" s="23">
-        <v>7.5170000000000003</v>
+        <v>1086.6179999999999</v>
       </c>
       <c r="T59" s="23">
-        <v>7.0839999999999996</v>
+        <v>1070.5809999999999</v>
       </c>
       <c r="U59" s="23">
-        <v>7</v>
+        <v>1066</v>
       </c>
       <c r="V59" s="23">
-        <v>6</v>
+        <v>1056</v>
       </c>
       <c r="W59" s="39"/>
     </row>
     <row r="60" spans="2:23" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B60" s="23" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D60" s="56"/>
       <c r="F60" s="56"/>
@@ -4106,34 +4175,34 @@
       <c r="J60" s="56"/>
       <c r="L60" s="56"/>
       <c r="O60" s="23">
-        <v>0.47299999999999998</v>
+        <v>3.9950000000000001</v>
       </c>
       <c r="P60" s="23">
-        <v>0.82399999999999995</v>
+        <v>5.6689999999999996</v>
       </c>
       <c r="Q60" s="23">
-        <v>5.6539999999999999</v>
+        <v>5.14</v>
       </c>
       <c r="R60" s="23">
-        <v>9.1950000000000003</v>
+        <v>6.92</v>
       </c>
       <c r="S60" s="23">
-        <v>22.988</v>
+        <v>5.7</v>
       </c>
       <c r="T60" s="23">
-        <v>32.241999999999997</v>
+        <v>4.4790000000000001</v>
       </c>
       <c r="U60" s="23">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="V60" s="23">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="W60" s="39"/>
     </row>
     <row r="61" spans="2:23" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B61" s="23" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D61" s="56"/>
       <c r="F61" s="56"/>
@@ -4141,217 +4210,217 @@
       <c r="J61" s="56"/>
       <c r="L61" s="56"/>
       <c r="O61" s="23">
-        <f t="shared" ref="O61:U61" si="52">SUM(O55:O60)</f>
+        <v>2.7709999999999999</v>
+      </c>
+      <c r="P61" s="23">
+        <v>2.4129999999999998</v>
+      </c>
+      <c r="Q61" s="23">
+        <v>3.1869999999999998</v>
+      </c>
+      <c r="R61" s="23">
+        <v>10.989000000000001</v>
+      </c>
+      <c r="S61" s="23">
+        <v>7.5170000000000003</v>
+      </c>
+      <c r="T61" s="23">
+        <v>7.0839999999999996</v>
+      </c>
+      <c r="U61" s="23">
+        <v>7</v>
+      </c>
+      <c r="V61" s="23">
+        <v>6</v>
+      </c>
+      <c r="W61" s="39"/>
+    </row>
+    <row r="62" spans="2:23" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B62" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="D62" s="56"/>
+      <c r="F62" s="56"/>
+      <c r="H62" s="56"/>
+      <c r="J62" s="56"/>
+      <c r="L62" s="56"/>
+      <c r="O62" s="23">
+        <v>0.47299999999999998</v>
+      </c>
+      <c r="P62" s="23">
+        <v>0.82399999999999995</v>
+      </c>
+      <c r="Q62" s="23">
+        <v>5.6539999999999999</v>
+      </c>
+      <c r="R62" s="23">
+        <v>9.1950000000000003</v>
+      </c>
+      <c r="S62" s="23">
+        <v>22.988</v>
+      </c>
+      <c r="T62" s="23">
+        <v>32.241999999999997</v>
+      </c>
+      <c r="U62" s="23">
+        <v>31</v>
+      </c>
+      <c r="V62" s="23">
+        <v>30</v>
+      </c>
+      <c r="W62" s="39"/>
+    </row>
+    <row r="63" spans="2:23" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B63" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="D63" s="56"/>
+      <c r="F63" s="56"/>
+      <c r="H63" s="56"/>
+      <c r="J63" s="56"/>
+      <c r="L63" s="56"/>
+      <c r="O63" s="23">
+        <f t="shared" ref="O63:U63" si="53">SUM(O57:O62)</f>
         <v>1083.9129999999998</v>
       </c>
-      <c r="P61" s="23">
-        <f t="shared" si="52"/>
+      <c r="P63" s="23">
+        <f t="shared" si="53"/>
         <v>1120.0380000000002</v>
       </c>
-      <c r="Q61" s="23">
-        <f t="shared" si="52"/>
+      <c r="Q63" s="23">
+        <f t="shared" si="53"/>
         <v>1373.3140000000001</v>
       </c>
-      <c r="R61" s="23">
-        <f t="shared" si="52"/>
+      <c r="R63" s="23">
+        <f t="shared" si="53"/>
         <v>1493.221</v>
       </c>
-      <c r="S61" s="23">
-        <f t="shared" si="52"/>
+      <c r="S63" s="23">
+        <f t="shared" si="53"/>
         <v>2476.6279999999992</v>
       </c>
-      <c r="T61" s="23">
-        <f t="shared" si="52"/>
+      <c r="T63" s="23">
+        <f t="shared" si="53"/>
         <v>2489.7189999999996</v>
       </c>
-      <c r="U61" s="23">
-        <f t="shared" si="52"/>
+      <c r="U63" s="23">
+        <f t="shared" si="53"/>
         <v>2515</v>
       </c>
-      <c r="V61" s="23">
-        <f>SUM(V55:V60)</f>
+      <c r="V63" s="23">
+        <f>SUM(V57:V62)</f>
         <v>2521</v>
       </c>
-      <c r="W61" s="39"/>
-    </row>
-    <row r="62" spans="2:23" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="22" t="s">
+      <c r="W63" s="39"/>
+    </row>
+    <row r="64" spans="2:23" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B64" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="D64" s="55"/>
+      <c r="F64" s="55"/>
+      <c r="H64" s="55"/>
+      <c r="J64" s="55"/>
+      <c r="L64" s="55"/>
+      <c r="O64" s="22">
+        <v>91.147999999999996</v>
+      </c>
+      <c r="P64" s="22">
+        <v>155.511</v>
+      </c>
+      <c r="Q64" s="22">
+        <v>90.816000000000003</v>
+      </c>
+      <c r="R64" s="22">
+        <v>86.201999999999998</v>
+      </c>
+      <c r="S64" s="22">
+        <v>428.20499999999998</v>
+      </c>
+      <c r="T64" s="22">
+        <v>217.68199999999999</v>
+      </c>
+      <c r="U64" s="22">
+        <v>173</v>
+      </c>
+      <c r="V64" s="22">
+        <v>237</v>
+      </c>
+      <c r="W64" s="69"/>
+    </row>
+    <row r="65" spans="2:23" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B65" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="D62" s="55"/>
-      <c r="F62" s="55"/>
-      <c r="H62" s="55"/>
-      <c r="J62" s="55"/>
-      <c r="L62" s="55"/>
-      <c r="O62" s="22">
-        <v>91.147999999999996</v>
-      </c>
-      <c r="P62" s="22">
-        <v>155.511</v>
-      </c>
-      <c r="Q62" s="22">
-        <v>90.816000000000003</v>
-      </c>
-      <c r="R62" s="22">
-        <v>86.201999999999998</v>
-      </c>
-      <c r="S62" s="22">
-        <v>428.20499999999998</v>
-      </c>
-      <c r="T62" s="22">
-        <v>217.68199999999999</v>
-      </c>
-      <c r="U62" s="22">
-        <v>173</v>
-      </c>
-      <c r="V62" s="22">
-        <v>237</v>
-      </c>
-      <c r="W62" s="69"/>
-    </row>
-    <row r="63" spans="2:23" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B63" s="22" t="s">
+      <c r="D65" s="55"/>
+      <c r="F65" s="55"/>
+      <c r="H65" s="55"/>
+      <c r="J65" s="55"/>
+      <c r="L65" s="55"/>
+      <c r="O65" s="22">
+        <v>356.31200000000001</v>
+      </c>
+      <c r="P65" s="22">
+        <v>462.11900000000003</v>
+      </c>
+      <c r="Q65" s="22">
+        <v>558.69000000000005</v>
+      </c>
+      <c r="R65" s="22">
+        <v>670.721</v>
+      </c>
+      <c r="S65" s="22">
+        <v>588</v>
+      </c>
+      <c r="T65" s="22">
+        <v>605.12599999999998</v>
+      </c>
+      <c r="U65" s="22">
+        <v>863</v>
+      </c>
+      <c r="V65" s="22">
+        <v>764</v>
+      </c>
+      <c r="W65" s="69"/>
+    </row>
+    <row r="66" spans="2:23" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B66" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="D63" s="55"/>
-      <c r="F63" s="55"/>
-      <c r="H63" s="55"/>
-      <c r="J63" s="55"/>
-      <c r="L63" s="55"/>
-      <c r="O63" s="22">
-        <v>356.31200000000001</v>
-      </c>
-      <c r="P63" s="22">
-        <v>462.11900000000003</v>
-      </c>
-      <c r="Q63" s="22">
-        <v>558.69000000000005</v>
-      </c>
-      <c r="R63" s="22">
-        <v>670.721</v>
-      </c>
-      <c r="S63" s="22">
-        <v>588</v>
-      </c>
-      <c r="T63" s="22">
-        <v>605.12599999999998</v>
-      </c>
-      <c r="U63" s="22">
-        <v>863</v>
-      </c>
-      <c r="V63" s="22">
-        <v>764</v>
-      </c>
-      <c r="W63" s="69"/>
-    </row>
-    <row r="64" spans="2:23" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B64" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="D64" s="56"/>
-      <c r="F64" s="56"/>
-      <c r="H64" s="56"/>
-      <c r="J64" s="56"/>
-      <c r="L64" s="56"/>
-      <c r="O64" s="23">
+      <c r="D66" s="56"/>
+      <c r="F66" s="56"/>
+      <c r="H66" s="56"/>
+      <c r="J66" s="56"/>
+      <c r="L66" s="56"/>
+      <c r="O66" s="23">
         <v>28.760999999999999</v>
       </c>
-      <c r="P64" s="23">
+      <c r="P66" s="23">
         <v>35.398000000000003</v>
       </c>
-      <c r="Q64" s="23">
+      <c r="Q66" s="23">
         <v>34.042000000000002</v>
       </c>
-      <c r="R64" s="23">
+      <c r="R66" s="23">
         <v>71.64</v>
       </c>
-      <c r="S64" s="23">
+      <c r="S66" s="23">
         <v>60.588000000000001</v>
       </c>
-      <c r="T64" s="23">
+      <c r="T66" s="23">
         <v>42.16</v>
       </c>
-      <c r="U64" s="23">
+      <c r="U66" s="23">
         <v>53</v>
       </c>
-      <c r="V64" s="23">
+      <c r="V66" s="23">
         <v>52</v>
       </c>
-      <c r="W64" s="39"/>
-    </row>
-    <row r="65" spans="2:23" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B65" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="D65" s="56"/>
-      <c r="F65" s="56"/>
-      <c r="H65" s="56"/>
-      <c r="J65" s="56"/>
-      <c r="L65" s="56"/>
-      <c r="O65" s="23">
-        <v>0</v>
-      </c>
-      <c r="P65" s="23">
-        <v>0</v>
-      </c>
-      <c r="Q65" s="23">
-        <v>0</v>
-      </c>
-      <c r="R65" s="23">
-        <v>6.2939999999999996</v>
-      </c>
-      <c r="S65" s="23">
-        <v>0</v>
-      </c>
-      <c r="T65" s="23">
-        <v>0</v>
-      </c>
-      <c r="U65" s="23">
-        <v>9</v>
-      </c>
-      <c r="V65" s="23">
-        <v>12</v>
-      </c>
-      <c r="W65" s="39"/>
-    </row>
-    <row r="66" spans="2:23" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B66" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="D66" s="55"/>
-      <c r="F66" s="55"/>
-      <c r="H66" s="55"/>
-      <c r="J66" s="55"/>
-      <c r="L66" s="55"/>
-      <c r="O66" s="22">
-        <v>4.7690000000000001</v>
-      </c>
-      <c r="P66" s="22">
-        <v>0.41</v>
-      </c>
-      <c r="Q66" s="22">
-        <v>0</v>
-      </c>
-      <c r="R66" s="22">
-        <v>3.7810000000000001</v>
-      </c>
-      <c r="S66" s="22">
-        <v>16.702000000000002</v>
-      </c>
-      <c r="T66" s="22">
-        <v>3.7669999999999999</v>
-      </c>
-      <c r="U66" s="22">
-        <v>25</v>
-      </c>
-      <c r="V66" s="22">
-        <v>1</v>
-      </c>
-      <c r="W66" s="69"/>
+      <c r="W66" s="39"/>
     </row>
     <row r="67" spans="2:23" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B67" s="23" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="D67" s="56"/>
       <c r="F67" s="56"/>
@@ -4359,163 +4428,158 @@
       <c r="J67" s="56"/>
       <c r="L67" s="56"/>
       <c r="O67" s="23">
-        <f t="shared" ref="O67:U67" si="53">SUM(O61:O66)</f>
+        <v>0</v>
+      </c>
+      <c r="P67" s="23">
+        <v>0</v>
+      </c>
+      <c r="Q67" s="23">
+        <v>0</v>
+      </c>
+      <c r="R67" s="23">
+        <v>6.2939999999999996</v>
+      </c>
+      <c r="S67" s="23">
+        <v>0</v>
+      </c>
+      <c r="T67" s="23">
+        <v>0</v>
+      </c>
+      <c r="U67" s="23">
+        <v>9</v>
+      </c>
+      <c r="V67" s="23">
+        <v>12</v>
+      </c>
+      <c r="W67" s="39"/>
+    </row>
+    <row r="68" spans="2:23" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B68" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="D68" s="55"/>
+      <c r="F68" s="55"/>
+      <c r="H68" s="55"/>
+      <c r="J68" s="55"/>
+      <c r="L68" s="55"/>
+      <c r="O68" s="22">
+        <v>4.7690000000000001</v>
+      </c>
+      <c r="P68" s="22">
+        <v>0.41</v>
+      </c>
+      <c r="Q68" s="22">
+        <v>0</v>
+      </c>
+      <c r="R68" s="22">
+        <v>3.7810000000000001</v>
+      </c>
+      <c r="S68" s="22">
+        <v>16.702000000000002</v>
+      </c>
+      <c r="T68" s="22">
+        <v>3.7669999999999999</v>
+      </c>
+      <c r="U68" s="22">
+        <v>25</v>
+      </c>
+      <c r="V68" s="22">
+        <v>1</v>
+      </c>
+      <c r="W68" s="69"/>
+    </row>
+    <row r="69" spans="2:23" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B69" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="D69" s="56"/>
+      <c r="F69" s="56"/>
+      <c r="H69" s="56"/>
+      <c r="J69" s="56"/>
+      <c r="L69" s="56"/>
+      <c r="O69" s="23">
+        <f t="shared" ref="O69:U69" si="54">SUM(O63:O68)</f>
         <v>1564.9029999999996</v>
       </c>
-      <c r="P67" s="23">
-        <f t="shared" si="53"/>
+      <c r="P69" s="23">
+        <f t="shared" si="54"/>
         <v>1773.4760000000001</v>
       </c>
-      <c r="Q67" s="23">
-        <f t="shared" si="53"/>
+      <c r="Q69" s="23">
+        <f t="shared" si="54"/>
         <v>2056.8620000000001</v>
       </c>
-      <c r="R67" s="23">
-        <f t="shared" si="53"/>
+      <c r="R69" s="23">
+        <f t="shared" si="54"/>
         <v>2331.8589999999999</v>
       </c>
-      <c r="S67" s="23">
-        <f t="shared" si="53"/>
+      <c r="S69" s="23">
+        <f t="shared" si="54"/>
         <v>3570.1229999999996</v>
       </c>
-      <c r="T67" s="23">
-        <f t="shared" si="53"/>
+      <c r="T69" s="23">
+        <f t="shared" si="54"/>
         <v>3358.4539999999988</v>
       </c>
-      <c r="U67" s="23">
-        <f t="shared" si="53"/>
+      <c r="U69" s="23">
+        <f t="shared" si="54"/>
         <v>3638</v>
       </c>
-      <c r="V67" s="23">
-        <f>SUM(V61:V66)</f>
+      <c r="V69" s="23">
+        <f>SUM(V63:V68)</f>
         <v>3587</v>
       </c>
-      <c r="W67" s="39"/>
-    </row>
-    <row r="68" spans="2:23" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D68" s="56"/>
-      <c r="F68" s="56"/>
-      <c r="H68" s="56"/>
-      <c r="J68" s="56"/>
-      <c r="L68" s="56"/>
-      <c r="W68" s="39"/>
-    </row>
-    <row r="69" spans="2:23" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B69" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="D69" s="55"/>
-      <c r="F69" s="55"/>
-      <c r="H69" s="55"/>
-      <c r="J69" s="55"/>
-      <c r="L69" s="55"/>
-      <c r="O69" s="22">
-        <f>435.142+16.041</f>
-        <v>451.18299999999999</v>
-      </c>
-      <c r="P69" s="22">
-        <f>17.886+543.725</f>
-        <v>561.61099999999999</v>
-      </c>
-      <c r="Q69" s="22">
-        <f>558.426+19.209</f>
-        <v>577.63499999999999</v>
-      </c>
-      <c r="R69" s="22">
-        <v>562.94100000000003</v>
-      </c>
-      <c r="S69" s="22">
-        <v>561.41800000000001</v>
-      </c>
-      <c r="T69" s="22">
-        <v>723.73599999999999</v>
-      </c>
-      <c r="U69" s="22">
-        <v>950</v>
-      </c>
-      <c r="V69" s="22">
-        <v>873</v>
-      </c>
-      <c r="W69" s="69"/>
+      <c r="W69" s="39"/>
     </row>
     <row r="70" spans="2:23" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B70" s="23" t="s">
-        <v>94</v>
-      </c>
       <c r="D70" s="56"/>
       <c r="F70" s="56"/>
       <c r="H70" s="56"/>
       <c r="J70" s="56"/>
       <c r="L70" s="56"/>
-      <c r="O70" s="23">
-        <f>4.252+66.544</f>
-        <v>70.795999999999992</v>
-      </c>
-      <c r="P70" s="23">
-        <f>76.961+6.469</f>
-        <v>83.429999999999993</v>
-      </c>
-      <c r="Q70" s="23">
-        <f>7.306+87.13</f>
-        <v>94.435999999999993</v>
-      </c>
-      <c r="R70" s="23">
-        <f>92.891+7.104</f>
-        <v>99.995000000000005</v>
-      </c>
-      <c r="S70" s="23">
-        <f>1146.233+0.171</f>
-        <v>1146.404</v>
-      </c>
-      <c r="T70" s="23">
-        <v>1138.634</v>
-      </c>
-      <c r="U70" s="23">
-        <v>1140</v>
-      </c>
-      <c r="V70" s="23">
-        <v>1124</v>
-      </c>
       <c r="W70" s="39"/>
     </row>
-    <row r="71" spans="2:23" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B71" s="23" t="s">
-        <v>85</v>
-      </c>
-      <c r="D71" s="56"/>
-      <c r="F71" s="56"/>
-      <c r="H71" s="56"/>
-      <c r="J71" s="56"/>
-      <c r="L71" s="56"/>
-      <c r="O71" s="23">
-        <v>20.119</v>
-      </c>
-      <c r="P71" s="23">
-        <v>18.844999999999999</v>
-      </c>
-      <c r="Q71" s="23">
-        <v>24.495000000000001</v>
-      </c>
-      <c r="R71" s="23">
-        <v>27.148</v>
-      </c>
-      <c r="S71" s="23">
-        <v>29.007999999999999</v>
-      </c>
-      <c r="T71" s="23">
-        <v>27.475999999999999</v>
-      </c>
-      <c r="U71" s="23">
-        <v>43</v>
-      </c>
-      <c r="V71" s="23">
-        <v>43</v>
-      </c>
-      <c r="W71" s="39"/>
+    <row r="71" spans="2:23" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B71" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="D71" s="55"/>
+      <c r="F71" s="55"/>
+      <c r="H71" s="55"/>
+      <c r="J71" s="55"/>
+      <c r="L71" s="55"/>
+      <c r="O71" s="22">
+        <f>435.142+16.041</f>
+        <v>451.18299999999999</v>
+      </c>
+      <c r="P71" s="22">
+        <f>17.886+543.725</f>
+        <v>561.61099999999999</v>
+      </c>
+      <c r="Q71" s="22">
+        <f>558.426+19.209</f>
+        <v>577.63499999999999</v>
+      </c>
+      <c r="R71" s="22">
+        <v>562.94100000000003</v>
+      </c>
+      <c r="S71" s="22">
+        <v>561.41800000000001</v>
+      </c>
+      <c r="T71" s="22">
+        <v>723.73599999999999</v>
+      </c>
+      <c r="U71" s="22">
+        <v>950</v>
+      </c>
+      <c r="V71" s="22">
+        <v>873</v>
+      </c>
+      <c r="W71" s="69"/>
     </row>
     <row r="72" spans="2:23" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B72" s="23" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D72" s="56"/>
       <c r="F72" s="56"/>
@@ -4523,34 +4587,39 @@
       <c r="J72" s="56"/>
       <c r="L72" s="56"/>
       <c r="O72" s="23">
-        <v>2.0470000000000002</v>
+        <f>4.252+66.544</f>
+        <v>70.795999999999992</v>
       </c>
       <c r="P72" s="23">
-        <v>0.92200000000000004</v>
+        <f>76.961+6.469</f>
+        <v>83.429999999999993</v>
       </c>
       <c r="Q72" s="23">
-        <v>0.379</v>
+        <f>7.306+87.13</f>
+        <v>94.435999999999993</v>
       </c>
       <c r="R72" s="23">
-        <v>0.374</v>
+        <f>92.891+7.104</f>
+        <v>99.995000000000005</v>
       </c>
       <c r="S72" s="23">
-        <v>0.76600000000000001</v>
+        <f>1146.233+0.171</f>
+        <v>1146.404</v>
       </c>
       <c r="T72" s="23">
-        <v>4.5110000000000001</v>
+        <v>1138.634</v>
       </c>
       <c r="U72" s="23">
-        <v>4</v>
+        <v>1140</v>
       </c>
       <c r="V72" s="23">
-        <v>3</v>
+        <v>1124</v>
       </c>
       <c r="W72" s="39"/>
     </row>
     <row r="73" spans="2:23" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B73" s="23" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="D73" s="56"/>
       <c r="F73" s="56"/>
@@ -4558,80 +4627,69 @@
       <c r="J73" s="56"/>
       <c r="L73" s="56"/>
       <c r="O73" s="23">
-        <f t="shared" ref="O73:U73" si="54">SUM(O69:O72)</f>
-        <v>544.1450000000001</v>
+        <v>20.119</v>
       </c>
       <c r="P73" s="23">
-        <f t="shared" si="54"/>
-        <v>664.80799999999999</v>
+        <v>18.844999999999999</v>
       </c>
       <c r="Q73" s="23">
-        <f t="shared" si="54"/>
-        <v>696.94500000000005</v>
+        <v>24.495000000000001</v>
       </c>
       <c r="R73" s="23">
-        <f t="shared" si="54"/>
-        <v>690.45800000000008</v>
+        <v>27.148</v>
       </c>
       <c r="S73" s="23">
-        <f t="shared" si="54"/>
-        <v>1737.5960000000002</v>
+        <v>29.007999999999999</v>
       </c>
       <c r="T73" s="23">
-        <f t="shared" si="54"/>
-        <v>1894.357</v>
+        <v>27.475999999999999</v>
       </c>
       <c r="U73" s="23">
-        <f t="shared" si="54"/>
-        <v>2137</v>
+        <v>43</v>
       </c>
       <c r="V73" s="23">
-        <f>SUM(V69:V72)</f>
-        <v>2043</v>
+        <v>43</v>
       </c>
       <c r="W73" s="39"/>
     </row>
-    <row r="74" spans="2:23" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B74" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="D74" s="55"/>
-      <c r="F74" s="55"/>
-      <c r="H74" s="55"/>
-      <c r="J74" s="55"/>
-      <c r="L74" s="55"/>
-      <c r="O74" s="22">
-        <v>0</v>
-      </c>
-      <c r="P74" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q74" s="22">
-        <f>47.212+6.112</f>
-        <v>53.324000000000005</v>
-      </c>
-      <c r="R74" s="22">
-        <f>5.646+124.272</f>
-        <v>129.91800000000001</v>
-      </c>
-      <c r="S74" s="22">
-        <f>0.928+211.062</f>
-        <v>211.99</v>
-      </c>
-      <c r="T74" s="22">
-        <v>6.875</v>
-      </c>
-      <c r="U74" s="22">
-        <v>6</v>
-      </c>
-      <c r="V74" s="22">
-        <v>81</v>
-      </c>
-      <c r="W74" s="69"/>
+    <row r="74" spans="2:23" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B74" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="D74" s="56"/>
+      <c r="F74" s="56"/>
+      <c r="H74" s="56"/>
+      <c r="J74" s="56"/>
+      <c r="L74" s="56"/>
+      <c r="O74" s="23">
+        <v>2.0470000000000002</v>
+      </c>
+      <c r="P74" s="23">
+        <v>0.92200000000000004</v>
+      </c>
+      <c r="Q74" s="23">
+        <v>0.379</v>
+      </c>
+      <c r="R74" s="23">
+        <v>0.374</v>
+      </c>
+      <c r="S74" s="23">
+        <v>0.76600000000000001</v>
+      </c>
+      <c r="T74" s="23">
+        <v>4.5110000000000001</v>
+      </c>
+      <c r="U74" s="23">
+        <v>4</v>
+      </c>
+      <c r="V74" s="23">
+        <v>3</v>
+      </c>
+      <c r="W74" s="39"/>
     </row>
     <row r="75" spans="2:23" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B75" s="23" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="D75" s="56"/>
       <c r="F75" s="56"/>
@@ -4639,69 +4697,80 @@
       <c r="J75" s="56"/>
       <c r="L75" s="56"/>
       <c r="O75" s="23">
-        <v>189.74299999999999</v>
+        <f t="shared" ref="O75:U75" si="55">SUM(O71:O74)</f>
+        <v>544.1450000000001</v>
       </c>
       <c r="P75" s="23">
-        <v>267.815</v>
+        <f t="shared" si="55"/>
+        <v>664.80799999999999</v>
       </c>
       <c r="Q75" s="23">
-        <v>336.072</v>
+        <f t="shared" si="55"/>
+        <v>696.94500000000005</v>
       </c>
       <c r="R75" s="23">
-        <v>395.96600000000001</v>
+        <f t="shared" si="55"/>
+        <v>690.45800000000008</v>
       </c>
       <c r="S75" s="23">
-        <v>419.99900000000002</v>
+        <f t="shared" si="55"/>
+        <v>1737.5960000000002</v>
       </c>
       <c r="T75" s="23">
-        <v>524.26</v>
+        <f t="shared" si="55"/>
+        <v>1894.357</v>
       </c>
       <c r="U75" s="23">
-        <v>564</v>
+        <f t="shared" si="55"/>
+        <v>2137</v>
       </c>
       <c r="V75" s="23">
-        <v>541</v>
+        <f>SUM(V71:V74)</f>
+        <v>2043</v>
       </c>
       <c r="W75" s="39"/>
     </row>
-    <row r="76" spans="2:23" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B76" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="D76" s="56"/>
-      <c r="F76" s="56"/>
-      <c r="H76" s="56"/>
-      <c r="J76" s="56"/>
-      <c r="L76" s="56"/>
-      <c r="O76" s="23">
-        <v>1.119</v>
-      </c>
-      <c r="P76" s="23">
-        <v>0.99399999999999999</v>
-      </c>
-      <c r="Q76" s="23">
-        <v>1.87</v>
-      </c>
-      <c r="R76" s="23">
-        <v>3.63</v>
-      </c>
-      <c r="S76" s="23">
-        <v>149.011</v>
-      </c>
-      <c r="T76" s="23">
-        <v>162.73500000000001</v>
-      </c>
-      <c r="U76" s="23">
-        <v>170</v>
-      </c>
-      <c r="V76" s="23">
-        <v>177</v>
-      </c>
-      <c r="W76" s="39"/>
+    <row r="76" spans="2:23" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B76" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="D76" s="55"/>
+      <c r="F76" s="55"/>
+      <c r="H76" s="55"/>
+      <c r="J76" s="55"/>
+      <c r="L76" s="55"/>
+      <c r="O76" s="22">
+        <v>0</v>
+      </c>
+      <c r="P76" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q76" s="22">
+        <f>47.212+6.112</f>
+        <v>53.324000000000005</v>
+      </c>
+      <c r="R76" s="22">
+        <f>5.646+124.272</f>
+        <v>129.91800000000001</v>
+      </c>
+      <c r="S76" s="22">
+        <f>0.928+211.062</f>
+        <v>211.99</v>
+      </c>
+      <c r="T76" s="22">
+        <v>6.875</v>
+      </c>
+      <c r="U76" s="22">
+        <v>6</v>
+      </c>
+      <c r="V76" s="22">
+        <v>81</v>
+      </c>
+      <c r="W76" s="69"/>
     </row>
     <row r="77" spans="2:23" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B77" s="23" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D77" s="56"/>
       <c r="F77" s="56"/>
@@ -4709,35 +4778,34 @@
       <c r="J77" s="56"/>
       <c r="L77" s="56"/>
       <c r="O77" s="23">
-        <v>0.48699999999999999</v>
+        <v>189.74299999999999</v>
       </c>
       <c r="P77" s="23">
-        <v>2.0699999999999998</v>
+        <v>267.815</v>
       </c>
       <c r="Q77" s="23">
-        <v>16.666</v>
+        <v>336.072</v>
       </c>
       <c r="R77" s="23">
-        <v>13.731</v>
+        <v>395.96600000000001</v>
       </c>
       <c r="S77" s="23">
-        <f>150.087+1.847</f>
-        <v>151.934</v>
+        <v>419.99900000000002</v>
       </c>
       <c r="T77" s="23">
-        <v>16.140999999999998</v>
+        <v>524.26</v>
       </c>
       <c r="U77" s="23">
-        <v>0</v>
+        <v>564</v>
       </c>
       <c r="V77" s="23">
-        <v>13</v>
+        <v>541</v>
       </c>
       <c r="W77" s="39"/>
     </row>
     <row r="78" spans="2:23" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B78" s="23" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D78" s="56"/>
       <c r="F78" s="56"/>
@@ -4745,34 +4813,34 @@
       <c r="J78" s="56"/>
       <c r="L78" s="56"/>
       <c r="O78" s="23">
-        <v>10.29</v>
+        <v>1.119</v>
       </c>
       <c r="P78" s="23">
-        <v>19.338999999999999</v>
+        <v>0.99399999999999999</v>
       </c>
       <c r="Q78" s="23">
-        <v>19.677</v>
+        <v>1.87</v>
       </c>
       <c r="R78" s="23">
-        <v>23.196999999999999</v>
+        <v>3.63</v>
       </c>
       <c r="S78" s="23">
-        <v>26.114999999999998</v>
+        <v>149.011</v>
       </c>
       <c r="T78" s="23">
-        <v>12.510999999999999</v>
+        <v>162.73500000000001</v>
       </c>
       <c r="U78" s="23">
-        <v>4</v>
+        <v>170</v>
       </c>
       <c r="V78" s="23">
-        <v>6</v>
+        <v>177</v>
       </c>
       <c r="W78" s="39"/>
     </row>
     <row r="79" spans="2:23" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B79" s="23" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D79" s="56"/>
       <c r="F79" s="56"/>
@@ -4780,34 +4848,35 @@
       <c r="J79" s="56"/>
       <c r="L79" s="56"/>
       <c r="O79" s="23">
-        <v>4.7690000000000001</v>
+        <v>0.48699999999999999</v>
       </c>
       <c r="P79" s="23">
-        <v>4.8689999999999998</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="Q79" s="23">
-        <v>6.2930000000000001</v>
+        <v>16.666</v>
       </c>
       <c r="R79" s="23">
-        <v>6.718</v>
+        <v>13.731</v>
       </c>
       <c r="S79" s="23">
-        <v>6.0789999999999997</v>
+        <f>150.087+1.847</f>
+        <v>151.934</v>
       </c>
       <c r="T79" s="23">
-        <v>8.6069999999999993</v>
+        <v>16.140999999999998</v>
       </c>
       <c r="U79" s="23">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="V79" s="23">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="W79" s="39"/>
     </row>
     <row r="80" spans="2:23" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B80" s="23" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D80" s="56"/>
       <c r="F80" s="56"/>
@@ -4815,50 +4884,69 @@
       <c r="J80" s="56"/>
       <c r="L80" s="56"/>
       <c r="O80" s="23">
-        <f>SUM(O73:O79)</f>
-        <v>750.55300000000011</v>
+        <v>10.29</v>
       </c>
       <c r="P80" s="23">
-        <f t="shared" ref="P80:U80" si="55">SUM(P73:P79)</f>
-        <v>959.8950000000001</v>
+        <v>19.338999999999999</v>
       </c>
       <c r="Q80" s="23">
-        <f t="shared" si="55"/>
-        <v>1130.8469999999995</v>
+        <v>19.677</v>
       </c>
       <c r="R80" s="23">
-        <f t="shared" si="55"/>
-        <v>1263.6180000000002</v>
+        <v>23.196999999999999</v>
       </c>
       <c r="S80" s="23">
-        <f t="shared" si="55"/>
-        <v>2702.7240000000002</v>
+        <v>26.114999999999998</v>
       </c>
       <c r="T80" s="23">
-        <f t="shared" si="55"/>
-        <v>2625.4860000000003</v>
+        <v>12.510999999999999</v>
       </c>
       <c r="U80" s="23">
-        <f t="shared" si="55"/>
-        <v>2892</v>
+        <v>4</v>
       </c>
       <c r="V80" s="23">
-        <f>SUM(V73:V79)</f>
-        <v>2867</v>
+        <v>6</v>
       </c>
       <c r="W80" s="39"/>
     </row>
     <row r="81" spans="2:23" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B81" s="23" t="s">
+        <v>96</v>
+      </c>
       <c r="D81" s="56"/>
       <c r="F81" s="56"/>
       <c r="H81" s="56"/>
       <c r="J81" s="56"/>
       <c r="L81" s="56"/>
+      <c r="O81" s="23">
+        <v>4.7690000000000001</v>
+      </c>
+      <c r="P81" s="23">
+        <v>4.8689999999999998</v>
+      </c>
+      <c r="Q81" s="23">
+        <v>6.2930000000000001</v>
+      </c>
+      <c r="R81" s="23">
+        <v>6.718</v>
+      </c>
+      <c r="S81" s="23">
+        <v>6.0789999999999997</v>
+      </c>
+      <c r="T81" s="23">
+        <v>8.6069999999999993</v>
+      </c>
+      <c r="U81" s="23">
+        <v>11</v>
+      </c>
+      <c r="V81" s="23">
+        <v>6</v>
+      </c>
       <c r="W81" s="39"/>
     </row>
     <row r="82" spans="2:23" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B82" s="23" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D82" s="56"/>
       <c r="F82" s="56"/>
@@ -4866,85 +4954,85 @@
       <c r="J82" s="56"/>
       <c r="L82" s="56"/>
       <c r="O82" s="23">
-        <v>814.35</v>
+        <f>SUM(O75:O81)</f>
+        <v>750.55300000000011</v>
       </c>
       <c r="P82" s="23">
-        <v>813.62099999999998</v>
+        <f t="shared" ref="P82:U82" si="56">SUM(P75:P81)</f>
+        <v>959.8950000000001</v>
       </c>
       <c r="Q82" s="23">
-        <v>925.38499999999999</v>
+        <f t="shared" si="56"/>
+        <v>1130.8469999999995</v>
       </c>
       <c r="R82" s="23">
-        <v>1068.241</v>
+        <f t="shared" si="56"/>
+        <v>1263.6180000000002</v>
       </c>
       <c r="S82" s="23">
-        <v>867.399</v>
+        <f t="shared" si="56"/>
+        <v>2702.7240000000002</v>
       </c>
       <c r="T82" s="23">
-        <v>732.96799999999996</v>
+        <f t="shared" si="56"/>
+        <v>2625.4860000000003</v>
       </c>
       <c r="U82" s="23">
-        <v>746</v>
+        <f t="shared" si="56"/>
+        <v>2892</v>
       </c>
       <c r="V82" s="23">
-        <v>720</v>
+        <f>SUM(V75:V81)</f>
+        <v>2867</v>
       </c>
       <c r="W82" s="39"/>
     </row>
     <row r="83" spans="2:23" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B83" s="23" t="s">
-        <v>101</v>
-      </c>
       <c r="D83" s="56"/>
       <c r="F83" s="56"/>
       <c r="H83" s="56"/>
       <c r="J83" s="56"/>
       <c r="L83" s="56"/>
-      <c r="O83" s="23">
-        <f t="shared" ref="O83:P83" si="56">+O82+O80</f>
-        <v>1564.9030000000002</v>
-      </c>
-      <c r="P83" s="23">
-        <f t="shared" si="56"/>
-        <v>1773.5160000000001</v>
-      </c>
-      <c r="Q83" s="23">
-        <f t="shared" ref="Q83:V83" si="57">+Q82+Q80</f>
-        <v>2056.2319999999995</v>
-      </c>
-      <c r="R83" s="23">
-        <f t="shared" si="57"/>
-        <v>2331.8590000000004</v>
-      </c>
-      <c r="S83" s="23">
-        <f t="shared" si="57"/>
-        <v>3570.123</v>
-      </c>
-      <c r="T83" s="23">
-        <f t="shared" si="57"/>
-        <v>3358.4540000000002</v>
-      </c>
-      <c r="U83" s="23">
-        <f t="shared" si="57"/>
-        <v>3638</v>
-      </c>
-      <c r="V83" s="23">
-        <f t="shared" si="57"/>
-        <v>3587</v>
-      </c>
       <c r="W83" s="39"/>
     </row>
     <row r="84" spans="2:23" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B84" s="23" t="s">
+        <v>99</v>
+      </c>
       <c r="D84" s="56"/>
       <c r="F84" s="56"/>
       <c r="H84" s="56"/>
       <c r="J84" s="56"/>
       <c r="L84" s="56"/>
+      <c r="O84" s="23">
+        <v>814.35</v>
+      </c>
+      <c r="P84" s="23">
+        <v>813.62099999999998</v>
+      </c>
+      <c r="Q84" s="23">
+        <v>925.38499999999999</v>
+      </c>
+      <c r="R84" s="23">
+        <v>1068.241</v>
+      </c>
+      <c r="S84" s="23">
+        <v>867.399</v>
+      </c>
+      <c r="T84" s="23">
+        <v>732.96799999999996</v>
+      </c>
+      <c r="U84" s="23">
+        <v>746</v>
+      </c>
+      <c r="V84" s="23">
+        <v>720</v>
+      </c>
       <c r="W84" s="39"/>
     </row>
     <row r="85" spans="2:23" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B85" s="23" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D85" s="56"/>
       <c r="F85" s="56"/>
@@ -4952,179 +5040,144 @@
       <c r="J85" s="56"/>
       <c r="L85" s="56"/>
       <c r="O85" s="23">
-        <f t="shared" ref="O85:P85" si="58">O67-O80</f>
-        <v>814.34999999999945</v>
+        <f t="shared" ref="O85:P85" si="57">+O84+O82</f>
+        <v>1564.9030000000002</v>
       </c>
       <c r="P85" s="23">
+        <f t="shared" si="57"/>
+        <v>1773.5160000000001</v>
+      </c>
+      <c r="Q85" s="23">
+        <f t="shared" ref="Q85:V85" si="58">+Q84+Q82</f>
+        <v>2056.2319999999995</v>
+      </c>
+      <c r="R85" s="23">
         <f t="shared" si="58"/>
-        <v>813.58100000000002</v>
-      </c>
-      <c r="Q85" s="23">
-        <f t="shared" ref="Q85:S85" si="59">Q67-Q80</f>
-        <v>926.01500000000055</v>
-      </c>
-      <c r="R85" s="23">
-        <f t="shared" si="59"/>
-        <v>1068.2409999999998</v>
+        <v>2331.8590000000004</v>
       </c>
       <c r="S85" s="23">
-        <f t="shared" si="59"/>
-        <v>867.39899999999943</v>
+        <f t="shared" si="58"/>
+        <v>3570.123</v>
       </c>
       <c r="T85" s="23">
-        <f t="shared" ref="T85" si="60">T67-T80</f>
-        <v>732.96799999999848</v>
+        <f t="shared" si="58"/>
+        <v>3358.4540000000002</v>
       </c>
       <c r="U85" s="23">
-        <f t="shared" ref="U85" si="61">U67-U80</f>
-        <v>746</v>
+        <f t="shared" si="58"/>
+        <v>3638</v>
       </c>
       <c r="V85" s="23">
-        <f>V67-V80</f>
-        <v>720</v>
+        <f t="shared" si="58"/>
+        <v>3587</v>
       </c>
       <c r="W85" s="39"/>
     </row>
-    <row r="86" spans="2:23" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B86" s="38" t="s">
-        <v>103</v>
-      </c>
-      <c r="D86" s="60"/>
-      <c r="F86" s="60"/>
-      <c r="H86" s="60"/>
-      <c r="J86" s="60"/>
-      <c r="L86" s="60"/>
-      <c r="O86" s="38">
-        <f t="shared" ref="O86" si="62">O85/O22</f>
-        <v>0.81396336740048425</v>
-      </c>
-      <c r="P86" s="38">
-        <f t="shared" ref="P86" si="63">P85/P22</f>
-        <v>0.81346060783004115</v>
-      </c>
-      <c r="Q86" s="38">
-        <f t="shared" ref="Q86" si="64">Q85/Q22</f>
-        <v>0.92541255642576747</v>
-      </c>
-      <c r="R86" s="38">
-        <f t="shared" ref="R86" si="65">R85/R22</f>
-        <v>1.067158900874513</v>
-      </c>
-      <c r="S86" s="38">
-        <f t="shared" ref="S86" si="66">S85/S22</f>
-        <v>0.86690486422738977</v>
-      </c>
-      <c r="T86" s="38">
-        <f t="shared" ref="T86" si="67">T85/T22</f>
-        <v>0.73245894103597842</v>
-      </c>
-      <c r="U86" s="38">
-        <f>U85/U22</f>
-        <v>0.74520933289779545</v>
-      </c>
-      <c r="V86" s="38">
-        <f>V85/V22</f>
-        <v>0.71885486420132727</v>
-      </c>
-      <c r="W86" s="72"/>
+    <row r="86" spans="2:23" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D86" s="56"/>
+      <c r="F86" s="56"/>
+      <c r="H86" s="56"/>
+      <c r="J86" s="56"/>
+      <c r="L86" s="56"/>
+      <c r="W86" s="39"/>
     </row>
     <row r="87" spans="2:23" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B87" s="23" t="s">
+        <v>101</v>
+      </c>
       <c r="D87" s="56"/>
       <c r="F87" s="56"/>
       <c r="H87" s="56"/>
       <c r="J87" s="56"/>
       <c r="L87" s="56"/>
+      <c r="O87" s="23">
+        <f t="shared" ref="O87:P87" si="59">O69-O82</f>
+        <v>814.34999999999945</v>
+      </c>
+      <c r="P87" s="23">
+        <f t="shared" si="59"/>
+        <v>813.58100000000002</v>
+      </c>
+      <c r="Q87" s="23">
+        <f t="shared" ref="Q87:S87" si="60">Q69-Q82</f>
+        <v>926.01500000000055</v>
+      </c>
+      <c r="R87" s="23">
+        <f t="shared" si="60"/>
+        <v>1068.2409999999998</v>
+      </c>
+      <c r="S87" s="23">
+        <f t="shared" si="60"/>
+        <v>867.39899999999943</v>
+      </c>
+      <c r="T87" s="23">
+        <f t="shared" ref="T87" si="61">T69-T82</f>
+        <v>732.96799999999848</v>
+      </c>
+      <c r="U87" s="23">
+        <f t="shared" ref="U87" si="62">U69-U82</f>
+        <v>746</v>
+      </c>
+      <c r="V87" s="23">
+        <f>V69-V82</f>
+        <v>720</v>
+      </c>
       <c r="W87" s="39"/>
     </row>
-    <row r="88" spans="2:23" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B88" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="D88" s="56"/>
-      <c r="F88" s="56"/>
-      <c r="H88" s="56"/>
-      <c r="J88" s="56"/>
-      <c r="L88" s="56"/>
-      <c r="O88" s="23">
-        <f t="shared" ref="O88:P88" si="68">+O62+O66</f>
-        <v>95.917000000000002</v>
-      </c>
-      <c r="P88" s="23">
-        <f t="shared" si="68"/>
-        <v>155.92099999999999</v>
-      </c>
-      <c r="Q88" s="23">
-        <f t="shared" ref="Q88:R88" si="69">+Q62+Q66</f>
-        <v>90.816000000000003</v>
-      </c>
-      <c r="R88" s="23">
-        <f t="shared" si="69"/>
-        <v>89.983000000000004</v>
-      </c>
-      <c r="S88" s="23">
-        <f t="shared" ref="S88" si="70">+S62+S66</f>
-        <v>444.90699999999998</v>
-      </c>
-      <c r="T88" s="23">
-        <f t="shared" ref="T88" si="71">+T62+T66</f>
-        <v>221.44899999999998</v>
-      </c>
-      <c r="U88" s="23">
-        <f t="shared" ref="U88" si="72">+U62+U66</f>
-        <v>198</v>
-      </c>
-      <c r="V88" s="23">
-        <f>+V62+V66</f>
-        <v>238</v>
-      </c>
-      <c r="W88" s="39"/>
+    <row r="88" spans="2:23" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B88" s="38" t="s">
+        <v>102</v>
+      </c>
+      <c r="D88" s="60"/>
+      <c r="F88" s="60"/>
+      <c r="H88" s="60"/>
+      <c r="J88" s="60"/>
+      <c r="L88" s="60"/>
+      <c r="O88" s="38">
+        <f t="shared" ref="O88" si="63">O87/O22</f>
+        <v>0.81396336740048425</v>
+      </c>
+      <c r="P88" s="38">
+        <f t="shared" ref="P88" si="64">P87/P22</f>
+        <v>0.81346060783004115</v>
+      </c>
+      <c r="Q88" s="38">
+        <f t="shared" ref="Q88" si="65">Q87/Q22</f>
+        <v>0.92541255642576747</v>
+      </c>
+      <c r="R88" s="38">
+        <f t="shared" ref="R88" si="66">R87/R22</f>
+        <v>1.067158900874513</v>
+      </c>
+      <c r="S88" s="38">
+        <f t="shared" ref="S88" si="67">S87/S22</f>
+        <v>0.86690486422738977</v>
+      </c>
+      <c r="T88" s="38">
+        <f t="shared" ref="T88" si="68">T87/T22</f>
+        <v>0.73245894103597842</v>
+      </c>
+      <c r="U88" s="38">
+        <f>U87/U22</f>
+        <v>0.74520933289779545</v>
+      </c>
+      <c r="V88" s="38">
+        <f>V87/V22</f>
+        <v>0.71885486420132727</v>
+      </c>
+      <c r="W88" s="72"/>
     </row>
     <row r="89" spans="2:23" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B89" s="23" t="s">
-        <v>7</v>
-      </c>
       <c r="D89" s="56"/>
       <c r="F89" s="56"/>
       <c r="H89" s="56"/>
       <c r="J89" s="56"/>
       <c r="L89" s="56"/>
-      <c r="O89" s="23">
-        <f t="shared" ref="O89:P89" si="73">+O69+O74</f>
-        <v>451.18299999999999</v>
-      </c>
-      <c r="P89" s="23">
-        <f t="shared" si="73"/>
-        <v>561.61099999999999</v>
-      </c>
-      <c r="Q89" s="23">
-        <f t="shared" ref="Q89:R89" si="74">+Q69+Q74</f>
-        <v>630.95899999999995</v>
-      </c>
-      <c r="R89" s="23">
-        <f t="shared" si="74"/>
-        <v>692.85900000000004</v>
-      </c>
-      <c r="S89" s="23">
-        <f t="shared" ref="S89" si="75">+S69+S74</f>
-        <v>773.40800000000002</v>
-      </c>
-      <c r="T89" s="23">
-        <f t="shared" ref="T89" si="76">+T69+T74</f>
-        <v>730.61099999999999</v>
-      </c>
-      <c r="U89" s="23">
-        <f t="shared" ref="U89" si="77">+U69+U74</f>
-        <v>956</v>
-      </c>
-      <c r="V89" s="23">
-        <f>+V69+V74</f>
-        <v>954</v>
-      </c>
       <c r="W89" s="39"/>
     </row>
     <row r="90" spans="2:23" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B90" s="23" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D90" s="56"/>
       <c r="F90" s="56"/>
@@ -5132,382 +5185,382 @@
       <c r="J90" s="56"/>
       <c r="L90" s="56"/>
       <c r="O90" s="23">
-        <f t="shared" ref="O90:U90" si="78">O88-O89</f>
-        <v>-355.26599999999996</v>
+        <f t="shared" ref="O90:P90" si="69">+O64+O68</f>
+        <v>95.917000000000002</v>
       </c>
       <c r="P90" s="23">
-        <f t="shared" si="78"/>
-        <v>-405.69</v>
+        <f t="shared" si="69"/>
+        <v>155.92099999999999</v>
       </c>
       <c r="Q90" s="23">
-        <f t="shared" si="78"/>
-        <v>-540.14299999999992</v>
+        <f t="shared" ref="Q90:R90" si="70">+Q64+Q68</f>
+        <v>90.816000000000003</v>
       </c>
       <c r="R90" s="23">
-        <f t="shared" si="78"/>
-        <v>-602.87599999999998</v>
+        <f t="shared" si="70"/>
+        <v>89.983000000000004</v>
       </c>
       <c r="S90" s="23">
-        <f t="shared" si="78"/>
-        <v>-328.50100000000003</v>
+        <f t="shared" ref="S90" si="71">+S64+S68</f>
+        <v>444.90699999999998</v>
       </c>
       <c r="T90" s="23">
-        <f t="shared" si="78"/>
-        <v>-509.16200000000003</v>
+        <f t="shared" ref="T90" si="72">+T64+T68</f>
+        <v>221.44899999999998</v>
       </c>
       <c r="U90" s="23">
-        <f t="shared" si="78"/>
-        <v>-758</v>
+        <f t="shared" ref="U90" si="73">+U64+U68</f>
+        <v>198</v>
       </c>
       <c r="V90" s="23">
-        <f>V88-V89</f>
-        <v>-716</v>
+        <f>+V64+V68</f>
+        <v>238</v>
       </c>
       <c r="W90" s="39"/>
     </row>
     <row r="91" spans="2:23" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B91" s="23" t="s">
+        <v>6</v>
+      </c>
       <c r="D91" s="56"/>
       <c r="F91" s="56"/>
       <c r="H91" s="56"/>
       <c r="J91" s="56"/>
       <c r="L91" s="56"/>
+      <c r="O91" s="23">
+        <f t="shared" ref="O91:P91" si="74">+O71+O76</f>
+        <v>451.18299999999999</v>
+      </c>
+      <c r="P91" s="23">
+        <f t="shared" si="74"/>
+        <v>561.61099999999999</v>
+      </c>
+      <c r="Q91" s="23">
+        <f t="shared" ref="Q91:R91" si="75">+Q71+Q76</f>
+        <v>630.95899999999995</v>
+      </c>
+      <c r="R91" s="23">
+        <f t="shared" si="75"/>
+        <v>692.85900000000004</v>
+      </c>
+      <c r="S91" s="23">
+        <f t="shared" ref="S91" si="76">+S71+S76</f>
+        <v>773.40800000000002</v>
+      </c>
+      <c r="T91" s="23">
+        <f t="shared" ref="T91" si="77">+T71+T76</f>
+        <v>730.61099999999999</v>
+      </c>
+      <c r="U91" s="23">
+        <f t="shared" ref="U91" si="78">+U71+U76</f>
+        <v>956</v>
+      </c>
+      <c r="V91" s="23">
+        <f>+V71+V76</f>
+        <v>954</v>
+      </c>
       <c r="W91" s="39"/>
     </row>
-    <row r="92" spans="2:23" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B92" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="D92" s="55"/>
-      <c r="F92" s="55"/>
-      <c r="H92" s="55"/>
-      <c r="J92" s="55"/>
-      <c r="L92" s="55"/>
-      <c r="O92" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="P92" s="28">
-        <f t="shared" ref="P92:S92" si="79">P63/O63-1</f>
-        <v>0.29695042546981298</v>
-      </c>
-      <c r="Q92" s="28">
+    <row r="92" spans="2:23" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B92" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D92" s="56"/>
+      <c r="F92" s="56"/>
+      <c r="H92" s="56"/>
+      <c r="J92" s="56"/>
+      <c r="L92" s="56"/>
+      <c r="O92" s="23">
+        <f t="shared" ref="O92:U92" si="79">O90-O91</f>
+        <v>-355.26599999999996</v>
+      </c>
+      <c r="P92" s="23">
         <f t="shared" si="79"/>
-        <v>0.20897431181145976</v>
-      </c>
-      <c r="R92" s="28">
+        <v>-405.69</v>
+      </c>
+      <c r="Q92" s="23">
         <f t="shared" si="79"/>
-        <v>0.20052444110329515</v>
-      </c>
-      <c r="S92" s="28">
+        <v>-540.14299999999992</v>
+      </c>
+      <c r="R92" s="23">
         <f t="shared" si="79"/>
-        <v>-0.12333145972766624</v>
-      </c>
-      <c r="T92" s="28">
-        <f>T63/S63-1</f>
-        <v>2.9125850340135928E-2</v>
-      </c>
-      <c r="U92" s="28">
-        <f>U63/T63-1</f>
-        <v>0.42614926478121928</v>
-      </c>
-      <c r="V92" s="28">
-        <f>V63/U63-1</f>
-        <v>-0.11471610660486675</v>
-      </c>
-      <c r="W92" s="69"/>
+        <v>-602.87599999999998</v>
+      </c>
+      <c r="S92" s="23">
+        <f t="shared" si="79"/>
+        <v>-328.50100000000003</v>
+      </c>
+      <c r="T92" s="23">
+        <f t="shared" si="79"/>
+        <v>-509.16200000000003</v>
+      </c>
+      <c r="U92" s="23">
+        <f t="shared" si="79"/>
+        <v>-758</v>
+      </c>
+      <c r="V92" s="23">
+        <f>V90-V91</f>
+        <v>-716</v>
+      </c>
+      <c r="W92" s="39"/>
     </row>
     <row r="93" spans="2:23" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B93" s="23" t="s">
-        <v>105</v>
-      </c>
       <c r="D93" s="56"/>
       <c r="F93" s="56"/>
       <c r="H93" s="56"/>
       <c r="J93" s="56"/>
       <c r="L93" s="56"/>
-      <c r="O93" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="P93" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q93" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="R93" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="S93" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="T93" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="U93" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="V93" s="37" t="s">
-        <v>74</v>
-      </c>
       <c r="W93" s="39"/>
     </row>
-    <row r="94" spans="2:23" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B94" s="23" t="s">
-        <v>127</v>
-      </c>
-      <c r="D94" s="56"/>
-      <c r="F94" s="56"/>
-      <c r="H94" s="56"/>
-      <c r="J94" s="56"/>
-      <c r="L94" s="56"/>
-      <c r="O94" s="40">
-        <f t="shared" ref="O94:U94" si="80">O63/O4</f>
+    <row r="94" spans="2:23" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B94" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="D94" s="55"/>
+      <c r="F94" s="55"/>
+      <c r="H94" s="55"/>
+      <c r="J94" s="55"/>
+      <c r="L94" s="55"/>
+      <c r="O94" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="P94" s="28">
+        <f t="shared" ref="P94:S94" si="80">P65/O65-1</f>
+        <v>0.29695042546981298</v>
+      </c>
+      <c r="Q94" s="28">
+        <f t="shared" si="80"/>
+        <v>0.20897431181145976</v>
+      </c>
+      <c r="R94" s="28">
+        <f t="shared" si="80"/>
+        <v>0.20052444110329515</v>
+      </c>
+      <c r="S94" s="28">
+        <f t="shared" si="80"/>
+        <v>-0.12333145972766624</v>
+      </c>
+      <c r="T94" s="28">
+        <f>T65/S65-1</f>
+        <v>2.9125850340135928E-2</v>
+      </c>
+      <c r="U94" s="28">
+        <f>U65/T65-1</f>
+        <v>0.42614926478121928</v>
+      </c>
+      <c r="V94" s="28">
+        <f>V65/U65-1</f>
+        <v>-0.11471610660486675</v>
+      </c>
+      <c r="W94" s="69"/>
+    </row>
+    <row r="95" spans="2:23" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B95" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="D95" s="56"/>
+      <c r="F95" s="56"/>
+      <c r="H95" s="56"/>
+      <c r="J95" s="56"/>
+      <c r="L95" s="56"/>
+      <c r="O95" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="P95" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q95" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="R95" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="S95" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="T95" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="U95" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="V95" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="W95" s="39"/>
+    </row>
+    <row r="96" spans="2:23" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B96" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="D96" s="56"/>
+      <c r="F96" s="56"/>
+      <c r="H96" s="56"/>
+      <c r="J96" s="56"/>
+      <c r="L96" s="56"/>
+      <c r="O96" s="40">
+        <f t="shared" ref="O96:U96" si="81">O65/O4</f>
         <v>0.1750673738567326</v>
       </c>
-      <c r="P94" s="40">
-        <f t="shared" si="80"/>
+      <c r="P96" s="40">
+        <f t="shared" si="81"/>
         <v>0.19012079023804238</v>
       </c>
-      <c r="Q94" s="40">
-        <f t="shared" si="80"/>
+      <c r="Q96" s="40">
+        <f t="shared" si="81"/>
         <v>0.18439818839646949</v>
       </c>
-      <c r="R94" s="40">
-        <f t="shared" si="80"/>
+      <c r="R96" s="40">
+        <f t="shared" si="81"/>
         <v>0.1923879075063929</v>
       </c>
-      <c r="S94" s="40">
-        <f t="shared" si="80"/>
+      <c r="S96" s="40">
+        <f t="shared" si="81"/>
         <v>0.15419363416301571</v>
       </c>
-      <c r="T94" s="40">
-        <f t="shared" si="80"/>
+      <c r="T96" s="40">
+        <f t="shared" si="81"/>
         <v>0.12603050136157493</v>
       </c>
-      <c r="U94" s="40">
-        <f t="shared" si="80"/>
+      <c r="U96" s="40">
+        <f t="shared" si="81"/>
         <v>0.18467793708538413</v>
       </c>
-      <c r="V94" s="40">
-        <f>V63/V4</f>
+      <c r="V96" s="40">
+        <f>V65/V4</f>
         <v>0.15332129239414008</v>
       </c>
-      <c r="W94" s="39"/>
-    </row>
-    <row r="96" spans="2:23" s="30" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B96" s="30" t="s">
+      <c r="W96" s="39"/>
+    </row>
+    <row r="98" spans="2:23" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B98" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="D98" s="53"/>
+      <c r="F98" s="53"/>
+      <c r="H98" s="53"/>
+      <c r="J98" s="53"/>
+      <c r="L98" s="53"/>
+      <c r="O98" s="30">
+        <v>1.6907000000000001</v>
+      </c>
+      <c r="P98" s="30">
+        <v>2.0636000000000001</v>
+      </c>
+      <c r="Q98" s="30">
+        <v>2.6928999999999998</v>
+      </c>
+      <c r="R98" s="30">
+        <v>2.6215999999999999</v>
+      </c>
+      <c r="S98" s="30">
+        <v>2.0379999999999998</v>
+      </c>
+      <c r="T98" s="30">
+        <v>4.5180999999999996</v>
+      </c>
+      <c r="U98" s="30">
+        <v>5.0332999999999997</v>
+      </c>
+      <c r="V98" s="30">
+        <v>4.6698000000000004</v>
+      </c>
+      <c r="W98" s="66"/>
+    </row>
+    <row r="99" spans="2:23" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B99" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="D96" s="53"/>
-      <c r="F96" s="53"/>
-      <c r="H96" s="53"/>
-      <c r="J96" s="53"/>
-      <c r="L96" s="53"/>
-      <c r="O96" s="30">
-        <v>1.6907000000000001</v>
-      </c>
-      <c r="P96" s="30">
-        <v>2.0636000000000001</v>
-      </c>
-      <c r="Q96" s="30">
-        <v>2.6928999999999998</v>
-      </c>
-      <c r="R96" s="30">
-        <v>2.6215999999999999</v>
-      </c>
-      <c r="S96" s="30">
-        <v>2.0379999999999998</v>
-      </c>
-      <c r="T96" s="30">
-        <v>4.5180999999999996</v>
-      </c>
-      <c r="U96" s="30">
-        <v>5.0332999999999997</v>
-      </c>
-      <c r="V96" s="30">
-        <v>4.6698000000000004</v>
-      </c>
-      <c r="W96" s="66"/>
-    </row>
-    <row r="97" spans="2:23" s="35" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B97" s="35" t="s">
-        <v>107</v>
-      </c>
-      <c r="D97" s="58"/>
-      <c r="F97" s="58"/>
-      <c r="H97" s="58"/>
-      <c r="J97" s="58"/>
-      <c r="L97" s="58"/>
-      <c r="O97" s="35">
-        <f t="shared" ref="O97:S97" si="81">O96*O22</f>
+      <c r="D99" s="58"/>
+      <c r="F99" s="58"/>
+      <c r="H99" s="58"/>
+      <c r="J99" s="58"/>
+      <c r="L99" s="58"/>
+      <c r="O99" s="35">
+        <f t="shared" ref="O99:R99" si="82">O98*O22</f>
         <v>1691.5030825000001</v>
       </c>
-      <c r="P97" s="35">
-        <f t="shared" si="81"/>
+      <c r="P99" s="35">
+        <f t="shared" si="82"/>
         <v>2063.9054128000002</v>
       </c>
-      <c r="Q97" s="35">
-        <f t="shared" si="81"/>
+      <c r="Q99" s="35">
+        <f t="shared" si="82"/>
         <v>2694.6530778999995</v>
       </c>
-      <c r="R97" s="35">
-        <f t="shared" si="81"/>
+      <c r="R99" s="35">
+        <f t="shared" si="82"/>
         <v>2624.2583024</v>
       </c>
-      <c r="S97" s="35">
-        <f t="shared" ref="S97" si="82">S96*S22</f>
+      <c r="S99" s="35">
+        <f t="shared" ref="S99" si="83">S98*S22</f>
         <v>2039.16166</v>
       </c>
-      <c r="T97" s="35">
-        <f t="shared" ref="T97" si="83">T96*T22</f>
+      <c r="T99" s="35">
+        <f t="shared" ref="T99" si="84">T98*T22</f>
         <v>4521.2400794999994</v>
       </c>
-      <c r="U97" s="35">
-        <f t="shared" ref="U97" si="84">U96*U22</f>
+      <c r="U99" s="35">
+        <f t="shared" ref="U99" si="85">U98*U22</f>
         <v>5038.6403313000001</v>
       </c>
-      <c r="V97" s="35">
-        <f>V96*V22</f>
+      <c r="V99" s="35">
+        <f>V98*V22</f>
         <v>4677.2389914000005</v>
       </c>
-      <c r="W97" s="39"/>
-    </row>
-    <row r="98" spans="2:23" s="35" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B98" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="D98" s="58"/>
-      <c r="F98" s="58"/>
-      <c r="H98" s="58"/>
-      <c r="J98" s="58"/>
-      <c r="L98" s="58"/>
-      <c r="O98" s="35">
-        <f t="shared" ref="O98:S98" si="85">O97-O90</f>
+      <c r="W99" s="39"/>
+    </row>
+    <row r="100" spans="2:23" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B100" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="D100" s="58"/>
+      <c r="F100" s="58"/>
+      <c r="H100" s="58"/>
+      <c r="J100" s="58"/>
+      <c r="L100" s="58"/>
+      <c r="O100" s="35">
+        <f t="shared" ref="O100:R100" si="86">O99-O92</f>
         <v>2046.7690825</v>
       </c>
-      <c r="P98" s="35">
-        <f t="shared" si="85"/>
+      <c r="P100" s="35">
+        <f t="shared" si="86"/>
         <v>2469.5954128000003</v>
       </c>
-      <c r="Q98" s="35">
-        <f t="shared" si="85"/>
+      <c r="Q100" s="35">
+        <f t="shared" si="86"/>
         <v>3234.7960778999995</v>
       </c>
-      <c r="R98" s="35">
-        <f t="shared" si="85"/>
+      <c r="R100" s="35">
+        <f t="shared" si="86"/>
         <v>3227.1343023999998</v>
       </c>
-      <c r="S98" s="35">
-        <f t="shared" ref="S98" si="86">S97-S90</f>
+      <c r="S100" s="35">
+        <f t="shared" ref="S100" si="87">S99-S92</f>
         <v>2367.66266</v>
       </c>
-      <c r="T98" s="35">
-        <f t="shared" ref="T98" si="87">T97-T90</f>
+      <c r="T100" s="35">
+        <f t="shared" ref="T100" si="88">T99-T92</f>
         <v>5030.4020794999997</v>
       </c>
-      <c r="U98" s="35">
-        <f t="shared" ref="U98" si="88">U97-U90</f>
+      <c r="U100" s="35">
+        <f t="shared" ref="U100" si="89">U99-U92</f>
         <v>5796.6403313000001</v>
       </c>
-      <c r="V98" s="35">
-        <f>V97-V90</f>
+      <c r="V100" s="35">
+        <f>V99-V92</f>
         <v>5393.2389914000005</v>
       </c>
-      <c r="W98" s="39"/>
-    </row>
-    <row r="100" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B100" s="29" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="101" spans="2:23" s="45" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B101" s="45" t="s">
-        <v>31</v>
-      </c>
-      <c r="D101" s="59"/>
-      <c r="F101" s="59"/>
-      <c r="H101" s="59"/>
-      <c r="J101" s="59"/>
-      <c r="L101" s="59"/>
-      <c r="O101" s="48">
-        <f t="shared" ref="O101:S101" si="89">O96/O86</f>
-        <v>2.0771205040830125</v>
-      </c>
-      <c r="P101" s="48">
-        <f t="shared" si="89"/>
-        <v>2.5368161409865766</v>
-      </c>
-      <c r="Q101" s="48">
-        <f t="shared" si="89"/>
-        <v>2.9099453873857315</v>
-      </c>
-      <c r="R101" s="48">
-        <f t="shared" si="89"/>
-        <v>2.4566163463113666</v>
-      </c>
-      <c r="S101" s="48">
-        <f t="shared" ref="S101:U101" si="90">S96/S86</f>
-        <v>2.3508923344389392</v>
-      </c>
-      <c r="T101" s="48">
-        <f t="shared" si="90"/>
-        <v>6.1684003660460069</v>
-      </c>
-      <c r="U101" s="48">
-        <f t="shared" si="90"/>
-        <v>6.7542095593833773</v>
-      </c>
-      <c r="V101" s="48">
-        <f>V96/V86</f>
-        <v>6.4961652658333344</v>
-      </c>
-      <c r="W101" s="71"/>
-    </row>
-    <row r="102" spans="2:23" s="45" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B102" s="45" t="s">
-        <v>32</v>
-      </c>
-      <c r="D102" s="59"/>
-      <c r="F102" s="59"/>
-      <c r="H102" s="59"/>
-      <c r="J102" s="59"/>
-      <c r="L102" s="59"/>
-      <c r="O102" s="48">
-        <f t="shared" ref="O102:S102" si="91">O97/O4</f>
-        <v>0.8310890526388196</v>
-      </c>
-      <c r="P102" s="48">
-        <f t="shared" si="91"/>
-        <v>0.84911316794615466</v>
-      </c>
-      <c r="Q102" s="48">
-        <f t="shared" si="91"/>
-        <v>0.88938256622049872</v>
-      </c>
-      <c r="R102" s="48">
-        <f t="shared" si="91"/>
-        <v>0.75273558387916106</v>
-      </c>
-      <c r="S102" s="48">
-        <f t="shared" ref="S102:U102" si="92">S97/S4</f>
-        <v>0.53473766496817654</v>
-      </c>
-      <c r="T102" s="48">
-        <f t="shared" si="92"/>
-        <v>0.94164546556491024</v>
-      </c>
-      <c r="U102" s="48">
-        <f t="shared" si="92"/>
-        <v>1.0782453095013911</v>
-      </c>
-      <c r="V102" s="48">
-        <f>V97/V4</f>
-        <v>0.93863917146297426</v>
-      </c>
-      <c r="W102" s="71"/>
+      <c r="W100" s="39"/>
+    </row>
+    <row r="102" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B102" s="29" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="103" spans="2:23" s="45" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B103" s="45" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D103" s="59"/>
       <c r="F103" s="59"/>
@@ -5515,128 +5568,171 @@
       <c r="J103" s="59"/>
       <c r="L103" s="59"/>
       <c r="O103" s="48">
-        <f t="shared" ref="O103:S103" si="93">O96/O21</f>
+        <f t="shared" ref="O103:R103" si="90">O98/O88</f>
+        <v>2.0771205040830125</v>
+      </c>
+      <c r="P103" s="48">
+        <f t="shared" si="90"/>
+        <v>2.5368161409865766</v>
+      </c>
+      <c r="Q103" s="48">
+        <f t="shared" si="90"/>
+        <v>2.9099453873857315</v>
+      </c>
+      <c r="R103" s="48">
+        <f t="shared" si="90"/>
+        <v>2.4566163463113666</v>
+      </c>
+      <c r="S103" s="48">
+        <f t="shared" ref="S103:U103" si="91">S98/S88</f>
+        <v>2.3508923344389392</v>
+      </c>
+      <c r="T103" s="48">
+        <f t="shared" si="91"/>
+        <v>6.1684003660460069</v>
+      </c>
+      <c r="U103" s="48">
+        <f t="shared" si="91"/>
+        <v>6.7542095593833773</v>
+      </c>
+      <c r="V103" s="48">
+        <f>V98/V88</f>
+        <v>6.4961652658333344</v>
+      </c>
+      <c r="W103" s="71"/>
+    </row>
+    <row r="104" spans="2:23" s="45" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B104" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="D104" s="59"/>
+      <c r="F104" s="59"/>
+      <c r="H104" s="59"/>
+      <c r="J104" s="59"/>
+      <c r="L104" s="59"/>
+      <c r="O104" s="48">
+        <f t="shared" ref="O104:R104" si="92">O99/O4</f>
+        <v>0.8310890526388196</v>
+      </c>
+      <c r="P104" s="48">
+        <f t="shared" si="92"/>
+        <v>0.84911316794615466</v>
+      </c>
+      <c r="Q104" s="48">
+        <f t="shared" si="92"/>
+        <v>0.88938256622049872</v>
+      </c>
+      <c r="R104" s="48">
+        <f t="shared" si="92"/>
+        <v>0.75273558387916106</v>
+      </c>
+      <c r="S104" s="48">
+        <f t="shared" ref="S104:U104" si="93">S99/S4</f>
+        <v>0.53473766496817654</v>
+      </c>
+      <c r="T104" s="48">
+        <f t="shared" si="93"/>
+        <v>0.94164546556491024</v>
+      </c>
+      <c r="U104" s="48">
+        <f t="shared" si="93"/>
+        <v>1.0782453095013911</v>
+      </c>
+      <c r="V104" s="48">
+        <f>V99/V4</f>
+        <v>0.93863917146297426</v>
+      </c>
+      <c r="W104" s="71"/>
+    </row>
+    <row r="105" spans="2:23" s="45" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B105" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="D105" s="59"/>
+      <c r="F105" s="59"/>
+      <c r="H105" s="59"/>
+      <c r="J105" s="59"/>
+      <c r="L105" s="59"/>
+      <c r="O105" s="48">
+        <f t="shared" ref="O105:R105" si="94">O98/O21</f>
         <v>12.971848360404286</v>
       </c>
-      <c r="P103" s="48">
-        <f t="shared" si="93"/>
+      <c r="P105" s="48">
+        <f t="shared" si="94"/>
         <v>14.026337373339246</v>
       </c>
-      <c r="Q103" s="48">
-        <f t="shared" si="93"/>
+      <c r="Q105" s="48">
+        <f t="shared" si="94"/>
         <v>15.64176091378217</v>
       </c>
-      <c r="R103" s="48">
-        <f t="shared" si="93"/>
+      <c r="R105" s="48">
+        <f t="shared" si="94"/>
         <v>12.127671394637359</v>
       </c>
-      <c r="S103" s="48">
-        <f t="shared" ref="S103:U103" si="94">S96/S21</f>
+      <c r="S105" s="48">
+        <f t="shared" ref="S105:U105" si="95">S98/S21</f>
         <v>10.008941364720664</v>
       </c>
-      <c r="T103" s="48">
-        <f t="shared" si="94"/>
+      <c r="T105" s="48">
+        <f t="shared" si="95"/>
         <v>11.015271163254162</v>
       </c>
-      <c r="U103" s="48">
-        <f t="shared" si="94"/>
+      <c r="U105" s="48">
+        <f t="shared" si="95"/>
         <v>11.556514521330275</v>
       </c>
-      <c r="V103" s="48">
-        <f>V96/V21</f>
+      <c r="V105" s="48">
+        <f>V98/V21</f>
         <v>12.117199459585493</v>
       </c>
-      <c r="W103" s="71"/>
-    </row>
-    <row r="104" spans="2:23" s="36" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B104" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="D104" s="61"/>
-      <c r="F104" s="61"/>
-      <c r="H104" s="61"/>
-      <c r="J104" s="61"/>
-      <c r="L104" s="61"/>
-      <c r="O104" s="47">
-        <f t="shared" ref="O104:S104" si="95">O98/O4</f>
+      <c r="W105" s="71"/>
+    </row>
+    <row r="106" spans="2:23" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B106" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="D106" s="61"/>
+      <c r="F106" s="61"/>
+      <c r="H106" s="61"/>
+      <c r="J106" s="61"/>
+      <c r="L106" s="61"/>
+      <c r="O106" s="47">
+        <f t="shared" ref="O106:R106" si="96">O100/O4</f>
         <v>1.0056424935574133</v>
       </c>
-      <c r="P104" s="47">
-        <f t="shared" si="95"/>
+      <c r="P106" s="47">
+        <f t="shared" si="96"/>
         <v>1.0160184529304799</v>
       </c>
-      <c r="Q104" s="47">
-        <f t="shared" si="95"/>
+      <c r="Q106" s="47">
+        <f t="shared" si="96"/>
         <v>1.0676592324844989</v>
       </c>
-      <c r="R104" s="47">
-        <f t="shared" si="95"/>
+      <c r="R106" s="47">
+        <f t="shared" si="96"/>
         <v>0.92566300396265944</v>
       </c>
-      <c r="S104" s="47">
-        <f t="shared" ref="S104:U104" si="96">S98/S4</f>
+      <c r="S106" s="47">
+        <f t="shared" ref="S106:U106" si="97">S100/S4</f>
         <v>0.62088181975760648</v>
       </c>
-      <c r="T104" s="47">
-        <f t="shared" si="96"/>
+      <c r="T106" s="47">
+        <f t="shared" si="97"/>
         <v>1.0476894004384114</v>
       </c>
-      <c r="U104" s="47">
-        <f t="shared" si="96"/>
+      <c r="U106" s="47">
+        <f t="shared" si="97"/>
         <v>1.2404537409158998</v>
       </c>
-      <c r="V104" s="47">
-        <f>V98/V4</f>
+      <c r="V106" s="47">
+        <f>V100/V4</f>
         <v>1.0823277125025086</v>
       </c>
-      <c r="W104" s="73"/>
-    </row>
-    <row r="105" spans="2:23" s="36" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B105" s="36" t="s">
-        <v>35</v>
-      </c>
-      <c r="D105" s="61"/>
-      <c r="F105" s="61"/>
-      <c r="H105" s="61"/>
-      <c r="J105" s="61"/>
-      <c r="L105" s="61"/>
-      <c r="O105" s="47">
-        <f t="shared" ref="O105:S105" si="97">O98/O20</f>
-        <v>15.696322662157375</v>
-      </c>
-      <c r="P105" s="47">
-        <f t="shared" si="97"/>
-        <v>16.78341372659624</v>
-      </c>
-      <c r="Q105" s="47">
-        <f t="shared" si="97"/>
-        <v>18.777150673059591</v>
-      </c>
-      <c r="R105" s="47">
-        <f t="shared" si="97"/>
-        <v>14.913785098851125</v>
-      </c>
-      <c r="S105" s="47">
-        <f t="shared" ref="S105:U105" si="98">S98/S20</f>
-        <v>11.621342829375557</v>
-      </c>
-      <c r="T105" s="47">
-        <f t="shared" si="98"/>
-        <v>12.255762134183771</v>
-      </c>
-      <c r="U105" s="47">
-        <f t="shared" si="98"/>
-        <v>13.295046631422018</v>
-      </c>
-      <c r="V105" s="47">
-        <f>V98/V20</f>
-        <v>13.97212173937824</v>
-      </c>
-      <c r="W105" s="73"/>
+      <c r="W106" s="73"/>
     </row>
     <row r="107" spans="2:23" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B107" s="36" t="s">
-        <v>130</v>
+        <v>34</v>
       </c>
       <c r="D107" s="61"/>
       <c r="F107" s="61"/>
@@ -5644,38 +5740,81 @@
       <c r="J107" s="61"/>
       <c r="L107" s="61"/>
       <c r="O107" s="47">
-        <f t="shared" ref="O107:S107" si="99">O89/O82</f>
+        <f t="shared" ref="O107:R107" si="98">O100/O20</f>
+        <v>15.696322662157375</v>
+      </c>
+      <c r="P107" s="47">
+        <f t="shared" si="98"/>
+        <v>16.78341372659624</v>
+      </c>
+      <c r="Q107" s="47">
+        <f t="shared" si="98"/>
+        <v>18.777150673059591</v>
+      </c>
+      <c r="R107" s="47">
+        <f t="shared" si="98"/>
+        <v>14.913785098851125</v>
+      </c>
+      <c r="S107" s="47">
+        <f t="shared" ref="S107:U107" si="99">S100/S20</f>
+        <v>11.621342829375557</v>
+      </c>
+      <c r="T107" s="47">
+        <f t="shared" si="99"/>
+        <v>12.255762134183771</v>
+      </c>
+      <c r="U107" s="47">
+        <f t="shared" si="99"/>
+        <v>13.295046631422018</v>
+      </c>
+      <c r="V107" s="47">
+        <f>V100/V20</f>
+        <v>13.97212173937824</v>
+      </c>
+      <c r="W107" s="73"/>
+    </row>
+    <row r="109" spans="2:23" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B109" s="36" t="s">
+        <v>129</v>
+      </c>
+      <c r="D109" s="61"/>
+      <c r="F109" s="61"/>
+      <c r="H109" s="61"/>
+      <c r="J109" s="61"/>
+      <c r="L109" s="61"/>
+      <c r="O109" s="47">
+        <f t="shared" ref="O109:R109" si="100">O91/O84</f>
         <v>0.55404064591391911</v>
       </c>
-      <c r="P107" s="47">
-        <f t="shared" si="99"/>
+      <c r="P109" s="47">
+        <f t="shared" si="100"/>
         <v>0.69026119040683565</v>
       </c>
-      <c r="Q107" s="47">
-        <f t="shared" si="99"/>
+      <c r="Q109" s="47">
+        <f t="shared" si="100"/>
         <v>0.68183404745052056</v>
       </c>
-      <c r="R107" s="47">
-        <f t="shared" si="99"/>
+      <c r="R109" s="47">
+        <f t="shared" si="100"/>
         <v>0.64859802235637842</v>
       </c>
-      <c r="S107" s="47">
-        <f t="shared" ref="S107:U107" si="100">S89/S82</f>
+      <c r="S109" s="47">
+        <f t="shared" ref="S109:U109" si="101">S91/S84</f>
         <v>0.89164041000738992</v>
       </c>
-      <c r="T107" s="47">
-        <f t="shared" si="100"/>
+      <c r="T109" s="47">
+        <f t="shared" si="101"/>
         <v>0.99678430709116905</v>
       </c>
-      <c r="U107" s="47">
-        <f t="shared" si="100"/>
+      <c r="U109" s="47">
+        <f t="shared" si="101"/>
         <v>1.2815013404825737</v>
       </c>
-      <c r="V107" s="47">
-        <f>V89/V82</f>
+      <c r="V109" s="47">
+        <f>V91/V84</f>
         <v>1.325</v>
       </c>
-      <c r="W107" s="73"/>
+      <c r="W109" s="73"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/£BME.xlsx
+++ b/£BME.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEA5BB76-3177-4A26-A006-3A5DB833312D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA767BE9-9EA7-4C1D-84A9-D0D6A66EDDC8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0B0D3E06-E58D-4F1F-A8B8-3BC216B2A3D5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{0B0D3E06-E58D-4F1F-A8B8-3BC216B2A3D5}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="153">
   <si>
     <t>£BME</t>
   </si>
@@ -495,16 +495,41 @@
   </si>
   <si>
     <t>B&amp;M European Value Retail S.A.</t>
+  </si>
+  <si>
+    <t>Rev/Door</t>
+  </si>
+  <si>
+    <t>Maturity Rate</t>
+  </si>
+  <si>
+    <t>Discount Rate</t>
+  </si>
+  <si>
+    <t>NPV</t>
+  </si>
+  <si>
+    <t>Total Value</t>
+  </si>
+  <si>
+    <t>Per Share</t>
+  </si>
+  <si>
+    <t>Current SP</t>
+  </si>
+  <si>
+    <t>Upside</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
     <numFmt numFmtId="165" formatCode="0.0\x"/>
     <numFmt numFmtId="166" formatCode="#,##0.00000"/>
+    <numFmt numFmtId="169" formatCode="#,##0.0_ ;[Red]\-#,##0.0\ "/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -770,7 +795,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -950,6 +975,37 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="17" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="1" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1044,7 +1100,7 @@
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>119</xdr:row>
+      <xdr:row>121</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1061,7 +1117,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="14373225" y="9525"/>
-          <a:ext cx="0" cy="18678525"/>
+          <a:ext cx="0" cy="19650075"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1094,7 +1150,7 @@
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>119</xdr:row>
+      <xdr:row>121</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1436,7 +1492,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF562411-448F-49B1-B6D6-24D041947C33}">
   <dimension ref="B2:X41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C29" sqref="C29:D29"/>
     </sheetView>
   </sheetViews>
@@ -1589,7 +1645,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="14">
-        <f>+'Financial Model'!V90</f>
+        <f>+'Financial Model'!V92</f>
         <v>238</v>
       </c>
       <c r="D9" s="16" t="str">
@@ -1620,7 +1676,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="14">
-        <f>+'Financial Model'!V91</f>
+        <f>+'Financial Model'!V93</f>
         <v>954</v>
       </c>
       <c r="D10" s="16" t="str">
@@ -1986,7 +2042,7 @@
         <v>18</v>
       </c>
       <c r="C28" s="94">
-        <f>+'Financial Model'!V65</f>
+        <f>+'Financial Model'!V67</f>
         <v>764</v>
       </c>
       <c r="D28" s="90"/>
@@ -2008,7 +2064,7 @@
         <v>40</v>
       </c>
       <c r="C29" s="94">
-        <f>'Financial Model'!V44</f>
+        <f>'Financial Model'!V46</f>
         <v>39484</v>
       </c>
       <c r="D29" s="90"/>
@@ -2138,7 +2194,7 @@
         <v>30</v>
       </c>
       <c r="C36" s="87">
-        <f>C6/'Financial Model'!V88</f>
+        <f>C6/'Financial Model'!V90</f>
         <v>7.9778273551388885</v>
       </c>
       <c r="D36" s="88"/>
@@ -2302,13 +2358,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E38EA70-0C15-460C-B41E-267C906FFAC5}">
-  <dimension ref="B1:AE109"/>
+  <dimension ref="B1:DR111"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C16" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="O4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="S18" sqref="S18"/>
+      <selection pane="bottomRight" activeCell="V21" sqref="V21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2327,10 +2383,14 @@
     <col min="12" max="12" width="9.140625" style="52"/>
     <col min="13" max="22" width="9.140625" style="1"/>
     <col min="23" max="23" width="9.140625" style="64"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="24" max="31" width="9.140625" style="109"/>
+    <col min="32" max="32" width="9.140625" style="1"/>
+    <col min="33" max="33" width="12.85546875" style="1" customWidth="1"/>
+    <col min="34" max="34" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="35" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:31" s="20" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:122" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C1" s="20" t="s">
         <v>138</v>
       </c>
@@ -2388,32 +2448,32 @@
       <c r="W1" s="62" t="s">
         <v>116</v>
       </c>
-      <c r="X1" s="20" t="s">
+      <c r="X1" s="101" t="s">
         <v>117</v>
       </c>
-      <c r="Y1" s="20" t="s">
+      <c r="Y1" s="101" t="s">
         <v>118</v>
       </c>
-      <c r="Z1" s="20" t="s">
+      <c r="Z1" s="101" t="s">
         <v>119</v>
       </c>
-      <c r="AA1" s="20" t="s">
+      <c r="AA1" s="101" t="s">
         <v>120</v>
       </c>
-      <c r="AB1" s="20" t="s">
+      <c r="AB1" s="101" t="s">
         <v>121</v>
       </c>
-      <c r="AC1" s="20" t="s">
+      <c r="AC1" s="101" t="s">
         <v>122</v>
       </c>
-      <c r="AD1" s="20" t="s">
+      <c r="AD1" s="101" t="s">
         <v>123</v>
       </c>
-      <c r="AE1" s="20" t="s">
+      <c r="AE1" s="101" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="2" spans="2:31" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:122" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B2" s="24"/>
       <c r="D2" s="77">
         <f>R2</f>
@@ -2462,8 +2522,40 @@
       <c r="W2" s="74" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="3" spans="2:31" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X2" s="97" t="str">
+        <f>W2</f>
+        <v>(EST.)</v>
+      </c>
+      <c r="Y2" s="97" t="str">
+        <f t="shared" ref="Y2:AE2" si="0">X2</f>
+        <v>(EST.)</v>
+      </c>
+      <c r="Z2" s="97" t="str">
+        <f t="shared" si="0"/>
+        <v>(EST.)</v>
+      </c>
+      <c r="AA2" s="97" t="str">
+        <f t="shared" si="0"/>
+        <v>(EST.)</v>
+      </c>
+      <c r="AB2" s="97" t="str">
+        <f t="shared" si="0"/>
+        <v>(EST.)</v>
+      </c>
+      <c r="AC2" s="97" t="str">
+        <f t="shared" si="0"/>
+        <v>(EST.)</v>
+      </c>
+      <c r="AD2" s="97" t="str">
+        <f t="shared" si="0"/>
+        <v>(EST.)</v>
+      </c>
+      <c r="AE2" s="97" t="str">
+        <f t="shared" si="0"/>
+        <v>(EST.)</v>
+      </c>
+    </row>
+    <row r="3" spans="2:122" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="24"/>
       <c r="D3" s="78">
         <f>R3</f>
@@ -2501,8 +2593,16 @@
         <v>45096</v>
       </c>
       <c r="W3" s="63"/>
-    </row>
-    <row r="4" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X3" s="102"/>
+      <c r="Y3" s="102"/>
+      <c r="Z3" s="102"/>
+      <c r="AA3" s="102"/>
+      <c r="AB3" s="102"/>
+      <c r="AC3" s="102"/>
+      <c r="AD3" s="102"/>
+      <c r="AE3" s="102"/>
+    </row>
+    <row r="4" spans="2:122" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>41</v>
       </c>
@@ -2540,8 +2640,40 @@
         <f>V4*(1+W24)</f>
         <v>5381.64</v>
       </c>
-    </row>
-    <row r="5" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="X4" s="103">
+        <f>W4*(1+X24)</f>
+        <v>5919.804000000001</v>
+      </c>
+      <c r="Y4" s="103">
+        <f t="shared" ref="Y4:AE4" si="1">X4*(1+Y24)</f>
+        <v>6689.3785200000002</v>
+      </c>
+      <c r="Z4" s="103">
+        <f t="shared" si="1"/>
+        <v>7224.5288016000004</v>
+      </c>
+      <c r="AA4" s="103">
+        <f t="shared" si="1"/>
+        <v>7730.2458177120006</v>
+      </c>
+      <c r="AB4" s="103">
+        <f t="shared" si="1"/>
+        <v>8116.7581085976008</v>
+      </c>
+      <c r="AC4" s="103">
+        <f t="shared" si="1"/>
+        <v>8522.5960140274819</v>
+      </c>
+      <c r="AD4" s="103">
+        <f t="shared" si="1"/>
+        <v>8948.7258147288558</v>
+      </c>
+      <c r="AE4" s="103">
+        <f t="shared" si="1"/>
+        <v>9396.1621054652987</v>
+      </c>
+    </row>
+    <row r="5" spans="2:122" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>42</v>
       </c>
@@ -2571,10 +2703,42 @@
       </c>
       <c r="W5" s="39">
         <f>W4*(1-W27)</f>
-        <v>3444.2496000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>3390.4332000000004</v>
+      </c>
+      <c r="X5" s="35">
+        <f>X4/(1+X27)</f>
+        <v>4289.7130434782621</v>
+      </c>
+      <c r="Y5" s="35">
+        <f t="shared" ref="Y5:AE5" si="2">Y4/(1+Y27)</f>
+        <v>4847.3757391304352</v>
+      </c>
+      <c r="Z5" s="35">
+        <f t="shared" si="2"/>
+        <v>5235.1657982608704</v>
+      </c>
+      <c r="AA5" s="35">
+        <f t="shared" si="2"/>
+        <v>5601.6274041391316</v>
+      </c>
+      <c r="AB5" s="35">
+        <f t="shared" si="2"/>
+        <v>5881.7087743460879</v>
+      </c>
+      <c r="AC5" s="35">
+        <f t="shared" si="2"/>
+        <v>6175.7942130633928</v>
+      </c>
+      <c r="AD5" s="35">
+        <f t="shared" si="2"/>
+        <v>6484.5839237165628</v>
+      </c>
+      <c r="AE5" s="35">
+        <f t="shared" si="2"/>
+        <v>6808.813119902391</v>
+      </c>
+    </row>
+    <row r="6" spans="2:122" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>43</v>
       </c>
@@ -2584,27 +2748,27 @@
       <c r="J6" s="51"/>
       <c r="L6" s="51"/>
       <c r="O6" s="22">
-        <f t="shared" ref="O6" si="0">O4-O5</f>
+        <f t="shared" ref="O6" si="3">O4-O5</f>
         <v>703.02200000000016</v>
       </c>
       <c r="P6" s="22">
-        <f t="shared" ref="P6" si="1">P4-P5</f>
+        <f t="shared" ref="P6" si="4">P4-P5</f>
         <v>844.33599999999979</v>
       </c>
       <c r="Q6" s="22">
-        <f t="shared" ref="Q6" si="2">Q4-Q5</f>
+        <f t="shared" ref="Q6" si="5">Q4-Q5</f>
         <v>1028.8750000000002</v>
       </c>
       <c r="R6" s="22">
-        <f t="shared" ref="R6" si="3">R4-R5</f>
+        <f t="shared" ref="R6" si="6">R4-R5</f>
         <v>1189.614</v>
       </c>
       <c r="S6" s="22">
-        <f t="shared" ref="S6" si="4">S4-S5</f>
+        <f t="shared" ref="S6" si="7">S4-S5</f>
         <v>1282.808</v>
       </c>
       <c r="T6" s="22">
-        <f t="shared" ref="T6" si="5">T4-T5</f>
+        <f t="shared" ref="T6" si="8">T4-T5</f>
         <v>1769.9700000000003</v>
       </c>
       <c r="U6" s="22">
@@ -2617,10 +2781,42 @@
       </c>
       <c r="W6" s="69">
         <f>W4-W5</f>
-        <v>1937.3904000000002</v>
-      </c>
-    </row>
-    <row r="7" spans="2:31" x14ac:dyDescent="0.2">
+        <v>1991.2067999999999</v>
+      </c>
+      <c r="X6" s="103">
+        <f>X4-X5</f>
+        <v>1630.0909565217389</v>
+      </c>
+      <c r="Y6" s="103">
+        <f t="shared" ref="Y6:AE6" si="9">Y4-Y5</f>
+        <v>1842.002780869565</v>
+      </c>
+      <c r="Z6" s="103">
+        <f t="shared" si="9"/>
+        <v>1989.36300333913</v>
+      </c>
+      <c r="AA6" s="103">
+        <f t="shared" si="9"/>
+        <v>2128.618413572869</v>
+      </c>
+      <c r="AB6" s="103">
+        <f t="shared" si="9"/>
+        <v>2235.0493342515128</v>
+      </c>
+      <c r="AC6" s="103">
+        <f t="shared" si="9"/>
+        <v>2346.8018009640891</v>
+      </c>
+      <c r="AD6" s="103">
+        <f t="shared" si="9"/>
+        <v>2464.1418910122929</v>
+      </c>
+      <c r="AE6" s="103">
+        <f t="shared" si="9"/>
+        <v>2587.3489855629077</v>
+      </c>
+    </row>
+    <row r="7" spans="2:122" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>45</v>
       </c>
@@ -2649,9 +2845,44 @@
       <c r="V7" s="23">
         <v>1265</v>
       </c>
-      <c r="W7" s="39"/>
-    </row>
-    <row r="8" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W7" s="39">
+        <f>V7*1.1</f>
+        <v>1391.5</v>
+      </c>
+      <c r="X7" s="35">
+        <f>W7*1.08</f>
+        <v>1502.8200000000002</v>
+      </c>
+      <c r="Y7" s="35">
+        <f t="shared" ref="Y7:AE7" si="10">X7*1.08</f>
+        <v>1623.0456000000004</v>
+      </c>
+      <c r="Z7" s="35">
+        <f>Y7*1.04</f>
+        <v>1687.9674240000004</v>
+      </c>
+      <c r="AA7" s="35">
+        <f t="shared" ref="AA7:AE7" si="11">Z7*1.04</f>
+        <v>1755.4861209600006</v>
+      </c>
+      <c r="AB7" s="35">
+        <f t="shared" si="11"/>
+        <v>1825.7055657984006</v>
+      </c>
+      <c r="AC7" s="35">
+        <f t="shared" si="11"/>
+        <v>1898.7337884303367</v>
+      </c>
+      <c r="AD7" s="35">
+        <f t="shared" si="11"/>
+        <v>1974.6831399675502</v>
+      </c>
+      <c r="AE7" s="35">
+        <f t="shared" si="11"/>
+        <v>2053.6704655662525</v>
+      </c>
+    </row>
+    <row r="8" spans="2:122" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
         <v>46</v>
       </c>
@@ -2661,27 +2892,27 @@
       <c r="J8" s="51"/>
       <c r="L8" s="51"/>
       <c r="O8" s="22">
-        <f t="shared" ref="O8:T8" si="6">O6-O7</f>
+        <f t="shared" ref="O8:T8" si="12">O6-O7</f>
         <v>174.49200000000019</v>
       </c>
       <c r="P8" s="22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>204.50299999999982</v>
       </c>
       <c r="Q8" s="22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>239.80300000000022</v>
       </c>
       <c r="R8" s="22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>264.55600000000004</v>
       </c>
       <c r="S8" s="22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>332.81200000000001</v>
       </c>
       <c r="T8" s="22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>613.41400000000021</v>
       </c>
       <c r="U8" s="22">
@@ -2692,9 +2923,44 @@
         <f>V6-V7</f>
         <v>536</v>
       </c>
-      <c r="W8" s="69"/>
-    </row>
-    <row r="9" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="W8" s="69">
+        <f>W6-W7</f>
+        <v>599.70679999999993</v>
+      </c>
+      <c r="X8" s="103">
+        <f t="shared" ref="X8:AE8" si="13">X6-X7</f>
+        <v>127.27095652173875</v>
+      </c>
+      <c r="Y8" s="103">
+        <f t="shared" si="13"/>
+        <v>218.95718086956458</v>
+      </c>
+      <c r="Z8" s="103">
+        <f t="shared" si="13"/>
+        <v>301.39557933912965</v>
+      </c>
+      <c r="AA8" s="103">
+        <f t="shared" si="13"/>
+        <v>373.13229261286847</v>
+      </c>
+      <c r="AB8" s="103">
+        <f t="shared" si="13"/>
+        <v>409.34376845311226</v>
+      </c>
+      <c r="AC8" s="103">
+        <f t="shared" si="13"/>
+        <v>448.06801253375238</v>
+      </c>
+      <c r="AD8" s="103">
+        <f t="shared" si="13"/>
+        <v>489.45875104474271</v>
+      </c>
+      <c r="AE8" s="103">
+        <f t="shared" si="13"/>
+        <v>533.67851999665527</v>
+      </c>
+    </row>
+    <row r="9" spans="2:122" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
         <v>47</v>
       </c>
@@ -2722,34 +2988,69 @@
       <c r="V9" s="23">
         <v>-1</v>
       </c>
-      <c r="W9" s="39"/>
-    </row>
-    <row r="10" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="W9" s="39">
+        <f>AVERAGE(T9:V9)</f>
+        <v>1.2649999999999999</v>
+      </c>
+      <c r="X9" s="35">
+        <f t="shared" ref="X9:AE9" si="14">AVERAGE(U9:W9)</f>
+        <v>1.0883333333333332</v>
+      </c>
+      <c r="Y9" s="35">
+        <f t="shared" si="14"/>
+        <v>0.45111111111111102</v>
+      </c>
+      <c r="Z9" s="35">
+        <f t="shared" si="14"/>
+        <v>0.93481481481481465</v>
+      </c>
+      <c r="AA9" s="35">
+        <f t="shared" si="14"/>
+        <v>0.82475308641975298</v>
+      </c>
+      <c r="AB9" s="35">
+        <f t="shared" si="14"/>
+        <v>0.73689300411522618</v>
+      </c>
+      <c r="AC9" s="35">
+        <f t="shared" si="14"/>
+        <v>0.8321536351165979</v>
+      </c>
+      <c r="AD9" s="35">
+        <f t="shared" si="14"/>
+        <v>0.79793324188385906</v>
+      </c>
+      <c r="AE9" s="35">
+        <f t="shared" si="14"/>
+        <v>0.78899329370522775</v>
+      </c>
+    </row>
+    <row r="10" spans="2:122" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
         <v>48</v>
       </c>
       <c r="O10" s="23">
-        <f t="shared" ref="O10:T10" si="7">O8+O9</f>
+        <f t="shared" ref="O10:T10" si="15">O8+O9</f>
         <v>175.65800000000019</v>
       </c>
       <c r="P10" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>205.50799999999981</v>
       </c>
       <c r="Q10" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>241.51400000000024</v>
       </c>
       <c r="R10" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>265.33100000000002</v>
       </c>
       <c r="S10" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>333.69100000000003</v>
       </c>
       <c r="T10" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>615.20900000000017</v>
       </c>
       <c r="U10" s="23">
@@ -2760,9 +3061,44 @@
         <f>V8+V9</f>
         <v>535</v>
       </c>
-      <c r="W10" s="39"/>
-    </row>
-    <row r="11" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="W10" s="39">
+        <f>V10*1.08</f>
+        <v>577.80000000000007</v>
+      </c>
+      <c r="X10" s="35">
+        <f t="shared" ref="X10:AE10" si="16">W10*1.08</f>
+        <v>624.02400000000011</v>
+      </c>
+      <c r="Y10" s="35">
+        <f t="shared" si="16"/>
+        <v>673.94592000000011</v>
+      </c>
+      <c r="Z10" s="35">
+        <f t="shared" si="16"/>
+        <v>727.86159360000022</v>
+      </c>
+      <c r="AA10" s="35">
+        <f t="shared" si="16"/>
+        <v>786.09052108800029</v>
+      </c>
+      <c r="AB10" s="35">
+        <f t="shared" si="16"/>
+        <v>848.97776277504033</v>
+      </c>
+      <c r="AC10" s="35">
+        <f t="shared" si="16"/>
+        <v>916.89598379704364</v>
+      </c>
+      <c r="AD10" s="35">
+        <f t="shared" si="16"/>
+        <v>990.24766250080722</v>
+      </c>
+      <c r="AE10" s="35">
+        <f t="shared" si="16"/>
+        <v>1069.4674755008718</v>
+      </c>
+    </row>
+    <row r="11" spans="2:122" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
         <v>49</v>
       </c>
@@ -2790,9 +3126,44 @@
       <c r="V11" s="23">
         <v>61</v>
       </c>
-      <c r="W11" s="39"/>
-    </row>
-    <row r="12" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="W11" s="39">
+        <f>AVERAGE(S11:V11)</f>
+        <v>59.654250000000005</v>
+      </c>
+      <c r="X11" s="35">
+        <f t="shared" ref="X11:AE11" si="17">AVERAGE(T11:W11)</f>
+        <v>60.266312499999998</v>
+      </c>
+      <c r="Y11" s="35">
+        <f t="shared" si="17"/>
+        <v>59.980140624999997</v>
+      </c>
+      <c r="Z11" s="35">
+        <f t="shared" si="17"/>
+        <v>60.225175781250002</v>
+      </c>
+      <c r="AA11" s="35">
+        <f t="shared" si="17"/>
+        <v>60.031469726562506</v>
+      </c>
+      <c r="AB11" s="35">
+        <f t="shared" si="17"/>
+        <v>60.12577465820312</v>
+      </c>
+      <c r="AC11" s="35">
+        <f t="shared" si="17"/>
+        <v>60.090640197753906</v>
+      </c>
+      <c r="AD11" s="35">
+        <f t="shared" si="17"/>
+        <v>60.118265090942387</v>
+      </c>
+      <c r="AE11" s="35">
+        <f t="shared" si="17"/>
+        <v>60.091537418365476</v>
+      </c>
+    </row>
+    <row r="12" spans="2:122" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
         <v>50</v>
       </c>
@@ -2820,9 +3191,44 @@
       <c r="V12" s="23">
         <v>40</v>
       </c>
-      <c r="W12" s="39"/>
-    </row>
-    <row r="13" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="W12" s="39">
+        <f>AVERAGE(S12:V12)</f>
+        <v>30.615749999999998</v>
+      </c>
+      <c r="X12" s="35">
+        <f t="shared" ref="X12:AE12" si="18">AVERAGE(T12:W12)</f>
+        <v>32.067437499999997</v>
+      </c>
+      <c r="Y12" s="35">
+        <f t="shared" si="18"/>
+        <v>32.920796874999994</v>
+      </c>
+      <c r="Z12" s="35">
+        <f t="shared" si="18"/>
+        <v>33.900996093749995</v>
+      </c>
+      <c r="AA12" s="35">
+        <f t="shared" si="18"/>
+        <v>32.376245117187494</v>
+      </c>
+      <c r="AB12" s="35">
+        <f t="shared" si="18"/>
+        <v>32.81636889648437</v>
+      </c>
+      <c r="AC12" s="35">
+        <f t="shared" si="18"/>
+        <v>33.003601745605465</v>
+      </c>
+      <c r="AD12" s="35">
+        <f t="shared" si="18"/>
+        <v>33.024302963256829</v>
+      </c>
+      <c r="AE12" s="35">
+        <f t="shared" si="18"/>
+        <v>32.805129680633542</v>
+      </c>
+    </row>
+    <row r="13" spans="2:122" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
         <v>51</v>
       </c>
@@ -2851,34 +3257,69 @@
       <c r="V13" s="23">
         <v>2</v>
       </c>
-      <c r="W13" s="39"/>
-    </row>
-    <row r="14" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="W13" s="39">
+        <f>AVERAGE(S13:V13)</f>
+        <v>0.66049999999999998</v>
+      </c>
+      <c r="X13" s="35">
+        <f>AVERAGE(T13:W13)</f>
+        <v>0.73887499999999995</v>
+      </c>
+      <c r="Y13" s="35">
+        <f t="shared" ref="Y13:AE13" si="19">AVERAGE(U13:X13)</f>
+        <v>0.84984375000000001</v>
+      </c>
+      <c r="Z13" s="35">
+        <f t="shared" si="19"/>
+        <v>1.0623046875</v>
+      </c>
+      <c r="AA13" s="35">
+        <f t="shared" si="19"/>
+        <v>0.827880859375</v>
+      </c>
+      <c r="AB13" s="35">
+        <f t="shared" si="19"/>
+        <v>0.86972607421875003</v>
+      </c>
+      <c r="AC13" s="35">
+        <f t="shared" si="19"/>
+        <v>0.90243884277343756</v>
+      </c>
+      <c r="AD13" s="35">
+        <f t="shared" si="19"/>
+        <v>0.91558761596679683</v>
+      </c>
+      <c r="AE13" s="35">
+        <f t="shared" si="19"/>
+        <v>0.87890834808349605</v>
+      </c>
+    </row>
+    <row r="14" spans="2:122" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
         <v>52</v>
       </c>
       <c r="O14" s="23">
-        <f t="shared" ref="O14:T14" si="8">O10-O11-O12+O13</f>
+        <f t="shared" ref="O14:T14" si="20">O10-O11-O12+O13</f>
         <v>153.62500000000017</v>
       </c>
       <c r="P14" s="23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>179.87799999999979</v>
       </c>
       <c r="Q14" s="23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>228.95200000000025</v>
       </c>
       <c r="R14" s="23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>248.86800000000002</v>
       </c>
       <c r="S14" s="23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>252.02300000000002</v>
       </c>
       <c r="T14" s="23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>525.43900000000019</v>
       </c>
       <c r="U14" s="23">
@@ -2889,9 +3330,44 @@
         <f>V10-V11-V12+V13</f>
         <v>436</v>
       </c>
-      <c r="W14" s="39"/>
-    </row>
-    <row r="15" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="W14" s="39">
+        <f t="shared" ref="W14:AE14" si="21">W10-W11-W12+W13</f>
+        <v>488.19050000000004</v>
+      </c>
+      <c r="X14" s="35">
+        <f t="shared" si="21"/>
+        <v>532.42912500000011</v>
+      </c>
+      <c r="Y14" s="35">
+        <f t="shared" si="21"/>
+        <v>581.89482625000016</v>
+      </c>
+      <c r="Z14" s="35">
+        <f t="shared" si="21"/>
+        <v>634.79772641250031</v>
+      </c>
+      <c r="AA14" s="35">
+        <f t="shared" si="21"/>
+        <v>694.51068710362529</v>
+      </c>
+      <c r="AB14" s="35">
+        <f t="shared" si="21"/>
+        <v>756.90534529457159</v>
+      </c>
+      <c r="AC14" s="35">
+        <f t="shared" si="21"/>
+        <v>824.70418069645768</v>
+      </c>
+      <c r="AD14" s="35">
+        <f t="shared" si="21"/>
+        <v>898.02068206257491</v>
+      </c>
+      <c r="AE14" s="35">
+        <f t="shared" si="21"/>
+        <v>977.44971674995634</v>
+      </c>
+    </row>
+    <row r="15" spans="2:122" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
         <v>53</v>
       </c>
@@ -2919,9 +3395,44 @@
       <c r="V15" s="23">
         <v>88</v>
       </c>
-      <c r="W15" s="39"/>
-    </row>
-    <row r="16" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W15" s="39">
+        <f>W14*W30</f>
+        <v>97.638100000000009</v>
+      </c>
+      <c r="X15" s="35">
+        <f t="shared" ref="X15:AE15" si="22">X14*X30</f>
+        <v>106.48582500000003</v>
+      </c>
+      <c r="Y15" s="35">
+        <f t="shared" si="22"/>
+        <v>116.37896525000004</v>
+      </c>
+      <c r="Z15" s="35">
+        <f t="shared" si="22"/>
+        <v>126.95954528250007</v>
+      </c>
+      <c r="AA15" s="35">
+        <f t="shared" si="22"/>
+        <v>138.90213742072507</v>
+      </c>
+      <c r="AB15" s="35">
+        <f t="shared" si="22"/>
+        <v>151.38106905891433</v>
+      </c>
+      <c r="AC15" s="35">
+        <f t="shared" si="22"/>
+        <v>164.94083613929155</v>
+      </c>
+      <c r="AD15" s="35">
+        <f t="shared" si="22"/>
+        <v>179.604136412515</v>
+      </c>
+      <c r="AE15" s="35">
+        <f t="shared" si="22"/>
+        <v>195.48994334999128</v>
+      </c>
+    </row>
+    <row r="16" spans="2:122" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
         <v>54</v>
       </c>
@@ -2931,27 +3442,27 @@
       <c r="J16" s="51"/>
       <c r="L16" s="51"/>
       <c r="O16" s="22">
-        <f t="shared" ref="O16:T16" si="9">O14-O15</f>
+        <f t="shared" ref="O16:T16" si="23">O14-O15</f>
         <v>124.88000000000017</v>
       </c>
       <c r="P16" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="23"/>
         <v>140.9929999999998</v>
       </c>
       <c r="Q16" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="23"/>
         <v>185.44100000000026</v>
       </c>
       <c r="R16" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="23"/>
         <v>202.15100000000001</v>
       </c>
       <c r="S16" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="23"/>
         <v>194.77700000000002</v>
       </c>
       <c r="T16" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="23"/>
         <v>428.10400000000021</v>
       </c>
       <c r="U16" s="22">
@@ -2962,9 +3473,408 @@
         <f>V14-V15</f>
         <v>348</v>
       </c>
-      <c r="W16" s="69"/>
-    </row>
-    <row r="17" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="W16" s="69">
+        <f t="shared" ref="W16:AE16" si="24">W14-W15</f>
+        <v>390.55240000000003</v>
+      </c>
+      <c r="X16" s="103">
+        <f t="shared" si="24"/>
+        <v>425.94330000000008</v>
+      </c>
+      <c r="Y16" s="103">
+        <f t="shared" si="24"/>
+        <v>465.51586100000014</v>
+      </c>
+      <c r="Z16" s="103">
+        <f t="shared" si="24"/>
+        <v>507.83818113000024</v>
+      </c>
+      <c r="AA16" s="103">
+        <f t="shared" si="24"/>
+        <v>555.60854968290028</v>
+      </c>
+      <c r="AB16" s="103">
+        <f t="shared" si="24"/>
+        <v>605.52427623565723</v>
+      </c>
+      <c r="AC16" s="103">
+        <f t="shared" si="24"/>
+        <v>659.76334455716619</v>
+      </c>
+      <c r="AD16" s="103">
+        <f t="shared" si="24"/>
+        <v>718.4165456500599</v>
+      </c>
+      <c r="AE16" s="103">
+        <f t="shared" si="24"/>
+        <v>781.95977339996512</v>
+      </c>
+      <c r="AF16" s="22">
+        <f>AE16*(1+$AH$27)</f>
+        <v>789.77937113396479</v>
+      </c>
+      <c r="AG16" s="22">
+        <f t="shared" ref="AG16:CR16" si="25">AF16*(1+$AH$27)</f>
+        <v>797.67716484530445</v>
+      </c>
+      <c r="AH16" s="22">
+        <f t="shared" si="25"/>
+        <v>805.65393649375744</v>
+      </c>
+      <c r="AI16" s="22">
+        <f t="shared" si="25"/>
+        <v>813.71047585869508</v>
+      </c>
+      <c r="AJ16" s="22">
+        <f t="shared" si="25"/>
+        <v>821.84758061728201</v>
+      </c>
+      <c r="AK16" s="22">
+        <f t="shared" si="25"/>
+        <v>830.06605642345482</v>
+      </c>
+      <c r="AL16" s="22">
+        <f t="shared" si="25"/>
+        <v>838.36671698768941</v>
+      </c>
+      <c r="AM16" s="22">
+        <f t="shared" si="25"/>
+        <v>846.75038415756637</v>
+      </c>
+      <c r="AN16" s="22">
+        <f t="shared" si="25"/>
+        <v>855.21788799914202</v>
+      </c>
+      <c r="AO16" s="22">
+        <f t="shared" si="25"/>
+        <v>863.77006687913342</v>
+      </c>
+      <c r="AP16" s="22">
+        <f t="shared" si="25"/>
+        <v>872.40776754792478</v>
+      </c>
+      <c r="AQ16" s="22">
+        <f t="shared" si="25"/>
+        <v>881.13184522340407</v>
+      </c>
+      <c r="AR16" s="22">
+        <f t="shared" si="25"/>
+        <v>889.94316367563817</v>
+      </c>
+      <c r="AS16" s="22">
+        <f t="shared" si="25"/>
+        <v>898.84259531239456</v>
+      </c>
+      <c r="AT16" s="22">
+        <f t="shared" si="25"/>
+        <v>907.83102126551853</v>
+      </c>
+      <c r="AU16" s="22">
+        <f t="shared" si="25"/>
+        <v>916.90933147817373</v>
+      </c>
+      <c r="AV16" s="22">
+        <f t="shared" si="25"/>
+        <v>926.0784247929555</v>
+      </c>
+      <c r="AW16" s="22">
+        <f t="shared" si="25"/>
+        <v>935.33920904088507</v>
+      </c>
+      <c r="AX16" s="22">
+        <f t="shared" si="25"/>
+        <v>944.69260113129394</v>
+      </c>
+      <c r="AY16" s="22">
+        <f t="shared" si="25"/>
+        <v>954.13952714260688</v>
+      </c>
+      <c r="AZ16" s="22">
+        <f t="shared" si="25"/>
+        <v>963.68092241403292</v>
+      </c>
+      <c r="BA16" s="22">
+        <f t="shared" si="25"/>
+        <v>973.31773163817331</v>
+      </c>
+      <c r="BB16" s="22">
+        <f t="shared" si="25"/>
+        <v>983.0509089545551</v>
+      </c>
+      <c r="BC16" s="22">
+        <f t="shared" si="25"/>
+        <v>992.88141804410066</v>
+      </c>
+      <c r="BD16" s="22">
+        <f t="shared" si="25"/>
+        <v>1002.8102322245417</v>
+      </c>
+      <c r="BE16" s="22">
+        <f t="shared" si="25"/>
+        <v>1012.8383345467871</v>
+      </c>
+      <c r="BF16" s="22">
+        <f t="shared" si="25"/>
+        <v>1022.966717892255</v>
+      </c>
+      <c r="BG16" s="22">
+        <f t="shared" si="25"/>
+        <v>1033.1963850711775</v>
+      </c>
+      <c r="BH16" s="22">
+        <f t="shared" si="25"/>
+        <v>1043.5283489218893</v>
+      </c>
+      <c r="BI16" s="22">
+        <f t="shared" si="25"/>
+        <v>1053.9636324111082</v>
+      </c>
+      <c r="BJ16" s="22">
+        <f t="shared" si="25"/>
+        <v>1064.5032687352193</v>
+      </c>
+      <c r="BK16" s="22">
+        <f t="shared" si="25"/>
+        <v>1075.1483014225714</v>
+      </c>
+      <c r="BL16" s="22">
+        <f t="shared" si="25"/>
+        <v>1085.8997844367971</v>
+      </c>
+      <c r="BM16" s="22">
+        <f t="shared" si="25"/>
+        <v>1096.7587822811649</v>
+      </c>
+      <c r="BN16" s="22">
+        <f t="shared" si="25"/>
+        <v>1107.7263701039767</v>
+      </c>
+      <c r="BO16" s="22">
+        <f t="shared" si="25"/>
+        <v>1118.8036338050165</v>
+      </c>
+      <c r="BP16" s="22">
+        <f t="shared" si="25"/>
+        <v>1129.9916701430666</v>
+      </c>
+      <c r="BQ16" s="22">
+        <f t="shared" si="25"/>
+        <v>1141.2915868444973</v>
+      </c>
+      <c r="BR16" s="22">
+        <f t="shared" si="25"/>
+        <v>1152.7045027129423</v>
+      </c>
+      <c r="BS16" s="22">
+        <f t="shared" si="25"/>
+        <v>1164.2315477400716</v>
+      </c>
+      <c r="BT16" s="22">
+        <f t="shared" si="25"/>
+        <v>1175.8738632174723</v>
+      </c>
+      <c r="BU16" s="22">
+        <f t="shared" si="25"/>
+        <v>1187.632601849647</v>
+      </c>
+      <c r="BV16" s="22">
+        <f t="shared" si="25"/>
+        <v>1199.5089278681435</v>
+      </c>
+      <c r="BW16" s="22">
+        <f t="shared" si="25"/>
+        <v>1211.5040171468249</v>
+      </c>
+      <c r="BX16" s="22">
+        <f t="shared" si="25"/>
+        <v>1223.6190573182932</v>
+      </c>
+      <c r="BY16" s="22">
+        <f t="shared" si="25"/>
+        <v>1235.8552478914762</v>
+      </c>
+      <c r="BZ16" s="22">
+        <f t="shared" si="25"/>
+        <v>1248.213800370391</v>
+      </c>
+      <c r="CA16" s="22">
+        <f t="shared" si="25"/>
+        <v>1260.695938374095</v>
+      </c>
+      <c r="CB16" s="22">
+        <f t="shared" si="25"/>
+        <v>1273.302897757836</v>
+      </c>
+      <c r="CC16" s="22">
+        <f t="shared" si="25"/>
+        <v>1286.0359267354145</v>
+      </c>
+      <c r="CD16" s="22">
+        <f t="shared" si="25"/>
+        <v>1298.8962860027686</v>
+      </c>
+      <c r="CE16" s="22">
+        <f t="shared" si="25"/>
+        <v>1311.8852488627963</v>
+      </c>
+      <c r="CF16" s="22">
+        <f t="shared" si="25"/>
+        <v>1325.0041013514242</v>
+      </c>
+      <c r="CG16" s="22">
+        <f t="shared" si="25"/>
+        <v>1338.2541423649384</v>
+      </c>
+      <c r="CH16" s="22">
+        <f t="shared" si="25"/>
+        <v>1351.6366837885878</v>
+      </c>
+      <c r="CI16" s="22">
+        <f t="shared" si="25"/>
+        <v>1365.1530506264737</v>
+      </c>
+      <c r="CJ16" s="22">
+        <f t="shared" si="25"/>
+        <v>1378.8045811327386</v>
+      </c>
+      <c r="CK16" s="22">
+        <f t="shared" si="25"/>
+        <v>1392.5926269440661</v>
+      </c>
+      <c r="CL16" s="22">
+        <f t="shared" si="25"/>
+        <v>1406.5185532135067</v>
+      </c>
+      <c r="CM16" s="22">
+        <f t="shared" si="25"/>
+        <v>1420.5837387456418</v>
+      </c>
+      <c r="CN16" s="22">
+        <f t="shared" si="25"/>
+        <v>1434.7895761330983</v>
+      </c>
+      <c r="CO16" s="22">
+        <f t="shared" si="25"/>
+        <v>1449.1374718944294</v>
+      </c>
+      <c r="CP16" s="22">
+        <f t="shared" si="25"/>
+        <v>1463.6288466133738</v>
+      </c>
+      <c r="CQ16" s="22">
+        <f t="shared" si="25"/>
+        <v>1478.2651350795074</v>
+      </c>
+      <c r="CR16" s="22">
+        <f t="shared" si="25"/>
+        <v>1493.0477864303025</v>
+      </c>
+      <c r="CS16" s="22">
+        <f t="shared" ref="CS16:DR16" si="26">CR16*(1+$AH$27)</f>
+        <v>1507.9782642946054</v>
+      </c>
+      <c r="CT16" s="22">
+        <f t="shared" si="26"/>
+        <v>1523.0580469375516</v>
+      </c>
+      <c r="CU16" s="22">
+        <f t="shared" si="26"/>
+        <v>1538.2886274069272</v>
+      </c>
+      <c r="CV16" s="22">
+        <f t="shared" si="26"/>
+        <v>1553.6715136809964</v>
+      </c>
+      <c r="CW16" s="22">
+        <f t="shared" si="26"/>
+        <v>1569.2082288178065</v>
+      </c>
+      <c r="CX16" s="22">
+        <f t="shared" si="26"/>
+        <v>1584.9003111059844</v>
+      </c>
+      <c r="CY16" s="22">
+        <f t="shared" si="26"/>
+        <v>1600.7493142170442</v>
+      </c>
+      <c r="CZ16" s="22">
+        <f t="shared" si="26"/>
+        <v>1616.7568073592147</v>
+      </c>
+      <c r="DA16" s="22">
+        <f t="shared" si="26"/>
+        <v>1632.9243754328068</v>
+      </c>
+      <c r="DB16" s="22">
+        <f t="shared" si="26"/>
+        <v>1649.2536191871347</v>
+      </c>
+      <c r="DC16" s="22">
+        <f t="shared" si="26"/>
+        <v>1665.746155379006</v>
+      </c>
+      <c r="DD16" s="22">
+        <f t="shared" si="26"/>
+        <v>1682.403616932796</v>
+      </c>
+      <c r="DE16" s="22">
+        <f t="shared" si="26"/>
+        <v>1699.2276531021239</v>
+      </c>
+      <c r="DF16" s="22">
+        <f t="shared" si="26"/>
+        <v>1716.2199296331451</v>
+      </c>
+      <c r="DG16" s="22">
+        <f t="shared" si="26"/>
+        <v>1733.3821289294765</v>
+      </c>
+      <c r="DH16" s="22">
+        <f t="shared" si="26"/>
+        <v>1750.7159502187712</v>
+      </c>
+      <c r="DI16" s="22">
+        <f t="shared" si="26"/>
+        <v>1768.223109720959</v>
+      </c>
+      <c r="DJ16" s="22">
+        <f t="shared" si="26"/>
+        <v>1785.9053408181685</v>
+      </c>
+      <c r="DK16" s="22">
+        <f t="shared" si="26"/>
+        <v>1803.7643942263503</v>
+      </c>
+      <c r="DL16" s="22">
+        <f t="shared" si="26"/>
+        <v>1821.8020381686138</v>
+      </c>
+      <c r="DM16" s="22">
+        <f t="shared" si="26"/>
+        <v>1840.0200585502998</v>
+      </c>
+      <c r="DN16" s="22">
+        <f t="shared" si="26"/>
+        <v>1858.4202591358028</v>
+      </c>
+      <c r="DO16" s="22">
+        <f t="shared" si="26"/>
+        <v>1877.0044617271608</v>
+      </c>
+      <c r="DP16" s="22">
+        <f t="shared" si="26"/>
+        <v>1895.7745063444324</v>
+      </c>
+      <c r="DQ16" s="22">
+        <f t="shared" si="26"/>
+        <v>1914.7322514078767</v>
+      </c>
+      <c r="DR16" s="22">
+        <f t="shared" si="26"/>
+        <v>1933.8795739219554</v>
+      </c>
+    </row>
+    <row r="17" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
         <v>56</v>
       </c>
@@ -2992,9 +3902,44 @@
       <c r="V17" s="23">
         <v>5</v>
       </c>
-      <c r="W17" s="39"/>
-    </row>
-    <row r="18" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="W17" s="39">
+        <f>AVERAGE(S17:V17)</f>
+        <v>0.85975000000000001</v>
+      </c>
+      <c r="X17" s="35">
+        <f t="shared" ref="X17:AE17" si="27">AVERAGE(T17:W17)</f>
+        <v>0.65943750000000001</v>
+      </c>
+      <c r="Y17" s="35">
+        <f t="shared" si="27"/>
+        <v>1.129796875</v>
+      </c>
+      <c r="Z17" s="35">
+        <f t="shared" si="27"/>
+        <v>1.9122460937500001</v>
+      </c>
+      <c r="AA17" s="35">
+        <f t="shared" si="27"/>
+        <v>1.1403076171875002</v>
+      </c>
+      <c r="AB17" s="35">
+        <f t="shared" si="27"/>
+        <v>1.210447021484375</v>
+      </c>
+      <c r="AC17" s="35">
+        <f t="shared" si="27"/>
+        <v>1.348199401855469</v>
+      </c>
+      <c r="AD17" s="35">
+        <f t="shared" si="27"/>
+        <v>1.4028000335693362</v>
+      </c>
+      <c r="AE17" s="35">
+        <f t="shared" si="27"/>
+        <v>1.2754385185241701</v>
+      </c>
+    </row>
+    <row r="18" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
         <v>55</v>
       </c>
@@ -3022,9 +3967,44 @@
       <c r="V18" s="23">
         <v>28</v>
       </c>
-      <c r="W18" s="39"/>
-    </row>
-    <row r="19" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="W18" s="39">
+        <f>AVERAGE(S18:V18)</f>
+        <v>8.9350000000000005</v>
+      </c>
+      <c r="X18" s="35">
+        <f t="shared" ref="X18:AE18" si="28">AVERAGE(T18:W18)</f>
+        <v>8.9990000000000006</v>
+      </c>
+      <c r="Y18" s="35">
+        <f t="shared" si="28"/>
+        <v>16.483499999999999</v>
+      </c>
+      <c r="Z18" s="35">
+        <f t="shared" si="28"/>
+        <v>15.604375000000001</v>
+      </c>
+      <c r="AA18" s="35">
+        <f t="shared" si="28"/>
+        <v>12.505468750000002</v>
+      </c>
+      <c r="AB18" s="35">
+        <f t="shared" si="28"/>
+        <v>13.398085937500003</v>
+      </c>
+      <c r="AC18" s="35">
+        <f t="shared" si="28"/>
+        <v>14.497857421875</v>
+      </c>
+      <c r="AD18" s="35">
+        <f t="shared" si="28"/>
+        <v>14.001446777343752</v>
+      </c>
+      <c r="AE18" s="35">
+        <f t="shared" si="28"/>
+        <v>13.600714721679688</v>
+      </c>
+    </row>
+    <row r="19" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
         <v>57</v>
       </c>
@@ -3055,9 +4035,44 @@
       <c r="V19" s="23">
         <v>5</v>
       </c>
-      <c r="W19" s="39"/>
-    </row>
-    <row r="20" spans="2:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W19" s="39">
+        <f>AVERAGE(S19:V19)</f>
+        <v>1.0315000000000001</v>
+      </c>
+      <c r="X19" s="35">
+        <f t="shared" ref="X19:AE19" si="29">AVERAGE(T19:W19)</f>
+        <v>1.6351250000000002</v>
+      </c>
+      <c r="Y19" s="35">
+        <f t="shared" si="29"/>
+        <v>0.91665625000000017</v>
+      </c>
+      <c r="Z19" s="35">
+        <f t="shared" si="29"/>
+        <v>2.1458203125000002</v>
+      </c>
+      <c r="AA19" s="35">
+        <f t="shared" si="29"/>
+        <v>1.4322753906250001</v>
+      </c>
+      <c r="AB19" s="35">
+        <f t="shared" si="29"/>
+        <v>1.5324692382812501</v>
+      </c>
+      <c r="AC19" s="35">
+        <f t="shared" si="29"/>
+        <v>1.5068052978515625</v>
+      </c>
+      <c r="AD19" s="35">
+        <f t="shared" si="29"/>
+        <v>1.6543425598144532</v>
+      </c>
+      <c r="AE19" s="35">
+        <f t="shared" si="29"/>
+        <v>1.5314731216430666</v>
+      </c>
+    </row>
+    <row r="20" spans="2:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
         <v>58</v>
       </c>
@@ -3067,27 +4082,27 @@
       <c r="J20" s="51"/>
       <c r="L20" s="51"/>
       <c r="O20" s="22">
-        <f t="shared" ref="O20:T20" si="10">O16+SUM(O17:O19)</f>
+        <f t="shared" ref="O20:T20" si="30">O16+SUM(O17:O19)</f>
         <v>130.39800000000017</v>
       </c>
       <c r="P20" s="22">
-        <f t="shared" si="10"/>
+        <f t="shared" si="30"/>
         <v>147.14499999999978</v>
       </c>
       <c r="Q20" s="22">
-        <f t="shared" si="10"/>
+        <f t="shared" si="30"/>
         <v>172.27300000000025</v>
       </c>
       <c r="R20" s="22">
-        <f t="shared" si="10"/>
+        <f t="shared" si="30"/>
         <v>216.38600000000002</v>
       </c>
       <c r="S20" s="22">
-        <f t="shared" si="10"/>
+        <f t="shared" si="30"/>
         <v>203.73400000000001</v>
       </c>
       <c r="T20" s="22">
-        <f t="shared" si="10"/>
+        <f t="shared" si="30"/>
         <v>410.45200000000023</v>
       </c>
       <c r="U20" s="22">
@@ -3098,9 +4113,44 @@
         <f>V16+SUM(V17:V19)</f>
         <v>386</v>
       </c>
-      <c r="W20" s="69"/>
-    </row>
-    <row r="21" spans="2:23" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W20" s="69">
+        <f>W16+SUM(W17:W19)</f>
+        <v>401.37865000000005</v>
+      </c>
+      <c r="X20" s="103">
+        <f t="shared" ref="X20:AE20" si="31">X16+SUM(X17:X19)</f>
+        <v>437.23686250000009</v>
+      </c>
+      <c r="Y20" s="103">
+        <f t="shared" si="31"/>
+        <v>484.04581412500016</v>
+      </c>
+      <c r="Z20" s="103">
+        <f t="shared" si="31"/>
+        <v>527.50062253625026</v>
+      </c>
+      <c r="AA20" s="103">
+        <f t="shared" si="31"/>
+        <v>570.68660144071282</v>
+      </c>
+      <c r="AB20" s="103">
+        <f t="shared" si="31"/>
+        <v>621.66527843292283</v>
+      </c>
+      <c r="AC20" s="103">
+        <f t="shared" si="31"/>
+        <v>677.1162066787482</v>
+      </c>
+      <c r="AD20" s="103">
+        <f t="shared" si="31"/>
+        <v>735.47513502078743</v>
+      </c>
+      <c r="AE20" s="103">
+        <f t="shared" si="31"/>
+        <v>798.36739976181207</v>
+      </c>
+    </row>
+    <row r="21" spans="2:34" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B21" s="30" t="s">
         <v>59</v>
       </c>
@@ -3110,27 +4160,27 @@
       <c r="J21" s="53"/>
       <c r="L21" s="53"/>
       <c r="O21" s="30">
-        <f t="shared" ref="O21" si="11">O20/O22</f>
+        <f t="shared" ref="O21" si="32">O20/O22</f>
         <v>0.13033609035708055</v>
       </c>
       <c r="P21" s="30">
-        <f t="shared" ref="P21" si="12">P20/P22</f>
+        <f t="shared" ref="P21" si="33">P20/P22</f>
         <v>0.14712322576258691</v>
       </c>
       <c r="Q21" s="30">
-        <f t="shared" ref="Q21" si="13">Q20/Q22</f>
+        <f t="shared" ref="Q21" si="34">Q20/Q22</f>
         <v>0.1721609232389717</v>
       </c>
       <c r="R21" s="30">
-        <f t="shared" ref="R21" si="14">R20/R22</f>
+        <f t="shared" ref="R21" si="35">R20/R22</f>
         <v>0.21616680685784617</v>
       </c>
       <c r="S21" s="30">
-        <f t="shared" ref="S21:T21" si="15">S20/S22</f>
+        <f t="shared" ref="S21:T21" si="36">S20/S22</f>
         <v>0.20361793777546799</v>
       </c>
       <c r="T21" s="30">
-        <f t="shared" si="15"/>
+        <f t="shared" si="36"/>
         <v>0.4101669339808835</v>
       </c>
       <c r="U21" s="30">
@@ -3138,12 +4188,47 @@
         <v>0.4355378942941539</v>
       </c>
       <c r="V21" s="30">
-        <f t="shared" ref="V21" si="16">V20/V22</f>
+        <f t="shared" ref="V21" si="37">V20/V22</f>
         <v>0.3853860799746005</v>
       </c>
-      <c r="W21" s="66"/>
-    </row>
-    <row r="22" spans="2:23" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W21" s="66">
+        <f>W20/W22</f>
+        <v>0.40074027074869739</v>
+      </c>
+      <c r="X21" s="104">
+        <f t="shared" ref="X21:AE21" si="38">X20/X22</f>
+        <v>0.43654145196701666</v>
+      </c>
+      <c r="Y21" s="104">
+        <f t="shared" si="38"/>
+        <v>0.4832759555278443</v>
+      </c>
+      <c r="Z21" s="104">
+        <f t="shared" si="38"/>
+        <v>0.52666165052696079</v>
+      </c>
+      <c r="AA21" s="104">
+        <f t="shared" si="38"/>
+        <v>0.56977894358358416</v>
+      </c>
+      <c r="AB21" s="104">
+        <f t="shared" si="38"/>
+        <v>0.62067654070358202</v>
+      </c>
+      <c r="AC21" s="104">
+        <f t="shared" si="38"/>
+        <v>0.67603927611190195</v>
+      </c>
+      <c r="AD21" s="104">
+        <f t="shared" si="38"/>
+        <v>0.73430538654002919</v>
+      </c>
+      <c r="AE21" s="104">
+        <f t="shared" si="38"/>
+        <v>0.79709762324797806</v>
+      </c>
+    </row>
+    <row r="22" spans="2:34" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" s="14" t="s">
         <v>3</v>
       </c>
@@ -3180,8 +4265,40 @@
         <f>V22</f>
         <v>1001.593</v>
       </c>
-    </row>
-    <row r="24" spans="2:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X22" s="105">
+        <f>W22</f>
+        <v>1001.593</v>
+      </c>
+      <c r="Y22" s="105">
+        <f t="shared" ref="Y22:AD22" si="39">X22</f>
+        <v>1001.593</v>
+      </c>
+      <c r="Z22" s="105">
+        <f t="shared" si="39"/>
+        <v>1001.593</v>
+      </c>
+      <c r="AA22" s="105">
+        <f t="shared" si="39"/>
+        <v>1001.593</v>
+      </c>
+      <c r="AB22" s="105">
+        <f t="shared" si="39"/>
+        <v>1001.593</v>
+      </c>
+      <c r="AC22" s="105">
+        <f t="shared" si="39"/>
+        <v>1001.593</v>
+      </c>
+      <c r="AD22" s="105">
+        <f t="shared" si="39"/>
+        <v>1001.593</v>
+      </c>
+      <c r="AE22" s="105">
+        <f t="shared" ref="AE22" si="40">AD22</f>
+        <v>1001.593</v>
+      </c>
+    </row>
+    <row r="24" spans="2:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
         <v>60</v>
       </c>
@@ -3194,19 +4311,19 @@
         <v>73</v>
       </c>
       <c r="P24" s="28">
-        <f t="shared" ref="P24:S24" si="17">P4/O4-1</f>
+        <f t="shared" ref="P24:S24" si="41">P4/O4-1</f>
         <v>0.19426026330464774</v>
       </c>
       <c r="Q24" s="28">
-        <f t="shared" si="17"/>
+        <f t="shared" si="41"/>
         <v>0.2464935449630965</v>
       </c>
       <c r="R24" s="28">
-        <f t="shared" si="17"/>
+        <f t="shared" si="41"/>
         <v>0.15066760138121227</v>
       </c>
       <c r="S24" s="28">
-        <f t="shared" si="17"/>
+        <f t="shared" si="41"/>
         <v>9.3822238221378251E-2</v>
       </c>
       <c r="T24" s="28">
@@ -3224,8 +4341,32 @@
       <c r="W24" s="68">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="25" spans="2:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X24" s="106">
+        <v>0.1</v>
+      </c>
+      <c r="Y24" s="106">
+        <v>0.13</v>
+      </c>
+      <c r="Z24" s="106">
+        <v>0.08</v>
+      </c>
+      <c r="AA24" s="106">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AB24" s="106">
+        <v>0.05</v>
+      </c>
+      <c r="AC24" s="106">
+        <v>0.05</v>
+      </c>
+      <c r="AD24" s="106">
+        <v>0.05</v>
+      </c>
+      <c r="AE24" s="106">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="25" spans="2:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
         <v>61</v>
       </c>
@@ -3259,37 +4400,45 @@
         <v>73</v>
       </c>
       <c r="W25" s="65"/>
-    </row>
-    <row r="27" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="107"/>
+      <c r="Y25" s="107"/>
+      <c r="Z25" s="107"/>
+      <c r="AA25" s="107"/>
+      <c r="AB25" s="107"/>
+      <c r="AC25" s="107"/>
+      <c r="AD25" s="107"/>
+      <c r="AE25" s="107"/>
+    </row>
+    <row r="27" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
         <v>62</v>
       </c>
       <c r="O27" s="27">
-        <f t="shared" ref="O27" si="18">O6/O4</f>
+        <f t="shared" ref="O27" si="42">O6/O4</f>
         <v>0.34541698091422091</v>
       </c>
       <c r="P27" s="27">
-        <f t="shared" ref="P27" si="19">P6/P4</f>
+        <f t="shared" ref="P27" si="43">P6/P4</f>
         <v>0.34736902734236785</v>
       </c>
       <c r="Q27" s="27">
-        <f t="shared" ref="Q27:R27" si="20">Q6/Q4</f>
+        <f t="shared" ref="Q27:R27" si="44">Q6/Q4</f>
         <v>0.33958489696686456</v>
       </c>
       <c r="R27" s="27">
-        <f t="shared" si="20"/>
+        <f t="shared" si="44"/>
         <v>0.34122585724960164</v>
       </c>
       <c r="S27" s="27">
-        <f t="shared" ref="S27" si="21">S6/S4</f>
+        <f t="shared" ref="S27" si="45">S6/S4</f>
         <v>0.33639596505678548</v>
       </c>
       <c r="T27" s="27">
-        <f t="shared" ref="T27" si="22">T6/T4</f>
+        <f t="shared" ref="T27" si="46">T6/T4</f>
         <v>0.36863431168871746</v>
       </c>
       <c r="U27" s="27">
-        <f t="shared" ref="U27" si="23">U6/U4</f>
+        <f t="shared" ref="U27" si="47">U6/U4</f>
         <v>0.37491975176546116</v>
       </c>
       <c r="V27" s="27">
@@ -3297,127 +4446,308 @@
         <v>0.36142885811759984</v>
       </c>
       <c r="W27" s="75">
-        <v>0.36</v>
-      </c>
-    </row>
-    <row r="28" spans="2:23" x14ac:dyDescent="0.2">
+        <v>0.37</v>
+      </c>
+      <c r="X27" s="108">
+        <v>0.38</v>
+      </c>
+      <c r="Y27" s="108">
+        <v>0.38</v>
+      </c>
+      <c r="Z27" s="108">
+        <v>0.38</v>
+      </c>
+      <c r="AA27" s="108">
+        <v>0.38</v>
+      </c>
+      <c r="AB27" s="108">
+        <v>0.38</v>
+      </c>
+      <c r="AC27" s="108">
+        <v>0.38</v>
+      </c>
+      <c r="AD27" s="108">
+        <v>0.38</v>
+      </c>
+      <c r="AE27" s="108">
+        <v>0.38</v>
+      </c>
+      <c r="AG27" s="115" t="s">
+        <v>146</v>
+      </c>
+      <c r="AH27" s="118">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="28" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
         <v>63</v>
       </c>
       <c r="O28" s="27">
-        <f t="shared" ref="O28" si="24">O8/O4</f>
+        <f t="shared" ref="O28" si="48">O8/O4</f>
         <v>8.5733447649837827E-2</v>
       </c>
       <c r="P28" s="27">
-        <f t="shared" ref="P28" si="25">P8/P4</f>
+        <f t="shared" ref="P28" si="49">P8/P4</f>
         <v>8.4134761751952072E-2</v>
       </c>
       <c r="Q28" s="27">
-        <f t="shared" ref="Q28:R28" si="26">Q8/Q4</f>
+        <f t="shared" ref="Q28:R28" si="50">Q8/Q4</f>
         <v>7.9148076342942617E-2</v>
       </c>
       <c r="R28" s="27">
-        <f t="shared" si="26"/>
+        <f t="shared" si="50"/>
         <v>7.5884570869648157E-2</v>
       </c>
       <c r="S28" s="27">
-        <f t="shared" ref="S28" si="27">S8/S4</f>
+        <f t="shared" ref="S28" si="51">S8/S4</f>
         <v>8.7274645872553722E-2</v>
       </c>
       <c r="T28" s="27">
-        <f t="shared" ref="T28" si="28">T8/T4</f>
+        <f t="shared" ref="T28" si="52">T8/T4</f>
         <v>0.12775665557620919</v>
       </c>
       <c r="U28" s="27">
-        <f t="shared" ref="U28" si="29">U8/U4</f>
+        <f t="shared" ref="U28" si="53">U8/U4</f>
         <v>0.13053712818317997</v>
       </c>
       <c r="V28" s="27">
         <f>V8/V4</f>
         <v>0.1075657234597632</v>
       </c>
-      <c r="W28" s="75"/>
-    </row>
-    <row r="29" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="W28" s="75">
+        <f>W8/W4</f>
+        <v>0.11143569618183302</v>
+      </c>
+      <c r="X28" s="108">
+        <f t="shared" ref="X28:AE28" si="54">X8/X4</f>
+        <v>2.1499184182742999E-2</v>
+      </c>
+      <c r="Y28" s="108">
+        <f t="shared" si="54"/>
+        <v>3.2732066247249017E-2</v>
+      </c>
+      <c r="Z28" s="108">
+        <f t="shared" si="54"/>
+        <v>4.1718371898853836E-2</v>
+      </c>
+      <c r="AA28" s="108">
+        <f t="shared" si="54"/>
+        <v>4.8269136766378826E-2</v>
+      </c>
+      <c r="AB28" s="108">
+        <f t="shared" si="54"/>
+        <v>5.043192897660935E-2</v>
+      </c>
+      <c r="AC28" s="108">
+        <f t="shared" si="54"/>
+        <v>5.2574123165790076E-2</v>
+      </c>
+      <c r="AD28" s="108">
+        <f t="shared" si="54"/>
+        <v>5.4695915505549905E-2</v>
+      </c>
+      <c r="AE28" s="108">
+        <f t="shared" si="54"/>
+        <v>5.6797500299216847E-2</v>
+      </c>
+      <c r="AG28" s="116" t="s">
+        <v>147</v>
+      </c>
+      <c r="AH28" s="119">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="29" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s">
         <v>64</v>
       </c>
       <c r="O29" s="27">
-        <f t="shared" ref="O29" si="30">O16/O4</f>
+        <f t="shared" ref="O29" si="55">O16/O4</f>
         <v>6.1357500300940733E-2</v>
       </c>
       <c r="P29" s="27">
-        <f t="shared" ref="P29" si="31">P16/P4</f>
+        <f t="shared" ref="P29" si="56">P16/P4</f>
         <v>5.8006055968337737E-2</v>
       </c>
       <c r="Q29" s="27">
-        <f t="shared" ref="Q29:R29" si="32">Q16/Q4</f>
+        <f t="shared" ref="Q29:R29" si="57">Q16/Q4</f>
         <v>6.1205649742128443E-2</v>
       </c>
       <c r="R29" s="27">
-        <f t="shared" si="32"/>
+        <f t="shared" si="57"/>
         <v>5.7984479225079918E-2</v>
       </c>
       <c r="S29" s="27">
-        <f t="shared" ref="S29" si="33">S16/S4</f>
+        <f t="shared" ref="S29" si="58">S16/S4</f>
         <v>5.1077165784642366E-2</v>
       </c>
       <c r="T29" s="27">
-        <f t="shared" ref="T29" si="34">T16/T4</f>
+        <f t="shared" ref="T29" si="59">T16/T4</f>
         <v>8.9161863405134975E-2</v>
       </c>
       <c r="U29" s="27">
-        <f t="shared" ref="U29" si="35">U16/U4</f>
+        <f t="shared" ref="U29" si="60">U16/U4</f>
         <v>9.030601326770811E-2</v>
       </c>
       <c r="V29" s="27">
         <f>V16/V4</f>
         <v>6.9837447320891033E-2</v>
       </c>
-    </row>
-    <row r="30" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="W29" s="75">
+        <f>W16/W4</f>
+        <v>7.2571260805256388E-2</v>
+      </c>
+      <c r="X29" s="27">
+        <f t="shared" ref="X29:AE29" si="61">X16/X4</f>
+        <v>7.1952263960090565E-2</v>
+      </c>
+      <c r="Y29" s="27">
+        <f t="shared" si="61"/>
+        <v>6.9590300445429146E-2</v>
+      </c>
+      <c r="Z29" s="27">
+        <f t="shared" si="61"/>
+        <v>7.0293606002031633E-2</v>
+      </c>
+      <c r="AA29" s="27">
+        <f t="shared" si="61"/>
+        <v>7.1874628929633366E-2</v>
+      </c>
+      <c r="AB29" s="27">
+        <f t="shared" si="61"/>
+        <v>7.4601739775177145E-2</v>
+      </c>
+      <c r="AC29" s="27">
+        <f t="shared" si="61"/>
+        <v>7.7413424673802536E-2</v>
+      </c>
+      <c r="AD29" s="27">
+        <f t="shared" si="61"/>
+        <v>8.0281434533127194E-2</v>
+      </c>
+      <c r="AE29" s="27">
+        <f t="shared" si="61"/>
+        <v>8.3221188036457616E-2</v>
+      </c>
+      <c r="AG29" s="116" t="s">
+        <v>148</v>
+      </c>
+      <c r="AH29" s="120">
+        <f>NPV(AH28,W16:DR16)</f>
+        <v>9025.0227381820041</v>
+      </c>
+    </row>
+    <row r="30" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B30" s="1" t="s">
         <v>65</v>
       </c>
       <c r="O30" s="27">
-        <f t="shared" ref="O30" si="36">O15/O14</f>
+        <f t="shared" ref="O30" si="62">O15/O14</f>
         <v>0.18711147274206652</v>
       </c>
       <c r="P30" s="27">
-        <f t="shared" ref="P30" si="37">P15/P14</f>
+        <f t="shared" ref="P30" si="63">P15/P14</f>
         <v>0.21617429591167373</v>
       </c>
       <c r="Q30" s="27">
-        <f t="shared" ref="Q30:R30" si="38">Q15/Q14</f>
+        <f t="shared" ref="Q30:R30" si="64">Q15/Q14</f>
         <v>0.19004420140466105</v>
       </c>
       <c r="R30" s="27">
-        <f t="shared" si="38"/>
+        <f t="shared" si="64"/>
         <v>0.18771798704534129</v>
       </c>
       <c r="S30" s="27">
-        <f t="shared" ref="S30" si="39">S15/S14</f>
+        <f t="shared" ref="S30" si="65">S15/S14</f>
         <v>0.22714593509322561</v>
       </c>
       <c r="T30" s="27">
-        <f t="shared" ref="T30" si="40">T15/T14</f>
+        <f t="shared" ref="T30" si="66">T15/T14</f>
         <v>0.18524509981177636</v>
       </c>
       <c r="U30" s="27">
-        <f t="shared" ref="U30" si="41">U15/U14</f>
+        <f t="shared" ref="U30" si="67">U15/U14</f>
         <v>0.19619047619047619</v>
       </c>
       <c r="V30" s="27">
         <f>V15/V14</f>
         <v>0.20183486238532111</v>
       </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="W30" s="75">
+        <v>0.2</v>
+      </c>
+      <c r="X30" s="108">
+        <f>W30</f>
+        <v>0.2</v>
+      </c>
+      <c r="Y30" s="108">
+        <f t="shared" ref="Y30:AD30" si="68">X30</f>
+        <v>0.2</v>
+      </c>
+      <c r="Z30" s="108">
+        <f t="shared" si="68"/>
+        <v>0.2</v>
+      </c>
+      <c r="AA30" s="108">
+        <f t="shared" si="68"/>
+        <v>0.2</v>
+      </c>
+      <c r="AB30" s="108">
+        <f t="shared" si="68"/>
+        <v>0.2</v>
+      </c>
+      <c r="AC30" s="108">
+        <f t="shared" si="68"/>
+        <v>0.2</v>
+      </c>
+      <c r="AD30" s="108">
+        <f t="shared" si="68"/>
+        <v>0.2</v>
+      </c>
+      <c r="AE30" s="108">
+        <f t="shared" ref="AE30" si="69">AD30</f>
+        <v>0.2</v>
+      </c>
+      <c r="AG30" s="116" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH30" s="6">
+        <f>Main!C11</f>
+        <v>-716</v>
+      </c>
+    </row>
+    <row r="31" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="AG31" s="116" t="s">
+        <v>149</v>
+      </c>
+      <c r="AH31" s="120">
+        <f>AH29-AH30</f>
+        <v>9741.0227381820041</v>
+      </c>
+    </row>
+    <row r="32" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="AG32" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="AH32" s="121">
+        <f>AH31/Main!C7</f>
+        <v>9.7255299689414816</v>
+      </c>
+    </row>
+    <row r="33" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B33" s="29" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="34" spans="2:23" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AG33" s="116" t="s">
+        <v>151</v>
+      </c>
+      <c r="AH33" s="122">
+        <f>Main!C6</f>
+        <v>5.7348999999999997</v>
+      </c>
+    </row>
+    <row r="34" spans="2:34" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B34" s="22" t="s">
         <v>39</v>
       </c>
@@ -3427,23 +4757,23 @@
       <c r="J34" s="55"/>
       <c r="L34" s="55"/>
       <c r="O34" s="22">
-        <f t="shared" ref="O34:S34" si="42">+O35+O38+O40</f>
+        <f t="shared" ref="O34:S34" si="70">+O35+O38+O40</f>
         <v>555</v>
       </c>
       <c r="P34" s="22">
-        <f t="shared" si="42"/>
+        <f t="shared" si="70"/>
         <v>648</v>
       </c>
       <c r="Q34" s="22">
-        <f t="shared" si="42"/>
+        <f t="shared" si="70"/>
         <v>927</v>
       </c>
       <c r="R34" s="22">
-        <f t="shared" si="42"/>
+        <f t="shared" si="70"/>
         <v>1093</v>
       </c>
       <c r="S34" s="22">
-        <f t="shared" si="42"/>
+        <f t="shared" si="70"/>
         <v>1050</v>
       </c>
       <c r="T34" s="22">
@@ -3451,16 +4781,31 @@
         <v>1091</v>
       </c>
       <c r="U34" s="22">
-        <f t="shared" ref="U34:V34" si="43">+U35+U38+U40</f>
+        <f t="shared" ref="U34" si="71">+U35+U38+U40</f>
         <v>1119</v>
       </c>
       <c r="V34" s="22">
-        <f t="shared" si="43"/>
+        <f>+V35+V38+V40</f>
         <v>1140</v>
       </c>
       <c r="W34" s="69"/>
-    </row>
-    <row r="35" spans="2:23" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X34" s="103"/>
+      <c r="Y34" s="103"/>
+      <c r="Z34" s="103"/>
+      <c r="AA34" s="103"/>
+      <c r="AB34" s="103"/>
+      <c r="AC34" s="103"/>
+      <c r="AD34" s="103"/>
+      <c r="AE34" s="103"/>
+      <c r="AG34" s="117" t="s">
+        <v>152</v>
+      </c>
+      <c r="AH34" s="123">
+        <f>AH32/AH33-1</f>
+        <v>0.69584996581308856</v>
+      </c>
+    </row>
+    <row r="35" spans="2:34" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B35" s="33" t="s">
         <v>25</v>
       </c>
@@ -3470,31 +4815,31 @@
       <c r="J35" s="56"/>
       <c r="L35" s="56"/>
       <c r="O35" s="23">
-        <f t="shared" ref="O35:U35" si="44">SUM(O36:O37)</f>
+        <f t="shared" ref="O35:U35" si="72">SUM(O36:O37)</f>
         <v>499</v>
       </c>
       <c r="P35" s="23">
-        <f t="shared" si="44"/>
+        <f t="shared" si="72"/>
         <v>573</v>
       </c>
       <c r="Q35" s="23">
-        <f t="shared" si="44"/>
+        <f t="shared" si="72"/>
         <v>576</v>
       </c>
       <c r="R35" s="23">
-        <f t="shared" si="44"/>
+        <f t="shared" si="72"/>
         <v>716</v>
       </c>
       <c r="S35" s="23">
-        <f t="shared" si="44"/>
+        <f t="shared" si="72"/>
         <v>757</v>
       </c>
       <c r="T35" s="23">
-        <f t="shared" si="44"/>
+        <f t="shared" si="72"/>
         <v>785</v>
       </c>
       <c r="U35" s="23">
-        <f t="shared" si="44"/>
+        <f t="shared" si="72"/>
         <v>808</v>
       </c>
       <c r="V35" s="23">
@@ -3502,8 +4847,16 @@
         <v>821</v>
       </c>
       <c r="W35" s="39"/>
-    </row>
-    <row r="36" spans="2:23" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X35" s="35"/>
+      <c r="Y35" s="35"/>
+      <c r="Z35" s="35"/>
+      <c r="AA35" s="35"/>
+      <c r="AB35" s="35"/>
+      <c r="AC35" s="35"/>
+      <c r="AD35" s="35"/>
+      <c r="AE35" s="35"/>
+    </row>
+    <row r="36" spans="2:34" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B36" s="34" t="s">
         <v>74</v>
       </c>
@@ -3537,8 +4890,16 @@
         <v>707</v>
       </c>
       <c r="W36" s="39"/>
-    </row>
-    <row r="37" spans="2:23" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X36" s="35"/>
+      <c r="Y36" s="35"/>
+      <c r="Z36" s="35"/>
+      <c r="AA36" s="35"/>
+      <c r="AB36" s="35"/>
+      <c r="AC36" s="35"/>
+      <c r="AD36" s="35"/>
+      <c r="AE36" s="35"/>
+    </row>
+    <row r="37" spans="2:34" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B37" s="34" t="s">
         <v>75</v>
       </c>
@@ -3572,8 +4933,16 @@
         <v>114</v>
       </c>
       <c r="W37" s="39"/>
-    </row>
-    <row r="38" spans="2:23" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X37" s="35"/>
+      <c r="Y37" s="35"/>
+      <c r="Z37" s="35"/>
+      <c r="AA37" s="35"/>
+      <c r="AB37" s="35"/>
+      <c r="AC37" s="35"/>
+      <c r="AD37" s="35"/>
+      <c r="AE37" s="35"/>
+    </row>
+    <row r="38" spans="2:34" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B38" s="33" t="s">
         <v>26</v>
       </c>
@@ -3583,31 +4952,31 @@
       <c r="J38" s="56"/>
       <c r="L38" s="56"/>
       <c r="O38" s="23">
-        <f t="shared" ref="O38:U38" si="45">+O39</f>
+        <f t="shared" ref="O38:U38" si="73">+O39</f>
         <v>0</v>
       </c>
       <c r="P38" s="23">
-        <f t="shared" si="45"/>
+        <f t="shared" si="73"/>
         <v>0</v>
       </c>
       <c r="Q38" s="23">
-        <f t="shared" si="45"/>
+        <f t="shared" si="73"/>
         <v>265</v>
       </c>
       <c r="R38" s="23">
-        <f t="shared" si="45"/>
+        <f t="shared" si="73"/>
         <v>281</v>
       </c>
       <c r="S38" s="23">
-        <f t="shared" si="45"/>
+        <f t="shared" si="73"/>
         <v>293</v>
       </c>
       <c r="T38" s="23">
-        <f t="shared" si="45"/>
+        <f t="shared" si="73"/>
         <v>306</v>
       </c>
       <c r="U38" s="23">
-        <f t="shared" si="45"/>
+        <f t="shared" si="73"/>
         <v>311</v>
       </c>
       <c r="V38" s="23">
@@ -3615,8 +4984,16 @@
         <v>319</v>
       </c>
       <c r="W38" s="39"/>
-    </row>
-    <row r="39" spans="2:23" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X38" s="35"/>
+      <c r="Y38" s="35"/>
+      <c r="Z38" s="35"/>
+      <c r="AA38" s="35"/>
+      <c r="AB38" s="35"/>
+      <c r="AC38" s="35"/>
+      <c r="AD38" s="35"/>
+      <c r="AE38" s="35"/>
+    </row>
+    <row r="39" spans="2:34" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B39" s="34" t="s">
         <v>74</v>
       </c>
@@ -3650,8 +5027,16 @@
         <v>319</v>
       </c>
       <c r="W39" s="39"/>
-    </row>
-    <row r="40" spans="2:23" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X39" s="35"/>
+      <c r="Y39" s="35"/>
+      <c r="Z39" s="35"/>
+      <c r="AA39" s="35"/>
+      <c r="AB39" s="35"/>
+      <c r="AC39" s="35"/>
+      <c r="AD39" s="35"/>
+      <c r="AE39" s="35"/>
+    </row>
+    <row r="40" spans="2:34" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B40" s="33" t="s">
         <v>132</v>
       </c>
@@ -3661,19 +5046,19 @@
       <c r="J40" s="56"/>
       <c r="L40" s="56"/>
       <c r="O40" s="23">
-        <f t="shared" ref="O40:R40" si="46">O41</f>
+        <f t="shared" ref="O40:R40" si="74">O41</f>
         <v>56</v>
       </c>
       <c r="P40" s="23">
-        <f t="shared" si="46"/>
+        <f t="shared" si="74"/>
         <v>75</v>
       </c>
       <c r="Q40" s="23">
-        <f t="shared" si="46"/>
+        <f t="shared" si="74"/>
         <v>86</v>
       </c>
       <c r="R40" s="23">
-        <f t="shared" si="46"/>
+        <f t="shared" si="74"/>
         <v>96</v>
       </c>
       <c r="S40" s="23">
@@ -3681,20 +5066,28 @@
         <v>0</v>
       </c>
       <c r="T40" s="23">
-        <f t="shared" ref="T40:V40" si="47">T41</f>
+        <f t="shared" ref="T40:V40" si="75">T41</f>
         <v>0</v>
       </c>
       <c r="U40" s="23">
-        <f t="shared" si="47"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="V40" s="23">
-        <f t="shared" si="47"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="W40" s="39"/>
-    </row>
-    <row r="41" spans="2:23" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X40" s="35"/>
+      <c r="Y40" s="35"/>
+      <c r="Z40" s="35"/>
+      <c r="AA40" s="35"/>
+      <c r="AB40" s="35"/>
+      <c r="AC40" s="35"/>
+      <c r="AD40" s="35"/>
+      <c r="AE40" s="35"/>
+    </row>
+    <row r="41" spans="2:34" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B41" s="34" t="s">
         <v>133</v>
       </c>
@@ -3728,8 +5121,19 @@
         <v>0</v>
       </c>
       <c r="W41" s="39"/>
-    </row>
-    <row r="42" spans="2:23" s="46" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X41" s="35"/>
+      <c r="Y41" s="35"/>
+      <c r="Z41" s="35"/>
+      <c r="AA41" s="35"/>
+      <c r="AB41" s="108"/>
+      <c r="AC41" s="108"/>
+      <c r="AD41" s="108"/>
+      <c r="AE41" s="108"/>
+      <c r="AF41" s="108"/>
+      <c r="AG41" s="108"/>
+      <c r="AH41" s="108"/>
+    </row>
+    <row r="42" spans="2:34" s="46" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B42" s="45" t="s">
         <v>77</v>
       </c>
@@ -3762,377 +5166,428 @@
         <v>41</v>
       </c>
       <c r="U42" s="46">
-        <f t="shared" ref="U42:V42" si="48">U34-T34</f>
+        <f t="shared" ref="U42:V42" si="76">U34-T34</f>
         <v>28</v>
       </c>
       <c r="V42" s="46">
-        <f t="shared" si="48"/>
+        <f t="shared" si="76"/>
         <v>21</v>
       </c>
       <c r="W42" s="70"/>
-    </row>
-    <row r="43" spans="2:23" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="23"/>
-      <c r="D43" s="55"/>
-      <c r="F43" s="55"/>
-      <c r="H43" s="55"/>
-      <c r="J43" s="55"/>
-      <c r="L43" s="55"/>
-      <c r="T43" s="22">
-        <v>0</v>
-      </c>
-      <c r="W43" s="69"/>
-    </row>
-    <row r="44" spans="2:23" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="22" t="s">
-        <v>40</v>
-      </c>
+      <c r="X42" s="110"/>
+      <c r="Y42" s="110"/>
+      <c r="Z42" s="110"/>
+      <c r="AA42" s="110"/>
+      <c r="AB42" s="110"/>
+      <c r="AC42" s="110"/>
+      <c r="AD42" s="110"/>
+      <c r="AE42" s="110"/>
+    </row>
+    <row r="43" spans="2:34" s="98" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="98" t="s">
+        <v>145</v>
+      </c>
+      <c r="D43" s="99"/>
+      <c r="F43" s="99"/>
+      <c r="H43" s="99"/>
+      <c r="J43" s="99"/>
+      <c r="L43" s="99"/>
+      <c r="O43" s="98">
+        <f t="shared" ref="O43:V43" si="77">O4/O34</f>
+        <v>3.6671801801801802</v>
+      </c>
+      <c r="P43" s="98">
+        <f t="shared" si="77"/>
+        <v>3.7510185185185181</v>
+      </c>
+      <c r="Q43" s="98">
+        <f t="shared" si="77"/>
+        <v>3.2683948220064725</v>
+      </c>
+      <c r="R43" s="98">
+        <f t="shared" si="77"/>
+        <v>3.1896569075937786</v>
+      </c>
+      <c r="S43" s="98">
+        <f t="shared" si="77"/>
+        <v>3.6317971428571432</v>
+      </c>
+      <c r="T43" s="98">
+        <f t="shared" si="77"/>
+        <v>4.4009395050412463</v>
+      </c>
+      <c r="U43" s="98">
+        <f t="shared" si="77"/>
+        <v>4.1760500446827526</v>
+      </c>
+      <c r="V43" s="98">
+        <f>V4/V34</f>
+        <v>4.3710526315789471</v>
+      </c>
+      <c r="W43" s="100"/>
+      <c r="X43" s="111"/>
+      <c r="Y43" s="111"/>
+      <c r="Z43" s="111"/>
+      <c r="AA43" s="111"/>
+      <c r="AB43" s="111"/>
+      <c r="AC43" s="111"/>
+      <c r="AD43" s="111"/>
+      <c r="AE43" s="111"/>
+    </row>
+    <row r="44" spans="2:34" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="23"/>
       <c r="D44" s="55"/>
       <c r="F44" s="55"/>
       <c r="H44" s="55"/>
       <c r="J44" s="55"/>
       <c r="L44" s="55"/>
-      <c r="O44" s="22">
+      <c r="W44" s="69"/>
+      <c r="X44" s="103"/>
+      <c r="Y44" s="103"/>
+      <c r="Z44" s="103"/>
+      <c r="AA44" s="103"/>
+      <c r="AB44" s="103"/>
+      <c r="AC44" s="103"/>
+      <c r="AD44" s="103"/>
+      <c r="AE44" s="103"/>
+    </row>
+    <row r="45" spans="2:34" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B45" s="23"/>
+      <c r="D45" s="55"/>
+      <c r="F45" s="55"/>
+      <c r="H45" s="55"/>
+      <c r="J45" s="55"/>
+      <c r="L45" s="55"/>
+      <c r="W45" s="69"/>
+      <c r="X45" s="103"/>
+      <c r="Y45" s="103"/>
+      <c r="Z45" s="103"/>
+      <c r="AA45" s="103"/>
+      <c r="AB45" s="103"/>
+      <c r="AC45" s="103"/>
+      <c r="AD45" s="103"/>
+      <c r="AE45" s="103"/>
+    </row>
+    <row r="46" spans="2:34" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B46" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="D46" s="55"/>
+      <c r="F46" s="55"/>
+      <c r="H46" s="55"/>
+      <c r="J46" s="55"/>
+      <c r="L46" s="55"/>
+      <c r="O46" s="22">
         <v>22351</v>
       </c>
-      <c r="P44" s="22">
-        <f t="shared" ref="P44:U44" si="49">P45+P48</f>
+      <c r="P46" s="22">
+        <f t="shared" ref="P46:U46" si="78">P47+P50</f>
         <v>24500</v>
       </c>
-      <c r="Q44" s="22">
-        <f t="shared" si="49"/>
+      <c r="Q46" s="22">
+        <f t="shared" si="78"/>
         <v>0</v>
       </c>
-      <c r="R44" s="22">
-        <f t="shared" si="49"/>
+      <c r="R46" s="22">
+        <f t="shared" si="78"/>
         <v>0</v>
       </c>
-      <c r="S44" s="22">
-        <f t="shared" si="49"/>
+      <c r="S46" s="22">
+        <f t="shared" si="78"/>
         <v>0</v>
       </c>
-      <c r="T44" s="22">
-        <f t="shared" si="49"/>
+      <c r="T46" s="22">
+        <f t="shared" si="78"/>
         <v>0</v>
       </c>
-      <c r="U44" s="22">
-        <f t="shared" si="49"/>
+      <c r="U46" s="22">
+        <f t="shared" si="78"/>
         <v>0</v>
       </c>
-      <c r="V44" s="22">
-        <f>V45+V48</f>
+      <c r="V46" s="22">
+        <f>V47+V50</f>
         <v>39484</v>
       </c>
-      <c r="W44" s="69"/>
-    </row>
-    <row r="45" spans="2:23" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="33" t="s">
+      <c r="W46" s="69"/>
+      <c r="X46" s="103"/>
+      <c r="Y46" s="103"/>
+      <c r="Z46" s="103"/>
+      <c r="AA46" s="103"/>
+      <c r="AB46" s="103"/>
+      <c r="AC46" s="103"/>
+      <c r="AD46" s="103"/>
+      <c r="AE46" s="103"/>
+    </row>
+    <row r="47" spans="2:34" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B47" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="D45" s="56"/>
-      <c r="F45" s="56"/>
-      <c r="H45" s="56"/>
-      <c r="J45" s="56"/>
-      <c r="L45" s="56"/>
-      <c r="O45" s="80" t="s">
+      <c r="D47" s="56"/>
+      <c r="F47" s="56"/>
+      <c r="H47" s="56"/>
+      <c r="J47" s="56"/>
+      <c r="L47" s="56"/>
+      <c r="O47" s="80" t="s">
         <v>73</v>
       </c>
-      <c r="P45" s="23">
-        <f t="shared" ref="P45:U45" si="50">SUM(P46:P47)</f>
+      <c r="P47" s="23">
+        <f t="shared" ref="P47:U47" si="79">SUM(P48:P49)</f>
         <v>24500</v>
       </c>
-      <c r="Q45" s="23">
-        <f t="shared" si="50"/>
+      <c r="Q47" s="23">
+        <f t="shared" si="79"/>
         <v>0</v>
       </c>
-      <c r="R45" s="23">
-        <f t="shared" si="50"/>
+      <c r="R47" s="23">
+        <f t="shared" si="79"/>
         <v>0</v>
       </c>
-      <c r="S45" s="23">
-        <f t="shared" si="50"/>
+      <c r="S47" s="23">
+        <f t="shared" si="79"/>
         <v>0</v>
       </c>
-      <c r="T45" s="23">
-        <f t="shared" si="50"/>
+      <c r="T47" s="23">
+        <f t="shared" si="79"/>
         <v>0</v>
       </c>
-      <c r="U45" s="23">
-        <f t="shared" si="50"/>
+      <c r="U47" s="23">
+        <f t="shared" si="79"/>
         <v>0</v>
       </c>
-      <c r="V45" s="23">
-        <f>SUM(V46:V47)</f>
+      <c r="V47" s="23">
+        <f>SUM(V48:V49)</f>
         <v>34145</v>
       </c>
-      <c r="W45" s="39"/>
-    </row>
-    <row r="46" spans="2:23" s="35" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="34" t="s">
+      <c r="W47" s="39"/>
+      <c r="X47" s="35"/>
+      <c r="Y47" s="35"/>
+      <c r="Z47" s="35"/>
+      <c r="AA47" s="35"/>
+      <c r="AB47" s="35"/>
+      <c r="AC47" s="35"/>
+      <c r="AD47" s="35"/>
+      <c r="AE47" s="35"/>
+    </row>
+    <row r="48" spans="2:34" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B48" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="D46" s="58"/>
-      <c r="F46" s="58"/>
-      <c r="H46" s="58"/>
-      <c r="J46" s="58"/>
-      <c r="L46" s="58"/>
-      <c r="O46" s="81" t="s">
+      <c r="D48" s="58"/>
+      <c r="F48" s="58"/>
+      <c r="H48" s="58"/>
+      <c r="J48" s="58"/>
+      <c r="L48" s="58"/>
+      <c r="O48" s="81" t="s">
         <v>73</v>
       </c>
-      <c r="P46" s="35">
+      <c r="P48" s="35">
         <v>24500</v>
       </c>
-      <c r="V46" s="35">
+      <c r="V48" s="35">
         <v>33156</v>
       </c>
-      <c r="W46" s="39"/>
-    </row>
-    <row r="47" spans="2:23" s="35" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="34" t="s">
+      <c r="W48" s="39"/>
+    </row>
+    <row r="49" spans="2:31" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B49" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="D47" s="58"/>
-      <c r="F47" s="58"/>
-      <c r="H47" s="58"/>
-      <c r="J47" s="58"/>
-      <c r="L47" s="58"/>
-      <c r="O47" s="81" t="s">
+      <c r="D49" s="58"/>
+      <c r="F49" s="58"/>
+      <c r="H49" s="58"/>
+      <c r="J49" s="58"/>
+      <c r="L49" s="58"/>
+      <c r="O49" s="81" t="s">
         <v>73</v>
       </c>
-      <c r="P47" s="35">
+      <c r="P49" s="35">
         <v>0</v>
       </c>
-      <c r="V47" s="35">
+      <c r="V49" s="35">
         <v>989</v>
       </c>
-      <c r="W47" s="39"/>
-    </row>
-    <row r="48" spans="2:23" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="33" t="s">
+      <c r="W49" s="39"/>
+    </row>
+    <row r="50" spans="2:31" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B50" s="33" t="s">
         <v>26</v>
-      </c>
-      <c r="D48" s="56"/>
-      <c r="F48" s="56"/>
-      <c r="H48" s="56"/>
-      <c r="J48" s="56"/>
-      <c r="L48" s="56"/>
-      <c r="O48" s="80" t="str">
-        <f t="shared" ref="O48:U48" si="51">O49</f>
-        <v>-</v>
-      </c>
-      <c r="P48" s="23">
-        <f t="shared" si="51"/>
-        <v>0</v>
-      </c>
-      <c r="Q48" s="23">
-        <f t="shared" si="51"/>
-        <v>0</v>
-      </c>
-      <c r="R48" s="23">
-        <f t="shared" si="51"/>
-        <v>0</v>
-      </c>
-      <c r="S48" s="23">
-        <f t="shared" si="51"/>
-        <v>0</v>
-      </c>
-      <c r="T48" s="23">
-        <f t="shared" si="51"/>
-        <v>0</v>
-      </c>
-      <c r="U48" s="23">
-        <f t="shared" si="51"/>
-        <v>0</v>
-      </c>
-      <c r="V48" s="23">
-        <f>V49</f>
-        <v>5339</v>
-      </c>
-      <c r="W48" s="39"/>
-    </row>
-    <row r="49" spans="2:23" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="34" t="s">
-        <v>74</v>
-      </c>
-      <c r="D49" s="56"/>
-      <c r="F49" s="56"/>
-      <c r="H49" s="56"/>
-      <c r="J49" s="56"/>
-      <c r="L49" s="56"/>
-      <c r="O49" s="80" t="s">
-        <v>73</v>
-      </c>
-      <c r="P49" s="23">
-        <v>0</v>
-      </c>
-      <c r="V49" s="23">
-        <v>5339</v>
-      </c>
-      <c r="W49" s="39"/>
-    </row>
-    <row r="50" spans="2:23" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="33" t="s">
-        <v>132</v>
       </c>
       <c r="D50" s="56"/>
       <c r="F50" s="56"/>
       <c r="H50" s="56"/>
       <c r="J50" s="56"/>
       <c r="L50" s="56"/>
-      <c r="O50" s="80" t="s">
+      <c r="O50" s="80" t="str">
+        <f t="shared" ref="O50:U50" si="80">O51</f>
+        <v>-</v>
+      </c>
+      <c r="P50" s="23">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="Q50" s="23">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="R50" s="23">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="S50" s="23">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="T50" s="23">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="U50" s="23">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="V50" s="23">
+        <f>V51</f>
+        <v>5339</v>
+      </c>
+      <c r="W50" s="39"/>
+      <c r="X50" s="35"/>
+      <c r="Y50" s="35"/>
+      <c r="Z50" s="35"/>
+      <c r="AA50" s="35"/>
+      <c r="AB50" s="35"/>
+      <c r="AC50" s="35"/>
+      <c r="AD50" s="35"/>
+      <c r="AE50" s="35"/>
+    </row>
+    <row r="51" spans="2:31" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B51" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="D51" s="56"/>
+      <c r="F51" s="56"/>
+      <c r="H51" s="56"/>
+      <c r="J51" s="56"/>
+      <c r="L51" s="56"/>
+      <c r="O51" s="80" t="s">
         <v>73</v>
       </c>
-      <c r="P50" s="23">
-        <f>P51</f>
+      <c r="P51" s="23">
+        <v>0</v>
+      </c>
+      <c r="V51" s="23">
+        <v>5339</v>
+      </c>
+      <c r="W51" s="39"/>
+      <c r="X51" s="35"/>
+      <c r="Y51" s="35"/>
+      <c r="Z51" s="35"/>
+      <c r="AA51" s="35"/>
+      <c r="AB51" s="35"/>
+      <c r="AC51" s="35"/>
+      <c r="AD51" s="35"/>
+      <c r="AE51" s="35"/>
+    </row>
+    <row r="52" spans="2:31" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B52" s="33" t="s">
+        <v>132</v>
+      </c>
+      <c r="D52" s="56"/>
+      <c r="F52" s="56"/>
+      <c r="H52" s="56"/>
+      <c r="J52" s="56"/>
+      <c r="L52" s="56"/>
+      <c r="O52" s="80" t="s">
+        <v>73</v>
+      </c>
+      <c r="P52" s="23">
+        <f>P53</f>
         <v>1500</v>
       </c>
-      <c r="W50" s="39"/>
-    </row>
-    <row r="51" spans="2:23" s="35" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B51" s="34" t="s">
+      <c r="W52" s="39"/>
+      <c r="X52" s="35"/>
+      <c r="Y52" s="35"/>
+      <c r="Z52" s="35"/>
+      <c r="AA52" s="35"/>
+      <c r="AB52" s="35"/>
+      <c r="AC52" s="35"/>
+      <c r="AD52" s="35"/>
+      <c r="AE52" s="35"/>
+    </row>
+    <row r="53" spans="2:31" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B53" s="34" t="s">
         <v>133</v>
       </c>
-      <c r="D51" s="58"/>
-      <c r="F51" s="58"/>
-      <c r="H51" s="58"/>
-      <c r="J51" s="58"/>
-      <c r="L51" s="58"/>
-      <c r="O51" s="81" t="s">
+      <c r="D53" s="58"/>
+      <c r="F53" s="58"/>
+      <c r="H53" s="58"/>
+      <c r="J53" s="58"/>
+      <c r="L53" s="58"/>
+      <c r="O53" s="81" t="s">
         <v>73</v>
       </c>
-      <c r="P51" s="35">
+      <c r="P53" s="35">
         <v>1500</v>
       </c>
-      <c r="W51" s="39"/>
-    </row>
-    <row r="52" spans="2:23" s="45" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="45" t="s">
+      <c r="W53" s="39"/>
+    </row>
+    <row r="54" spans="2:31" s="45" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B54" s="45" t="s">
         <v>76</v>
       </c>
-      <c r="D52" s="59"/>
-      <c r="F52" s="59"/>
-      <c r="H52" s="59"/>
-      <c r="J52" s="59"/>
-      <c r="L52" s="59"/>
-      <c r="O52" s="82" t="s">
+      <c r="D54" s="59"/>
+      <c r="F54" s="59"/>
+      <c r="H54" s="59"/>
+      <c r="J54" s="59"/>
+      <c r="L54" s="59"/>
+      <c r="O54" s="82" t="s">
         <v>73</v>
       </c>
-      <c r="P52" s="46">
-        <f>P44-O44</f>
+      <c r="P54" s="46">
+        <f>P46-O46</f>
         <v>2149</v>
       </c>
-      <c r="Q52" s="46">
-        <f t="shared" ref="Q52:V52" si="52">Q44-P44</f>
+      <c r="Q54" s="46">
+        <f t="shared" ref="Q54:V54" si="81">Q46-P46</f>
         <v>-24500</v>
       </c>
-      <c r="R52" s="46">
-        <f t="shared" si="52"/>
+      <c r="R54" s="46">
+        <f t="shared" si="81"/>
         <v>0</v>
       </c>
-      <c r="S52" s="46">
-        <f t="shared" si="52"/>
+      <c r="S54" s="46">
+        <f t="shared" si="81"/>
         <v>0</v>
       </c>
-      <c r="T52" s="46">
-        <f t="shared" si="52"/>
+      <c r="T54" s="46">
+        <f t="shared" si="81"/>
         <v>0</v>
       </c>
-      <c r="U52" s="46">
-        <f t="shared" si="52"/>
+      <c r="U54" s="46">
+        <f t="shared" si="81"/>
         <v>0</v>
       </c>
-      <c r="V52" s="46">
-        <f t="shared" si="52"/>
+      <c r="V54" s="46">
+        <f t="shared" si="81"/>
         <v>39484</v>
       </c>
-      <c r="W52" s="71"/>
-    </row>
-    <row r="56" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B56" s="29" t="s">
+      <c r="W54" s="71"/>
+      <c r="X54" s="112"/>
+      <c r="Y54" s="112"/>
+      <c r="Z54" s="112"/>
+      <c r="AA54" s="112"/>
+      <c r="AB54" s="112"/>
+      <c r="AC54" s="112"/>
+      <c r="AD54" s="112"/>
+      <c r="AE54" s="112"/>
+    </row>
+    <row r="58" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="B58" s="29" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="57" spans="2:23" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="23" t="s">
+    <row r="59" spans="2:31" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B59" s="23" t="s">
         <v>79</v>
-      </c>
-      <c r="D57" s="56"/>
-      <c r="F57" s="56"/>
-      <c r="H57" s="56"/>
-      <c r="J57" s="56"/>
-      <c r="L57" s="56"/>
-      <c r="O57" s="23">
-        <f>837.45+101.174</f>
-        <v>938.62400000000002</v>
-      </c>
-      <c r="P57" s="23">
-        <f>841.691+103.693</f>
-        <v>945.38400000000001</v>
-      </c>
-      <c r="Q57" s="23">
-        <f>929.718+120.962</f>
-        <v>1050.68</v>
-      </c>
-      <c r="R57" s="23">
-        <f>949.606+126.559</f>
-        <v>1076.165</v>
-      </c>
-      <c r="S57" s="23">
-        <f>921.911+119.696</f>
-        <v>1041.607</v>
-      </c>
-      <c r="T57" s="23">
-        <f>920.729+118.24</f>
-        <v>1038.9690000000001</v>
-      </c>
-      <c r="U57" s="23">
-        <f>920+120</f>
-        <v>1040</v>
-      </c>
-      <c r="V57" s="23">
-        <f>921+120</f>
-        <v>1041</v>
-      </c>
-      <c r="W57" s="39"/>
-    </row>
-    <row r="58" spans="2:23" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="D58" s="56"/>
-      <c r="F58" s="56"/>
-      <c r="H58" s="56"/>
-      <c r="J58" s="56"/>
-      <c r="L58" s="56"/>
-      <c r="O58" s="23">
-        <v>138.05000000000001</v>
-      </c>
-      <c r="P58" s="23">
-        <v>165.74799999999999</v>
-      </c>
-      <c r="Q58" s="23">
-        <v>308.65300000000002</v>
-      </c>
-      <c r="R58" s="23">
-        <v>389.952</v>
-      </c>
-      <c r="S58" s="23">
-        <v>312.19799999999998</v>
-      </c>
-      <c r="T58" s="23">
-        <v>336.36399999999998</v>
-      </c>
-      <c r="U58" s="23">
-        <v>363</v>
-      </c>
-      <c r="V58" s="23">
-        <v>380</v>
-      </c>
-      <c r="W58" s="39"/>
-    </row>
-    <row r="59" spans="2:23" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B59" s="23" t="s">
-        <v>81</v>
       </c>
       <c r="D59" s="56"/>
       <c r="F59" s="56"/>
@@ -4140,34 +5595,50 @@
       <c r="J59" s="56"/>
       <c r="L59" s="56"/>
       <c r="O59" s="23">
-        <v>0</v>
+        <f>837.45+101.174</f>
+        <v>938.62400000000002</v>
       </c>
       <c r="P59" s="23">
-        <v>0</v>
+        <f>841.691+103.693</f>
+        <v>945.38400000000001</v>
       </c>
       <c r="Q59" s="23">
-        <v>0</v>
+        <f>929.718+120.962</f>
+        <v>1050.68</v>
       </c>
       <c r="R59" s="23">
-        <v>0</v>
+        <f>949.606+126.559</f>
+        <v>1076.165</v>
       </c>
       <c r="S59" s="23">
-        <v>1086.6179999999999</v>
+        <f>921.911+119.696</f>
+        <v>1041.607</v>
       </c>
       <c r="T59" s="23">
-        <v>1070.5809999999999</v>
+        <f>920.729+118.24</f>
+        <v>1038.9690000000001</v>
       </c>
       <c r="U59" s="23">
-        <v>1066</v>
+        <f>920+120</f>
+        <v>1040</v>
       </c>
       <c r="V59" s="23">
-        <v>1056</v>
+        <f>921+120</f>
+        <v>1041</v>
       </c>
       <c r="W59" s="39"/>
-    </row>
-    <row r="60" spans="2:23" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X59" s="35"/>
+      <c r="Y59" s="35"/>
+      <c r="Z59" s="35"/>
+      <c r="AA59" s="35"/>
+      <c r="AB59" s="35"/>
+      <c r="AC59" s="35"/>
+      <c r="AD59" s="35"/>
+      <c r="AE59" s="35"/>
+    </row>
+    <row r="60" spans="2:31" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B60" s="23" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D60" s="56"/>
       <c r="F60" s="56"/>
@@ -4175,34 +5646,42 @@
       <c r="J60" s="56"/>
       <c r="L60" s="56"/>
       <c r="O60" s="23">
-        <v>3.9950000000000001</v>
+        <v>138.05000000000001</v>
       </c>
       <c r="P60" s="23">
-        <v>5.6689999999999996</v>
+        <v>165.74799999999999</v>
       </c>
       <c r="Q60" s="23">
-        <v>5.14</v>
+        <v>308.65300000000002</v>
       </c>
       <c r="R60" s="23">
-        <v>6.92</v>
+        <v>389.952</v>
       </c>
       <c r="S60" s="23">
-        <v>5.7</v>
+        <v>312.19799999999998</v>
       </c>
       <c r="T60" s="23">
-        <v>4.4790000000000001</v>
+        <v>336.36399999999998</v>
       </c>
       <c r="U60" s="23">
-        <v>8</v>
+        <v>363</v>
       </c>
       <c r="V60" s="23">
-        <v>8</v>
+        <v>380</v>
       </c>
       <c r="W60" s="39"/>
-    </row>
-    <row r="61" spans="2:23" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X60" s="35"/>
+      <c r="Y60" s="35"/>
+      <c r="Z60" s="35"/>
+      <c r="AA60" s="35"/>
+      <c r="AB60" s="35"/>
+      <c r="AC60" s="35"/>
+      <c r="AD60" s="35"/>
+      <c r="AE60" s="35"/>
+    </row>
+    <row r="61" spans="2:31" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B61" s="23" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D61" s="56"/>
       <c r="F61" s="56"/>
@@ -4210,34 +5689,42 @@
       <c r="J61" s="56"/>
       <c r="L61" s="56"/>
       <c r="O61" s="23">
-        <v>2.7709999999999999</v>
+        <v>0</v>
       </c>
       <c r="P61" s="23">
-        <v>2.4129999999999998</v>
+        <v>0</v>
       </c>
       <c r="Q61" s="23">
-        <v>3.1869999999999998</v>
+        <v>0</v>
       </c>
       <c r="R61" s="23">
-        <v>10.989000000000001</v>
+        <v>0</v>
       </c>
       <c r="S61" s="23">
-        <v>7.5170000000000003</v>
+        <v>1086.6179999999999</v>
       </c>
       <c r="T61" s="23">
-        <v>7.0839999999999996</v>
+        <v>1070.5809999999999</v>
       </c>
       <c r="U61" s="23">
-        <v>7</v>
+        <v>1066</v>
       </c>
       <c r="V61" s="23">
-        <v>6</v>
+        <v>1056</v>
       </c>
       <c r="W61" s="39"/>
-    </row>
-    <row r="62" spans="2:23" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X61" s="35"/>
+      <c r="Y61" s="35"/>
+      <c r="Z61" s="35"/>
+      <c r="AA61" s="35"/>
+      <c r="AB61" s="35"/>
+      <c r="AC61" s="35"/>
+      <c r="AD61" s="35"/>
+      <c r="AE61" s="35"/>
+    </row>
+    <row r="62" spans="2:31" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B62" s="23" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D62" s="56"/>
       <c r="F62" s="56"/>
@@ -4245,34 +5732,42 @@
       <c r="J62" s="56"/>
       <c r="L62" s="56"/>
       <c r="O62" s="23">
-        <v>0.47299999999999998</v>
+        <v>3.9950000000000001</v>
       </c>
       <c r="P62" s="23">
-        <v>0.82399999999999995</v>
+        <v>5.6689999999999996</v>
       </c>
       <c r="Q62" s="23">
-        <v>5.6539999999999999</v>
+        <v>5.14</v>
       </c>
       <c r="R62" s="23">
-        <v>9.1950000000000003</v>
+        <v>6.92</v>
       </c>
       <c r="S62" s="23">
-        <v>22.988</v>
+        <v>5.7</v>
       </c>
       <c r="T62" s="23">
-        <v>32.241999999999997</v>
+        <v>4.4790000000000001</v>
       </c>
       <c r="U62" s="23">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="V62" s="23">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="W62" s="39"/>
-    </row>
-    <row r="63" spans="2:23" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X62" s="35"/>
+      <c r="Y62" s="35"/>
+      <c r="Z62" s="35"/>
+      <c r="AA62" s="35"/>
+      <c r="AB62" s="35"/>
+      <c r="AC62" s="35"/>
+      <c r="AD62" s="35"/>
+      <c r="AE62" s="35"/>
+    </row>
+    <row r="63" spans="2:31" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B63" s="23" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D63" s="56"/>
       <c r="F63" s="56"/>
@@ -4280,217 +5775,265 @@
       <c r="J63" s="56"/>
       <c r="L63" s="56"/>
       <c r="O63" s="23">
-        <f t="shared" ref="O63:U63" si="53">SUM(O57:O62)</f>
+        <v>2.7709999999999999</v>
+      </c>
+      <c r="P63" s="23">
+        <v>2.4129999999999998</v>
+      </c>
+      <c r="Q63" s="23">
+        <v>3.1869999999999998</v>
+      </c>
+      <c r="R63" s="23">
+        <v>10.989000000000001</v>
+      </c>
+      <c r="S63" s="23">
+        <v>7.5170000000000003</v>
+      </c>
+      <c r="T63" s="23">
+        <v>7.0839999999999996</v>
+      </c>
+      <c r="U63" s="23">
+        <v>7</v>
+      </c>
+      <c r="V63" s="23">
+        <v>6</v>
+      </c>
+      <c r="W63" s="39"/>
+      <c r="X63" s="35"/>
+      <c r="Y63" s="35"/>
+      <c r="Z63" s="35"/>
+      <c r="AA63" s="35"/>
+      <c r="AB63" s="35"/>
+      <c r="AC63" s="35"/>
+      <c r="AD63" s="35"/>
+      <c r="AE63" s="35"/>
+    </row>
+    <row r="64" spans="2:31" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B64" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="D64" s="56"/>
+      <c r="F64" s="56"/>
+      <c r="H64" s="56"/>
+      <c r="J64" s="56"/>
+      <c r="L64" s="56"/>
+      <c r="O64" s="23">
+        <v>0.47299999999999998</v>
+      </c>
+      <c r="P64" s="23">
+        <v>0.82399999999999995</v>
+      </c>
+      <c r="Q64" s="23">
+        <v>5.6539999999999999</v>
+      </c>
+      <c r="R64" s="23">
+        <v>9.1950000000000003</v>
+      </c>
+      <c r="S64" s="23">
+        <v>22.988</v>
+      </c>
+      <c r="T64" s="23">
+        <v>32.241999999999997</v>
+      </c>
+      <c r="U64" s="23">
+        <v>31</v>
+      </c>
+      <c r="V64" s="23">
+        <v>30</v>
+      </c>
+      <c r="W64" s="39"/>
+      <c r="X64" s="35"/>
+      <c r="Y64" s="35"/>
+      <c r="Z64" s="35"/>
+      <c r="AA64" s="35"/>
+      <c r="AB64" s="35"/>
+      <c r="AC64" s="35"/>
+      <c r="AD64" s="35"/>
+      <c r="AE64" s="35"/>
+    </row>
+    <row r="65" spans="2:31" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B65" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="D65" s="56"/>
+      <c r="F65" s="56"/>
+      <c r="H65" s="56"/>
+      <c r="J65" s="56"/>
+      <c r="L65" s="56"/>
+      <c r="O65" s="23">
+        <f t="shared" ref="O65:U65" si="82">SUM(O59:O64)</f>
         <v>1083.9129999999998</v>
       </c>
-      <c r="P63" s="23">
-        <f t="shared" si="53"/>
+      <c r="P65" s="23">
+        <f t="shared" si="82"/>
         <v>1120.0380000000002</v>
       </c>
-      <c r="Q63" s="23">
-        <f t="shared" si="53"/>
+      <c r="Q65" s="23">
+        <f t="shared" si="82"/>
         <v>1373.3140000000001</v>
       </c>
-      <c r="R63" s="23">
-        <f t="shared" si="53"/>
+      <c r="R65" s="23">
+        <f t="shared" si="82"/>
         <v>1493.221</v>
       </c>
-      <c r="S63" s="23">
-        <f t="shared" si="53"/>
+      <c r="S65" s="23">
+        <f t="shared" si="82"/>
         <v>2476.6279999999992</v>
       </c>
-      <c r="T63" s="23">
-        <f t="shared" si="53"/>
+      <c r="T65" s="23">
+        <f t="shared" si="82"/>
         <v>2489.7189999999996</v>
       </c>
-      <c r="U63" s="23">
-        <f t="shared" si="53"/>
+      <c r="U65" s="23">
+        <f t="shared" si="82"/>
         <v>2515</v>
       </c>
-      <c r="V63" s="23">
-        <f>SUM(V57:V62)</f>
+      <c r="V65" s="23">
+        <f>SUM(V59:V64)</f>
         <v>2521</v>
       </c>
-      <c r="W63" s="39"/>
-    </row>
-    <row r="64" spans="2:23" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B64" s="22" t="s">
+      <c r="W65" s="39"/>
+      <c r="X65" s="35"/>
+      <c r="Y65" s="35"/>
+      <c r="Z65" s="35"/>
+      <c r="AA65" s="35"/>
+      <c r="AB65" s="35"/>
+      <c r="AC65" s="35"/>
+      <c r="AD65" s="35"/>
+      <c r="AE65" s="35"/>
+    </row>
+    <row r="66" spans="2:31" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B66" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="D64" s="55"/>
-      <c r="F64" s="55"/>
-      <c r="H64" s="55"/>
-      <c r="J64" s="55"/>
-      <c r="L64" s="55"/>
-      <c r="O64" s="22">
+      <c r="D66" s="55"/>
+      <c r="F66" s="55"/>
+      <c r="H66" s="55"/>
+      <c r="J66" s="55"/>
+      <c r="L66" s="55"/>
+      <c r="O66" s="22">
         <v>91.147999999999996</v>
       </c>
-      <c r="P64" s="22">
+      <c r="P66" s="22">
         <v>155.511</v>
       </c>
-      <c r="Q64" s="22">
+      <c r="Q66" s="22">
         <v>90.816000000000003</v>
       </c>
-      <c r="R64" s="22">
+      <c r="R66" s="22">
         <v>86.201999999999998</v>
       </c>
-      <c r="S64" s="22">
+      <c r="S66" s="22">
         <v>428.20499999999998</v>
       </c>
-      <c r="T64" s="22">
+      <c r="T66" s="22">
         <v>217.68199999999999</v>
       </c>
-      <c r="U64" s="22">
+      <c r="U66" s="22">
         <v>173</v>
       </c>
-      <c r="V64" s="22">
+      <c r="V66" s="22">
         <v>237</v>
       </c>
-      <c r="W64" s="69"/>
-    </row>
-    <row r="65" spans="2:23" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B65" s="22" t="s">
+      <c r="W66" s="69"/>
+      <c r="X66" s="103"/>
+      <c r="Y66" s="103"/>
+      <c r="Z66" s="103"/>
+      <c r="AA66" s="103"/>
+      <c r="AB66" s="103"/>
+      <c r="AC66" s="103"/>
+      <c r="AD66" s="103"/>
+      <c r="AE66" s="103"/>
+    </row>
+    <row r="67" spans="2:31" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B67" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="D65" s="55"/>
-      <c r="F65" s="55"/>
-      <c r="H65" s="55"/>
-      <c r="J65" s="55"/>
-      <c r="L65" s="55"/>
-      <c r="O65" s="22">
+      <c r="D67" s="55"/>
+      <c r="F67" s="55"/>
+      <c r="H67" s="55"/>
+      <c r="J67" s="55"/>
+      <c r="L67" s="55"/>
+      <c r="O67" s="22">
         <v>356.31200000000001</v>
       </c>
-      <c r="P65" s="22">
+      <c r="P67" s="22">
         <v>462.11900000000003</v>
       </c>
-      <c r="Q65" s="22">
+      <c r="Q67" s="22">
         <v>558.69000000000005</v>
       </c>
-      <c r="R65" s="22">
+      <c r="R67" s="22">
         <v>670.721</v>
       </c>
-      <c r="S65" s="22">
+      <c r="S67" s="22">
         <v>588</v>
       </c>
-      <c r="T65" s="22">
+      <c r="T67" s="22">
         <v>605.12599999999998</v>
       </c>
-      <c r="U65" s="22">
+      <c r="U67" s="22">
         <v>863</v>
       </c>
-      <c r="V65" s="22">
+      <c r="V67" s="22">
         <v>764</v>
       </c>
-      <c r="W65" s="69"/>
-    </row>
-    <row r="66" spans="2:23" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B66" s="23" t="s">
+      <c r="W67" s="69"/>
+      <c r="X67" s="103"/>
+      <c r="Y67" s="103"/>
+      <c r="Z67" s="103"/>
+      <c r="AA67" s="103"/>
+      <c r="AB67" s="103"/>
+      <c r="AC67" s="103"/>
+      <c r="AD67" s="103"/>
+      <c r="AE67" s="103"/>
+    </row>
+    <row r="68" spans="2:31" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B68" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="D66" s="56"/>
-      <c r="F66" s="56"/>
-      <c r="H66" s="56"/>
-      <c r="J66" s="56"/>
-      <c r="L66" s="56"/>
-      <c r="O66" s="23">
+      <c r="D68" s="56"/>
+      <c r="F68" s="56"/>
+      <c r="H68" s="56"/>
+      <c r="J68" s="56"/>
+      <c r="L68" s="56"/>
+      <c r="O68" s="23">
         <v>28.760999999999999</v>
       </c>
-      <c r="P66" s="23">
+      <c r="P68" s="23">
         <v>35.398000000000003</v>
       </c>
-      <c r="Q66" s="23">
+      <c r="Q68" s="23">
         <v>34.042000000000002</v>
       </c>
-      <c r="R66" s="23">
+      <c r="R68" s="23">
         <v>71.64</v>
       </c>
-      <c r="S66" s="23">
+      <c r="S68" s="23">
         <v>60.588000000000001</v>
       </c>
-      <c r="T66" s="23">
+      <c r="T68" s="23">
         <v>42.16</v>
       </c>
-      <c r="U66" s="23">
+      <c r="U68" s="23">
         <v>53</v>
       </c>
-      <c r="V66" s="23">
+      <c r="V68" s="23">
         <v>52</v>
       </c>
-      <c r="W66" s="39"/>
-    </row>
-    <row r="67" spans="2:23" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B67" s="23" t="s">
+      <c r="W68" s="39"/>
+      <c r="X68" s="35"/>
+      <c r="Y68" s="35"/>
+      <c r="Z68" s="35"/>
+      <c r="AA68" s="35"/>
+      <c r="AB68" s="35"/>
+      <c r="AC68" s="35"/>
+      <c r="AD68" s="35"/>
+      <c r="AE68" s="35"/>
+    </row>
+    <row r="69" spans="2:31" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B69" s="23" t="s">
         <v>107</v>
-      </c>
-      <c r="D67" s="56"/>
-      <c r="F67" s="56"/>
-      <c r="H67" s="56"/>
-      <c r="J67" s="56"/>
-      <c r="L67" s="56"/>
-      <c r="O67" s="23">
-        <v>0</v>
-      </c>
-      <c r="P67" s="23">
-        <v>0</v>
-      </c>
-      <c r="Q67" s="23">
-        <v>0</v>
-      </c>
-      <c r="R67" s="23">
-        <v>6.2939999999999996</v>
-      </c>
-      <c r="S67" s="23">
-        <v>0</v>
-      </c>
-      <c r="T67" s="23">
-        <v>0</v>
-      </c>
-      <c r="U67" s="23">
-        <v>9</v>
-      </c>
-      <c r="V67" s="23">
-        <v>12</v>
-      </c>
-      <c r="W67" s="39"/>
-    </row>
-    <row r="68" spans="2:23" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B68" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="D68" s="55"/>
-      <c r="F68" s="55"/>
-      <c r="H68" s="55"/>
-      <c r="J68" s="55"/>
-      <c r="L68" s="55"/>
-      <c r="O68" s="22">
-        <v>4.7690000000000001</v>
-      </c>
-      <c r="P68" s="22">
-        <v>0.41</v>
-      </c>
-      <c r="Q68" s="22">
-        <v>0</v>
-      </c>
-      <c r="R68" s="22">
-        <v>3.7810000000000001</v>
-      </c>
-      <c r="S68" s="22">
-        <v>16.702000000000002</v>
-      </c>
-      <c r="T68" s="22">
-        <v>3.7669999999999999</v>
-      </c>
-      <c r="U68" s="22">
-        <v>25</v>
-      </c>
-      <c r="V68" s="22">
-        <v>1</v>
-      </c>
-      <c r="W68" s="69"/>
-    </row>
-    <row r="69" spans="2:23" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B69" s="23" t="s">
-        <v>90</v>
       </c>
       <c r="D69" s="56"/>
       <c r="F69" s="56"/>
@@ -4498,163 +6041,198 @@
       <c r="J69" s="56"/>
       <c r="L69" s="56"/>
       <c r="O69" s="23">
-        <f t="shared" ref="O69:U69" si="54">SUM(O63:O68)</f>
+        <v>0</v>
+      </c>
+      <c r="P69" s="23">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="23">
+        <v>0</v>
+      </c>
+      <c r="R69" s="23">
+        <v>6.2939999999999996</v>
+      </c>
+      <c r="S69" s="23">
+        <v>0</v>
+      </c>
+      <c r="T69" s="23">
+        <v>0</v>
+      </c>
+      <c r="U69" s="23">
+        <v>9</v>
+      </c>
+      <c r="V69" s="23">
+        <v>12</v>
+      </c>
+      <c r="W69" s="39"/>
+      <c r="X69" s="35"/>
+      <c r="Y69" s="35"/>
+      <c r="Z69" s="35"/>
+      <c r="AA69" s="35"/>
+      <c r="AB69" s="35"/>
+      <c r="AC69" s="35"/>
+      <c r="AD69" s="35"/>
+      <c r="AE69" s="35"/>
+    </row>
+    <row r="70" spans="2:31" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B70" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="D70" s="55"/>
+      <c r="F70" s="55"/>
+      <c r="H70" s="55"/>
+      <c r="J70" s="55"/>
+      <c r="L70" s="55"/>
+      <c r="O70" s="22">
+        <v>4.7690000000000001</v>
+      </c>
+      <c r="P70" s="22">
+        <v>0.41</v>
+      </c>
+      <c r="Q70" s="22">
+        <v>0</v>
+      </c>
+      <c r="R70" s="22">
+        <v>3.7810000000000001</v>
+      </c>
+      <c r="S70" s="22">
+        <v>16.702000000000002</v>
+      </c>
+      <c r="T70" s="22">
+        <v>3.7669999999999999</v>
+      </c>
+      <c r="U70" s="22">
+        <v>25</v>
+      </c>
+      <c r="V70" s="22">
+        <v>1</v>
+      </c>
+      <c r="W70" s="69"/>
+      <c r="X70" s="103"/>
+      <c r="Y70" s="103"/>
+      <c r="Z70" s="103"/>
+      <c r="AA70" s="103"/>
+      <c r="AB70" s="103"/>
+      <c r="AC70" s="103"/>
+      <c r="AD70" s="103"/>
+      <c r="AE70" s="103"/>
+    </row>
+    <row r="71" spans="2:31" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B71" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="D71" s="56"/>
+      <c r="F71" s="56"/>
+      <c r="H71" s="56"/>
+      <c r="J71" s="56"/>
+      <c r="L71" s="56"/>
+      <c r="O71" s="23">
+        <f t="shared" ref="O71:U71" si="83">SUM(O65:O70)</f>
         <v>1564.9029999999996</v>
       </c>
-      <c r="P69" s="23">
-        <f t="shared" si="54"/>
+      <c r="P71" s="23">
+        <f t="shared" si="83"/>
         <v>1773.4760000000001</v>
       </c>
-      <c r="Q69" s="23">
-        <f t="shared" si="54"/>
+      <c r="Q71" s="23">
+        <f t="shared" si="83"/>
         <v>2056.8620000000001</v>
       </c>
-      <c r="R69" s="23">
-        <f t="shared" si="54"/>
+      <c r="R71" s="23">
+        <f t="shared" si="83"/>
         <v>2331.8589999999999</v>
       </c>
-      <c r="S69" s="23">
-        <f t="shared" si="54"/>
+      <c r="S71" s="23">
+        <f t="shared" si="83"/>
         <v>3570.1229999999996</v>
       </c>
-      <c r="T69" s="23">
-        <f t="shared" si="54"/>
+      <c r="T71" s="23">
+        <f t="shared" si="83"/>
         <v>3358.4539999999988</v>
       </c>
-      <c r="U69" s="23">
-        <f t="shared" si="54"/>
+      <c r="U71" s="23">
+        <f t="shared" si="83"/>
         <v>3638</v>
       </c>
-      <c r="V69" s="23">
-        <f>SUM(V63:V68)</f>
+      <c r="V71" s="23">
+        <f>SUM(V65:V70)</f>
         <v>3587</v>
       </c>
-      <c r="W69" s="39"/>
-    </row>
-    <row r="70" spans="2:23" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D70" s="56"/>
-      <c r="F70" s="56"/>
-      <c r="H70" s="56"/>
-      <c r="J70" s="56"/>
-      <c r="L70" s="56"/>
-      <c r="W70" s="39"/>
-    </row>
-    <row r="71" spans="2:23" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B71" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="D71" s="55"/>
-      <c r="F71" s="55"/>
-      <c r="H71" s="55"/>
-      <c r="J71" s="55"/>
-      <c r="L71" s="55"/>
-      <c r="O71" s="22">
-        <f>435.142+16.041</f>
-        <v>451.18299999999999</v>
-      </c>
-      <c r="P71" s="22">
-        <f>17.886+543.725</f>
-        <v>561.61099999999999</v>
-      </c>
-      <c r="Q71" s="22">
-        <f>558.426+19.209</f>
-        <v>577.63499999999999</v>
-      </c>
-      <c r="R71" s="22">
-        <v>562.94100000000003</v>
-      </c>
-      <c r="S71" s="22">
-        <v>561.41800000000001</v>
-      </c>
-      <c r="T71" s="22">
-        <v>723.73599999999999</v>
-      </c>
-      <c r="U71" s="22">
-        <v>950</v>
-      </c>
-      <c r="V71" s="22">
-        <v>873</v>
-      </c>
-      <c r="W71" s="69"/>
-    </row>
-    <row r="72" spans="2:23" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B72" s="23" t="s">
-        <v>93</v>
-      </c>
+      <c r="W71" s="39"/>
+      <c r="X71" s="35"/>
+      <c r="Y71" s="35"/>
+      <c r="Z71" s="35"/>
+      <c r="AA71" s="35"/>
+      <c r="AB71" s="35"/>
+      <c r="AC71" s="35"/>
+      <c r="AD71" s="35"/>
+      <c r="AE71" s="35"/>
+    </row>
+    <row r="72" spans="2:31" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D72" s="56"/>
       <c r="F72" s="56"/>
       <c r="H72" s="56"/>
       <c r="J72" s="56"/>
       <c r="L72" s="56"/>
-      <c r="O72" s="23">
-        <f>4.252+66.544</f>
-        <v>70.795999999999992</v>
-      </c>
-      <c r="P72" s="23">
-        <f>76.961+6.469</f>
-        <v>83.429999999999993</v>
-      </c>
-      <c r="Q72" s="23">
-        <f>7.306+87.13</f>
-        <v>94.435999999999993</v>
-      </c>
-      <c r="R72" s="23">
-        <f>92.891+7.104</f>
-        <v>99.995000000000005</v>
-      </c>
-      <c r="S72" s="23">
-        <f>1146.233+0.171</f>
-        <v>1146.404</v>
-      </c>
-      <c r="T72" s="23">
-        <v>1138.634</v>
-      </c>
-      <c r="U72" s="23">
-        <v>1140</v>
-      </c>
-      <c r="V72" s="23">
-        <v>1124</v>
-      </c>
       <c r="W72" s="39"/>
-    </row>
-    <row r="73" spans="2:23" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B73" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="D73" s="56"/>
-      <c r="F73" s="56"/>
-      <c r="H73" s="56"/>
-      <c r="J73" s="56"/>
-      <c r="L73" s="56"/>
-      <c r="O73" s="23">
-        <v>20.119</v>
-      </c>
-      <c r="P73" s="23">
-        <v>18.844999999999999</v>
-      </c>
-      <c r="Q73" s="23">
-        <v>24.495000000000001</v>
-      </c>
-      <c r="R73" s="23">
-        <v>27.148</v>
-      </c>
-      <c r="S73" s="23">
-        <v>29.007999999999999</v>
-      </c>
-      <c r="T73" s="23">
-        <v>27.475999999999999</v>
-      </c>
-      <c r="U73" s="23">
-        <v>43</v>
-      </c>
-      <c r="V73" s="23">
-        <v>43</v>
-      </c>
-      <c r="W73" s="39"/>
-    </row>
-    <row r="74" spans="2:23" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X72" s="35"/>
+      <c r="Y72" s="35"/>
+      <c r="Z72" s="35"/>
+      <c r="AA72" s="35"/>
+      <c r="AB72" s="35"/>
+      <c r="AC72" s="35"/>
+      <c r="AD72" s="35"/>
+      <c r="AE72" s="35"/>
+    </row>
+    <row r="73" spans="2:31" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B73" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="D73" s="55"/>
+      <c r="F73" s="55"/>
+      <c r="H73" s="55"/>
+      <c r="J73" s="55"/>
+      <c r="L73" s="55"/>
+      <c r="O73" s="22">
+        <f>435.142+16.041</f>
+        <v>451.18299999999999</v>
+      </c>
+      <c r="P73" s="22">
+        <f>17.886+543.725</f>
+        <v>561.61099999999999</v>
+      </c>
+      <c r="Q73" s="22">
+        <f>558.426+19.209</f>
+        <v>577.63499999999999</v>
+      </c>
+      <c r="R73" s="22">
+        <v>562.94100000000003</v>
+      </c>
+      <c r="S73" s="22">
+        <v>561.41800000000001</v>
+      </c>
+      <c r="T73" s="22">
+        <v>723.73599999999999</v>
+      </c>
+      <c r="U73" s="22">
+        <v>950</v>
+      </c>
+      <c r="V73" s="22">
+        <v>873</v>
+      </c>
+      <c r="W73" s="69"/>
+      <c r="X73" s="103"/>
+      <c r="Y73" s="103"/>
+      <c r="Z73" s="103"/>
+      <c r="AA73" s="103"/>
+      <c r="AB73" s="103"/>
+      <c r="AC73" s="103"/>
+      <c r="AD73" s="103"/>
+      <c r="AE73" s="103"/>
+    </row>
+    <row r="74" spans="2:31" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B74" s="23" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D74" s="56"/>
       <c r="F74" s="56"/>
@@ -4662,34 +6240,47 @@
       <c r="J74" s="56"/>
       <c r="L74" s="56"/>
       <c r="O74" s="23">
-        <v>2.0470000000000002</v>
+        <f>4.252+66.544</f>
+        <v>70.795999999999992</v>
       </c>
       <c r="P74" s="23">
-        <v>0.92200000000000004</v>
+        <f>76.961+6.469</f>
+        <v>83.429999999999993</v>
       </c>
       <c r="Q74" s="23">
-        <v>0.379</v>
+        <f>7.306+87.13</f>
+        <v>94.435999999999993</v>
       </c>
       <c r="R74" s="23">
-        <v>0.374</v>
+        <f>92.891+7.104</f>
+        <v>99.995000000000005</v>
       </c>
       <c r="S74" s="23">
-        <v>0.76600000000000001</v>
+        <f>1146.233+0.171</f>
+        <v>1146.404</v>
       </c>
       <c r="T74" s="23">
-        <v>4.5110000000000001</v>
+        <v>1138.634</v>
       </c>
       <c r="U74" s="23">
-        <v>4</v>
+        <v>1140</v>
       </c>
       <c r="V74" s="23">
-        <v>3</v>
+        <v>1124</v>
       </c>
       <c r="W74" s="39"/>
-    </row>
-    <row r="75" spans="2:23" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X74" s="35"/>
+      <c r="Y74" s="35"/>
+      <c r="Z74" s="35"/>
+      <c r="AA74" s="35"/>
+      <c r="AB74" s="35"/>
+      <c r="AC74" s="35"/>
+      <c r="AD74" s="35"/>
+      <c r="AE74" s="35"/>
+    </row>
+    <row r="75" spans="2:31" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B75" s="23" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="D75" s="56"/>
       <c r="F75" s="56"/>
@@ -4697,80 +6288,85 @@
       <c r="J75" s="56"/>
       <c r="L75" s="56"/>
       <c r="O75" s="23">
-        <f t="shared" ref="O75:U75" si="55">SUM(O71:O74)</f>
-        <v>544.1450000000001</v>
+        <v>20.119</v>
       </c>
       <c r="P75" s="23">
-        <f t="shared" si="55"/>
-        <v>664.80799999999999</v>
+        <v>18.844999999999999</v>
       </c>
       <c r="Q75" s="23">
-        <f t="shared" si="55"/>
-        <v>696.94500000000005</v>
+        <v>24.495000000000001</v>
       </c>
       <c r="R75" s="23">
-        <f t="shared" si="55"/>
-        <v>690.45800000000008</v>
+        <v>27.148</v>
       </c>
       <c r="S75" s="23">
-        <f t="shared" si="55"/>
-        <v>1737.5960000000002</v>
+        <v>29.007999999999999</v>
       </c>
       <c r="T75" s="23">
-        <f t="shared" si="55"/>
-        <v>1894.357</v>
+        <v>27.475999999999999</v>
       </c>
       <c r="U75" s="23">
-        <f t="shared" si="55"/>
-        <v>2137</v>
+        <v>43</v>
       </c>
       <c r="V75" s="23">
-        <f>SUM(V71:V74)</f>
-        <v>2043</v>
+        <v>43</v>
       </c>
       <c r="W75" s="39"/>
-    </row>
-    <row r="76" spans="2:23" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B76" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="D76" s="55"/>
-      <c r="F76" s="55"/>
-      <c r="H76" s="55"/>
-      <c r="J76" s="55"/>
-      <c r="L76" s="55"/>
-      <c r="O76" s="22">
-        <v>0</v>
-      </c>
-      <c r="P76" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q76" s="22">
-        <f>47.212+6.112</f>
-        <v>53.324000000000005</v>
-      </c>
-      <c r="R76" s="22">
-        <f>5.646+124.272</f>
-        <v>129.91800000000001</v>
-      </c>
-      <c r="S76" s="22">
-        <f>0.928+211.062</f>
-        <v>211.99</v>
-      </c>
-      <c r="T76" s="22">
-        <v>6.875</v>
-      </c>
-      <c r="U76" s="22">
-        <v>6</v>
-      </c>
-      <c r="V76" s="22">
-        <v>81</v>
-      </c>
-      <c r="W76" s="69"/>
-    </row>
-    <row r="77" spans="2:23" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X75" s="35"/>
+      <c r="Y75" s="35"/>
+      <c r="Z75" s="35"/>
+      <c r="AA75" s="35"/>
+      <c r="AB75" s="35"/>
+      <c r="AC75" s="35"/>
+      <c r="AD75" s="35"/>
+      <c r="AE75" s="35"/>
+    </row>
+    <row r="76" spans="2:31" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B76" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="D76" s="56"/>
+      <c r="F76" s="56"/>
+      <c r="H76" s="56"/>
+      <c r="J76" s="56"/>
+      <c r="L76" s="56"/>
+      <c r="O76" s="23">
+        <v>2.0470000000000002</v>
+      </c>
+      <c r="P76" s="23">
+        <v>0.92200000000000004</v>
+      </c>
+      <c r="Q76" s="23">
+        <v>0.379</v>
+      </c>
+      <c r="R76" s="23">
+        <v>0.374</v>
+      </c>
+      <c r="S76" s="23">
+        <v>0.76600000000000001</v>
+      </c>
+      <c r="T76" s="23">
+        <v>4.5110000000000001</v>
+      </c>
+      <c r="U76" s="23">
+        <v>4</v>
+      </c>
+      <c r="V76" s="23">
+        <v>3</v>
+      </c>
+      <c r="W76" s="39"/>
+      <c r="X76" s="35"/>
+      <c r="Y76" s="35"/>
+      <c r="Z76" s="35"/>
+      <c r="AA76" s="35"/>
+      <c r="AB76" s="35"/>
+      <c r="AC76" s="35"/>
+      <c r="AD76" s="35"/>
+      <c r="AE76" s="35"/>
+    </row>
+    <row r="77" spans="2:31" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B77" s="23" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="D77" s="56"/>
       <c r="F77" s="56"/>
@@ -4778,69 +6374,96 @@
       <c r="J77" s="56"/>
       <c r="L77" s="56"/>
       <c r="O77" s="23">
-        <v>189.74299999999999</v>
+        <f t="shared" ref="O77:U77" si="84">SUM(O73:O76)</f>
+        <v>544.1450000000001</v>
       </c>
       <c r="P77" s="23">
-        <v>267.815</v>
+        <f t="shared" si="84"/>
+        <v>664.80799999999999</v>
       </c>
       <c r="Q77" s="23">
-        <v>336.072</v>
+        <f t="shared" si="84"/>
+        <v>696.94500000000005</v>
       </c>
       <c r="R77" s="23">
-        <v>395.96600000000001</v>
+        <f t="shared" si="84"/>
+        <v>690.45800000000008</v>
       </c>
       <c r="S77" s="23">
-        <v>419.99900000000002</v>
+        <f t="shared" si="84"/>
+        <v>1737.5960000000002</v>
       </c>
       <c r="T77" s="23">
-        <v>524.26</v>
+        <f t="shared" si="84"/>
+        <v>1894.357</v>
       </c>
       <c r="U77" s="23">
-        <v>564</v>
+        <f t="shared" si="84"/>
+        <v>2137</v>
       </c>
       <c r="V77" s="23">
-        <v>541</v>
+        <f>SUM(V73:V76)</f>
+        <v>2043</v>
       </c>
       <c r="W77" s="39"/>
-    </row>
-    <row r="78" spans="2:23" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B78" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="D78" s="56"/>
-      <c r="F78" s="56"/>
-      <c r="H78" s="56"/>
-      <c r="J78" s="56"/>
-      <c r="L78" s="56"/>
-      <c r="O78" s="23">
-        <v>1.119</v>
-      </c>
-      <c r="P78" s="23">
-        <v>0.99399999999999999</v>
-      </c>
-      <c r="Q78" s="23">
-        <v>1.87</v>
-      </c>
-      <c r="R78" s="23">
-        <v>3.63</v>
-      </c>
-      <c r="S78" s="23">
-        <v>149.011</v>
-      </c>
-      <c r="T78" s="23">
-        <v>162.73500000000001</v>
-      </c>
-      <c r="U78" s="23">
-        <v>170</v>
-      </c>
-      <c r="V78" s="23">
-        <v>177</v>
-      </c>
-      <c r="W78" s="39"/>
-    </row>
-    <row r="79" spans="2:23" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X77" s="35"/>
+      <c r="Y77" s="35"/>
+      <c r="Z77" s="35"/>
+      <c r="AA77" s="35"/>
+      <c r="AB77" s="35"/>
+      <c r="AC77" s="35"/>
+      <c r="AD77" s="35"/>
+      <c r="AE77" s="35"/>
+    </row>
+    <row r="78" spans="2:31" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B78" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="D78" s="55"/>
+      <c r="F78" s="55"/>
+      <c r="H78" s="55"/>
+      <c r="J78" s="55"/>
+      <c r="L78" s="55"/>
+      <c r="O78" s="22">
+        <v>0</v>
+      </c>
+      <c r="P78" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q78" s="22">
+        <f>47.212+6.112</f>
+        <v>53.324000000000005</v>
+      </c>
+      <c r="R78" s="22">
+        <f>5.646+124.272</f>
+        <v>129.91800000000001</v>
+      </c>
+      <c r="S78" s="22">
+        <f>0.928+211.062</f>
+        <v>211.99</v>
+      </c>
+      <c r="T78" s="22">
+        <v>6.875</v>
+      </c>
+      <c r="U78" s="22">
+        <v>6</v>
+      </c>
+      <c r="V78" s="22">
+        <v>81</v>
+      </c>
+      <c r="W78" s="69"/>
+      <c r="X78" s="103"/>
+      <c r="Y78" s="103"/>
+      <c r="Z78" s="103"/>
+      <c r="AA78" s="103"/>
+      <c r="AB78" s="103"/>
+      <c r="AC78" s="103"/>
+      <c r="AD78" s="103"/>
+      <c r="AE78" s="103"/>
+    </row>
+    <row r="79" spans="2:31" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B79" s="23" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D79" s="56"/>
       <c r="F79" s="56"/>
@@ -4848,35 +6471,42 @@
       <c r="J79" s="56"/>
       <c r="L79" s="56"/>
       <c r="O79" s="23">
-        <v>0.48699999999999999</v>
+        <v>189.74299999999999</v>
       </c>
       <c r="P79" s="23">
-        <v>2.0699999999999998</v>
+        <v>267.815</v>
       </c>
       <c r="Q79" s="23">
-        <v>16.666</v>
+        <v>336.072</v>
       </c>
       <c r="R79" s="23">
-        <v>13.731</v>
+        <v>395.96600000000001</v>
       </c>
       <c r="S79" s="23">
-        <f>150.087+1.847</f>
-        <v>151.934</v>
+        <v>419.99900000000002</v>
       </c>
       <c r="T79" s="23">
-        <v>16.140999999999998</v>
+        <v>524.26</v>
       </c>
       <c r="U79" s="23">
-        <v>0</v>
+        <v>564</v>
       </c>
       <c r="V79" s="23">
-        <v>13</v>
+        <v>541</v>
       </c>
       <c r="W79" s="39"/>
-    </row>
-    <row r="80" spans="2:23" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X79" s="35"/>
+      <c r="Y79" s="35"/>
+      <c r="Z79" s="35"/>
+      <c r="AA79" s="35"/>
+      <c r="AB79" s="35"/>
+      <c r="AC79" s="35"/>
+      <c r="AD79" s="35"/>
+      <c r="AE79" s="35"/>
+    </row>
+    <row r="80" spans="2:31" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B80" s="23" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D80" s="56"/>
       <c r="F80" s="56"/>
@@ -4884,34 +6514,42 @@
       <c r="J80" s="56"/>
       <c r="L80" s="56"/>
       <c r="O80" s="23">
-        <v>10.29</v>
+        <v>1.119</v>
       </c>
       <c r="P80" s="23">
-        <v>19.338999999999999</v>
+        <v>0.99399999999999999</v>
       </c>
       <c r="Q80" s="23">
-        <v>19.677</v>
+        <v>1.87</v>
       </c>
       <c r="R80" s="23">
-        <v>23.196999999999999</v>
+        <v>3.63</v>
       </c>
       <c r="S80" s="23">
-        <v>26.114999999999998</v>
+        <v>149.011</v>
       </c>
       <c r="T80" s="23">
-        <v>12.510999999999999</v>
+        <v>162.73500000000001</v>
       </c>
       <c r="U80" s="23">
-        <v>4</v>
+        <v>170</v>
       </c>
       <c r="V80" s="23">
-        <v>6</v>
+        <v>177</v>
       </c>
       <c r="W80" s="39"/>
-    </row>
-    <row r="81" spans="2:23" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X80" s="35"/>
+      <c r="Y80" s="35"/>
+      <c r="Z80" s="35"/>
+      <c r="AA80" s="35"/>
+      <c r="AB80" s="35"/>
+      <c r="AC80" s="35"/>
+      <c r="AD80" s="35"/>
+      <c r="AE80" s="35"/>
+    </row>
+    <row r="81" spans="2:31" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B81" s="23" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D81" s="56"/>
       <c r="F81" s="56"/>
@@ -4919,34 +6557,43 @@
       <c r="J81" s="56"/>
       <c r="L81" s="56"/>
       <c r="O81" s="23">
-        <v>4.7690000000000001</v>
+        <v>0.48699999999999999</v>
       </c>
       <c r="P81" s="23">
-        <v>4.8689999999999998</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="Q81" s="23">
-        <v>6.2930000000000001</v>
+        <v>16.666</v>
       </c>
       <c r="R81" s="23">
-        <v>6.718</v>
+        <v>13.731</v>
       </c>
       <c r="S81" s="23">
-        <v>6.0789999999999997</v>
+        <f>150.087+1.847</f>
+        <v>151.934</v>
       </c>
       <c r="T81" s="23">
-        <v>8.6069999999999993</v>
+        <v>16.140999999999998</v>
       </c>
       <c r="U81" s="23">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="V81" s="23">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="W81" s="39"/>
-    </row>
-    <row r="82" spans="2:23" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X81" s="35"/>
+      <c r="Y81" s="35"/>
+      <c r="Z81" s="35"/>
+      <c r="AA81" s="35"/>
+      <c r="AB81" s="35"/>
+      <c r="AC81" s="35"/>
+      <c r="AD81" s="35"/>
+      <c r="AE81" s="35"/>
+    </row>
+    <row r="82" spans="2:31" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B82" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D82" s="56"/>
       <c r="F82" s="56"/>
@@ -4954,50 +6601,85 @@
       <c r="J82" s="56"/>
       <c r="L82" s="56"/>
       <c r="O82" s="23">
-        <f>SUM(O75:O81)</f>
-        <v>750.55300000000011</v>
+        <v>10.29</v>
       </c>
       <c r="P82" s="23">
-        <f t="shared" ref="P82:U82" si="56">SUM(P75:P81)</f>
-        <v>959.8950000000001</v>
+        <v>19.338999999999999</v>
       </c>
       <c r="Q82" s="23">
-        <f t="shared" si="56"/>
-        <v>1130.8469999999995</v>
+        <v>19.677</v>
       </c>
       <c r="R82" s="23">
-        <f t="shared" si="56"/>
-        <v>1263.6180000000002</v>
+        <v>23.196999999999999</v>
       </c>
       <c r="S82" s="23">
-        <f t="shared" si="56"/>
-        <v>2702.7240000000002</v>
+        <v>26.114999999999998</v>
       </c>
       <c r="T82" s="23">
-        <f t="shared" si="56"/>
-        <v>2625.4860000000003</v>
+        <v>12.510999999999999</v>
       </c>
       <c r="U82" s="23">
-        <f t="shared" si="56"/>
-        <v>2892</v>
+        <v>4</v>
       </c>
       <c r="V82" s="23">
-        <f>SUM(V75:V81)</f>
-        <v>2867</v>
+        <v>6</v>
       </c>
       <c r="W82" s="39"/>
-    </row>
-    <row r="83" spans="2:23" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X82" s="35"/>
+      <c r="Y82" s="35"/>
+      <c r="Z82" s="35"/>
+      <c r="AA82" s="35"/>
+      <c r="AB82" s="35"/>
+      <c r="AC82" s="35"/>
+      <c r="AD82" s="35"/>
+      <c r="AE82" s="35"/>
+    </row>
+    <row r="83" spans="2:31" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B83" s="23" t="s">
+        <v>96</v>
+      </c>
       <c r="D83" s="56"/>
       <c r="F83" s="56"/>
       <c r="H83" s="56"/>
       <c r="J83" s="56"/>
       <c r="L83" s="56"/>
+      <c r="O83" s="23">
+        <v>4.7690000000000001</v>
+      </c>
+      <c r="P83" s="23">
+        <v>4.8689999999999998</v>
+      </c>
+      <c r="Q83" s="23">
+        <v>6.2930000000000001</v>
+      </c>
+      <c r="R83" s="23">
+        <v>6.718</v>
+      </c>
+      <c r="S83" s="23">
+        <v>6.0789999999999997</v>
+      </c>
+      <c r="T83" s="23">
+        <v>8.6069999999999993</v>
+      </c>
+      <c r="U83" s="23">
+        <v>11</v>
+      </c>
+      <c r="V83" s="23">
+        <v>6</v>
+      </c>
       <c r="W83" s="39"/>
-    </row>
-    <row r="84" spans="2:23" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X83" s="35"/>
+      <c r="Y83" s="35"/>
+      <c r="Z83" s="35"/>
+      <c r="AA83" s="35"/>
+      <c r="AB83" s="35"/>
+      <c r="AC83" s="35"/>
+      <c r="AD83" s="35"/>
+      <c r="AE83" s="35"/>
+    </row>
+    <row r="84" spans="2:31" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B84" s="23" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D84" s="56"/>
       <c r="F84" s="56"/>
@@ -5005,85 +6687,109 @@
       <c r="J84" s="56"/>
       <c r="L84" s="56"/>
       <c r="O84" s="23">
-        <v>814.35</v>
+        <f>SUM(O77:O83)</f>
+        <v>750.55300000000011</v>
       </c>
       <c r="P84" s="23">
-        <v>813.62099999999998</v>
+        <f t="shared" ref="P84:U84" si="85">SUM(P77:P83)</f>
+        <v>959.8950000000001</v>
       </c>
       <c r="Q84" s="23">
-        <v>925.38499999999999</v>
+        <f t="shared" si="85"/>
+        <v>1130.8469999999995</v>
       </c>
       <c r="R84" s="23">
-        <v>1068.241</v>
+        <f t="shared" si="85"/>
+        <v>1263.6180000000002</v>
       </c>
       <c r="S84" s="23">
-        <v>867.399</v>
+        <f t="shared" si="85"/>
+        <v>2702.7240000000002</v>
       </c>
       <c r="T84" s="23">
-        <v>732.96799999999996</v>
+        <f t="shared" si="85"/>
+        <v>2625.4860000000003</v>
       </c>
       <c r="U84" s="23">
-        <v>746</v>
+        <f t="shared" si="85"/>
+        <v>2892</v>
       </c>
       <c r="V84" s="23">
-        <v>720</v>
+        <f>SUM(V77:V83)</f>
+        <v>2867</v>
       </c>
       <c r="W84" s="39"/>
-    </row>
-    <row r="85" spans="2:23" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B85" s="23" t="s">
-        <v>100</v>
-      </c>
+      <c r="X84" s="35"/>
+      <c r="Y84" s="35"/>
+      <c r="Z84" s="35"/>
+      <c r="AA84" s="35"/>
+      <c r="AB84" s="35"/>
+      <c r="AC84" s="35"/>
+      <c r="AD84" s="35"/>
+      <c r="AE84" s="35"/>
+    </row>
+    <row r="85" spans="2:31" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D85" s="56"/>
       <c r="F85" s="56"/>
       <c r="H85" s="56"/>
       <c r="J85" s="56"/>
       <c r="L85" s="56"/>
-      <c r="O85" s="23">
-        <f t="shared" ref="O85:P85" si="57">+O84+O82</f>
-        <v>1564.9030000000002</v>
-      </c>
-      <c r="P85" s="23">
-        <f t="shared" si="57"/>
-        <v>1773.5160000000001</v>
-      </c>
-      <c r="Q85" s="23">
-        <f t="shared" ref="Q85:V85" si="58">+Q84+Q82</f>
-        <v>2056.2319999999995</v>
-      </c>
-      <c r="R85" s="23">
-        <f t="shared" si="58"/>
-        <v>2331.8590000000004</v>
-      </c>
-      <c r="S85" s="23">
-        <f t="shared" si="58"/>
-        <v>3570.123</v>
-      </c>
-      <c r="T85" s="23">
-        <f t="shared" si="58"/>
-        <v>3358.4540000000002</v>
-      </c>
-      <c r="U85" s="23">
-        <f t="shared" si="58"/>
-        <v>3638</v>
-      </c>
-      <c r="V85" s="23">
-        <f t="shared" si="58"/>
-        <v>3587</v>
-      </c>
       <c r="W85" s="39"/>
-    </row>
-    <row r="86" spans="2:23" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X85" s="35"/>
+      <c r="Y85" s="35"/>
+      <c r="Z85" s="35"/>
+      <c r="AA85" s="35"/>
+      <c r="AB85" s="35"/>
+      <c r="AC85" s="35"/>
+      <c r="AD85" s="35"/>
+      <c r="AE85" s="35"/>
+    </row>
+    <row r="86" spans="2:31" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B86" s="23" t="s">
+        <v>99</v>
+      </c>
       <c r="D86" s="56"/>
       <c r="F86" s="56"/>
       <c r="H86" s="56"/>
       <c r="J86" s="56"/>
       <c r="L86" s="56"/>
+      <c r="O86" s="23">
+        <v>814.35</v>
+      </c>
+      <c r="P86" s="23">
+        <v>813.62099999999998</v>
+      </c>
+      <c r="Q86" s="23">
+        <v>925.38499999999999</v>
+      </c>
+      <c r="R86" s="23">
+        <v>1068.241</v>
+      </c>
+      <c r="S86" s="23">
+        <v>867.399</v>
+      </c>
+      <c r="T86" s="23">
+        <v>732.96799999999996</v>
+      </c>
+      <c r="U86" s="23">
+        <v>746</v>
+      </c>
+      <c r="V86" s="23">
+        <v>720</v>
+      </c>
       <c r="W86" s="39"/>
-    </row>
-    <row r="87" spans="2:23" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X86" s="35"/>
+      <c r="Y86" s="35"/>
+      <c r="Z86" s="35"/>
+      <c r="AA86" s="35"/>
+      <c r="AB86" s="35"/>
+      <c r="AC86" s="35"/>
+      <c r="AD86" s="35"/>
+      <c r="AE86" s="35"/>
+    </row>
+    <row r="87" spans="2:31" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B87" s="23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D87" s="56"/>
       <c r="F87" s="56"/>
@@ -5091,179 +6797,184 @@
       <c r="J87" s="56"/>
       <c r="L87" s="56"/>
       <c r="O87" s="23">
-        <f t="shared" ref="O87:P87" si="59">O69-O82</f>
-        <v>814.34999999999945</v>
+        <f t="shared" ref="O87:P87" si="86">+O86+O84</f>
+        <v>1564.9030000000002</v>
       </c>
       <c r="P87" s="23">
-        <f t="shared" si="59"/>
-        <v>813.58100000000002</v>
+        <f t="shared" si="86"/>
+        <v>1773.5160000000001</v>
       </c>
       <c r="Q87" s="23">
-        <f t="shared" ref="Q87:S87" si="60">Q69-Q82</f>
-        <v>926.01500000000055</v>
+        <f t="shared" ref="Q87:V87" si="87">+Q86+Q84</f>
+        <v>2056.2319999999995</v>
       </c>
       <c r="R87" s="23">
-        <f t="shared" si="60"/>
-        <v>1068.2409999999998</v>
+        <f t="shared" si="87"/>
+        <v>2331.8590000000004</v>
       </c>
       <c r="S87" s="23">
-        <f t="shared" si="60"/>
-        <v>867.39899999999943</v>
+        <f t="shared" si="87"/>
+        <v>3570.123</v>
       </c>
       <c r="T87" s="23">
-        <f t="shared" ref="T87" si="61">T69-T82</f>
-        <v>732.96799999999848</v>
+        <f t="shared" si="87"/>
+        <v>3358.4540000000002</v>
       </c>
       <c r="U87" s="23">
-        <f t="shared" ref="U87" si="62">U69-U82</f>
-        <v>746</v>
+        <f t="shared" si="87"/>
+        <v>3638</v>
       </c>
       <c r="V87" s="23">
-        <f>V69-V82</f>
-        <v>720</v>
+        <f t="shared" si="87"/>
+        <v>3587</v>
       </c>
       <c r="W87" s="39"/>
-    </row>
-    <row r="88" spans="2:23" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B88" s="38" t="s">
-        <v>102</v>
-      </c>
-      <c r="D88" s="60"/>
-      <c r="F88" s="60"/>
-      <c r="H88" s="60"/>
-      <c r="J88" s="60"/>
-      <c r="L88" s="60"/>
-      <c r="O88" s="38">
-        <f t="shared" ref="O88" si="63">O87/O22</f>
-        <v>0.81396336740048425</v>
-      </c>
-      <c r="P88" s="38">
-        <f t="shared" ref="P88" si="64">P87/P22</f>
-        <v>0.81346060783004115</v>
-      </c>
-      <c r="Q88" s="38">
-        <f t="shared" ref="Q88" si="65">Q87/Q22</f>
-        <v>0.92541255642576747</v>
-      </c>
-      <c r="R88" s="38">
-        <f t="shared" ref="R88" si="66">R87/R22</f>
-        <v>1.067158900874513</v>
-      </c>
-      <c r="S88" s="38">
-        <f t="shared" ref="S88" si="67">S87/S22</f>
-        <v>0.86690486422738977</v>
-      </c>
-      <c r="T88" s="38">
-        <f t="shared" ref="T88" si="68">T87/T22</f>
-        <v>0.73245894103597842</v>
-      </c>
-      <c r="U88" s="38">
-        <f>U87/U22</f>
-        <v>0.74520933289779545</v>
-      </c>
-      <c r="V88" s="38">
-        <f>V87/V22</f>
-        <v>0.71885486420132727</v>
-      </c>
-      <c r="W88" s="72"/>
-    </row>
-    <row r="89" spans="2:23" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X87" s="35"/>
+      <c r="Y87" s="35"/>
+      <c r="Z87" s="35"/>
+      <c r="AA87" s="35"/>
+      <c r="AB87" s="35"/>
+      <c r="AC87" s="35"/>
+      <c r="AD87" s="35"/>
+      <c r="AE87" s="35"/>
+    </row>
+    <row r="88" spans="2:31" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D88" s="56"/>
+      <c r="F88" s="56"/>
+      <c r="H88" s="56"/>
+      <c r="J88" s="56"/>
+      <c r="L88" s="56"/>
+      <c r="W88" s="39"/>
+      <c r="X88" s="35"/>
+      <c r="Y88" s="35"/>
+      <c r="Z88" s="35"/>
+      <c r="AA88" s="35"/>
+      <c r="AB88" s="35"/>
+      <c r="AC88" s="35"/>
+      <c r="AD88" s="35"/>
+      <c r="AE88" s="35"/>
+    </row>
+    <row r="89" spans="2:31" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B89" s="23" t="s">
+        <v>101</v>
+      </c>
       <c r="D89" s="56"/>
       <c r="F89" s="56"/>
       <c r="H89" s="56"/>
       <c r="J89" s="56"/>
       <c r="L89" s="56"/>
+      <c r="O89" s="23">
+        <f t="shared" ref="O89:P89" si="88">O71-O84</f>
+        <v>814.34999999999945</v>
+      </c>
+      <c r="P89" s="23">
+        <f t="shared" si="88"/>
+        <v>813.58100000000002</v>
+      </c>
+      <c r="Q89" s="23">
+        <f t="shared" ref="Q89:S89" si="89">Q71-Q84</f>
+        <v>926.01500000000055</v>
+      </c>
+      <c r="R89" s="23">
+        <f t="shared" si="89"/>
+        <v>1068.2409999999998</v>
+      </c>
+      <c r="S89" s="23">
+        <f t="shared" si="89"/>
+        <v>867.39899999999943</v>
+      </c>
+      <c r="T89" s="23">
+        <f t="shared" ref="T89" si="90">T71-T84</f>
+        <v>732.96799999999848</v>
+      </c>
+      <c r="U89" s="23">
+        <f t="shared" ref="U89" si="91">U71-U84</f>
+        <v>746</v>
+      </c>
+      <c r="V89" s="23">
+        <f>V71-V84</f>
+        <v>720</v>
+      </c>
       <c r="W89" s="39"/>
-    </row>
-    <row r="90" spans="2:23" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="D90" s="56"/>
-      <c r="F90" s="56"/>
-      <c r="H90" s="56"/>
-      <c r="J90" s="56"/>
-      <c r="L90" s="56"/>
-      <c r="O90" s="23">
-        <f t="shared" ref="O90:P90" si="69">+O64+O68</f>
-        <v>95.917000000000002</v>
-      </c>
-      <c r="P90" s="23">
-        <f t="shared" si="69"/>
-        <v>155.92099999999999</v>
-      </c>
-      <c r="Q90" s="23">
-        <f t="shared" ref="Q90:R90" si="70">+Q64+Q68</f>
-        <v>90.816000000000003</v>
-      </c>
-      <c r="R90" s="23">
-        <f t="shared" si="70"/>
-        <v>89.983000000000004</v>
-      </c>
-      <c r="S90" s="23">
-        <f t="shared" ref="S90" si="71">+S64+S68</f>
-        <v>444.90699999999998</v>
-      </c>
-      <c r="T90" s="23">
-        <f t="shared" ref="T90" si="72">+T64+T68</f>
-        <v>221.44899999999998</v>
-      </c>
-      <c r="U90" s="23">
-        <f t="shared" ref="U90" si="73">+U64+U68</f>
-        <v>198</v>
-      </c>
-      <c r="V90" s="23">
-        <f>+V64+V68</f>
-        <v>238</v>
-      </c>
-      <c r="W90" s="39"/>
-    </row>
-    <row r="91" spans="2:23" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B91" s="23" t="s">
-        <v>6</v>
-      </c>
+      <c r="X89" s="35"/>
+      <c r="Y89" s="35"/>
+      <c r="Z89" s="35"/>
+      <c r="AA89" s="35"/>
+      <c r="AB89" s="35"/>
+      <c r="AC89" s="35"/>
+      <c r="AD89" s="35"/>
+      <c r="AE89" s="35"/>
+    </row>
+    <row r="90" spans="2:31" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B90" s="38" t="s">
+        <v>102</v>
+      </c>
+      <c r="D90" s="60"/>
+      <c r="F90" s="60"/>
+      <c r="H90" s="60"/>
+      <c r="J90" s="60"/>
+      <c r="L90" s="60"/>
+      <c r="O90" s="38">
+        <f>O89/O22</f>
+        <v>0.81396336740048425</v>
+      </c>
+      <c r="P90" s="38">
+        <f>P89/P22</f>
+        <v>0.81346060783004115</v>
+      </c>
+      <c r="Q90" s="38">
+        <f>Q89/Q22</f>
+        <v>0.92541255642576747</v>
+      </c>
+      <c r="R90" s="38">
+        <f>R89/R22</f>
+        <v>1.067158900874513</v>
+      </c>
+      <c r="S90" s="38">
+        <f>S89/S22</f>
+        <v>0.86690486422738977</v>
+      </c>
+      <c r="T90" s="38">
+        <f>T89/T22</f>
+        <v>0.73245894103597842</v>
+      </c>
+      <c r="U90" s="38">
+        <f>U89/U22</f>
+        <v>0.74520933289779545</v>
+      </c>
+      <c r="V90" s="38">
+        <f>V89/V22</f>
+        <v>0.71885486420132727</v>
+      </c>
+      <c r="W90" s="72"/>
+      <c r="X90" s="113"/>
+      <c r="Y90" s="113"/>
+      <c r="Z90" s="113"/>
+      <c r="AA90" s="113"/>
+      <c r="AB90" s="113"/>
+      <c r="AC90" s="113"/>
+      <c r="AD90" s="113"/>
+      <c r="AE90" s="113"/>
+    </row>
+    <row r="91" spans="2:31" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D91" s="56"/>
       <c r="F91" s="56"/>
       <c r="H91" s="56"/>
       <c r="J91" s="56"/>
       <c r="L91" s="56"/>
-      <c r="O91" s="23">
-        <f t="shared" ref="O91:P91" si="74">+O71+O76</f>
-        <v>451.18299999999999</v>
-      </c>
-      <c r="P91" s="23">
-        <f t="shared" si="74"/>
-        <v>561.61099999999999</v>
-      </c>
-      <c r="Q91" s="23">
-        <f t="shared" ref="Q91:R91" si="75">+Q71+Q76</f>
-        <v>630.95899999999995</v>
-      </c>
-      <c r="R91" s="23">
-        <f t="shared" si="75"/>
-        <v>692.85900000000004</v>
-      </c>
-      <c r="S91" s="23">
-        <f t="shared" ref="S91" si="76">+S71+S76</f>
-        <v>773.40800000000002</v>
-      </c>
-      <c r="T91" s="23">
-        <f t="shared" ref="T91" si="77">+T71+T76</f>
-        <v>730.61099999999999</v>
-      </c>
-      <c r="U91" s="23">
-        <f t="shared" ref="U91" si="78">+U71+U76</f>
-        <v>956</v>
-      </c>
-      <c r="V91" s="23">
-        <f>+V71+V76</f>
-        <v>954</v>
-      </c>
       <c r="W91" s="39"/>
-    </row>
-    <row r="92" spans="2:23" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X91" s="35"/>
+      <c r="Y91" s="35"/>
+      <c r="Z91" s="35"/>
+      <c r="AA91" s="35"/>
+      <c r="AB91" s="35"/>
+      <c r="AC91" s="35"/>
+      <c r="AD91" s="35"/>
+      <c r="AE91" s="35"/>
+    </row>
+    <row r="92" spans="2:31" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B92" s="23" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D92" s="56"/>
       <c r="F92" s="56"/>
@@ -5271,382 +6982,446 @@
       <c r="J92" s="56"/>
       <c r="L92" s="56"/>
       <c r="O92" s="23">
-        <f t="shared" ref="O92:U92" si="79">O90-O91</f>
-        <v>-355.26599999999996</v>
+        <f t="shared" ref="O92:P92" si="92">+O66+O70</f>
+        <v>95.917000000000002</v>
       </c>
       <c r="P92" s="23">
-        <f t="shared" si="79"/>
-        <v>-405.69</v>
+        <f t="shared" si="92"/>
+        <v>155.92099999999999</v>
       </c>
       <c r="Q92" s="23">
-        <f t="shared" si="79"/>
-        <v>-540.14299999999992</v>
+        <f t="shared" ref="Q92:R92" si="93">+Q66+Q70</f>
+        <v>90.816000000000003</v>
       </c>
       <c r="R92" s="23">
-        <f t="shared" si="79"/>
-        <v>-602.87599999999998</v>
+        <f t="shared" si="93"/>
+        <v>89.983000000000004</v>
       </c>
       <c r="S92" s="23">
-        <f t="shared" si="79"/>
-        <v>-328.50100000000003</v>
+        <f t="shared" ref="S92" si="94">+S66+S70</f>
+        <v>444.90699999999998</v>
       </c>
       <c r="T92" s="23">
-        <f t="shared" si="79"/>
-        <v>-509.16200000000003</v>
+        <f t="shared" ref="T92" si="95">+T66+T70</f>
+        <v>221.44899999999998</v>
       </c>
       <c r="U92" s="23">
-        <f t="shared" si="79"/>
-        <v>-758</v>
+        <f t="shared" ref="U92" si="96">+U66+U70</f>
+        <v>198</v>
       </c>
       <c r="V92" s="23">
-        <f>V90-V91</f>
-        <v>-716</v>
+        <f>+V66+V70</f>
+        <v>238</v>
       </c>
       <c r="W92" s="39"/>
-    </row>
-    <row r="93" spans="2:23" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X92" s="35"/>
+      <c r="Y92" s="35"/>
+      <c r="Z92" s="35"/>
+      <c r="AA92" s="35"/>
+      <c r="AB92" s="35"/>
+      <c r="AC92" s="35"/>
+      <c r="AD92" s="35"/>
+      <c r="AE92" s="35"/>
+    </row>
+    <row r="93" spans="2:31" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B93" s="23" t="s">
+        <v>6</v>
+      </c>
       <c r="D93" s="56"/>
       <c r="F93" s="56"/>
       <c r="H93" s="56"/>
       <c r="J93" s="56"/>
       <c r="L93" s="56"/>
+      <c r="O93" s="23">
+        <f t="shared" ref="O93:P93" si="97">+O73+O78</f>
+        <v>451.18299999999999</v>
+      </c>
+      <c r="P93" s="23">
+        <f t="shared" si="97"/>
+        <v>561.61099999999999</v>
+      </c>
+      <c r="Q93" s="23">
+        <f t="shared" ref="Q93:R93" si="98">+Q73+Q78</f>
+        <v>630.95899999999995</v>
+      </c>
+      <c r="R93" s="23">
+        <f t="shared" si="98"/>
+        <v>692.85900000000004</v>
+      </c>
+      <c r="S93" s="23">
+        <f t="shared" ref="S93" si="99">+S73+S78</f>
+        <v>773.40800000000002</v>
+      </c>
+      <c r="T93" s="23">
+        <f t="shared" ref="T93" si="100">+T73+T78</f>
+        <v>730.61099999999999</v>
+      </c>
+      <c r="U93" s="23">
+        <f t="shared" ref="U93" si="101">+U73+U78</f>
+        <v>956</v>
+      </c>
+      <c r="V93" s="23">
+        <f>+V73+V78</f>
+        <v>954</v>
+      </c>
       <c r="W93" s="39"/>
-    </row>
-    <row r="94" spans="2:23" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B94" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="D94" s="55"/>
-      <c r="F94" s="55"/>
-      <c r="H94" s="55"/>
-      <c r="J94" s="55"/>
-      <c r="L94" s="55"/>
-      <c r="O94" s="37" t="s">
-        <v>73</v>
-      </c>
-      <c r="P94" s="28">
-        <f t="shared" ref="P94:S94" si="80">P65/O65-1</f>
-        <v>0.29695042546981298</v>
-      </c>
-      <c r="Q94" s="28">
-        <f t="shared" si="80"/>
-        <v>0.20897431181145976</v>
-      </c>
-      <c r="R94" s="28">
-        <f t="shared" si="80"/>
-        <v>0.20052444110329515</v>
-      </c>
-      <c r="S94" s="28">
-        <f t="shared" si="80"/>
-        <v>-0.12333145972766624</v>
-      </c>
-      <c r="T94" s="28">
-        <f>T65/S65-1</f>
-        <v>2.9125850340135928E-2</v>
-      </c>
-      <c r="U94" s="28">
-        <f>U65/T65-1</f>
-        <v>0.42614926478121928</v>
-      </c>
-      <c r="V94" s="28">
-        <f>V65/U65-1</f>
-        <v>-0.11471610660486675</v>
-      </c>
-      <c r="W94" s="69"/>
-    </row>
-    <row r="95" spans="2:23" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B95" s="23" t="s">
-        <v>104</v>
-      </c>
+      <c r="X93" s="35"/>
+      <c r="Y93" s="35"/>
+      <c r="Z93" s="35"/>
+      <c r="AA93" s="35"/>
+      <c r="AB93" s="35"/>
+      <c r="AC93" s="35"/>
+      <c r="AD93" s="35"/>
+      <c r="AE93" s="35"/>
+    </row>
+    <row r="94" spans="2:31" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B94" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D94" s="56"/>
+      <c r="F94" s="56"/>
+      <c r="H94" s="56"/>
+      <c r="J94" s="56"/>
+      <c r="L94" s="56"/>
+      <c r="O94" s="23">
+        <f t="shared" ref="O94:U94" si="102">O92-O93</f>
+        <v>-355.26599999999996</v>
+      </c>
+      <c r="P94" s="23">
+        <f t="shared" si="102"/>
+        <v>-405.69</v>
+      </c>
+      <c r="Q94" s="23">
+        <f t="shared" si="102"/>
+        <v>-540.14299999999992</v>
+      </c>
+      <c r="R94" s="23">
+        <f t="shared" si="102"/>
+        <v>-602.87599999999998</v>
+      </c>
+      <c r="S94" s="23">
+        <f t="shared" si="102"/>
+        <v>-328.50100000000003</v>
+      </c>
+      <c r="T94" s="23">
+        <f t="shared" si="102"/>
+        <v>-509.16200000000003</v>
+      </c>
+      <c r="U94" s="23">
+        <f t="shared" si="102"/>
+        <v>-758</v>
+      </c>
+      <c r="V94" s="23">
+        <f>V92-V93</f>
+        <v>-716</v>
+      </c>
+      <c r="W94" s="39"/>
+      <c r="X94" s="35"/>
+      <c r="Y94" s="35"/>
+      <c r="Z94" s="35"/>
+      <c r="AA94" s="35"/>
+      <c r="AB94" s="35"/>
+      <c r="AC94" s="35"/>
+      <c r="AD94" s="35"/>
+      <c r="AE94" s="35"/>
+    </row>
+    <row r="95" spans="2:31" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D95" s="56"/>
       <c r="F95" s="56"/>
       <c r="H95" s="56"/>
       <c r="J95" s="56"/>
       <c r="L95" s="56"/>
-      <c r="O95" s="37" t="s">
+      <c r="W95" s="39"/>
+      <c r="X95" s="35"/>
+      <c r="Y95" s="35"/>
+      <c r="Z95" s="35"/>
+      <c r="AA95" s="35"/>
+      <c r="AB95" s="35"/>
+      <c r="AC95" s="35"/>
+      <c r="AD95" s="35"/>
+      <c r="AE95" s="35"/>
+    </row>
+    <row r="96" spans="2:31" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B96" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="D96" s="55"/>
+      <c r="F96" s="55"/>
+      <c r="H96" s="55"/>
+      <c r="J96" s="55"/>
+      <c r="L96" s="55"/>
+      <c r="O96" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="P95" s="37" t="s">
+      <c r="P96" s="28">
+        <f t="shared" ref="P96:S96" si="103">P67/O67-1</f>
+        <v>0.29695042546981298</v>
+      </c>
+      <c r="Q96" s="28">
+        <f t="shared" si="103"/>
+        <v>0.20897431181145976</v>
+      </c>
+      <c r="R96" s="28">
+        <f t="shared" si="103"/>
+        <v>0.20052444110329515</v>
+      </c>
+      <c r="S96" s="28">
+        <f t="shared" si="103"/>
+        <v>-0.12333145972766624</v>
+      </c>
+      <c r="T96" s="28">
+        <f>T67/S67-1</f>
+        <v>2.9125850340135928E-2</v>
+      </c>
+      <c r="U96" s="28">
+        <f>U67/T67-1</f>
+        <v>0.42614926478121928</v>
+      </c>
+      <c r="V96" s="28">
+        <f>V67/U67-1</f>
+        <v>-0.11471610660486675</v>
+      </c>
+      <c r="W96" s="69"/>
+      <c r="X96" s="103"/>
+      <c r="Y96" s="103"/>
+      <c r="Z96" s="103"/>
+      <c r="AA96" s="103"/>
+      <c r="AB96" s="103"/>
+      <c r="AC96" s="103"/>
+      <c r="AD96" s="103"/>
+      <c r="AE96" s="103"/>
+    </row>
+    <row r="97" spans="2:31" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B97" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="D97" s="56"/>
+      <c r="F97" s="56"/>
+      <c r="H97" s="56"/>
+      <c r="J97" s="56"/>
+      <c r="L97" s="56"/>
+      <c r="O97" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="Q95" s="37" t="s">
+      <c r="P97" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="R95" s="37" t="s">
+      <c r="Q97" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="S95" s="37" t="s">
+      <c r="R97" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="T95" s="37" t="s">
+      <c r="S97" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="U95" s="37" t="s">
+      <c r="T97" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="V95" s="37" t="s">
+      <c r="U97" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="W95" s="39"/>
-    </row>
-    <row r="96" spans="2:23" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B96" s="23" t="s">
+      <c r="V97" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="W97" s="39"/>
+      <c r="X97" s="35"/>
+      <c r="Y97" s="35"/>
+      <c r="Z97" s="35"/>
+      <c r="AA97" s="35"/>
+      <c r="AB97" s="35"/>
+      <c r="AC97" s="35"/>
+      <c r="AD97" s="35"/>
+      <c r="AE97" s="35"/>
+    </row>
+    <row r="98" spans="2:31" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B98" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="D96" s="56"/>
-      <c r="F96" s="56"/>
-      <c r="H96" s="56"/>
-      <c r="J96" s="56"/>
-      <c r="L96" s="56"/>
-      <c r="O96" s="40">
-        <f t="shared" ref="O96:U96" si="81">O65/O4</f>
+      <c r="D98" s="56"/>
+      <c r="F98" s="56"/>
+      <c r="H98" s="56"/>
+      <c r="J98" s="56"/>
+      <c r="L98" s="56"/>
+      <c r="O98" s="40">
+        <f>O67/O4</f>
         <v>0.1750673738567326</v>
       </c>
-      <c r="P96" s="40">
-        <f t="shared" si="81"/>
+      <c r="P98" s="40">
+        <f>P67/P4</f>
         <v>0.19012079023804238</v>
       </c>
-      <c r="Q96" s="40">
-        <f t="shared" si="81"/>
+      <c r="Q98" s="40">
+        <f>Q67/Q4</f>
         <v>0.18439818839646949</v>
       </c>
-      <c r="R96" s="40">
-        <f t="shared" si="81"/>
+      <c r="R98" s="40">
+        <f>R67/R4</f>
         <v>0.1923879075063929</v>
       </c>
-      <c r="S96" s="40">
-        <f t="shared" si="81"/>
+      <c r="S98" s="40">
+        <f>S67/S4</f>
         <v>0.15419363416301571</v>
       </c>
-      <c r="T96" s="40">
-        <f t="shared" si="81"/>
+      <c r="T98" s="40">
+        <f>T67/T4</f>
         <v>0.12603050136157493</v>
       </c>
-      <c r="U96" s="40">
-        <f t="shared" si="81"/>
+      <c r="U98" s="40">
+        <f>U67/U4</f>
         <v>0.18467793708538413</v>
       </c>
-      <c r="V96" s="40">
-        <f>V65/V4</f>
+      <c r="V98" s="40">
+        <f>V67/V4</f>
         <v>0.15332129239414008</v>
       </c>
-      <c r="W96" s="39"/>
-    </row>
-    <row r="98" spans="2:23" s="30" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B98" s="30" t="s">
+      <c r="W98" s="39"/>
+      <c r="X98" s="35"/>
+      <c r="Y98" s="35"/>
+      <c r="Z98" s="35"/>
+      <c r="AA98" s="35"/>
+      <c r="AB98" s="35"/>
+      <c r="AC98" s="35"/>
+      <c r="AD98" s="35"/>
+      <c r="AE98" s="35"/>
+    </row>
+    <row r="100" spans="2:31" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B100" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="D98" s="53"/>
-      <c r="F98" s="53"/>
-      <c r="H98" s="53"/>
-      <c r="J98" s="53"/>
-      <c r="L98" s="53"/>
-      <c r="O98" s="30">
+      <c r="D100" s="53"/>
+      <c r="F100" s="53"/>
+      <c r="H100" s="53"/>
+      <c r="J100" s="53"/>
+      <c r="L100" s="53"/>
+      <c r="O100" s="30">
         <v>1.6907000000000001</v>
       </c>
-      <c r="P98" s="30">
+      <c r="P100" s="30">
         <v>2.0636000000000001</v>
       </c>
-      <c r="Q98" s="30">
+      <c r="Q100" s="30">
         <v>2.6928999999999998</v>
       </c>
-      <c r="R98" s="30">
+      <c r="R100" s="30">
         <v>2.6215999999999999</v>
       </c>
-      <c r="S98" s="30">
+      <c r="S100" s="30">
         <v>2.0379999999999998</v>
       </c>
-      <c r="T98" s="30">
+      <c r="T100" s="30">
         <v>4.5180999999999996</v>
       </c>
-      <c r="U98" s="30">
+      <c r="U100" s="30">
         <v>5.0332999999999997</v>
       </c>
-      <c r="V98" s="30">
+      <c r="V100" s="30">
         <v>4.6698000000000004</v>
       </c>
-      <c r="W98" s="66"/>
-    </row>
-    <row r="99" spans="2:23" s="35" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B99" s="35" t="s">
+      <c r="W100" s="66"/>
+      <c r="X100" s="104"/>
+      <c r="Y100" s="104"/>
+      <c r="Z100" s="104"/>
+      <c r="AA100" s="104"/>
+      <c r="AB100" s="104"/>
+      <c r="AC100" s="104"/>
+      <c r="AD100" s="104"/>
+      <c r="AE100" s="104"/>
+    </row>
+    <row r="101" spans="2:31" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B101" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="D99" s="58"/>
-      <c r="F99" s="58"/>
-      <c r="H99" s="58"/>
-      <c r="J99" s="58"/>
-      <c r="L99" s="58"/>
-      <c r="O99" s="35">
-        <f t="shared" ref="O99:R99" si="82">O98*O22</f>
+      <c r="D101" s="58"/>
+      <c r="F101" s="58"/>
+      <c r="H101" s="58"/>
+      <c r="J101" s="58"/>
+      <c r="L101" s="58"/>
+      <c r="O101" s="35">
+        <f>O100*O22</f>
         <v>1691.5030825000001</v>
       </c>
-      <c r="P99" s="35">
-        <f t="shared" si="82"/>
+      <c r="P101" s="35">
+        <f>P100*P22</f>
         <v>2063.9054128000002</v>
       </c>
-      <c r="Q99" s="35">
-        <f t="shared" si="82"/>
+      <c r="Q101" s="35">
+        <f>Q100*Q22</f>
         <v>2694.6530778999995</v>
       </c>
-      <c r="R99" s="35">
-        <f t="shared" si="82"/>
+      <c r="R101" s="35">
+        <f>R100*R22</f>
         <v>2624.2583024</v>
       </c>
-      <c r="S99" s="35">
-        <f t="shared" ref="S99" si="83">S98*S22</f>
+      <c r="S101" s="35">
+        <f>S100*S22</f>
         <v>2039.16166</v>
       </c>
-      <c r="T99" s="35">
-        <f t="shared" ref="T99" si="84">T98*T22</f>
+      <c r="T101" s="35">
+        <f>T100*T22</f>
         <v>4521.2400794999994</v>
       </c>
-      <c r="U99" s="35">
-        <f t="shared" ref="U99" si="85">U98*U22</f>
+      <c r="U101" s="35">
+        <f>U100*U22</f>
         <v>5038.6403313000001</v>
       </c>
-      <c r="V99" s="35">
-        <f>V98*V22</f>
+      <c r="V101" s="35">
+        <f>V100*V22</f>
         <v>4677.2389914000005</v>
       </c>
-      <c r="W99" s="39"/>
-    </row>
-    <row r="100" spans="2:23" s="35" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B100" s="35" t="s">
+      <c r="W101" s="39"/>
+    </row>
+    <row r="102" spans="2:31" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B102" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="D100" s="58"/>
-      <c r="F100" s="58"/>
-      <c r="H100" s="58"/>
-      <c r="J100" s="58"/>
-      <c r="L100" s="58"/>
-      <c r="O100" s="35">
-        <f t="shared" ref="O100:R100" si="86">O99-O92</f>
+      <c r="D102" s="58"/>
+      <c r="F102" s="58"/>
+      <c r="H102" s="58"/>
+      <c r="J102" s="58"/>
+      <c r="L102" s="58"/>
+      <c r="O102" s="35">
+        <f t="shared" ref="O102:R102" si="104">O101-O94</f>
         <v>2046.7690825</v>
       </c>
-      <c r="P100" s="35">
-        <f t="shared" si="86"/>
+      <c r="P102" s="35">
+        <f t="shared" si="104"/>
         <v>2469.5954128000003</v>
       </c>
-      <c r="Q100" s="35">
-        <f t="shared" si="86"/>
+      <c r="Q102" s="35">
+        <f t="shared" si="104"/>
         <v>3234.7960778999995</v>
       </c>
-      <c r="R100" s="35">
-        <f t="shared" si="86"/>
+      <c r="R102" s="35">
+        <f t="shared" si="104"/>
         <v>3227.1343023999998</v>
       </c>
-      <c r="S100" s="35">
-        <f t="shared" ref="S100" si="87">S99-S92</f>
+      <c r="S102" s="35">
+        <f t="shared" ref="S102" si="105">S101-S94</f>
         <v>2367.66266</v>
       </c>
-      <c r="T100" s="35">
-        <f t="shared" ref="T100" si="88">T99-T92</f>
+      <c r="T102" s="35">
+        <f t="shared" ref="T102" si="106">T101-T94</f>
         <v>5030.4020794999997</v>
       </c>
-      <c r="U100" s="35">
-        <f t="shared" ref="U100" si="89">U99-U92</f>
+      <c r="U102" s="35">
+        <f t="shared" ref="U102" si="107">U101-U94</f>
         <v>5796.6403313000001</v>
       </c>
-      <c r="V100" s="35">
-        <f>V99-V92</f>
+      <c r="V102" s="35">
+        <f>V101-V94</f>
         <v>5393.2389914000005</v>
       </c>
-      <c r="W100" s="39"/>
-    </row>
-    <row r="102" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B102" s="29" t="s">
+      <c r="W102" s="39"/>
+    </row>
+    <row r="104" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="B104" s="29" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="103" spans="2:23" s="45" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B103" s="45" t="s">
+    <row r="105" spans="2:31" s="45" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B105" s="45" t="s">
         <v>30</v>
-      </c>
-      <c r="D103" s="59"/>
-      <c r="F103" s="59"/>
-      <c r="H103" s="59"/>
-      <c r="J103" s="59"/>
-      <c r="L103" s="59"/>
-      <c r="O103" s="48">
-        <f t="shared" ref="O103:R103" si="90">O98/O88</f>
-        <v>2.0771205040830125</v>
-      </c>
-      <c r="P103" s="48">
-        <f t="shared" si="90"/>
-        <v>2.5368161409865766</v>
-      </c>
-      <c r="Q103" s="48">
-        <f t="shared" si="90"/>
-        <v>2.9099453873857315</v>
-      </c>
-      <c r="R103" s="48">
-        <f t="shared" si="90"/>
-        <v>2.4566163463113666</v>
-      </c>
-      <c r="S103" s="48">
-        <f t="shared" ref="S103:U103" si="91">S98/S88</f>
-        <v>2.3508923344389392</v>
-      </c>
-      <c r="T103" s="48">
-        <f t="shared" si="91"/>
-        <v>6.1684003660460069</v>
-      </c>
-      <c r="U103" s="48">
-        <f t="shared" si="91"/>
-        <v>6.7542095593833773</v>
-      </c>
-      <c r="V103" s="48">
-        <f>V98/V88</f>
-        <v>6.4961652658333344</v>
-      </c>
-      <c r="W103" s="71"/>
-    </row>
-    <row r="104" spans="2:23" s="45" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B104" s="45" t="s">
-        <v>31</v>
-      </c>
-      <c r="D104" s="59"/>
-      <c r="F104" s="59"/>
-      <c r="H104" s="59"/>
-      <c r="J104" s="59"/>
-      <c r="L104" s="59"/>
-      <c r="O104" s="48">
-        <f t="shared" ref="O104:R104" si="92">O99/O4</f>
-        <v>0.8310890526388196</v>
-      </c>
-      <c r="P104" s="48">
-        <f t="shared" si="92"/>
-        <v>0.84911316794615466</v>
-      </c>
-      <c r="Q104" s="48">
-        <f t="shared" si="92"/>
-        <v>0.88938256622049872</v>
-      </c>
-      <c r="R104" s="48">
-        <f t="shared" si="92"/>
-        <v>0.75273558387916106</v>
-      </c>
-      <c r="S104" s="48">
-        <f t="shared" ref="S104:U104" si="93">S99/S4</f>
-        <v>0.53473766496817654</v>
-      </c>
-      <c r="T104" s="48">
-        <f t="shared" si="93"/>
-        <v>0.94164546556491024</v>
-      </c>
-      <c r="U104" s="48">
-        <f t="shared" si="93"/>
-        <v>1.0782453095013911</v>
-      </c>
-      <c r="V104" s="48">
-        <f>V99/V4</f>
-        <v>0.93863917146297426</v>
-      </c>
-      <c r="W104" s="71"/>
-    </row>
-    <row r="105" spans="2:23" s="45" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B105" s="45" t="s">
-        <v>33</v>
       </c>
       <c r="D105" s="59"/>
       <c r="F105" s="59"/>
@@ -5654,128 +7429,203 @@
       <c r="J105" s="59"/>
       <c r="L105" s="59"/>
       <c r="O105" s="48">
-        <f t="shared" ref="O105:R105" si="94">O98/O21</f>
+        <f t="shared" ref="O105:R105" si="108">O100/O90</f>
+        <v>2.0771205040830125</v>
+      </c>
+      <c r="P105" s="48">
+        <f t="shared" si="108"/>
+        <v>2.5368161409865766</v>
+      </c>
+      <c r="Q105" s="48">
+        <f t="shared" si="108"/>
+        <v>2.9099453873857315</v>
+      </c>
+      <c r="R105" s="48">
+        <f t="shared" si="108"/>
+        <v>2.4566163463113666</v>
+      </c>
+      <c r="S105" s="48">
+        <f t="shared" ref="S105:U105" si="109">S100/S90</f>
+        <v>2.3508923344389392</v>
+      </c>
+      <c r="T105" s="48">
+        <f t="shared" si="109"/>
+        <v>6.1684003660460069</v>
+      </c>
+      <c r="U105" s="48">
+        <f t="shared" si="109"/>
+        <v>6.7542095593833773</v>
+      </c>
+      <c r="V105" s="48">
+        <f>V100/V90</f>
+        <v>6.4961652658333344</v>
+      </c>
+      <c r="W105" s="71"/>
+      <c r="X105" s="112"/>
+      <c r="Y105" s="112"/>
+      <c r="Z105" s="112"/>
+      <c r="AA105" s="112"/>
+      <c r="AB105" s="112"/>
+      <c r="AC105" s="112"/>
+      <c r="AD105" s="112"/>
+      <c r="AE105" s="112"/>
+    </row>
+    <row r="106" spans="2:31" s="45" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B106" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="D106" s="59"/>
+      <c r="F106" s="59"/>
+      <c r="H106" s="59"/>
+      <c r="J106" s="59"/>
+      <c r="L106" s="59"/>
+      <c r="O106" s="48">
+        <f>O101/O4</f>
+        <v>0.8310890526388196</v>
+      </c>
+      <c r="P106" s="48">
+        <f>P101/P4</f>
+        <v>0.84911316794615466</v>
+      </c>
+      <c r="Q106" s="48">
+        <f>Q101/Q4</f>
+        <v>0.88938256622049872</v>
+      </c>
+      <c r="R106" s="48">
+        <f>R101/R4</f>
+        <v>0.75273558387916106</v>
+      </c>
+      <c r="S106" s="48">
+        <f>S101/S4</f>
+        <v>0.53473766496817654</v>
+      </c>
+      <c r="T106" s="48">
+        <f>T101/T4</f>
+        <v>0.94164546556491024</v>
+      </c>
+      <c r="U106" s="48">
+        <f>U101/U4</f>
+        <v>1.0782453095013911</v>
+      </c>
+      <c r="V106" s="48">
+        <f>V101/V4</f>
+        <v>0.93863917146297426</v>
+      </c>
+      <c r="W106" s="71"/>
+      <c r="X106" s="112"/>
+      <c r="Y106" s="112"/>
+      <c r="Z106" s="112"/>
+      <c r="AA106" s="112"/>
+      <c r="AB106" s="112"/>
+      <c r="AC106" s="112"/>
+      <c r="AD106" s="112"/>
+      <c r="AE106" s="112"/>
+    </row>
+    <row r="107" spans="2:31" s="45" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B107" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="D107" s="59"/>
+      <c r="F107" s="59"/>
+      <c r="H107" s="59"/>
+      <c r="J107" s="59"/>
+      <c r="L107" s="59"/>
+      <c r="O107" s="48">
+        <f>O100/O21</f>
         <v>12.971848360404286</v>
       </c>
-      <c r="P105" s="48">
-        <f t="shared" si="94"/>
+      <c r="P107" s="48">
+        <f>P100/P21</f>
         <v>14.026337373339246</v>
       </c>
-      <c r="Q105" s="48">
-        <f t="shared" si="94"/>
+      <c r="Q107" s="48">
+        <f>Q100/Q21</f>
         <v>15.64176091378217</v>
       </c>
-      <c r="R105" s="48">
-        <f t="shared" si="94"/>
+      <c r="R107" s="48">
+        <f>R100/R21</f>
         <v>12.127671394637359</v>
       </c>
-      <c r="S105" s="48">
-        <f t="shared" ref="S105:U105" si="95">S98/S21</f>
+      <c r="S107" s="48">
+        <f>S100/S21</f>
         <v>10.008941364720664</v>
       </c>
-      <c r="T105" s="48">
-        <f t="shared" si="95"/>
+      <c r="T107" s="48">
+        <f>T100/T21</f>
         <v>11.015271163254162</v>
       </c>
-      <c r="U105" s="48">
-        <f t="shared" si="95"/>
+      <c r="U107" s="48">
+        <f>U100/U21</f>
         <v>11.556514521330275</v>
       </c>
-      <c r="V105" s="48">
-        <f>V98/V21</f>
+      <c r="V107" s="48">
+        <f>V100/V21</f>
         <v>12.117199459585493</v>
       </c>
-      <c r="W105" s="71"/>
-    </row>
-    <row r="106" spans="2:23" s="36" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B106" s="36" t="s">
+      <c r="W107" s="71"/>
+      <c r="X107" s="112"/>
+      <c r="Y107" s="112"/>
+      <c r="Z107" s="112"/>
+      <c r="AA107" s="112"/>
+      <c r="AB107" s="112"/>
+      <c r="AC107" s="112"/>
+      <c r="AD107" s="112"/>
+      <c r="AE107" s="112"/>
+    </row>
+    <row r="108" spans="2:31" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B108" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="D106" s="61"/>
-      <c r="F106" s="61"/>
-      <c r="H106" s="61"/>
-      <c r="J106" s="61"/>
-      <c r="L106" s="61"/>
-      <c r="O106" s="47">
-        <f t="shared" ref="O106:R106" si="96">O100/O4</f>
+      <c r="D108" s="61"/>
+      <c r="F108" s="61"/>
+      <c r="H108" s="61"/>
+      <c r="J108" s="61"/>
+      <c r="L108" s="61"/>
+      <c r="O108" s="47">
+        <f>O102/O4</f>
         <v>1.0056424935574133</v>
       </c>
-      <c r="P106" s="47">
-        <f t="shared" si="96"/>
+      <c r="P108" s="47">
+        <f>P102/P4</f>
         <v>1.0160184529304799</v>
       </c>
-      <c r="Q106" s="47">
-        <f t="shared" si="96"/>
+      <c r="Q108" s="47">
+        <f>Q102/Q4</f>
         <v>1.0676592324844989</v>
       </c>
-      <c r="R106" s="47">
-        <f t="shared" si="96"/>
+      <c r="R108" s="47">
+        <f>R102/R4</f>
         <v>0.92566300396265944</v>
       </c>
-      <c r="S106" s="47">
-        <f t="shared" ref="S106:U106" si="97">S100/S4</f>
+      <c r="S108" s="47">
+        <f>S102/S4</f>
         <v>0.62088181975760648</v>
       </c>
-      <c r="T106" s="47">
-        <f t="shared" si="97"/>
+      <c r="T108" s="47">
+        <f>T102/T4</f>
         <v>1.0476894004384114</v>
       </c>
-      <c r="U106" s="47">
-        <f t="shared" si="97"/>
+      <c r="U108" s="47">
+        <f>U102/U4</f>
         <v>1.2404537409158998</v>
       </c>
-      <c r="V106" s="47">
-        <f>V100/V4</f>
+      <c r="V108" s="47">
+        <f>V102/V4</f>
         <v>1.0823277125025086</v>
       </c>
-      <c r="W106" s="73"/>
-    </row>
-    <row r="107" spans="2:23" s="36" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B107" s="36" t="s">
+      <c r="W108" s="73"/>
+      <c r="X108" s="114"/>
+      <c r="Y108" s="114"/>
+      <c r="Z108" s="114"/>
+      <c r="AA108" s="114"/>
+      <c r="AB108" s="114"/>
+      <c r="AC108" s="114"/>
+      <c r="AD108" s="114"/>
+      <c r="AE108" s="114"/>
+    </row>
+    <row r="109" spans="2:31" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B109" s="36" t="s">
         <v>34</v>
-      </c>
-      <c r="D107" s="61"/>
-      <c r="F107" s="61"/>
-      <c r="H107" s="61"/>
-      <c r="J107" s="61"/>
-      <c r="L107" s="61"/>
-      <c r="O107" s="47">
-        <f t="shared" ref="O107:R107" si="98">O100/O20</f>
-        <v>15.696322662157375</v>
-      </c>
-      <c r="P107" s="47">
-        <f t="shared" si="98"/>
-        <v>16.78341372659624</v>
-      </c>
-      <c r="Q107" s="47">
-        <f t="shared" si="98"/>
-        <v>18.777150673059591</v>
-      </c>
-      <c r="R107" s="47">
-        <f t="shared" si="98"/>
-        <v>14.913785098851125</v>
-      </c>
-      <c r="S107" s="47">
-        <f t="shared" ref="S107:U107" si="99">S100/S20</f>
-        <v>11.621342829375557</v>
-      </c>
-      <c r="T107" s="47">
-        <f t="shared" si="99"/>
-        <v>12.255762134183771</v>
-      </c>
-      <c r="U107" s="47">
-        <f t="shared" si="99"/>
-        <v>13.295046631422018</v>
-      </c>
-      <c r="V107" s="47">
-        <f>V100/V20</f>
-        <v>13.97212173937824</v>
-      </c>
-      <c r="W107" s="73"/>
-    </row>
-    <row r="109" spans="2:23" s="36" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B109" s="36" t="s">
-        <v>129</v>
       </c>
       <c r="D109" s="61"/>
       <c r="F109" s="61"/>
@@ -5783,38 +7633,97 @@
       <c r="J109" s="61"/>
       <c r="L109" s="61"/>
       <c r="O109" s="47">
-        <f t="shared" ref="O109:R109" si="100">O91/O84</f>
+        <f>O102/O20</f>
+        <v>15.696322662157375</v>
+      </c>
+      <c r="P109" s="47">
+        <f>P102/P20</f>
+        <v>16.78341372659624</v>
+      </c>
+      <c r="Q109" s="47">
+        <f>Q102/Q20</f>
+        <v>18.777150673059591</v>
+      </c>
+      <c r="R109" s="47">
+        <f>R102/R20</f>
+        <v>14.913785098851125</v>
+      </c>
+      <c r="S109" s="47">
+        <f>S102/S20</f>
+        <v>11.621342829375557</v>
+      </c>
+      <c r="T109" s="47">
+        <f>T102/T20</f>
+        <v>12.255762134183771</v>
+      </c>
+      <c r="U109" s="47">
+        <f>U102/U20</f>
+        <v>13.295046631422018</v>
+      </c>
+      <c r="V109" s="47">
+        <f>V102/V20</f>
+        <v>13.97212173937824</v>
+      </c>
+      <c r="W109" s="73"/>
+      <c r="X109" s="114"/>
+      <c r="Y109" s="114"/>
+      <c r="Z109" s="114"/>
+      <c r="AA109" s="114"/>
+      <c r="AB109" s="114"/>
+      <c r="AC109" s="114"/>
+      <c r="AD109" s="114"/>
+      <c r="AE109" s="114"/>
+    </row>
+    <row r="111" spans="2:31" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B111" s="36" t="s">
+        <v>129</v>
+      </c>
+      <c r="D111" s="61"/>
+      <c r="F111" s="61"/>
+      <c r="H111" s="61"/>
+      <c r="J111" s="61"/>
+      <c r="L111" s="61"/>
+      <c r="O111" s="47">
+        <f t="shared" ref="O111:R111" si="110">O93/O86</f>
         <v>0.55404064591391911</v>
       </c>
-      <c r="P109" s="47">
-        <f t="shared" si="100"/>
+      <c r="P111" s="47">
+        <f t="shared" si="110"/>
         <v>0.69026119040683565</v>
       </c>
-      <c r="Q109" s="47">
-        <f t="shared" si="100"/>
+      <c r="Q111" s="47">
+        <f t="shared" si="110"/>
         <v>0.68183404745052056</v>
       </c>
-      <c r="R109" s="47">
-        <f t="shared" si="100"/>
+      <c r="R111" s="47">
+        <f t="shared" si="110"/>
         <v>0.64859802235637842</v>
       </c>
-      <c r="S109" s="47">
-        <f t="shared" ref="S109:U109" si="101">S91/S84</f>
+      <c r="S111" s="47">
+        <f t="shared" ref="S111:U111" si="111">S93/S86</f>
         <v>0.89164041000738992</v>
       </c>
-      <c r="T109" s="47">
-        <f t="shared" si="101"/>
+      <c r="T111" s="47">
+        <f t="shared" si="111"/>
         <v>0.99678430709116905</v>
       </c>
-      <c r="U109" s="47">
-        <f t="shared" si="101"/>
+      <c r="U111" s="47">
+        <f t="shared" si="111"/>
         <v>1.2815013404825737</v>
       </c>
-      <c r="V109" s="47">
-        <f>V91/V84</f>
+      <c r="V111" s="47">
+        <f>V93/V86</f>
         <v>1.325</v>
       </c>
-      <c r="W109" s="73"/>
+      <c r="W111" s="73"/>
+      <c r="X111" s="114"/>
+      <c r="Y111" s="114"/>
+      <c r="Z111" s="114"/>
+      <c r="AA111" s="114"/>
+      <c r="AB111" s="114"/>
+      <c r="AC111" s="114"/>
+      <c r="AD111" s="114"/>
+      <c r="AE111" s="114"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -5826,7 +7735,9 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="125" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId5"/>
   <ignoredErrors>
-    <ignoredError sqref="S7" formula="1"/>
+    <ignoredError sqref="S7 W7 W8:AE8 X7:Y7 W10:AE10 X9:AE9 Z7:AE7" formula="1"/>
+    <ignoredError sqref="W11:W12 W17:W18" formulaRange="1"/>
+    <ignoredError sqref="W9" formula="1" formulaRange="1"/>
   </ignoredErrors>
   <drawing r:id="rId6"/>
   <legacyDrawing r:id="rId7"/>

--- a/£BME.xlsx
+++ b/£BME.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20401"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\My Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA767BE9-9EA7-4C1D-84A9-D0D6A66EDDC8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A1CCDC7-4F4F-4BC1-B675-8A84E417E3B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{0B0D3E06-E58D-4F1F-A8B8-3BC216B2A3D5}"/>
   </bookViews>
@@ -20,6 +20,15 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -529,7 +538,7 @@
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
     <numFmt numFmtId="165" formatCode="0.0\x"/>
     <numFmt numFmtId="166" formatCode="#,##0.00000"/>
-    <numFmt numFmtId="169" formatCode="#,##0.0_ ;[Red]\-#,##0.0\ "/>
+    <numFmt numFmtId="167" formatCode="#,##0.0_ ;[Red]\-#,##0.0\ "/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -795,7 +804,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -936,45 +945,6 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1002,10 +972,46 @@
     <xf numFmtId="3" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="1" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="1" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="1" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="1" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="1" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1493,7 +1499,7 @@
   <dimension ref="B2:X41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29:D29"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1512,35 +1518,35 @@
       </c>
     </row>
     <row r="4" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="T4" s="85" t="s">
+      <c r="T4" s="115" t="s">
         <v>125</v>
       </c>
-      <c r="U4" s="86"/>
-      <c r="W4" s="85" t="s">
+      <c r="U4" s="117"/>
+      <c r="W4" s="115" t="s">
         <v>115</v>
       </c>
-      <c r="X4" s="86"/>
+      <c r="X4" s="117"/>
     </row>
     <row r="5" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B5" s="85" t="s">
+      <c r="B5" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="93"/>
-      <c r="D5" s="86"/>
-      <c r="F5" s="85" t="s">
+      <c r="C5" s="116"/>
+      <c r="D5" s="117"/>
+      <c r="F5" s="115" t="s">
         <v>127</v>
       </c>
-      <c r="G5" s="93"/>
-      <c r="H5" s="93"/>
-      <c r="I5" s="93"/>
-      <c r="J5" s="93"/>
-      <c r="K5" s="93"/>
-      <c r="L5" s="93"/>
-      <c r="M5" s="93"/>
-      <c r="N5" s="93"/>
-      <c r="O5" s="93"/>
-      <c r="P5" s="93"/>
-      <c r="Q5" s="86"/>
+      <c r="G5" s="116"/>
+      <c r="H5" s="116"/>
+      <c r="I5" s="116"/>
+      <c r="J5" s="116"/>
+      <c r="K5" s="116"/>
+      <c r="L5" s="116"/>
+      <c r="M5" s="116"/>
+      <c r="N5" s="116"/>
+      <c r="O5" s="116"/>
+      <c r="P5" s="116"/>
+      <c r="Q5" s="117"/>
       <c r="T5" s="41" t="s">
         <v>25</v>
       </c>
@@ -1780,11 +1786,11 @@
       <c r="Q14" s="6"/>
     </row>
     <row r="15" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B15" s="85" t="s">
+      <c r="B15" s="115" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="93"/>
-      <c r="D15" s="86"/>
+      <c r="C15" s="116"/>
+      <c r="D15" s="117"/>
       <c r="F15" s="12"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
@@ -1802,10 +1808,10 @@
       <c r="B16" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="89" t="s">
+      <c r="C16" s="122" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="90"/>
+      <c r="D16" s="119"/>
       <c r="F16" s="12"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
@@ -1823,10 +1829,10 @@
       <c r="B17" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="89" t="s">
+      <c r="C17" s="122" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="90"/>
+      <c r="D17" s="119"/>
       <c r="F17" s="12"/>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
@@ -1844,8 +1850,8 @@
       <c r="B18" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="89"/>
-      <c r="D18" s="90"/>
+      <c r="C18" s="122"/>
+      <c r="D18" s="119"/>
       <c r="F18" s="44">
         <v>43891</v>
       </c>
@@ -1867,10 +1873,10 @@
       <c r="B19" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="91" t="s">
+      <c r="C19" s="113" t="s">
         <v>24</v>
       </c>
-      <c r="D19" s="92"/>
+      <c r="D19" s="114"/>
       <c r="F19" s="12"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
@@ -1913,11 +1919,11 @@
       <c r="Q21" s="6"/>
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B22" s="85" t="s">
+      <c r="B22" s="115" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="93"/>
-      <c r="D22" s="86"/>
+      <c r="C22" s="116"/>
+      <c r="D22" s="117"/>
       <c r="F22" s="12"/>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
@@ -1935,10 +1941,10 @@
       <c r="B23" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="89" t="s">
+      <c r="C23" s="122" t="s">
         <v>28</v>
       </c>
-      <c r="D23" s="90"/>
+      <c r="D23" s="119"/>
       <c r="F23" s="44">
         <v>42948</v>
       </c>
@@ -1960,10 +1966,10 @@
       <c r="B24" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="89">
+      <c r="C24" s="122">
         <v>1978</v>
       </c>
-      <c r="D24" s="90"/>
+      <c r="D24" s="119"/>
       <c r="F24" s="12"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
@@ -1981,10 +1987,10 @@
       <c r="B25" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C25" s="89">
+      <c r="C25" s="122">
         <v>2014</v>
       </c>
-      <c r="D25" s="90"/>
+      <c r="D25" s="119"/>
       <c r="F25" s="12"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
@@ -2000,8 +2006,8 @@
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B26" s="12"/>
-      <c r="C26" s="89"/>
-      <c r="D26" s="90"/>
+      <c r="C26" s="122"/>
+      <c r="D26" s="119"/>
       <c r="F26" s="12"/>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
@@ -2019,11 +2025,11 @@
       <c r="B27" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C27" s="94">
+      <c r="C27" s="118">
         <f>+'Financial Model'!V34</f>
         <v>1140</v>
       </c>
-      <c r="D27" s="90"/>
+      <c r="D27" s="119"/>
       <c r="F27" s="12"/>
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
@@ -2041,11 +2047,11 @@
       <c r="B28" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C28" s="94">
+      <c r="C28" s="118">
         <f>+'Financial Model'!V67</f>
         <v>764</v>
       </c>
-      <c r="D28" s="90"/>
+      <c r="D28" s="119"/>
       <c r="F28" s="12"/>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
@@ -2063,11 +2069,11 @@
       <c r="B29" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="C29" s="94">
+      <c r="C29" s="118">
         <f>'Financial Model'!V46</f>
         <v>39484</v>
       </c>
-      <c r="D29" s="90"/>
+      <c r="D29" s="119"/>
       <c r="F29" s="12"/>
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
@@ -2083,7 +2089,7 @@
     </row>
     <row r="30" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B30" s="12"/>
-      <c r="C30" s="84"/>
+      <c r="C30" s="11"/>
       <c r="D30" s="83"/>
       <c r="F30" s="12"/>
       <c r="G30" s="5"/>
@@ -2125,10 +2131,10 @@
       <c r="B32" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C32" s="95" t="s">
+      <c r="C32" s="120" t="s">
         <v>37</v>
       </c>
-      <c r="D32" s="96"/>
+      <c r="D32" s="121"/>
       <c r="F32" s="12"/>
       <c r="G32" s="5"/>
       <c r="H32" s="5"/>
@@ -2171,11 +2177,11 @@
       <c r="Q34" s="6"/>
     </row>
     <row r="35" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B35" s="85" t="s">
+      <c r="B35" s="115" t="s">
         <v>29</v>
       </c>
-      <c r="C35" s="93"/>
-      <c r="D35" s="86"/>
+      <c r="C35" s="116"/>
+      <c r="D35" s="117"/>
       <c r="F35" s="12"/>
       <c r="G35" s="5"/>
       <c r="H35" s="5"/>
@@ -2193,11 +2199,11 @@
       <c r="B36" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C36" s="87">
+      <c r="C36" s="111">
         <f>C6/'Financial Model'!V90</f>
         <v>7.9778273551388885</v>
       </c>
-      <c r="D36" s="88"/>
+      <c r="D36" s="112"/>
       <c r="F36" s="12"/>
       <c r="G36" s="5"/>
       <c r="H36" s="5"/>
@@ -2215,11 +2221,11 @@
       <c r="B37" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C37" s="87">
+      <c r="C37" s="111">
         <f>C8/'Financial Model'!V4</f>
         <v>1.152726408930363</v>
       </c>
-      <c r="D37" s="88"/>
+      <c r="D37" s="112"/>
       <c r="F37" s="12"/>
       <c r="G37" s="5"/>
       <c r="H37" s="5"/>
@@ -2237,11 +2243,11 @@
       <c r="B38" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="C38" s="87">
+      <c r="C38" s="111">
         <f>C12/'Financial Model'!V4</f>
         <v>1.2964149499698976</v>
       </c>
-      <c r="D38" s="88"/>
+      <c r="D38" s="112"/>
       <c r="F38" s="12"/>
       <c r="G38" s="5"/>
       <c r="H38" s="5"/>
@@ -2259,11 +2265,11 @@
       <c r="B39" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C39" s="87">
+      <c r="C39" s="111">
         <f>C6/'Financial Model'!V21</f>
         <v>14.880921491450774</v>
       </c>
-      <c r="D39" s="88"/>
+      <c r="D39" s="112"/>
       <c r="F39" s="12"/>
       <c r="G39" s="5"/>
       <c r="H39" s="5"/>
@@ -2281,11 +2287,11 @@
       <c r="B40" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C40" s="87">
+      <c r="C40" s="111">
         <f>C12/'Financial Model'!V16</f>
         <v>18.563320964655169</v>
       </c>
-      <c r="D40" s="88"/>
+      <c r="D40" s="112"/>
       <c r="F40" s="12"/>
       <c r="G40" s="5"/>
       <c r="H40" s="5"/>
@@ -2303,8 +2309,8 @@
       <c r="B41" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C41" s="91"/>
-      <c r="D41" s="92"/>
+      <c r="C41" s="113"/>
+      <c r="D41" s="114"/>
       <c r="F41" s="13"/>
       <c r="G41" s="7"/>
       <c r="H41" s="7"/>
@@ -2320,6 +2326,15 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="T4:U4"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
     <mergeCell ref="C40:D40"/>
     <mergeCell ref="C41:D41"/>
     <mergeCell ref="F5:Q5"/>
@@ -2336,15 +2351,6 @@
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="B15:D15"/>
-    <mergeCell ref="W4:X4"/>
-    <mergeCell ref="T4:U4"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C32:D32" r:id="rId1" display="Link" xr:uid="{9BE3B3D4-9498-4B97-998C-C0C12FA77148}"/>
@@ -2364,7 +2370,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="O4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="V21" sqref="V21"/>
+      <selection pane="bottomRight" activeCell="AH28" sqref="AH28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2383,7 +2389,7 @@
     <col min="12" max="12" width="9.140625" style="52"/>
     <col min="13" max="22" width="9.140625" style="1"/>
     <col min="23" max="23" width="9.140625" style="64"/>
-    <col min="24" max="31" width="9.140625" style="109"/>
+    <col min="24" max="31" width="9.140625" style="96"/>
     <col min="32" max="32" width="9.140625" style="1"/>
     <col min="33" max="33" width="12.85546875" style="1" customWidth="1"/>
     <col min="34" max="34" width="10.140625" style="1" bestFit="1" customWidth="1"/>
@@ -2448,28 +2454,28 @@
       <c r="W1" s="62" t="s">
         <v>116</v>
       </c>
-      <c r="X1" s="101" t="s">
+      <c r="X1" s="88" t="s">
         <v>117</v>
       </c>
-      <c r="Y1" s="101" t="s">
+      <c r="Y1" s="88" t="s">
         <v>118</v>
       </c>
-      <c r="Z1" s="101" t="s">
+      <c r="Z1" s="88" t="s">
         <v>119</v>
       </c>
-      <c r="AA1" s="101" t="s">
+      <c r="AA1" s="88" t="s">
         <v>120</v>
       </c>
-      <c r="AB1" s="101" t="s">
+      <c r="AB1" s="88" t="s">
         <v>121</v>
       </c>
-      <c r="AC1" s="101" t="s">
+      <c r="AC1" s="88" t="s">
         <v>122</v>
       </c>
-      <c r="AD1" s="101" t="s">
+      <c r="AD1" s="88" t="s">
         <v>123</v>
       </c>
-      <c r="AE1" s="101" t="s">
+      <c r="AE1" s="88" t="s">
         <v>124</v>
       </c>
     </row>
@@ -2522,35 +2528,35 @@
       <c r="W2" s="74" t="s">
         <v>130</v>
       </c>
-      <c r="X2" s="97" t="str">
+      <c r="X2" s="84" t="str">
         <f>W2</f>
         <v>(EST.)</v>
       </c>
-      <c r="Y2" s="97" t="str">
+      <c r="Y2" s="84" t="str">
         <f t="shared" ref="Y2:AE2" si="0">X2</f>
         <v>(EST.)</v>
       </c>
-      <c r="Z2" s="97" t="str">
+      <c r="Z2" s="84" t="str">
         <f t="shared" si="0"/>
         <v>(EST.)</v>
       </c>
-      <c r="AA2" s="97" t="str">
+      <c r="AA2" s="84" t="str">
         <f t="shared" si="0"/>
         <v>(EST.)</v>
       </c>
-      <c r="AB2" s="97" t="str">
+      <c r="AB2" s="84" t="str">
         <f t="shared" si="0"/>
         <v>(EST.)</v>
       </c>
-      <c r="AC2" s="97" t="str">
+      <c r="AC2" s="84" t="str">
         <f t="shared" si="0"/>
         <v>(EST.)</v>
       </c>
-      <c r="AD2" s="97" t="str">
+      <c r="AD2" s="84" t="str">
         <f t="shared" si="0"/>
         <v>(EST.)</v>
       </c>
-      <c r="AE2" s="97" t="str">
+      <c r="AE2" s="84" t="str">
         <f t="shared" si="0"/>
         <v>(EST.)</v>
       </c>
@@ -2593,14 +2599,14 @@
         <v>45096</v>
       </c>
       <c r="W3" s="63"/>
-      <c r="X3" s="102"/>
-      <c r="Y3" s="102"/>
-      <c r="Z3" s="102"/>
-      <c r="AA3" s="102"/>
-      <c r="AB3" s="102"/>
-      <c r="AC3" s="102"/>
-      <c r="AD3" s="102"/>
-      <c r="AE3" s="102"/>
+      <c r="X3" s="89"/>
+      <c r="Y3" s="89"/>
+      <c r="Z3" s="89"/>
+      <c r="AA3" s="89"/>
+      <c r="AB3" s="89"/>
+      <c r="AC3" s="89"/>
+      <c r="AD3" s="89"/>
+      <c r="AE3" s="89"/>
     </row>
     <row r="4" spans="2:122" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
@@ -2640,35 +2646,35 @@
         <f>V4*(1+W24)</f>
         <v>5381.64</v>
       </c>
-      <c r="X4" s="103">
+      <c r="X4" s="90">
         <f>W4*(1+X24)</f>
         <v>5919.804000000001</v>
       </c>
-      <c r="Y4" s="103">
+      <c r="Y4" s="90">
         <f t="shared" ref="Y4:AE4" si="1">X4*(1+Y24)</f>
         <v>6689.3785200000002</v>
       </c>
-      <c r="Z4" s="103">
+      <c r="Z4" s="90">
         <f t="shared" si="1"/>
         <v>7224.5288016000004</v>
       </c>
-      <c r="AA4" s="103">
+      <c r="AA4" s="90">
         <f t="shared" si="1"/>
         <v>7730.2458177120006</v>
       </c>
-      <c r="AB4" s="103">
+      <c r="AB4" s="90">
         <f t="shared" si="1"/>
         <v>8116.7581085976008</v>
       </c>
-      <c r="AC4" s="103">
+      <c r="AC4" s="90">
         <f t="shared" si="1"/>
         <v>8522.5960140274819</v>
       </c>
-      <c r="AD4" s="103">
+      <c r="AD4" s="90">
         <f t="shared" si="1"/>
         <v>8948.7258147288558</v>
       </c>
-      <c r="AE4" s="103">
+      <c r="AE4" s="90">
         <f t="shared" si="1"/>
         <v>9396.1621054652987</v>
       </c>
@@ -2783,35 +2789,35 @@
         <f>W4-W5</f>
         <v>1991.2067999999999</v>
       </c>
-      <c r="X6" s="103">
+      <c r="X6" s="90">
         <f>X4-X5</f>
         <v>1630.0909565217389</v>
       </c>
-      <c r="Y6" s="103">
+      <c r="Y6" s="90">
         <f t="shared" ref="Y6:AE6" si="9">Y4-Y5</f>
         <v>1842.002780869565</v>
       </c>
-      <c r="Z6" s="103">
+      <c r="Z6" s="90">
         <f t="shared" si="9"/>
         <v>1989.36300333913</v>
       </c>
-      <c r="AA6" s="103">
+      <c r="AA6" s="90">
         <f t="shared" si="9"/>
         <v>2128.618413572869</v>
       </c>
-      <c r="AB6" s="103">
+      <c r="AB6" s="90">
         <f t="shared" si="9"/>
         <v>2235.0493342515128</v>
       </c>
-      <c r="AC6" s="103">
+      <c r="AC6" s="90">
         <f t="shared" si="9"/>
         <v>2346.8018009640891</v>
       </c>
-      <c r="AD6" s="103">
+      <c r="AD6" s="90">
         <f t="shared" si="9"/>
         <v>2464.1418910122929</v>
       </c>
-      <c r="AE6" s="103">
+      <c r="AE6" s="90">
         <f t="shared" si="9"/>
         <v>2587.3489855629077</v>
       </c>
@@ -2854,7 +2860,7 @@
         <v>1502.8200000000002</v>
       </c>
       <c r="Y7" s="35">
-        <f t="shared" ref="Y7:AE7" si="10">X7*1.08</f>
+        <f t="shared" ref="Y7" si="10">X7*1.08</f>
         <v>1623.0456000000004</v>
       </c>
       <c r="Z7" s="35">
@@ -2927,35 +2933,35 @@
         <f>W6-W7</f>
         <v>599.70679999999993</v>
       </c>
-      <c r="X8" s="103">
+      <c r="X8" s="90">
         <f t="shared" ref="X8:AE8" si="13">X6-X7</f>
         <v>127.27095652173875</v>
       </c>
-      <c r="Y8" s="103">
+      <c r="Y8" s="90">
         <f t="shared" si="13"/>
         <v>218.95718086956458</v>
       </c>
-      <c r="Z8" s="103">
+      <c r="Z8" s="90">
         <f t="shared" si="13"/>
         <v>301.39557933912965</v>
       </c>
-      <c r="AA8" s="103">
+      <c r="AA8" s="90">
         <f t="shared" si="13"/>
         <v>373.13229261286847</v>
       </c>
-      <c r="AB8" s="103">
+      <c r="AB8" s="90">
         <f t="shared" si="13"/>
         <v>409.34376845311226</v>
       </c>
-      <c r="AC8" s="103">
+      <c r="AC8" s="90">
         <f t="shared" si="13"/>
         <v>448.06801253375238</v>
       </c>
-      <c r="AD8" s="103">
+      <c r="AD8" s="90">
         <f t="shared" si="13"/>
         <v>489.45875104474271</v>
       </c>
-      <c r="AE8" s="103">
+      <c r="AE8" s="90">
         <f t="shared" si="13"/>
         <v>533.67851999665527</v>
       </c>
@@ -3477,35 +3483,35 @@
         <f t="shared" ref="W16:AE16" si="24">W14-W15</f>
         <v>390.55240000000003</v>
       </c>
-      <c r="X16" s="103">
+      <c r="X16" s="90">
         <f t="shared" si="24"/>
         <v>425.94330000000008</v>
       </c>
-      <c r="Y16" s="103">
+      <c r="Y16" s="90">
         <f t="shared" si="24"/>
         <v>465.51586100000014</v>
       </c>
-      <c r="Z16" s="103">
+      <c r="Z16" s="90">
         <f t="shared" si="24"/>
         <v>507.83818113000024</v>
       </c>
-      <c r="AA16" s="103">
+      <c r="AA16" s="90">
         <f t="shared" si="24"/>
         <v>555.60854968290028</v>
       </c>
-      <c r="AB16" s="103">
+      <c r="AB16" s="90">
         <f t="shared" si="24"/>
         <v>605.52427623565723</v>
       </c>
-      <c r="AC16" s="103">
+      <c r="AC16" s="90">
         <f t="shared" si="24"/>
         <v>659.76334455716619</v>
       </c>
-      <c r="AD16" s="103">
+      <c r="AD16" s="90">
         <f t="shared" si="24"/>
         <v>718.4165456500599</v>
       </c>
-      <c r="AE16" s="103">
+      <c r="AE16" s="90">
         <f t="shared" si="24"/>
         <v>781.95977339996512</v>
       </c>
@@ -4117,35 +4123,35 @@
         <f>W16+SUM(W17:W19)</f>
         <v>401.37865000000005</v>
       </c>
-      <c r="X20" s="103">
+      <c r="X20" s="90">
         <f t="shared" ref="X20:AE20" si="31">X16+SUM(X17:X19)</f>
         <v>437.23686250000009</v>
       </c>
-      <c r="Y20" s="103">
+      <c r="Y20" s="90">
         <f t="shared" si="31"/>
         <v>484.04581412500016</v>
       </c>
-      <c r="Z20" s="103">
+      <c r="Z20" s="90">
         <f t="shared" si="31"/>
         <v>527.50062253625026</v>
       </c>
-      <c r="AA20" s="103">
+      <c r="AA20" s="90">
         <f t="shared" si="31"/>
         <v>570.68660144071282</v>
       </c>
-      <c r="AB20" s="103">
+      <c r="AB20" s="90">
         <f t="shared" si="31"/>
         <v>621.66527843292283</v>
       </c>
-      <c r="AC20" s="103">
+      <c r="AC20" s="90">
         <f t="shared" si="31"/>
         <v>677.1162066787482</v>
       </c>
-      <c r="AD20" s="103">
+      <c r="AD20" s="90">
         <f t="shared" si="31"/>
         <v>735.47513502078743</v>
       </c>
-      <c r="AE20" s="103">
+      <c r="AE20" s="90">
         <f t="shared" si="31"/>
         <v>798.36739976181207</v>
       </c>
@@ -4195,35 +4201,35 @@
         <f>W20/W22</f>
         <v>0.40074027074869739</v>
       </c>
-      <c r="X21" s="104">
+      <c r="X21" s="91">
         <f t="shared" ref="X21:AE21" si="38">X20/X22</f>
         <v>0.43654145196701666</v>
       </c>
-      <c r="Y21" s="104">
+      <c r="Y21" s="91">
         <f t="shared" si="38"/>
         <v>0.4832759555278443</v>
       </c>
-      <c r="Z21" s="104">
+      <c r="Z21" s="91">
         <f t="shared" si="38"/>
         <v>0.52666165052696079</v>
       </c>
-      <c r="AA21" s="104">
+      <c r="AA21" s="91">
         <f t="shared" si="38"/>
         <v>0.56977894358358416</v>
       </c>
-      <c r="AB21" s="104">
+      <c r="AB21" s="91">
         <f t="shared" si="38"/>
         <v>0.62067654070358202</v>
       </c>
-      <c r="AC21" s="104">
+      <c r="AC21" s="91">
         <f t="shared" si="38"/>
         <v>0.67603927611190195</v>
       </c>
-      <c r="AD21" s="104">
+      <c r="AD21" s="91">
         <f t="shared" si="38"/>
         <v>0.73430538654002919</v>
       </c>
-      <c r="AE21" s="104">
+      <c r="AE21" s="91">
         <f t="shared" si="38"/>
         <v>0.79709762324797806</v>
       </c>
@@ -4265,35 +4271,35 @@
         <f>V22</f>
         <v>1001.593</v>
       </c>
-      <c r="X22" s="105">
+      <c r="X22" s="92">
         <f>W22</f>
         <v>1001.593</v>
       </c>
-      <c r="Y22" s="105">
+      <c r="Y22" s="92">
         <f t="shared" ref="Y22:AD22" si="39">X22</f>
         <v>1001.593</v>
       </c>
-      <c r="Z22" s="105">
+      <c r="Z22" s="92">
         <f t="shared" si="39"/>
         <v>1001.593</v>
       </c>
-      <c r="AA22" s="105">
+      <c r="AA22" s="92">
         <f t="shared" si="39"/>
         <v>1001.593</v>
       </c>
-      <c r="AB22" s="105">
+      <c r="AB22" s="92">
         <f t="shared" si="39"/>
         <v>1001.593</v>
       </c>
-      <c r="AC22" s="105">
+      <c r="AC22" s="92">
         <f t="shared" si="39"/>
         <v>1001.593</v>
       </c>
-      <c r="AD22" s="105">
+      <c r="AD22" s="92">
         <f t="shared" si="39"/>
         <v>1001.593</v>
       </c>
-      <c r="AE22" s="105">
+      <c r="AE22" s="92">
         <f t="shared" ref="AE22" si="40">AD22</f>
         <v>1001.593</v>
       </c>
@@ -4341,28 +4347,28 @@
       <c r="W24" s="68">
         <v>0.08</v>
       </c>
-      <c r="X24" s="106">
+      <c r="X24" s="93">
         <v>0.1</v>
       </c>
-      <c r="Y24" s="106">
+      <c r="Y24" s="93">
         <v>0.13</v>
       </c>
-      <c r="Z24" s="106">
+      <c r="Z24" s="93">
         <v>0.08</v>
       </c>
-      <c r="AA24" s="106">
+      <c r="AA24" s="93">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AB24" s="106">
+      <c r="AB24" s="93">
         <v>0.05</v>
       </c>
-      <c r="AC24" s="106">
+      <c r="AC24" s="93">
         <v>0.05</v>
       </c>
-      <c r="AD24" s="106">
+      <c r="AD24" s="93">
         <v>0.05</v>
       </c>
-      <c r="AE24" s="106">
+      <c r="AE24" s="93">
         <v>0.05</v>
       </c>
     </row>
@@ -4400,14 +4406,14 @@
         <v>73</v>
       </c>
       <c r="W25" s="65"/>
-      <c r="X25" s="107"/>
-      <c r="Y25" s="107"/>
-      <c r="Z25" s="107"/>
-      <c r="AA25" s="107"/>
-      <c r="AB25" s="107"/>
-      <c r="AC25" s="107"/>
-      <c r="AD25" s="107"/>
-      <c r="AE25" s="107"/>
+      <c r="X25" s="94"/>
+      <c r="Y25" s="94"/>
+      <c r="Z25" s="94"/>
+      <c r="AA25" s="94"/>
+      <c r="AB25" s="94"/>
+      <c r="AC25" s="94"/>
+      <c r="AD25" s="94"/>
+      <c r="AE25" s="94"/>
     </row>
     <row r="27" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
@@ -4448,34 +4454,34 @@
       <c r="W27" s="75">
         <v>0.37</v>
       </c>
-      <c r="X27" s="108">
+      <c r="X27" s="95">
         <v>0.38</v>
       </c>
-      <c r="Y27" s="108">
+      <c r="Y27" s="95">
         <v>0.38</v>
       </c>
-      <c r="Z27" s="108">
+      <c r="Z27" s="95">
         <v>0.38</v>
       </c>
-      <c r="AA27" s="108">
+      <c r="AA27" s="95">
         <v>0.38</v>
       </c>
-      <c r="AB27" s="108">
+      <c r="AB27" s="95">
         <v>0.38</v>
       </c>
-      <c r="AC27" s="108">
+      <c r="AC27" s="95">
         <v>0.38</v>
       </c>
-      <c r="AD27" s="108">
+      <c r="AD27" s="95">
         <v>0.38</v>
       </c>
-      <c r="AE27" s="108">
+      <c r="AE27" s="95">
         <v>0.38</v>
       </c>
-      <c r="AG27" s="115" t="s">
+      <c r="AG27" s="102" t="s">
         <v>146</v>
       </c>
-      <c r="AH27" s="118">
+      <c r="AH27" s="105">
         <v>0.01</v>
       </c>
     </row>
@@ -4519,42 +4525,42 @@
         <f>W8/W4</f>
         <v>0.11143569618183302</v>
       </c>
-      <c r="X28" s="108">
+      <c r="X28" s="95">
         <f t="shared" ref="X28:AE28" si="54">X8/X4</f>
         <v>2.1499184182742999E-2</v>
       </c>
-      <c r="Y28" s="108">
+      <c r="Y28" s="95">
         <f t="shared" si="54"/>
         <v>3.2732066247249017E-2</v>
       </c>
-      <c r="Z28" s="108">
+      <c r="Z28" s="95">
         <f t="shared" si="54"/>
         <v>4.1718371898853836E-2</v>
       </c>
-      <c r="AA28" s="108">
+      <c r="AA28" s="95">
         <f t="shared" si="54"/>
         <v>4.8269136766378826E-2</v>
       </c>
-      <c r="AB28" s="108">
+      <c r="AB28" s="95">
         <f t="shared" si="54"/>
         <v>5.043192897660935E-2</v>
       </c>
-      <c r="AC28" s="108">
+      <c r="AC28" s="95">
         <f t="shared" si="54"/>
         <v>5.2574123165790076E-2</v>
       </c>
-      <c r="AD28" s="108">
+      <c r="AD28" s="95">
         <f t="shared" si="54"/>
         <v>5.4695915505549905E-2</v>
       </c>
-      <c r="AE28" s="108">
+      <c r="AE28" s="95">
         <f t="shared" si="54"/>
         <v>5.6797500299216847E-2</v>
       </c>
-      <c r="AG28" s="116" t="s">
+      <c r="AG28" s="103" t="s">
         <v>147</v>
       </c>
-      <c r="AH28" s="119">
+      <c r="AH28" s="106">
         <v>0.08</v>
       </c>
     </row>
@@ -4630,10 +4636,10 @@
         <f t="shared" si="61"/>
         <v>8.3221188036457616E-2</v>
       </c>
-      <c r="AG29" s="116" t="s">
+      <c r="AG29" s="103" t="s">
         <v>148</v>
       </c>
-      <c r="AH29" s="120">
+      <c r="AH29" s="107">
         <f>NPV(AH28,W16:DR16)</f>
         <v>9025.0227381820041</v>
       </c>
@@ -4677,39 +4683,39 @@
       <c r="W30" s="75">
         <v>0.2</v>
       </c>
-      <c r="X30" s="108">
+      <c r="X30" s="95">
         <f>W30</f>
         <v>0.2</v>
       </c>
-      <c r="Y30" s="108">
+      <c r="Y30" s="95">
         <f t="shared" ref="Y30:AD30" si="68">X30</f>
         <v>0.2</v>
       </c>
-      <c r="Z30" s="108">
+      <c r="Z30" s="95">
         <f t="shared" si="68"/>
         <v>0.2</v>
       </c>
-      <c r="AA30" s="108">
+      <c r="AA30" s="95">
         <f t="shared" si="68"/>
         <v>0.2</v>
       </c>
-      <c r="AB30" s="108">
+      <c r="AB30" s="95">
         <f t="shared" si="68"/>
         <v>0.2</v>
       </c>
-      <c r="AC30" s="108">
+      <c r="AC30" s="95">
         <f t="shared" si="68"/>
         <v>0.2</v>
       </c>
-      <c r="AD30" s="108">
+      <c r="AD30" s="95">
         <f t="shared" si="68"/>
         <v>0.2</v>
       </c>
-      <c r="AE30" s="108">
+      <c r="AE30" s="95">
         <f t="shared" ref="AE30" si="69">AD30</f>
         <v>0.2</v>
       </c>
-      <c r="AG30" s="116" t="s">
+      <c r="AG30" s="103" t="s">
         <v>7</v>
       </c>
       <c r="AH30" s="6">
@@ -4718,10 +4724,10 @@
       </c>
     </row>
     <row r="31" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="AG31" s="116" t="s">
+      <c r="AG31" s="103" t="s">
         <v>149</v>
       </c>
-      <c r="AH31" s="120">
+      <c r="AH31" s="107">
         <f>AH29-AH30</f>
         <v>9741.0227381820041</v>
       </c>
@@ -4730,7 +4736,7 @@
       <c r="AG32" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="AH32" s="121">
+      <c r="AH32" s="108">
         <f>AH31/Main!C7</f>
         <v>9.7255299689414816</v>
       </c>
@@ -4739,10 +4745,10 @@
       <c r="B33" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="AG33" s="116" t="s">
+      <c r="AG33" s="103" t="s">
         <v>151</v>
       </c>
-      <c r="AH33" s="122">
+      <c r="AH33" s="109">
         <f>Main!C6</f>
         <v>5.7348999999999997</v>
       </c>
@@ -4789,18 +4795,18 @@
         <v>1140</v>
       </c>
       <c r="W34" s="69"/>
-      <c r="X34" s="103"/>
-      <c r="Y34" s="103"/>
-      <c r="Z34" s="103"/>
-      <c r="AA34" s="103"/>
-      <c r="AB34" s="103"/>
-      <c r="AC34" s="103"/>
-      <c r="AD34" s="103"/>
-      <c r="AE34" s="103"/>
-      <c r="AG34" s="117" t="s">
+      <c r="X34" s="90"/>
+      <c r="Y34" s="90"/>
+      <c r="Z34" s="90"/>
+      <c r="AA34" s="90"/>
+      <c r="AB34" s="90"/>
+      <c r="AC34" s="90"/>
+      <c r="AD34" s="90"/>
+      <c r="AE34" s="90"/>
+      <c r="AG34" s="104" t="s">
         <v>152</v>
       </c>
-      <c r="AH34" s="123">
+      <c r="AH34" s="110">
         <f>AH32/AH33-1</f>
         <v>0.69584996581308856</v>
       </c>
@@ -5125,13 +5131,13 @@
       <c r="Y41" s="35"/>
       <c r="Z41" s="35"/>
       <c r="AA41" s="35"/>
-      <c r="AB41" s="108"/>
-      <c r="AC41" s="108"/>
-      <c r="AD41" s="108"/>
-      <c r="AE41" s="108"/>
-      <c r="AF41" s="108"/>
-      <c r="AG41" s="108"/>
-      <c r="AH41" s="108"/>
+      <c r="AB41" s="95"/>
+      <c r="AC41" s="95"/>
+      <c r="AD41" s="95"/>
+      <c r="AE41" s="95"/>
+      <c r="AF41" s="95"/>
+      <c r="AG41" s="95"/>
+      <c r="AH41" s="95"/>
     </row>
     <row r="42" spans="2:34" s="46" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B42" s="45" t="s">
@@ -5174,65 +5180,65 @@
         <v>21</v>
       </c>
       <c r="W42" s="70"/>
-      <c r="X42" s="110"/>
-      <c r="Y42" s="110"/>
-      <c r="Z42" s="110"/>
-      <c r="AA42" s="110"/>
-      <c r="AB42" s="110"/>
-      <c r="AC42" s="110"/>
-      <c r="AD42" s="110"/>
-      <c r="AE42" s="110"/>
-    </row>
-    <row r="43" spans="2:34" s="98" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="98" t="s">
+      <c r="X42" s="97"/>
+      <c r="Y42" s="97"/>
+      <c r="Z42" s="97"/>
+      <c r="AA42" s="97"/>
+      <c r="AB42" s="97"/>
+      <c r="AC42" s="97"/>
+      <c r="AD42" s="97"/>
+      <c r="AE42" s="97"/>
+    </row>
+    <row r="43" spans="2:34" s="85" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="85" t="s">
         <v>145</v>
       </c>
-      <c r="D43" s="99"/>
-      <c r="F43" s="99"/>
-      <c r="H43" s="99"/>
-      <c r="J43" s="99"/>
-      <c r="L43" s="99"/>
-      <c r="O43" s="98">
-        <f t="shared" ref="O43:V43" si="77">O4/O34</f>
+      <c r="D43" s="86"/>
+      <c r="F43" s="86"/>
+      <c r="H43" s="86"/>
+      <c r="J43" s="86"/>
+      <c r="L43" s="86"/>
+      <c r="O43" s="85">
+        <f t="shared" ref="O43:U43" si="77">O4/O34</f>
         <v>3.6671801801801802</v>
       </c>
-      <c r="P43" s="98">
+      <c r="P43" s="85">
         <f t="shared" si="77"/>
         <v>3.7510185185185181</v>
       </c>
-      <c r="Q43" s="98">
+      <c r="Q43" s="85">
         <f t="shared" si="77"/>
         <v>3.2683948220064725</v>
       </c>
-      <c r="R43" s="98">
+      <c r="R43" s="85">
         <f t="shared" si="77"/>
         <v>3.1896569075937786</v>
       </c>
-      <c r="S43" s="98">
+      <c r="S43" s="85">
         <f t="shared" si="77"/>
         <v>3.6317971428571432</v>
       </c>
-      <c r="T43" s="98">
+      <c r="T43" s="85">
         <f t="shared" si="77"/>
         <v>4.4009395050412463</v>
       </c>
-      <c r="U43" s="98">
+      <c r="U43" s="85">
         <f t="shared" si="77"/>
         <v>4.1760500446827526</v>
       </c>
-      <c r="V43" s="98">
+      <c r="V43" s="85">
         <f>V4/V34</f>
         <v>4.3710526315789471</v>
       </c>
-      <c r="W43" s="100"/>
-      <c r="X43" s="111"/>
-      <c r="Y43" s="111"/>
-      <c r="Z43" s="111"/>
-      <c r="AA43" s="111"/>
-      <c r="AB43" s="111"/>
-      <c r="AC43" s="111"/>
-      <c r="AD43" s="111"/>
-      <c r="AE43" s="111"/>
+      <c r="W43" s="87"/>
+      <c r="X43" s="98"/>
+      <c r="Y43" s="98"/>
+      <c r="Z43" s="98"/>
+      <c r="AA43" s="98"/>
+      <c r="AB43" s="98"/>
+      <c r="AC43" s="98"/>
+      <c r="AD43" s="98"/>
+      <c r="AE43" s="98"/>
     </row>
     <row r="44" spans="2:34" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B44" s="23"/>
@@ -5242,14 +5248,14 @@
       <c r="J44" s="55"/>
       <c r="L44" s="55"/>
       <c r="W44" s="69"/>
-      <c r="X44" s="103"/>
-      <c r="Y44" s="103"/>
-      <c r="Z44" s="103"/>
-      <c r="AA44" s="103"/>
-      <c r="AB44" s="103"/>
-      <c r="AC44" s="103"/>
-      <c r="AD44" s="103"/>
-      <c r="AE44" s="103"/>
+      <c r="X44" s="90"/>
+      <c r="Y44" s="90"/>
+      <c r="Z44" s="90"/>
+      <c r="AA44" s="90"/>
+      <c r="AB44" s="90"/>
+      <c r="AC44" s="90"/>
+      <c r="AD44" s="90"/>
+      <c r="AE44" s="90"/>
     </row>
     <row r="45" spans="2:34" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B45" s="23"/>
@@ -5259,14 +5265,14 @@
       <c r="J45" s="55"/>
       <c r="L45" s="55"/>
       <c r="W45" s="69"/>
-      <c r="X45" s="103"/>
-      <c r="Y45" s="103"/>
-      <c r="Z45" s="103"/>
-      <c r="AA45" s="103"/>
-      <c r="AB45" s="103"/>
-      <c r="AC45" s="103"/>
-      <c r="AD45" s="103"/>
-      <c r="AE45" s="103"/>
+      <c r="X45" s="90"/>
+      <c r="Y45" s="90"/>
+      <c r="Z45" s="90"/>
+      <c r="AA45" s="90"/>
+      <c r="AB45" s="90"/>
+      <c r="AC45" s="90"/>
+      <c r="AD45" s="90"/>
+      <c r="AE45" s="90"/>
     </row>
     <row r="46" spans="2:34" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B46" s="22" t="s">
@@ -5309,14 +5315,14 @@
         <v>39484</v>
       </c>
       <c r="W46" s="69"/>
-      <c r="X46" s="103"/>
-      <c r="Y46" s="103"/>
-      <c r="Z46" s="103"/>
-      <c r="AA46" s="103"/>
-      <c r="AB46" s="103"/>
-      <c r="AC46" s="103"/>
-      <c r="AD46" s="103"/>
-      <c r="AE46" s="103"/>
+      <c r="X46" s="90"/>
+      <c r="Y46" s="90"/>
+      <c r="Z46" s="90"/>
+      <c r="AA46" s="90"/>
+      <c r="AB46" s="90"/>
+      <c r="AC46" s="90"/>
+      <c r="AD46" s="90"/>
+      <c r="AE46" s="90"/>
     </row>
     <row r="47" spans="2:34" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B47" s="33" t="s">
@@ -5571,14 +5577,14 @@
         <v>39484</v>
       </c>
       <c r="W54" s="71"/>
-      <c r="X54" s="112"/>
-      <c r="Y54" s="112"/>
-      <c r="Z54" s="112"/>
-      <c r="AA54" s="112"/>
-      <c r="AB54" s="112"/>
-      <c r="AC54" s="112"/>
-      <c r="AD54" s="112"/>
-      <c r="AE54" s="112"/>
+      <c r="X54" s="99"/>
+      <c r="Y54" s="99"/>
+      <c r="Z54" s="99"/>
+      <c r="AA54" s="99"/>
+      <c r="AB54" s="99"/>
+      <c r="AC54" s="99"/>
+      <c r="AD54" s="99"/>
+      <c r="AE54" s="99"/>
     </row>
     <row r="58" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B58" s="29" t="s">
@@ -5936,14 +5942,14 @@
         <v>237</v>
       </c>
       <c r="W66" s="69"/>
-      <c r="X66" s="103"/>
-      <c r="Y66" s="103"/>
-      <c r="Z66" s="103"/>
-      <c r="AA66" s="103"/>
-      <c r="AB66" s="103"/>
-      <c r="AC66" s="103"/>
-      <c r="AD66" s="103"/>
-      <c r="AE66" s="103"/>
+      <c r="X66" s="90"/>
+      <c r="Y66" s="90"/>
+      <c r="Z66" s="90"/>
+      <c r="AA66" s="90"/>
+      <c r="AB66" s="90"/>
+      <c r="AC66" s="90"/>
+      <c r="AD66" s="90"/>
+      <c r="AE66" s="90"/>
     </row>
     <row r="67" spans="2:31" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B67" s="22" t="s">
@@ -5979,14 +5985,14 @@
         <v>764</v>
       </c>
       <c r="W67" s="69"/>
-      <c r="X67" s="103"/>
-      <c r="Y67" s="103"/>
-      <c r="Z67" s="103"/>
-      <c r="AA67" s="103"/>
-      <c r="AB67" s="103"/>
-      <c r="AC67" s="103"/>
-      <c r="AD67" s="103"/>
-      <c r="AE67" s="103"/>
+      <c r="X67" s="90"/>
+      <c r="Y67" s="90"/>
+      <c r="Z67" s="90"/>
+      <c r="AA67" s="90"/>
+      <c r="AB67" s="90"/>
+      <c r="AC67" s="90"/>
+      <c r="AD67" s="90"/>
+      <c r="AE67" s="90"/>
     </row>
     <row r="68" spans="2:31" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B68" s="23" t="s">
@@ -6108,14 +6114,14 @@
         <v>1</v>
       </c>
       <c r="W70" s="69"/>
-      <c r="X70" s="103"/>
-      <c r="Y70" s="103"/>
-      <c r="Z70" s="103"/>
-      <c r="AA70" s="103"/>
-      <c r="AB70" s="103"/>
-      <c r="AC70" s="103"/>
-      <c r="AD70" s="103"/>
-      <c r="AE70" s="103"/>
+      <c r="X70" s="90"/>
+      <c r="Y70" s="90"/>
+      <c r="Z70" s="90"/>
+      <c r="AA70" s="90"/>
+      <c r="AB70" s="90"/>
+      <c r="AC70" s="90"/>
+      <c r="AD70" s="90"/>
+      <c r="AE70" s="90"/>
     </row>
     <row r="71" spans="2:31" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B71" s="23" t="s">
@@ -6221,14 +6227,14 @@
         <v>873</v>
       </c>
       <c r="W73" s="69"/>
-      <c r="X73" s="103"/>
-      <c r="Y73" s="103"/>
-      <c r="Z73" s="103"/>
-      <c r="AA73" s="103"/>
-      <c r="AB73" s="103"/>
-      <c r="AC73" s="103"/>
-      <c r="AD73" s="103"/>
-      <c r="AE73" s="103"/>
+      <c r="X73" s="90"/>
+      <c r="Y73" s="90"/>
+      <c r="Z73" s="90"/>
+      <c r="AA73" s="90"/>
+      <c r="AB73" s="90"/>
+      <c r="AC73" s="90"/>
+      <c r="AD73" s="90"/>
+      <c r="AE73" s="90"/>
     </row>
     <row r="74" spans="2:31" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B74" s="23" t="s">
@@ -6452,14 +6458,14 @@
         <v>81</v>
       </c>
       <c r="W78" s="69"/>
-      <c r="X78" s="103"/>
-      <c r="Y78" s="103"/>
-      <c r="Z78" s="103"/>
-      <c r="AA78" s="103"/>
-      <c r="AB78" s="103"/>
-      <c r="AC78" s="103"/>
-      <c r="AD78" s="103"/>
-      <c r="AE78" s="103"/>
+      <c r="X78" s="90"/>
+      <c r="Y78" s="90"/>
+      <c r="Z78" s="90"/>
+      <c r="AA78" s="90"/>
+      <c r="AB78" s="90"/>
+      <c r="AC78" s="90"/>
+      <c r="AD78" s="90"/>
+      <c r="AE78" s="90"/>
     </row>
     <row r="79" spans="2:31" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B79" s="23" t="s">
@@ -6915,46 +6921,46 @@
       <c r="J90" s="60"/>
       <c r="L90" s="60"/>
       <c r="O90" s="38">
-        <f>O89/O22</f>
+        <f t="shared" ref="O90:V90" si="92">O89/O22</f>
         <v>0.81396336740048425</v>
       </c>
       <c r="P90" s="38">
-        <f>P89/P22</f>
+        <f t="shared" si="92"/>
         <v>0.81346060783004115</v>
       </c>
       <c r="Q90" s="38">
-        <f>Q89/Q22</f>
+        <f t="shared" si="92"/>
         <v>0.92541255642576747</v>
       </c>
       <c r="R90" s="38">
-        <f>R89/R22</f>
+        <f t="shared" si="92"/>
         <v>1.067158900874513</v>
       </c>
       <c r="S90" s="38">
-        <f>S89/S22</f>
+        <f t="shared" si="92"/>
         <v>0.86690486422738977</v>
       </c>
       <c r="T90" s="38">
-        <f>T89/T22</f>
+        <f t="shared" si="92"/>
         <v>0.73245894103597842</v>
       </c>
       <c r="U90" s="38">
-        <f>U89/U22</f>
+        <f t="shared" si="92"/>
         <v>0.74520933289779545</v>
       </c>
       <c r="V90" s="38">
-        <f>V89/V22</f>
+        <f t="shared" si="92"/>
         <v>0.71885486420132727</v>
       </c>
       <c r="W90" s="72"/>
-      <c r="X90" s="113"/>
-      <c r="Y90" s="113"/>
-      <c r="Z90" s="113"/>
-      <c r="AA90" s="113"/>
-      <c r="AB90" s="113"/>
-      <c r="AC90" s="113"/>
-      <c r="AD90" s="113"/>
-      <c r="AE90" s="113"/>
+      <c r="X90" s="100"/>
+      <c r="Y90" s="100"/>
+      <c r="Z90" s="100"/>
+      <c r="AA90" s="100"/>
+      <c r="AB90" s="100"/>
+      <c r="AC90" s="100"/>
+      <c r="AD90" s="100"/>
+      <c r="AE90" s="100"/>
     </row>
     <row r="91" spans="2:31" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D91" s="56"/>
@@ -6982,31 +6988,31 @@
       <c r="J92" s="56"/>
       <c r="L92" s="56"/>
       <c r="O92" s="23">
-        <f t="shared" ref="O92:P92" si="92">+O66+O70</f>
+        <f t="shared" ref="O92:P92" si="93">+O66+O70</f>
         <v>95.917000000000002</v>
       </c>
       <c r="P92" s="23">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>155.92099999999999</v>
       </c>
       <c r="Q92" s="23">
-        <f t="shared" ref="Q92:R92" si="93">+Q66+Q70</f>
+        <f t="shared" ref="Q92:R92" si="94">+Q66+Q70</f>
         <v>90.816000000000003</v>
       </c>
       <c r="R92" s="23">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>89.983000000000004</v>
       </c>
       <c r="S92" s="23">
-        <f t="shared" ref="S92" si="94">+S66+S70</f>
+        <f t="shared" ref="S92" si="95">+S66+S70</f>
         <v>444.90699999999998</v>
       </c>
       <c r="T92" s="23">
-        <f t="shared" ref="T92" si="95">+T66+T70</f>
+        <f t="shared" ref="T92" si="96">+T66+T70</f>
         <v>221.44899999999998</v>
       </c>
       <c r="U92" s="23">
-        <f t="shared" ref="U92" si="96">+U66+U70</f>
+        <f t="shared" ref="U92" si="97">+U66+U70</f>
         <v>198</v>
       </c>
       <c r="V92" s="23">
@@ -7033,31 +7039,31 @@
       <c r="J93" s="56"/>
       <c r="L93" s="56"/>
       <c r="O93" s="23">
-        <f t="shared" ref="O93:P93" si="97">+O73+O78</f>
+        <f t="shared" ref="O93:P93" si="98">+O73+O78</f>
         <v>451.18299999999999</v>
       </c>
       <c r="P93" s="23">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>561.61099999999999</v>
       </c>
       <c r="Q93" s="23">
-        <f t="shared" ref="Q93:R93" si="98">+Q73+Q78</f>
+        <f t="shared" ref="Q93:R93" si="99">+Q73+Q78</f>
         <v>630.95899999999995</v>
       </c>
       <c r="R93" s="23">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>692.85900000000004</v>
       </c>
       <c r="S93" s="23">
-        <f t="shared" ref="S93" si="99">+S73+S78</f>
+        <f t="shared" ref="S93" si="100">+S73+S78</f>
         <v>773.40800000000002</v>
       </c>
       <c r="T93" s="23">
-        <f t="shared" ref="T93" si="100">+T73+T78</f>
+        <f t="shared" ref="T93" si="101">+T73+T78</f>
         <v>730.61099999999999</v>
       </c>
       <c r="U93" s="23">
-        <f t="shared" ref="U93" si="101">+U73+U78</f>
+        <f t="shared" ref="U93" si="102">+U73+U78</f>
         <v>956</v>
       </c>
       <c r="V93" s="23">
@@ -7084,31 +7090,31 @@
       <c r="J94" s="56"/>
       <c r="L94" s="56"/>
       <c r="O94" s="23">
-        <f t="shared" ref="O94:U94" si="102">O92-O93</f>
+        <f t="shared" ref="O94:U94" si="103">O92-O93</f>
         <v>-355.26599999999996</v>
       </c>
       <c r="P94" s="23">
-        <f t="shared" si="102"/>
+        <f t="shared" si="103"/>
         <v>-405.69</v>
       </c>
       <c r="Q94" s="23">
-        <f t="shared" si="102"/>
+        <f t="shared" si="103"/>
         <v>-540.14299999999992</v>
       </c>
       <c r="R94" s="23">
-        <f t="shared" si="102"/>
+        <f t="shared" si="103"/>
         <v>-602.87599999999998</v>
       </c>
       <c r="S94" s="23">
-        <f t="shared" si="102"/>
+        <f t="shared" si="103"/>
         <v>-328.50100000000003</v>
       </c>
       <c r="T94" s="23">
-        <f t="shared" si="102"/>
+        <f t="shared" si="103"/>
         <v>-509.16200000000003</v>
       </c>
       <c r="U94" s="23">
-        <f t="shared" si="102"/>
+        <f t="shared" si="103"/>
         <v>-758</v>
       </c>
       <c r="V94" s="23">
@@ -7154,19 +7160,19 @@
         <v>73</v>
       </c>
       <c r="P96" s="28">
-        <f t="shared" ref="P96:S96" si="103">P67/O67-1</f>
+        <f t="shared" ref="P96:S96" si="104">P67/O67-1</f>
         <v>0.29695042546981298</v>
       </c>
       <c r="Q96" s="28">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>0.20897431181145976</v>
       </c>
       <c r="R96" s="28">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>0.20052444110329515</v>
       </c>
       <c r="S96" s="28">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>-0.12333145972766624</v>
       </c>
       <c r="T96" s="28">
@@ -7182,14 +7188,14 @@
         <v>-0.11471610660486675</v>
       </c>
       <c r="W96" s="69"/>
-      <c r="X96" s="103"/>
-      <c r="Y96" s="103"/>
-      <c r="Z96" s="103"/>
-      <c r="AA96" s="103"/>
-      <c r="AB96" s="103"/>
-      <c r="AC96" s="103"/>
-      <c r="AD96" s="103"/>
-      <c r="AE96" s="103"/>
+      <c r="X96" s="90"/>
+      <c r="Y96" s="90"/>
+      <c r="Z96" s="90"/>
+      <c r="AA96" s="90"/>
+      <c r="AB96" s="90"/>
+      <c r="AC96" s="90"/>
+      <c r="AD96" s="90"/>
+      <c r="AE96" s="90"/>
     </row>
     <row r="97" spans="2:31" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B97" s="23" t="s">
@@ -7244,35 +7250,35 @@
       <c r="J98" s="56"/>
       <c r="L98" s="56"/>
       <c r="O98" s="40">
-        <f>O67/O4</f>
+        <f t="shared" ref="O98:V98" si="105">O67/O4</f>
         <v>0.1750673738567326</v>
       </c>
       <c r="P98" s="40">
-        <f>P67/P4</f>
+        <f t="shared" si="105"/>
         <v>0.19012079023804238</v>
       </c>
       <c r="Q98" s="40">
-        <f>Q67/Q4</f>
+        <f t="shared" si="105"/>
         <v>0.18439818839646949</v>
       </c>
       <c r="R98" s="40">
-        <f>R67/R4</f>
+        <f t="shared" si="105"/>
         <v>0.1923879075063929</v>
       </c>
       <c r="S98" s="40">
-        <f>S67/S4</f>
+        <f t="shared" si="105"/>
         <v>0.15419363416301571</v>
       </c>
       <c r="T98" s="40">
-        <f>T67/T4</f>
+        <f t="shared" si="105"/>
         <v>0.12603050136157493</v>
       </c>
       <c r="U98" s="40">
-        <f>U67/U4</f>
+        <f t="shared" si="105"/>
         <v>0.18467793708538413</v>
       </c>
       <c r="V98" s="40">
-        <f>V67/V4</f>
+        <f t="shared" si="105"/>
         <v>0.15332129239414008</v>
       </c>
       <c r="W98" s="39"/>
@@ -7319,14 +7325,14 @@
         <v>4.6698000000000004</v>
       </c>
       <c r="W100" s="66"/>
-      <c r="X100" s="104"/>
-      <c r="Y100" s="104"/>
-      <c r="Z100" s="104"/>
-      <c r="AA100" s="104"/>
-      <c r="AB100" s="104"/>
-      <c r="AC100" s="104"/>
-      <c r="AD100" s="104"/>
-      <c r="AE100" s="104"/>
+      <c r="X100" s="91"/>
+      <c r="Y100" s="91"/>
+      <c r="Z100" s="91"/>
+      <c r="AA100" s="91"/>
+      <c r="AB100" s="91"/>
+      <c r="AC100" s="91"/>
+      <c r="AD100" s="91"/>
+      <c r="AE100" s="91"/>
     </row>
     <row r="101" spans="2:31" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B101" s="35" t="s">
@@ -7338,35 +7344,35 @@
       <c r="J101" s="58"/>
       <c r="L101" s="58"/>
       <c r="O101" s="35">
-        <f>O100*O22</f>
+        <f t="shared" ref="O101:V101" si="106">O100*O22</f>
         <v>1691.5030825000001</v>
       </c>
       <c r="P101" s="35">
-        <f>P100*P22</f>
+        <f t="shared" si="106"/>
         <v>2063.9054128000002</v>
       </c>
       <c r="Q101" s="35">
-        <f>Q100*Q22</f>
+        <f t="shared" si="106"/>
         <v>2694.6530778999995</v>
       </c>
       <c r="R101" s="35">
-        <f>R100*R22</f>
+        <f t="shared" si="106"/>
         <v>2624.2583024</v>
       </c>
       <c r="S101" s="35">
-        <f>S100*S22</f>
+        <f t="shared" si="106"/>
         <v>2039.16166</v>
       </c>
       <c r="T101" s="35">
-        <f>T100*T22</f>
+        <f t="shared" si="106"/>
         <v>4521.2400794999994</v>
       </c>
       <c r="U101" s="35">
-        <f>U100*U22</f>
+        <f t="shared" si="106"/>
         <v>5038.6403313000001</v>
       </c>
       <c r="V101" s="35">
-        <f>V100*V22</f>
+        <f t="shared" si="106"/>
         <v>4677.2389914000005</v>
       </c>
       <c r="W101" s="39"/>
@@ -7381,31 +7387,31 @@
       <c r="J102" s="58"/>
       <c r="L102" s="58"/>
       <c r="O102" s="35">
-        <f t="shared" ref="O102:R102" si="104">O101-O94</f>
+        <f t="shared" ref="O102:R102" si="107">O101-O94</f>
         <v>2046.7690825</v>
       </c>
       <c r="P102" s="35">
-        <f t="shared" si="104"/>
+        <f t="shared" si="107"/>
         <v>2469.5954128000003</v>
       </c>
       <c r="Q102" s="35">
-        <f t="shared" si="104"/>
+        <f t="shared" si="107"/>
         <v>3234.7960778999995</v>
       </c>
       <c r="R102" s="35">
-        <f t="shared" si="104"/>
+        <f t="shared" si="107"/>
         <v>3227.1343023999998</v>
       </c>
       <c r="S102" s="35">
-        <f t="shared" ref="S102" si="105">S101-S94</f>
+        <f t="shared" ref="S102" si="108">S101-S94</f>
         <v>2367.66266</v>
       </c>
       <c r="T102" s="35">
-        <f t="shared" ref="T102" si="106">T101-T94</f>
+        <f t="shared" ref="T102" si="109">T101-T94</f>
         <v>5030.4020794999997</v>
       </c>
       <c r="U102" s="35">
-        <f t="shared" ref="U102" si="107">U101-U94</f>
+        <f t="shared" ref="U102" si="110">U101-U94</f>
         <v>5796.6403313000001</v>
       </c>
       <c r="V102" s="35">
@@ -7429,31 +7435,31 @@
       <c r="J105" s="59"/>
       <c r="L105" s="59"/>
       <c r="O105" s="48">
-        <f t="shared" ref="O105:R105" si="108">O100/O90</f>
+        <f t="shared" ref="O105:R105" si="111">O100/O90</f>
         <v>2.0771205040830125</v>
       </c>
       <c r="P105" s="48">
-        <f t="shared" si="108"/>
+        <f t="shared" si="111"/>
         <v>2.5368161409865766</v>
       </c>
       <c r="Q105" s="48">
-        <f t="shared" si="108"/>
+        <f t="shared" si="111"/>
         <v>2.9099453873857315</v>
       </c>
       <c r="R105" s="48">
-        <f t="shared" si="108"/>
+        <f t="shared" si="111"/>
         <v>2.4566163463113666</v>
       </c>
       <c r="S105" s="48">
-        <f t="shared" ref="S105:U105" si="109">S100/S90</f>
+        <f t="shared" ref="S105:U105" si="112">S100/S90</f>
         <v>2.3508923344389392</v>
       </c>
       <c r="T105" s="48">
-        <f t="shared" si="109"/>
+        <f t="shared" si="112"/>
         <v>6.1684003660460069</v>
       </c>
       <c r="U105" s="48">
-        <f t="shared" si="109"/>
+        <f t="shared" si="112"/>
         <v>6.7542095593833773</v>
       </c>
       <c r="V105" s="48">
@@ -7461,14 +7467,14 @@
         <v>6.4961652658333344</v>
       </c>
       <c r="W105" s="71"/>
-      <c r="X105" s="112"/>
-      <c r="Y105" s="112"/>
-      <c r="Z105" s="112"/>
-      <c r="AA105" s="112"/>
-      <c r="AB105" s="112"/>
-      <c r="AC105" s="112"/>
-      <c r="AD105" s="112"/>
-      <c r="AE105" s="112"/>
+      <c r="X105" s="99"/>
+      <c r="Y105" s="99"/>
+      <c r="Z105" s="99"/>
+      <c r="AA105" s="99"/>
+      <c r="AB105" s="99"/>
+      <c r="AC105" s="99"/>
+      <c r="AD105" s="99"/>
+      <c r="AE105" s="99"/>
     </row>
     <row r="106" spans="2:31" s="45" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B106" s="45" t="s">
@@ -7480,46 +7486,46 @@
       <c r="J106" s="59"/>
       <c r="L106" s="59"/>
       <c r="O106" s="48">
-        <f>O101/O4</f>
+        <f t="shared" ref="O106:V106" si="113">O101/O4</f>
         <v>0.8310890526388196</v>
       </c>
       <c r="P106" s="48">
-        <f>P101/P4</f>
+        <f t="shared" si="113"/>
         <v>0.84911316794615466</v>
       </c>
       <c r="Q106" s="48">
-        <f>Q101/Q4</f>
+        <f t="shared" si="113"/>
         <v>0.88938256622049872</v>
       </c>
       <c r="R106" s="48">
-        <f>R101/R4</f>
+        <f t="shared" si="113"/>
         <v>0.75273558387916106</v>
       </c>
       <c r="S106" s="48">
-        <f>S101/S4</f>
+        <f t="shared" si="113"/>
         <v>0.53473766496817654</v>
       </c>
       <c r="T106" s="48">
-        <f>T101/T4</f>
+        <f t="shared" si="113"/>
         <v>0.94164546556491024</v>
       </c>
       <c r="U106" s="48">
-        <f>U101/U4</f>
+        <f t="shared" si="113"/>
         <v>1.0782453095013911</v>
       </c>
       <c r="V106" s="48">
-        <f>V101/V4</f>
+        <f t="shared" si="113"/>
         <v>0.93863917146297426</v>
       </c>
       <c r="W106" s="71"/>
-      <c r="X106" s="112"/>
-      <c r="Y106" s="112"/>
-      <c r="Z106" s="112"/>
-      <c r="AA106" s="112"/>
-      <c r="AB106" s="112"/>
-      <c r="AC106" s="112"/>
-      <c r="AD106" s="112"/>
-      <c r="AE106" s="112"/>
+      <c r="X106" s="99"/>
+      <c r="Y106" s="99"/>
+      <c r="Z106" s="99"/>
+      <c r="AA106" s="99"/>
+      <c r="AB106" s="99"/>
+      <c r="AC106" s="99"/>
+      <c r="AD106" s="99"/>
+      <c r="AE106" s="99"/>
     </row>
     <row r="107" spans="2:31" s="45" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B107" s="45" t="s">
@@ -7531,46 +7537,46 @@
       <c r="J107" s="59"/>
       <c r="L107" s="59"/>
       <c r="O107" s="48">
-        <f>O100/O21</f>
+        <f t="shared" ref="O107:V107" si="114">O100/O21</f>
         <v>12.971848360404286</v>
       </c>
       <c r="P107" s="48">
-        <f>P100/P21</f>
+        <f t="shared" si="114"/>
         <v>14.026337373339246</v>
       </c>
       <c r="Q107" s="48">
-        <f>Q100/Q21</f>
+        <f t="shared" si="114"/>
         <v>15.64176091378217</v>
       </c>
       <c r="R107" s="48">
-        <f>R100/R21</f>
+        <f t="shared" si="114"/>
         <v>12.127671394637359</v>
       </c>
       <c r="S107" s="48">
-        <f>S100/S21</f>
+        <f t="shared" si="114"/>
         <v>10.008941364720664</v>
       </c>
       <c r="T107" s="48">
-        <f>T100/T21</f>
+        <f t="shared" si="114"/>
         <v>11.015271163254162</v>
       </c>
       <c r="U107" s="48">
-        <f>U100/U21</f>
+        <f t="shared" si="114"/>
         <v>11.556514521330275</v>
       </c>
       <c r="V107" s="48">
-        <f>V100/V21</f>
+        <f t="shared" si="114"/>
         <v>12.117199459585493</v>
       </c>
       <c r="W107" s="71"/>
-      <c r="X107" s="112"/>
-      <c r="Y107" s="112"/>
-      <c r="Z107" s="112"/>
-      <c r="AA107" s="112"/>
-      <c r="AB107" s="112"/>
-      <c r="AC107" s="112"/>
-      <c r="AD107" s="112"/>
-      <c r="AE107" s="112"/>
+      <c r="X107" s="99"/>
+      <c r="Y107" s="99"/>
+      <c r="Z107" s="99"/>
+      <c r="AA107" s="99"/>
+      <c r="AB107" s="99"/>
+      <c r="AC107" s="99"/>
+      <c r="AD107" s="99"/>
+      <c r="AE107" s="99"/>
     </row>
     <row r="108" spans="2:31" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B108" s="36" t="s">
@@ -7582,46 +7588,46 @@
       <c r="J108" s="61"/>
       <c r="L108" s="61"/>
       <c r="O108" s="47">
-        <f>O102/O4</f>
+        <f t="shared" ref="O108:V108" si="115">O102/O4</f>
         <v>1.0056424935574133</v>
       </c>
       <c r="P108" s="47">
-        <f>P102/P4</f>
+        <f t="shared" si="115"/>
         <v>1.0160184529304799</v>
       </c>
       <c r="Q108" s="47">
-        <f>Q102/Q4</f>
+        <f t="shared" si="115"/>
         <v>1.0676592324844989</v>
       </c>
       <c r="R108" s="47">
-        <f>R102/R4</f>
+        <f t="shared" si="115"/>
         <v>0.92566300396265944</v>
       </c>
       <c r="S108" s="47">
-        <f>S102/S4</f>
+        <f t="shared" si="115"/>
         <v>0.62088181975760648</v>
       </c>
       <c r="T108" s="47">
-        <f>T102/T4</f>
+        <f t="shared" si="115"/>
         <v>1.0476894004384114</v>
       </c>
       <c r="U108" s="47">
-        <f>U102/U4</f>
+        <f t="shared" si="115"/>
         <v>1.2404537409158998</v>
       </c>
       <c r="V108" s="47">
-        <f>V102/V4</f>
+        <f t="shared" si="115"/>
         <v>1.0823277125025086</v>
       </c>
       <c r="W108" s="73"/>
-      <c r="X108" s="114"/>
-      <c r="Y108" s="114"/>
-      <c r="Z108" s="114"/>
-      <c r="AA108" s="114"/>
-      <c r="AB108" s="114"/>
-      <c r="AC108" s="114"/>
-      <c r="AD108" s="114"/>
-      <c r="AE108" s="114"/>
+      <c r="X108" s="101"/>
+      <c r="Y108" s="101"/>
+      <c r="Z108" s="101"/>
+      <c r="AA108" s="101"/>
+      <c r="AB108" s="101"/>
+      <c r="AC108" s="101"/>
+      <c r="AD108" s="101"/>
+      <c r="AE108" s="101"/>
     </row>
     <row r="109" spans="2:31" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B109" s="36" t="s">
@@ -7633,46 +7639,46 @@
       <c r="J109" s="61"/>
       <c r="L109" s="61"/>
       <c r="O109" s="47">
-        <f>O102/O20</f>
+        <f t="shared" ref="O109:V109" si="116">O102/O20</f>
         <v>15.696322662157375</v>
       </c>
       <c r="P109" s="47">
-        <f>P102/P20</f>
+        <f t="shared" si="116"/>
         <v>16.78341372659624</v>
       </c>
       <c r="Q109" s="47">
-        <f>Q102/Q20</f>
+        <f t="shared" si="116"/>
         <v>18.777150673059591</v>
       </c>
       <c r="R109" s="47">
-        <f>R102/R20</f>
+        <f t="shared" si="116"/>
         <v>14.913785098851125</v>
       </c>
       <c r="S109" s="47">
-        <f>S102/S20</f>
+        <f t="shared" si="116"/>
         <v>11.621342829375557</v>
       </c>
       <c r="T109" s="47">
-        <f>T102/T20</f>
+        <f t="shared" si="116"/>
         <v>12.255762134183771</v>
       </c>
       <c r="U109" s="47">
-        <f>U102/U20</f>
+        <f t="shared" si="116"/>
         <v>13.295046631422018</v>
       </c>
       <c r="V109" s="47">
-        <f>V102/V20</f>
+        <f t="shared" si="116"/>
         <v>13.97212173937824</v>
       </c>
       <c r="W109" s="73"/>
-      <c r="X109" s="114"/>
-      <c r="Y109" s="114"/>
-      <c r="Z109" s="114"/>
-      <c r="AA109" s="114"/>
-      <c r="AB109" s="114"/>
-      <c r="AC109" s="114"/>
-      <c r="AD109" s="114"/>
-      <c r="AE109" s="114"/>
+      <c r="X109" s="101"/>
+      <c r="Y109" s="101"/>
+      <c r="Z109" s="101"/>
+      <c r="AA109" s="101"/>
+      <c r="AB109" s="101"/>
+      <c r="AC109" s="101"/>
+      <c r="AD109" s="101"/>
+      <c r="AE109" s="101"/>
     </row>
     <row r="111" spans="2:31" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B111" s="36" t="s">
@@ -7684,31 +7690,31 @@
       <c r="J111" s="61"/>
       <c r="L111" s="61"/>
       <c r="O111" s="47">
-        <f t="shared" ref="O111:R111" si="110">O93/O86</f>
+        <f t="shared" ref="O111:R111" si="117">O93/O86</f>
         <v>0.55404064591391911</v>
       </c>
       <c r="P111" s="47">
-        <f t="shared" si="110"/>
+        <f t="shared" si="117"/>
         <v>0.69026119040683565</v>
       </c>
       <c r="Q111" s="47">
-        <f t="shared" si="110"/>
+        <f t="shared" si="117"/>
         <v>0.68183404745052056</v>
       </c>
       <c r="R111" s="47">
-        <f t="shared" si="110"/>
+        <f t="shared" si="117"/>
         <v>0.64859802235637842</v>
       </c>
       <c r="S111" s="47">
-        <f t="shared" ref="S111:U111" si="111">S93/S86</f>
+        <f t="shared" ref="S111:U111" si="118">S93/S86</f>
         <v>0.89164041000738992</v>
       </c>
       <c r="T111" s="47">
-        <f t="shared" si="111"/>
+        <f t="shared" si="118"/>
         <v>0.99678430709116905</v>
       </c>
       <c r="U111" s="47">
-        <f t="shared" si="111"/>
+        <f t="shared" si="118"/>
         <v>1.2815013404825737</v>
       </c>
       <c r="V111" s="47">
@@ -7716,14 +7722,14 @@
         <v>1.325</v>
       </c>
       <c r="W111" s="73"/>
-      <c r="X111" s="114"/>
-      <c r="Y111" s="114"/>
-      <c r="Z111" s="114"/>
-      <c r="AA111" s="114"/>
-      <c r="AB111" s="114"/>
-      <c r="AC111" s="114"/>
-      <c r="AD111" s="114"/>
-      <c r="AE111" s="114"/>
+      <c r="X111" s="101"/>
+      <c r="Y111" s="101"/>
+      <c r="Z111" s="101"/>
+      <c r="AA111" s="101"/>
+      <c r="AB111" s="101"/>
+      <c r="AC111" s="101"/>
+      <c r="AD111" s="101"/>
+      <c r="AE111" s="101"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/£BME.xlsx
+++ b/£BME.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20401"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\My Drive\Stocks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A1CCDC7-4F4F-4BC1-B675-8A84E417E3B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68E720BB-7135-493C-88A8-F0BC28C14474}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{0B0D3E06-E58D-4F1F-A8B8-3BC216B2A3D5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0B0D3E06-E58D-4F1F-A8B8-3BC216B2A3D5}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -20,15 +20,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -69,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="154">
   <si>
     <t>£BME</t>
   </si>
@@ -528,6 +519,9 @@
   </si>
   <si>
     <t>Upside</t>
+  </si>
+  <si>
+    <t>B&amp;M confirm entered an agreement to acquire up to 51 properties from Wilko Ltd. For a max consideration of £13m</t>
   </si>
 </sst>
 </file>
@@ -804,7 +798,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -976,6 +970,7 @@
     <xf numFmtId="2" fontId="2" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="1" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1498,8 +1493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF562411-448F-49B1-B6D6-24D041947C33}">
   <dimension ref="B2:X41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1518,35 +1513,35 @@
       </c>
     </row>
     <row r="4" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="T4" s="115" t="s">
+      <c r="T4" s="116" t="s">
         <v>125</v>
       </c>
-      <c r="U4" s="117"/>
-      <c r="W4" s="115" t="s">
+      <c r="U4" s="118"/>
+      <c r="W4" s="116" t="s">
         <v>115</v>
       </c>
-      <c r="X4" s="117"/>
+      <c r="X4" s="118"/>
     </row>
     <row r="5" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B5" s="115" t="s">
+      <c r="B5" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="116"/>
-      <c r="D5" s="117"/>
-      <c r="F5" s="115" t="s">
+      <c r="C5" s="117"/>
+      <c r="D5" s="118"/>
+      <c r="F5" s="116" t="s">
         <v>127</v>
       </c>
-      <c r="G5" s="116"/>
-      <c r="H5" s="116"/>
-      <c r="I5" s="116"/>
-      <c r="J5" s="116"/>
-      <c r="K5" s="116"/>
-      <c r="L5" s="116"/>
-      <c r="M5" s="116"/>
-      <c r="N5" s="116"/>
-      <c r="O5" s="116"/>
-      <c r="P5" s="116"/>
-      <c r="Q5" s="117"/>
+      <c r="G5" s="117"/>
+      <c r="H5" s="117"/>
+      <c r="I5" s="117"/>
+      <c r="J5" s="117"/>
+      <c r="K5" s="117"/>
+      <c r="L5" s="117"/>
+      <c r="M5" s="117"/>
+      <c r="N5" s="117"/>
+      <c r="O5" s="117"/>
+      <c r="P5" s="117"/>
+      <c r="Q5" s="118"/>
       <c r="T5" s="41" t="s">
         <v>25</v>
       </c>
@@ -1560,7 +1555,7 @@
       <c r="B6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="30">
         <v>5.7348999999999997</v>
       </c>
       <c r="D6" s="16"/>
@@ -1625,8 +1620,12 @@
         <v>5744.0356956999995</v>
       </c>
       <c r="D8" s="16"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="5"/>
+      <c r="F8" s="44">
+        <v>45170</v>
+      </c>
+      <c r="G8" s="111" t="s">
+        <v>153</v>
+      </c>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
@@ -1786,11 +1785,11 @@
       <c r="Q14" s="6"/>
     </row>
     <row r="15" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B15" s="115" t="s">
+      <c r="B15" s="116" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="116"/>
-      <c r="D15" s="117"/>
+      <c r="C15" s="117"/>
+      <c r="D15" s="118"/>
       <c r="F15" s="12"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
@@ -1808,10 +1807,10 @@
       <c r="B16" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="122" t="s">
+      <c r="C16" s="123" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="119"/>
+      <c r="D16" s="120"/>
       <c r="F16" s="12"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
@@ -1829,10 +1828,10 @@
       <c r="B17" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="122" t="s">
+      <c r="C17" s="123" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="119"/>
+      <c r="D17" s="120"/>
       <c r="F17" s="12"/>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
@@ -1850,8 +1849,8 @@
       <c r="B18" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="122"/>
-      <c r="D18" s="119"/>
+      <c r="C18" s="123"/>
+      <c r="D18" s="120"/>
       <c r="F18" s="44">
         <v>43891</v>
       </c>
@@ -1873,10 +1872,10 @@
       <c r="B19" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="113" t="s">
+      <c r="C19" s="114" t="s">
         <v>24</v>
       </c>
-      <c r="D19" s="114"/>
+      <c r="D19" s="115"/>
       <c r="F19" s="12"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
@@ -1919,11 +1918,11 @@
       <c r="Q21" s="6"/>
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B22" s="115" t="s">
+      <c r="B22" s="116" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="116"/>
-      <c r="D22" s="117"/>
+      <c r="C22" s="117"/>
+      <c r="D22" s="118"/>
       <c r="F22" s="12"/>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
@@ -1941,10 +1940,10 @@
       <c r="B23" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="122" t="s">
+      <c r="C23" s="123" t="s">
         <v>28</v>
       </c>
-      <c r="D23" s="119"/>
+      <c r="D23" s="120"/>
       <c r="F23" s="44">
         <v>42948</v>
       </c>
@@ -1966,10 +1965,10 @@
       <c r="B24" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="122">
+      <c r="C24" s="123">
         <v>1978</v>
       </c>
-      <c r="D24" s="119"/>
+      <c r="D24" s="120"/>
       <c r="F24" s="12"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
@@ -1987,10 +1986,10 @@
       <c r="B25" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C25" s="122">
+      <c r="C25" s="123">
         <v>2014</v>
       </c>
-      <c r="D25" s="119"/>
+      <c r="D25" s="120"/>
       <c r="F25" s="12"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
@@ -2006,8 +2005,8 @@
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B26" s="12"/>
-      <c r="C26" s="122"/>
-      <c r="D26" s="119"/>
+      <c r="C26" s="123"/>
+      <c r="D26" s="120"/>
       <c r="F26" s="12"/>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
@@ -2025,11 +2024,11 @@
       <c r="B27" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C27" s="118">
+      <c r="C27" s="119">
         <f>+'Financial Model'!V34</f>
         <v>1140</v>
       </c>
-      <c r="D27" s="119"/>
+      <c r="D27" s="120"/>
       <c r="F27" s="12"/>
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
@@ -2047,11 +2046,11 @@
       <c r="B28" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C28" s="118">
+      <c r="C28" s="119">
         <f>+'Financial Model'!V67</f>
         <v>764</v>
       </c>
-      <c r="D28" s="119"/>
+      <c r="D28" s="120"/>
       <c r="F28" s="12"/>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
@@ -2069,11 +2068,11 @@
       <c r="B29" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="C29" s="118">
+      <c r="C29" s="119">
         <f>'Financial Model'!V46</f>
         <v>39484</v>
       </c>
-      <c r="D29" s="119"/>
+      <c r="D29" s="120"/>
       <c r="F29" s="12"/>
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
@@ -2131,10 +2130,10 @@
       <c r="B32" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C32" s="120" t="s">
+      <c r="C32" s="121" t="s">
         <v>37</v>
       </c>
-      <c r="D32" s="121"/>
+      <c r="D32" s="122"/>
       <c r="F32" s="12"/>
       <c r="G32" s="5"/>
       <c r="H32" s="5"/>
@@ -2177,11 +2176,11 @@
       <c r="Q34" s="6"/>
     </row>
     <row r="35" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B35" s="115" t="s">
+      <c r="B35" s="116" t="s">
         <v>29</v>
       </c>
-      <c r="C35" s="116"/>
-      <c r="D35" s="117"/>
+      <c r="C35" s="117"/>
+      <c r="D35" s="118"/>
       <c r="F35" s="12"/>
       <c r="G35" s="5"/>
       <c r="H35" s="5"/>
@@ -2199,11 +2198,11 @@
       <c r="B36" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C36" s="111">
+      <c r="C36" s="112">
         <f>C6/'Financial Model'!V90</f>
         <v>7.9778273551388885</v>
       </c>
-      <c r="D36" s="112"/>
+      <c r="D36" s="113"/>
       <c r="F36" s="12"/>
       <c r="G36" s="5"/>
       <c r="H36" s="5"/>
@@ -2221,11 +2220,11 @@
       <c r="B37" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C37" s="111">
+      <c r="C37" s="112">
         <f>C8/'Financial Model'!V4</f>
         <v>1.152726408930363</v>
       </c>
-      <c r="D37" s="112"/>
+      <c r="D37" s="113"/>
       <c r="F37" s="12"/>
       <c r="G37" s="5"/>
       <c r="H37" s="5"/>
@@ -2243,11 +2242,11 @@
       <c r="B38" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="C38" s="111">
+      <c r="C38" s="112">
         <f>C12/'Financial Model'!V4</f>
         <v>1.2964149499698976</v>
       </c>
-      <c r="D38" s="112"/>
+      <c r="D38" s="113"/>
       <c r="F38" s="12"/>
       <c r="G38" s="5"/>
       <c r="H38" s="5"/>
@@ -2265,11 +2264,11 @@
       <c r="B39" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C39" s="111">
+      <c r="C39" s="112">
         <f>C6/'Financial Model'!V21</f>
         <v>14.880921491450774</v>
       </c>
-      <c r="D39" s="112"/>
+      <c r="D39" s="113"/>
       <c r="F39" s="12"/>
       <c r="G39" s="5"/>
       <c r="H39" s="5"/>
@@ -2287,11 +2286,11 @@
       <c r="B40" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C40" s="111">
+      <c r="C40" s="112">
         <f>C12/'Financial Model'!V16</f>
         <v>18.563320964655169</v>
       </c>
-      <c r="D40" s="112"/>
+      <c r="D40" s="113"/>
       <c r="F40" s="12"/>
       <c r="G40" s="5"/>
       <c r="H40" s="5"/>
@@ -2309,8 +2308,8 @@
       <c r="B41" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C41" s="113"/>
-      <c r="D41" s="114"/>
+      <c r="C41" s="114"/>
+      <c r="D41" s="115"/>
       <c r="F41" s="13"/>
       <c r="G41" s="7"/>
       <c r="H41" s="7"/>
@@ -2355,10 +2354,11 @@
   <hyperlinks>
     <hyperlink ref="C32:D32" r:id="rId1" display="Link" xr:uid="{9BE3B3D4-9498-4B97-998C-C0C12FA77148}"/>
     <hyperlink ref="G18" r:id="rId2" xr:uid="{87BBEC1A-B702-4F90-99BE-E634A1207125}"/>
+    <hyperlink ref="G8" r:id="rId3" xr:uid="{476FE842-C08E-4E0C-AE6F-086836C6516E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="125" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId3"/>
-  <drawing r:id="rId4"/>
+  <pageSetup paperSize="125" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId4"/>
+  <drawing r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -2366,11 +2366,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E38EA70-0C15-460C-B41E-267C906FFAC5}">
   <dimension ref="B1:DR111"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="O4" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AH28" sqref="AH28"/>
+      <selection pane="bottomRight" activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2613,11 +2613,26 @@
         <v>41</v>
       </c>
       <c r="C4" s="19"/>
-      <c r="D4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="J4" s="51"/>
-      <c r="L4" s="51"/>
+      <c r="D4" s="55">
+        <f>R4-C4</f>
+        <v>3486.2950000000001</v>
+      </c>
+      <c r="F4" s="55">
+        <f>S4-E4</f>
+        <v>3813.3870000000002</v>
+      </c>
+      <c r="H4" s="55">
+        <f>T4-G4</f>
+        <v>4801.4250000000002</v>
+      </c>
+      <c r="J4" s="55">
+        <f>U4-I4</f>
+        <v>4673</v>
+      </c>
+      <c r="L4" s="55">
+        <f>V4-K4</f>
+        <v>4983</v>
+      </c>
       <c r="O4" s="22">
         <v>2035.2850000000001</v>
       </c>
@@ -4794,7 +4809,10 @@
         <f>+V35+V38+V40</f>
         <v>1140</v>
       </c>
-      <c r="W34" s="69"/>
+      <c r="W34" s="69">
+        <f>V34+51</f>
+        <v>1191</v>
+      </c>
       <c r="X34" s="90"/>
       <c r="Y34" s="90"/>
       <c r="Z34" s="90"/>

--- a/£BME.xlsx
+++ b/£BME.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68E720BB-7135-493C-88A8-F0BC28C14474}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5F3BB2A-9311-4FE3-8960-0E0AC7B9B9CA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0B0D3E06-E58D-4F1F-A8B8-3BC216B2A3D5}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
     <sheet name="Financial Model" sheetId="2" r:id="rId2"/>
+    <sheet name="Broker Targets" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -60,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="188">
   <si>
     <t>£BME</t>
   </si>
@@ -522,6 +523,108 @@
   </si>
   <si>
     <t>B&amp;M confirm entered an agreement to acquire up to 51 properties from Wilko Ltd. For a max consideration of £13m</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Broker</t>
+  </si>
+  <si>
+    <t>Recommendation</t>
+  </si>
+  <si>
+    <t>Old Target</t>
+  </si>
+  <si>
+    <t>New Target</t>
+  </si>
+  <si>
+    <t>Rating Type</t>
+  </si>
+  <si>
+    <t>Goldman Sachs</t>
+  </si>
+  <si>
+    <t>Underweight</t>
+  </si>
+  <si>
+    <t>Downgrade</t>
+  </si>
+  <si>
+    <t>Shore Capital</t>
+  </si>
+  <si>
+    <t>Hold</t>
+  </si>
+  <si>
+    <t>Reiteration</t>
+  </si>
+  <si>
+    <t>Berenberg Bank</t>
+  </si>
+  <si>
+    <t>Buy</t>
+  </si>
+  <si>
+    <t>Barclays</t>
+  </si>
+  <si>
+    <t>Overweight</t>
+  </si>
+  <si>
+    <t>JP Morgan Cazenove</t>
+  </si>
+  <si>
+    <t>RBC Capital Markets</t>
+  </si>
+  <si>
+    <t>Outperform</t>
+  </si>
+  <si>
+    <t>Upgrade</t>
+  </si>
+  <si>
+    <t>Jefferies</t>
+  </si>
+  <si>
+    <t>Underperform</t>
+  </si>
+  <si>
+    <t>Stifel</t>
+  </si>
+  <si>
+    <t>Deutsche</t>
+  </si>
+  <si>
+    <t>House Stock</t>
+  </si>
+  <si>
+    <t>Under Review</t>
+  </si>
+  <si>
+    <t>Sector Perform</t>
+  </si>
+  <si>
+    <t>Equal Weight</t>
+  </si>
+  <si>
+    <t>Peel Hunt Limited</t>
+  </si>
+  <si>
+    <t>Morgan Stanley</t>
+  </si>
+  <si>
+    <t>Sell</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Highest</t>
+  </si>
+  <si>
+    <t>Lowest</t>
   </si>
 </sst>
 </file>
@@ -534,7 +637,7 @@
     <numFmt numFmtId="166" formatCode="#,##0.00000"/>
     <numFmt numFmtId="167" formatCode="#,##0.0_ ;[Red]\-#,##0.0\ "/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -666,8 +769,40 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0084BE"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF990000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -704,8 +839,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4F4F4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -793,12 +940,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="dotted">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="142">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -971,10 +1127,25 @@
     <xf numFmtId="2" fontId="1" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="1" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="165" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="1" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -983,19 +1154,10 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1004,7 +1166,47 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="20" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="20" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="1" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="10" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1494,7 +1696,7 @@
   <dimension ref="B2:X41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="U14" sqref="U14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1513,35 +1715,35 @@
       </c>
     </row>
     <row r="4" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="T4" s="116" t="s">
+      <c r="T4" s="113" t="s">
         <v>125</v>
       </c>
-      <c r="U4" s="118"/>
-      <c r="W4" s="116" t="s">
+      <c r="U4" s="114"/>
+      <c r="W4" s="113" t="s">
         <v>115</v>
       </c>
-      <c r="X4" s="118"/>
+      <c r="X4" s="114"/>
     </row>
     <row r="5" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B5" s="116" t="s">
+      <c r="B5" s="113" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="117"/>
-      <c r="D5" s="118"/>
-      <c r="F5" s="116" t="s">
+      <c r="C5" s="121"/>
+      <c r="D5" s="114"/>
+      <c r="F5" s="113" t="s">
         <v>127</v>
       </c>
-      <c r="G5" s="117"/>
-      <c r="H5" s="117"/>
-      <c r="I5" s="117"/>
-      <c r="J5" s="117"/>
-      <c r="K5" s="117"/>
-      <c r="L5" s="117"/>
-      <c r="M5" s="117"/>
-      <c r="N5" s="117"/>
-      <c r="O5" s="117"/>
-      <c r="P5" s="117"/>
-      <c r="Q5" s="118"/>
+      <c r="G5" s="121"/>
+      <c r="H5" s="121"/>
+      <c r="I5" s="121"/>
+      <c r="J5" s="121"/>
+      <c r="K5" s="121"/>
+      <c r="L5" s="121"/>
+      <c r="M5" s="121"/>
+      <c r="N5" s="121"/>
+      <c r="O5" s="121"/>
+      <c r="P5" s="121"/>
+      <c r="Q5" s="114"/>
       <c r="T5" s="41" t="s">
         <v>25</v>
       </c>
@@ -1785,11 +1987,11 @@
       <c r="Q14" s="6"/>
     </row>
     <row r="15" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B15" s="116" t="s">
+      <c r="B15" s="113" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="117"/>
-      <c r="D15" s="118"/>
+      <c r="C15" s="121"/>
+      <c r="D15" s="114"/>
       <c r="F15" s="12"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
@@ -1807,10 +2009,10 @@
       <c r="B16" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="123" t="s">
+      <c r="C16" s="117" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="120"/>
+      <c r="D16" s="118"/>
       <c r="F16" s="12"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
@@ -1828,10 +2030,10 @@
       <c r="B17" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="123" t="s">
+      <c r="C17" s="117" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="120"/>
+      <c r="D17" s="118"/>
       <c r="F17" s="12"/>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
@@ -1849,8 +2051,8 @@
       <c r="B18" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="123"/>
-      <c r="D18" s="120"/>
+      <c r="C18" s="117"/>
+      <c r="D18" s="118"/>
       <c r="F18" s="44">
         <v>43891</v>
       </c>
@@ -1872,10 +2074,10 @@
       <c r="B19" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="114" t="s">
+      <c r="C19" s="119" t="s">
         <v>24</v>
       </c>
-      <c r="D19" s="115"/>
+      <c r="D19" s="120"/>
       <c r="F19" s="12"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
@@ -1918,11 +2120,11 @@
       <c r="Q21" s="6"/>
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B22" s="116" t="s">
+      <c r="B22" s="113" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="117"/>
-      <c r="D22" s="118"/>
+      <c r="C22" s="121"/>
+      <c r="D22" s="114"/>
       <c r="F22" s="12"/>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
@@ -1940,10 +2142,10 @@
       <c r="B23" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="123" t="s">
+      <c r="C23" s="117" t="s">
         <v>28</v>
       </c>
-      <c r="D23" s="120"/>
+      <c r="D23" s="118"/>
       <c r="F23" s="44">
         <v>42948</v>
       </c>
@@ -1965,10 +2167,10 @@
       <c r="B24" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="123">
+      <c r="C24" s="117">
         <v>1978</v>
       </c>
-      <c r="D24" s="120"/>
+      <c r="D24" s="118"/>
       <c r="F24" s="12"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
@@ -1986,10 +2188,10 @@
       <c r="B25" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C25" s="123">
+      <c r="C25" s="117">
         <v>2014</v>
       </c>
-      <c r="D25" s="120"/>
+      <c r="D25" s="118"/>
       <c r="F25" s="12"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
@@ -2005,8 +2207,8 @@
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B26" s="12"/>
-      <c r="C26" s="123"/>
-      <c r="D26" s="120"/>
+      <c r="C26" s="117"/>
+      <c r="D26" s="118"/>
       <c r="F26" s="12"/>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
@@ -2024,11 +2226,11 @@
       <c r="B27" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C27" s="119">
+      <c r="C27" s="122">
         <f>+'Financial Model'!V34</f>
         <v>1140</v>
       </c>
-      <c r="D27" s="120"/>
+      <c r="D27" s="118"/>
       <c r="F27" s="12"/>
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
@@ -2046,11 +2248,11 @@
       <c r="B28" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C28" s="119">
+      <c r="C28" s="122">
         <f>+'Financial Model'!V67</f>
         <v>764</v>
       </c>
-      <c r="D28" s="120"/>
+      <c r="D28" s="118"/>
       <c r="F28" s="12"/>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
@@ -2068,11 +2270,11 @@
       <c r="B29" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="C29" s="119">
+      <c r="C29" s="122">
         <f>'Financial Model'!V46</f>
         <v>39484</v>
       </c>
-      <c r="D29" s="120"/>
+      <c r="D29" s="118"/>
       <c r="F29" s="12"/>
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
@@ -2130,10 +2332,10 @@
       <c r="B32" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C32" s="121" t="s">
+      <c r="C32" s="123" t="s">
         <v>37</v>
       </c>
-      <c r="D32" s="122"/>
+      <c r="D32" s="124"/>
       <c r="F32" s="12"/>
       <c r="G32" s="5"/>
       <c r="H32" s="5"/>
@@ -2176,11 +2378,11 @@
       <c r="Q34" s="6"/>
     </row>
     <row r="35" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B35" s="116" t="s">
+      <c r="B35" s="113" t="s">
         <v>29</v>
       </c>
-      <c r="C35" s="117"/>
-      <c r="D35" s="118"/>
+      <c r="C35" s="121"/>
+      <c r="D35" s="114"/>
       <c r="F35" s="12"/>
       <c r="G35" s="5"/>
       <c r="H35" s="5"/>
@@ -2198,11 +2400,11 @@
       <c r="B36" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C36" s="112">
+      <c r="C36" s="115">
         <f>C6/'Financial Model'!V90</f>
         <v>7.9778273551388885</v>
       </c>
-      <c r="D36" s="113"/>
+      <c r="D36" s="116"/>
       <c r="F36" s="12"/>
       <c r="G36" s="5"/>
       <c r="H36" s="5"/>
@@ -2220,11 +2422,11 @@
       <c r="B37" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C37" s="112">
+      <c r="C37" s="115">
         <f>C8/'Financial Model'!V4</f>
         <v>1.152726408930363</v>
       </c>
-      <c r="D37" s="113"/>
+      <c r="D37" s="116"/>
       <c r="F37" s="12"/>
       <c r="G37" s="5"/>
       <c r="H37" s="5"/>
@@ -2242,11 +2444,11 @@
       <c r="B38" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="C38" s="112">
+      <c r="C38" s="115">
         <f>C12/'Financial Model'!V4</f>
         <v>1.2964149499698976</v>
       </c>
-      <c r="D38" s="113"/>
+      <c r="D38" s="116"/>
       <c r="F38" s="12"/>
       <c r="G38" s="5"/>
       <c r="H38" s="5"/>
@@ -2264,11 +2466,11 @@
       <c r="B39" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C39" s="112">
+      <c r="C39" s="115">
         <f>C6/'Financial Model'!V21</f>
         <v>14.880921491450774</v>
       </c>
-      <c r="D39" s="113"/>
+      <c r="D39" s="116"/>
       <c r="F39" s="12"/>
       <c r="G39" s="5"/>
       <c r="H39" s="5"/>
@@ -2286,11 +2488,11 @@
       <c r="B40" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C40" s="112">
+      <c r="C40" s="115">
         <f>C12/'Financial Model'!V16</f>
         <v>18.563320964655169</v>
       </c>
-      <c r="D40" s="113"/>
+      <c r="D40" s="116"/>
       <c r="F40" s="12"/>
       <c r="G40" s="5"/>
       <c r="H40" s="5"/>
@@ -2308,8 +2510,8 @@
       <c r="B41" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C41" s="114"/>
-      <c r="D41" s="115"/>
+      <c r="C41" s="119"/>
+      <c r="D41" s="120"/>
       <c r="F41" s="13"/>
       <c r="G41" s="7"/>
       <c r="H41" s="7"/>
@@ -2325,15 +2527,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="W4:X4"/>
-    <mergeCell ref="T4:U4"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
     <mergeCell ref="C40:D40"/>
     <mergeCell ref="C41:D41"/>
     <mergeCell ref="F5:Q5"/>
@@ -2350,6 +2543,15 @@
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="B15:D15"/>
+    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="T4:U4"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C32:D32" r:id="rId1" display="Link" xr:uid="{9BE3B3D4-9498-4B97-998C-C0C12FA77148}"/>
@@ -2367,10 +2569,10 @@
   <dimension ref="B1:DR111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="P4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="K10" sqref="K10"/>
+      <selection pane="bottomRight" activeCell="AG17" sqref="AG16:AG17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7766,4 +7968,1137 @@
   <drawing r:id="rId6"/>
   <legacyDrawing r:id="rId7"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABE76E5A-46C6-4CD4-B802-C6BAC1BA0659}">
+  <dimension ref="A1:K51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1" s="125" t="s">
+        <v>154</v>
+      </c>
+      <c r="B1" s="125" t="s">
+        <v>155</v>
+      </c>
+      <c r="C1" s="125" t="s">
+        <v>156</v>
+      </c>
+      <c r="D1" s="125" t="s">
+        <v>157</v>
+      </c>
+      <c r="E1" s="125" t="s">
+        <v>158</v>
+      </c>
+      <c r="F1" s="125" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A2" s="126">
+        <v>45174</v>
+      </c>
+      <c r="B2" s="127" t="s">
+        <v>160</v>
+      </c>
+      <c r="C2" s="128" t="s">
+        <v>161</v>
+      </c>
+      <c r="D2" s="128" t="s">
+        <v>73</v>
+      </c>
+      <c r="E2" s="128">
+        <v>513</v>
+      </c>
+      <c r="F2" s="128" t="s">
+        <v>162</v>
+      </c>
+      <c r="I2" s="135" t="s">
+        <v>185</v>
+      </c>
+      <c r="J2" s="136">
+        <f>AVERAGE(E2:E51)/100</f>
+        <v>5.28775</v>
+      </c>
+      <c r="K2" s="141">
+        <f>J2/Main!$C$6-1</f>
+        <v>-7.7969973321243558E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A3" s="129">
+        <v>45135</v>
+      </c>
+      <c r="B3" s="130" t="s">
+        <v>163</v>
+      </c>
+      <c r="C3" s="131" t="s">
+        <v>164</v>
+      </c>
+      <c r="D3" s="131" t="s">
+        <v>73</v>
+      </c>
+      <c r="E3" s="131" t="s">
+        <v>73</v>
+      </c>
+      <c r="F3" s="131" t="s">
+        <v>165</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="J3" s="137">
+        <f>MAX(E2:E51)/100</f>
+        <v>6.85</v>
+      </c>
+      <c r="K3" s="139">
+        <f>J3/Main!$C$6-1</f>
+        <v>0.19444105389806277</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A4" s="126">
+        <v>45105</v>
+      </c>
+      <c r="B4" s="127" t="s">
+        <v>163</v>
+      </c>
+      <c r="C4" s="128" t="s">
+        <v>164</v>
+      </c>
+      <c r="D4" s="128" t="s">
+        <v>73</v>
+      </c>
+      <c r="E4" s="128" t="s">
+        <v>73</v>
+      </c>
+      <c r="F4" s="128" t="s">
+        <v>165</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="J4" s="138">
+        <f>MIN(E2:E51)/100</f>
+        <v>3</v>
+      </c>
+      <c r="K4" s="140">
+        <f>J4/Main!$C$6-1</f>
+        <v>-0.4768871296796805</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A5" s="129">
+        <v>45097</v>
+      </c>
+      <c r="B5" s="130" t="s">
+        <v>166</v>
+      </c>
+      <c r="C5" s="132" t="s">
+        <v>167</v>
+      </c>
+      <c r="D5" s="131">
+        <v>525</v>
+      </c>
+      <c r="E5" s="131">
+        <v>640</v>
+      </c>
+      <c r="F5" s="131" t="s">
+        <v>165</v>
+      </c>
+      <c r="I5" s="4"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="112"/>
+    </row>
+    <row r="6" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A6" s="126">
+        <v>45092</v>
+      </c>
+      <c r="B6" s="127" t="s">
+        <v>168</v>
+      </c>
+      <c r="C6" s="128" t="s">
+        <v>169</v>
+      </c>
+      <c r="D6" s="128" t="s">
+        <v>73</v>
+      </c>
+      <c r="E6" s="128">
+        <v>565</v>
+      </c>
+      <c r="F6" s="128" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A7" s="129">
+        <v>45070</v>
+      </c>
+      <c r="B7" s="130" t="s">
+        <v>170</v>
+      </c>
+      <c r="C7" s="131" t="s">
+        <v>169</v>
+      </c>
+      <c r="D7" s="131">
+        <v>540</v>
+      </c>
+      <c r="E7" s="131">
+        <v>545</v>
+      </c>
+      <c r="F7" s="131" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A8" s="126">
+        <v>45070</v>
+      </c>
+      <c r="B8" s="127" t="s">
+        <v>168</v>
+      </c>
+      <c r="C8" s="128" t="s">
+        <v>169</v>
+      </c>
+      <c r="D8" s="128" t="s">
+        <v>73</v>
+      </c>
+      <c r="E8" s="128">
+        <v>485</v>
+      </c>
+      <c r="F8" s="128" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A9" s="129">
+        <v>44991</v>
+      </c>
+      <c r="B9" s="130" t="s">
+        <v>171</v>
+      </c>
+      <c r="C9" s="131" t="s">
+        <v>172</v>
+      </c>
+      <c r="D9" s="131">
+        <v>460</v>
+      </c>
+      <c r="E9" s="131">
+        <v>550</v>
+      </c>
+      <c r="F9" s="131" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A10" s="126">
+        <v>44991</v>
+      </c>
+      <c r="B10" s="127" t="s">
+        <v>174</v>
+      </c>
+      <c r="C10" s="128" t="s">
+        <v>175</v>
+      </c>
+      <c r="D10" s="128">
+        <v>350</v>
+      </c>
+      <c r="E10" s="128">
+        <v>380</v>
+      </c>
+      <c r="F10" s="128" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A11" s="129">
+        <v>44966</v>
+      </c>
+      <c r="B11" s="130" t="s">
+        <v>176</v>
+      </c>
+      <c r="C11" s="131" t="s">
+        <v>164</v>
+      </c>
+      <c r="D11" s="131" t="s">
+        <v>73</v>
+      </c>
+      <c r="E11" s="131">
+        <v>500</v>
+      </c>
+      <c r="F11" s="131" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A12" s="126">
+        <v>44931</v>
+      </c>
+      <c r="B12" s="127" t="s">
+        <v>163</v>
+      </c>
+      <c r="C12" s="128" t="s">
+        <v>164</v>
+      </c>
+      <c r="D12" s="128" t="s">
+        <v>73</v>
+      </c>
+      <c r="E12" s="128" t="s">
+        <v>73</v>
+      </c>
+      <c r="F12" s="128" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A13" s="129">
+        <v>44900</v>
+      </c>
+      <c r="B13" s="130" t="s">
+        <v>170</v>
+      </c>
+      <c r="C13" s="131" t="s">
+        <v>169</v>
+      </c>
+      <c r="D13" s="131">
+        <v>414</v>
+      </c>
+      <c r="E13" s="131">
+        <v>555</v>
+      </c>
+      <c r="F13" s="131" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A14" s="126">
+        <v>44881</v>
+      </c>
+      <c r="B14" s="127" t="s">
+        <v>170</v>
+      </c>
+      <c r="C14" s="128" t="s">
+        <v>169</v>
+      </c>
+      <c r="D14" s="128">
+        <v>412</v>
+      </c>
+      <c r="E14" s="128">
+        <v>414</v>
+      </c>
+      <c r="F14" s="128" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A15" s="129">
+        <v>44876</v>
+      </c>
+      <c r="B15" s="130" t="s">
+        <v>177</v>
+      </c>
+      <c r="C15" s="131" t="s">
+        <v>164</v>
+      </c>
+      <c r="D15" s="131">
+        <v>395</v>
+      </c>
+      <c r="E15" s="131">
+        <v>415</v>
+      </c>
+      <c r="F15" s="131" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A16" s="126">
+        <v>44875</v>
+      </c>
+      <c r="B16" s="127" t="s">
+        <v>163</v>
+      </c>
+      <c r="C16" s="128" t="s">
+        <v>164</v>
+      </c>
+      <c r="D16" s="128" t="s">
+        <v>73</v>
+      </c>
+      <c r="E16" s="128" t="s">
+        <v>73</v>
+      </c>
+      <c r="F16" s="128" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A17" s="129">
+        <v>44874</v>
+      </c>
+      <c r="B17" s="130" t="s">
+        <v>168</v>
+      </c>
+      <c r="C17" s="131" t="s">
+        <v>169</v>
+      </c>
+      <c r="D17" s="131">
+        <v>475</v>
+      </c>
+      <c r="E17" s="131">
+        <v>475</v>
+      </c>
+      <c r="F17" s="131" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A18" s="126">
+        <v>44853</v>
+      </c>
+      <c r="B18" s="127" t="s">
+        <v>177</v>
+      </c>
+      <c r="C18" s="128" t="s">
+        <v>164</v>
+      </c>
+      <c r="D18" s="128">
+        <v>480</v>
+      </c>
+      <c r="E18" s="128">
+        <v>395</v>
+      </c>
+      <c r="F18" s="128" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A19" s="129">
+        <v>44846</v>
+      </c>
+      <c r="B19" s="130" t="s">
+        <v>168</v>
+      </c>
+      <c r="C19" s="131" t="s">
+        <v>169</v>
+      </c>
+      <c r="D19" s="131">
+        <v>475</v>
+      </c>
+      <c r="E19" s="131">
+        <v>475</v>
+      </c>
+      <c r="F19" s="131" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A20" s="126">
+        <v>44844</v>
+      </c>
+      <c r="B20" s="127" t="s">
+        <v>170</v>
+      </c>
+      <c r="C20" s="128" t="s">
+        <v>169</v>
+      </c>
+      <c r="D20" s="128">
+        <v>577</v>
+      </c>
+      <c r="E20" s="128">
+        <v>412</v>
+      </c>
+      <c r="F20" s="128" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A21" s="129">
+        <v>44818</v>
+      </c>
+      <c r="B21" s="130" t="s">
+        <v>168</v>
+      </c>
+      <c r="C21" s="131" t="s">
+        <v>169</v>
+      </c>
+      <c r="D21" s="131">
+        <v>475</v>
+      </c>
+      <c r="E21" s="131">
+        <v>475</v>
+      </c>
+      <c r="F21" s="131" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A22" s="126">
+        <v>44810</v>
+      </c>
+      <c r="B22" s="127" t="s">
+        <v>174</v>
+      </c>
+      <c r="C22" s="128" t="s">
+        <v>175</v>
+      </c>
+      <c r="D22" s="128">
+        <v>440</v>
+      </c>
+      <c r="E22" s="128">
+        <v>300</v>
+      </c>
+      <c r="F22" s="128" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A23" s="129">
+        <v>44790</v>
+      </c>
+      <c r="B23" s="130" t="s">
+        <v>168</v>
+      </c>
+      <c r="C23" s="131" t="s">
+        <v>169</v>
+      </c>
+      <c r="D23" s="131">
+        <v>475</v>
+      </c>
+      <c r="E23" s="131">
+        <v>475</v>
+      </c>
+      <c r="F23" s="131" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A24" s="126">
+        <v>44762</v>
+      </c>
+      <c r="B24" s="127" t="s">
+        <v>168</v>
+      </c>
+      <c r="C24" s="128" t="s">
+        <v>169</v>
+      </c>
+      <c r="D24" s="128">
+        <v>475</v>
+      </c>
+      <c r="E24" s="128">
+        <v>475</v>
+      </c>
+      <c r="F24" s="128" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A25" s="129">
+        <v>44753</v>
+      </c>
+      <c r="B25" s="130" t="s">
+        <v>163</v>
+      </c>
+      <c r="C25" s="131" t="s">
+        <v>164</v>
+      </c>
+      <c r="D25" s="131" t="s">
+        <v>73</v>
+      </c>
+      <c r="E25" s="131" t="s">
+        <v>73</v>
+      </c>
+      <c r="F25" s="131" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A26" s="126">
+        <v>44747</v>
+      </c>
+      <c r="B26" s="127" t="s">
+        <v>166</v>
+      </c>
+      <c r="C26" s="133" t="s">
+        <v>167</v>
+      </c>
+      <c r="D26" s="128">
+        <v>460</v>
+      </c>
+      <c r="E26" s="128">
+        <v>460</v>
+      </c>
+      <c r="F26" s="128" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A27" s="129">
+        <v>44742</v>
+      </c>
+      <c r="B27" s="130" t="s">
+        <v>177</v>
+      </c>
+      <c r="C27" s="131" t="s">
+        <v>164</v>
+      </c>
+      <c r="D27" s="131">
+        <v>480</v>
+      </c>
+      <c r="E27" s="131">
+        <v>480</v>
+      </c>
+      <c r="F27" s="131" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A28" s="126">
+        <v>44741</v>
+      </c>
+      <c r="B28" s="127" t="s">
+        <v>163</v>
+      </c>
+      <c r="C28" s="128" t="s">
+        <v>164</v>
+      </c>
+      <c r="D28" s="128" t="s">
+        <v>73</v>
+      </c>
+      <c r="E28" s="128" t="s">
+        <v>73</v>
+      </c>
+      <c r="F28" s="128" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A29" s="129">
+        <v>44741</v>
+      </c>
+      <c r="B29" s="130" t="s">
+        <v>170</v>
+      </c>
+      <c r="C29" s="131" t="s">
+        <v>169</v>
+      </c>
+      <c r="D29" s="131">
+        <v>580</v>
+      </c>
+      <c r="E29" s="131">
+        <v>577</v>
+      </c>
+      <c r="F29" s="131" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A30" s="126">
+        <v>44735</v>
+      </c>
+      <c r="B30" s="127" t="s">
+        <v>168</v>
+      </c>
+      <c r="C30" s="128" t="s">
+        <v>169</v>
+      </c>
+      <c r="D30" s="128">
+        <v>475</v>
+      </c>
+      <c r="E30" s="128">
+        <v>475</v>
+      </c>
+      <c r="F30" s="128" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A31" s="129">
+        <v>44734</v>
+      </c>
+      <c r="B31" s="130" t="s">
+        <v>163</v>
+      </c>
+      <c r="C31" s="131" t="s">
+        <v>178</v>
+      </c>
+      <c r="D31" s="131" t="s">
+        <v>73</v>
+      </c>
+      <c r="E31" s="131" t="s">
+        <v>73</v>
+      </c>
+      <c r="F31" s="131" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A32" s="126">
+        <v>44719</v>
+      </c>
+      <c r="B32" s="127" t="s">
+        <v>166</v>
+      </c>
+      <c r="C32" s="133" t="s">
+        <v>167</v>
+      </c>
+      <c r="D32" s="128">
+        <v>630</v>
+      </c>
+      <c r="E32" s="128">
+        <v>460</v>
+      </c>
+      <c r="F32" s="128" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A33" s="129">
+        <v>44713</v>
+      </c>
+      <c r="B33" s="130" t="s">
+        <v>177</v>
+      </c>
+      <c r="C33" s="131" t="s">
+        <v>164</v>
+      </c>
+      <c r="D33" s="131">
+        <v>560</v>
+      </c>
+      <c r="E33" s="131">
+        <v>480</v>
+      </c>
+      <c r="F33" s="131" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A34" s="126">
+        <v>44712</v>
+      </c>
+      <c r="B34" s="127" t="s">
+        <v>163</v>
+      </c>
+      <c r="C34" s="128" t="s">
+        <v>179</v>
+      </c>
+      <c r="D34" s="128" t="s">
+        <v>73</v>
+      </c>
+      <c r="E34" s="128" t="s">
+        <v>73</v>
+      </c>
+      <c r="F34" s="128" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A35" s="129">
+        <v>44711</v>
+      </c>
+      <c r="B35" s="130" t="s">
+        <v>171</v>
+      </c>
+      <c r="C35" s="131" t="s">
+        <v>180</v>
+      </c>
+      <c r="D35" s="131" t="s">
+        <v>73</v>
+      </c>
+      <c r="E35" s="131">
+        <v>600</v>
+      </c>
+      <c r="F35" s="131" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A36" s="126">
+        <v>44705</v>
+      </c>
+      <c r="B36" s="127" t="s">
+        <v>168</v>
+      </c>
+      <c r="C36" s="128" t="s">
+        <v>181</v>
+      </c>
+      <c r="D36" s="128" t="s">
+        <v>73</v>
+      </c>
+      <c r="E36" s="128">
+        <v>600</v>
+      </c>
+      <c r="F36" s="128" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A37" s="129">
+        <v>44697</v>
+      </c>
+      <c r="B37" s="130" t="s">
+        <v>171</v>
+      </c>
+      <c r="C37" s="131" t="s">
+        <v>180</v>
+      </c>
+      <c r="D37" s="131" t="s">
+        <v>73</v>
+      </c>
+      <c r="E37" s="131">
+        <v>600</v>
+      </c>
+      <c r="F37" s="131" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A38" s="126">
+        <v>44690</v>
+      </c>
+      <c r="B38" s="127" t="s">
+        <v>170</v>
+      </c>
+      <c r="C38" s="128" t="s">
+        <v>180</v>
+      </c>
+      <c r="D38" s="128" t="s">
+        <v>73</v>
+      </c>
+      <c r="E38" s="128">
+        <v>600</v>
+      </c>
+      <c r="F38" s="128" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A39" s="129">
+        <v>44684</v>
+      </c>
+      <c r="B39" s="130" t="s">
+        <v>171</v>
+      </c>
+      <c r="C39" s="131" t="s">
+        <v>180</v>
+      </c>
+      <c r="D39" s="131" t="s">
+        <v>73</v>
+      </c>
+      <c r="E39" s="131">
+        <v>600</v>
+      </c>
+      <c r="F39" s="131" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A40" s="126">
+        <v>44665</v>
+      </c>
+      <c r="B40" s="127" t="s">
+        <v>166</v>
+      </c>
+      <c r="C40" s="133" t="s">
+        <v>167</v>
+      </c>
+      <c r="D40" s="128">
+        <v>685</v>
+      </c>
+      <c r="E40" s="128">
+        <v>630</v>
+      </c>
+      <c r="F40" s="128" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A41" s="129">
+        <v>44663</v>
+      </c>
+      <c r="B41" s="130" t="s">
+        <v>182</v>
+      </c>
+      <c r="C41" s="131" t="s">
+        <v>164</v>
+      </c>
+      <c r="D41" s="131" t="s">
+        <v>73</v>
+      </c>
+      <c r="E41" s="131">
+        <v>660</v>
+      </c>
+      <c r="F41" s="131" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A42" s="126">
+        <v>44662</v>
+      </c>
+      <c r="B42" s="127" t="s">
+        <v>171</v>
+      </c>
+      <c r="C42" s="128" t="s">
+        <v>180</v>
+      </c>
+      <c r="D42" s="128" t="s">
+        <v>73</v>
+      </c>
+      <c r="E42" s="128">
+        <v>600</v>
+      </c>
+      <c r="F42" s="128" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A43" s="129">
+        <v>44648</v>
+      </c>
+      <c r="B43" s="130" t="s">
+        <v>171</v>
+      </c>
+      <c r="C43" s="131" t="s">
+        <v>180</v>
+      </c>
+      <c r="D43" s="131" t="s">
+        <v>73</v>
+      </c>
+      <c r="E43" s="131">
+        <v>600</v>
+      </c>
+      <c r="F43" s="131" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A44" s="126">
+        <v>44645</v>
+      </c>
+      <c r="B44" s="127" t="s">
+        <v>183</v>
+      </c>
+      <c r="C44" s="128" t="s">
+        <v>181</v>
+      </c>
+      <c r="D44" s="128" t="s">
+        <v>73</v>
+      </c>
+      <c r="E44" s="128" t="s">
+        <v>73</v>
+      </c>
+      <c r="F44" s="128" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A45" s="129">
+        <v>44621</v>
+      </c>
+      <c r="B45" s="130" t="s">
+        <v>166</v>
+      </c>
+      <c r="C45" s="132" t="s">
+        <v>167</v>
+      </c>
+      <c r="D45" s="131" t="s">
+        <v>73</v>
+      </c>
+      <c r="E45" s="131">
+        <v>685</v>
+      </c>
+      <c r="F45" s="131" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A46" s="126">
+        <v>44615</v>
+      </c>
+      <c r="B46" s="127" t="s">
+        <v>171</v>
+      </c>
+      <c r="C46" s="128" t="s">
+        <v>180</v>
+      </c>
+      <c r="D46" s="128" t="s">
+        <v>73</v>
+      </c>
+      <c r="E46" s="128">
+        <v>600</v>
+      </c>
+      <c r="F46" s="128" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A47" s="129">
+        <v>44607</v>
+      </c>
+      <c r="B47" s="130" t="s">
+        <v>171</v>
+      </c>
+      <c r="C47" s="131" t="s">
+        <v>180</v>
+      </c>
+      <c r="D47" s="131" t="s">
+        <v>73</v>
+      </c>
+      <c r="E47" s="131">
+        <v>600</v>
+      </c>
+      <c r="F47" s="131" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A48" s="126">
+        <v>44602</v>
+      </c>
+      <c r="B48" s="127" t="s">
+        <v>171</v>
+      </c>
+      <c r="C48" s="128" t="s">
+        <v>180</v>
+      </c>
+      <c r="D48" s="128">
+        <v>540</v>
+      </c>
+      <c r="E48" s="128">
+        <v>600</v>
+      </c>
+      <c r="F48" s="128" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A49" s="129">
+        <v>44600</v>
+      </c>
+      <c r="B49" s="130" t="s">
+        <v>177</v>
+      </c>
+      <c r="C49" s="134" t="s">
+        <v>184</v>
+      </c>
+      <c r="D49" s="131" t="s">
+        <v>73</v>
+      </c>
+      <c r="E49" s="131" t="s">
+        <v>73</v>
+      </c>
+      <c r="F49" s="131" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A50" s="126">
+        <v>44592</v>
+      </c>
+      <c r="B50" s="127" t="s">
+        <v>171</v>
+      </c>
+      <c r="C50" s="128" t="s">
+        <v>175</v>
+      </c>
+      <c r="D50" s="128" t="s">
+        <v>73</v>
+      </c>
+      <c r="E50" s="128">
+        <v>600</v>
+      </c>
+      <c r="F50" s="128" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A51" s="129">
+        <v>44588</v>
+      </c>
+      <c r="B51" s="130" t="s">
+        <v>168</v>
+      </c>
+      <c r="C51" s="131" t="s">
+        <v>181</v>
+      </c>
+      <c r="D51" s="131">
+        <v>550</v>
+      </c>
+      <c r="E51" s="131">
+        <v>600</v>
+      </c>
+      <c r="F51" s="131" t="s">
+        <v>165</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="https://www.lse.co.uk/share-prices/broker-ratings/brokers/goldman-sachs.html" xr:uid="{FD31A357-2284-4FE0-83EA-D64EFB241337}"/>
+    <hyperlink ref="B3" r:id="rId2" display="https://www.lse.co.uk/share-prices/broker-ratings/brokers/shore-capital.html" xr:uid="{E110FA3F-6AF2-4DED-BC21-D44DCF68CAE1}"/>
+    <hyperlink ref="B4" r:id="rId3" display="https://www.lse.co.uk/share-prices/broker-ratings/brokers/shore-capital.html" xr:uid="{72DC3B83-0F76-4B17-824C-C9C9E666E733}"/>
+    <hyperlink ref="B5" r:id="rId4" display="https://www.lse.co.uk/share-prices/broker-ratings/brokers/berenberg-bank.html" xr:uid="{EE0B6780-D264-4293-8E6C-EC6075B7E3DC}"/>
+    <hyperlink ref="B6" r:id="rId5" display="https://www.lse.co.uk/share-prices/broker-ratings/brokers/barclays.html" xr:uid="{BDB6557A-556F-4632-8906-B5BD151EC59E}"/>
+    <hyperlink ref="B7" r:id="rId6" display="https://www.lse.co.uk/share-prices/broker-ratings/brokers/jp-morgan-cazenove.html" xr:uid="{730F94BF-9DD9-4E62-951A-1784DD73EEE6}"/>
+    <hyperlink ref="B8" r:id="rId7" display="https://www.lse.co.uk/share-prices/broker-ratings/brokers/barclays.html" xr:uid="{66FFA6E8-D7F9-4E4D-B971-887A83A6EB78}"/>
+    <hyperlink ref="B9" r:id="rId8" display="https://www.lse.co.uk/share-prices/broker-ratings/brokers/rbc-capital-markets.html" xr:uid="{5B1E0AA8-8FC5-485C-BFD8-16E0792B1E7B}"/>
+    <hyperlink ref="B10" r:id="rId9" display="https://www.lse.co.uk/share-prices/broker-ratings/brokers/jefferies.html" xr:uid="{A3279B63-F01D-452A-AA51-22B8DED68E8C}"/>
+    <hyperlink ref="B11" r:id="rId10" display="https://www.lse.co.uk/share-prices/broker-ratings/brokers/stifel.html" xr:uid="{DB10959F-EC76-41CC-8B60-E1612D564295}"/>
+    <hyperlink ref="B12" r:id="rId11" display="https://www.lse.co.uk/share-prices/broker-ratings/brokers/shore-capital.html" xr:uid="{CF4AED4B-F8D6-4C6F-8A1B-C089D5D8B2C6}"/>
+    <hyperlink ref="B13" r:id="rId12" display="https://www.lse.co.uk/share-prices/broker-ratings/brokers/jp-morgan-cazenove.html" xr:uid="{105E8829-B0E0-44A5-BB39-904FABFE7FFD}"/>
+    <hyperlink ref="B14" r:id="rId13" display="https://www.lse.co.uk/share-prices/broker-ratings/brokers/jp-morgan-cazenove.html" xr:uid="{04BAC36C-2874-4C34-BA60-FA31A240AEEC}"/>
+    <hyperlink ref="B15" r:id="rId14" display="https://www.lse.co.uk/share-prices/broker-ratings/brokers/deutsche.html" xr:uid="{E314BC82-A9FC-436C-B241-D0A4F4195FD6}"/>
+    <hyperlink ref="B16" r:id="rId15" display="https://www.lse.co.uk/share-prices/broker-ratings/brokers/shore-capital.html" xr:uid="{FCCA961B-F94D-48CE-BB88-CC6BE4642B7B}"/>
+    <hyperlink ref="B17" r:id="rId16" display="https://www.lse.co.uk/share-prices/broker-ratings/brokers/barclays.html" xr:uid="{AABD6588-CBF8-4154-8DA7-F6BA7F38CE0B}"/>
+    <hyperlink ref="B18" r:id="rId17" display="https://www.lse.co.uk/share-prices/broker-ratings/brokers/deutsche.html" xr:uid="{E65513E5-1346-454B-BF33-66D988925F2C}"/>
+    <hyperlink ref="B19" r:id="rId18" display="https://www.lse.co.uk/share-prices/broker-ratings/brokers/barclays.html" xr:uid="{0BC6B37F-E6F6-4D3B-A4ED-24C0BA89D932}"/>
+    <hyperlink ref="B20" r:id="rId19" display="https://www.lse.co.uk/share-prices/broker-ratings/brokers/jp-morgan-cazenove.html" xr:uid="{929F9146-355B-444A-BD00-9DA57B181D0E}"/>
+    <hyperlink ref="B21" r:id="rId20" display="https://www.lse.co.uk/share-prices/broker-ratings/brokers/barclays.html" xr:uid="{F3807AF1-2874-4191-8B06-E280AB145A19}"/>
+    <hyperlink ref="B22" r:id="rId21" display="https://www.lse.co.uk/share-prices/broker-ratings/brokers/jefferies.html" xr:uid="{3EBA422C-0AFB-4629-8A23-5AE5713EAF78}"/>
+    <hyperlink ref="B23" r:id="rId22" display="https://www.lse.co.uk/share-prices/broker-ratings/brokers/barclays.html" xr:uid="{D83F0E8B-3C61-4904-9BD3-F228AC1EEFDA}"/>
+    <hyperlink ref="B24" r:id="rId23" display="https://www.lse.co.uk/share-prices/broker-ratings/brokers/barclays.html" xr:uid="{9DA2BC89-AB1D-4D8B-89E3-2EC16840C89B}"/>
+    <hyperlink ref="B25" r:id="rId24" display="https://www.lse.co.uk/share-prices/broker-ratings/brokers/shore-capital.html" xr:uid="{7895CEF5-84F5-4AF1-B44C-DC6D69438DD0}"/>
+    <hyperlink ref="B26" r:id="rId25" display="https://www.lse.co.uk/share-prices/broker-ratings/brokers/berenberg-bank.html" xr:uid="{87611942-9164-4574-9323-0443BF738D23}"/>
+    <hyperlink ref="B27" r:id="rId26" display="https://www.lse.co.uk/share-prices/broker-ratings/brokers/deutsche.html" xr:uid="{060DECB2-DC2C-4338-816B-380E0441D8BD}"/>
+    <hyperlink ref="B28" r:id="rId27" display="https://www.lse.co.uk/share-prices/broker-ratings/brokers/shore-capital.html" xr:uid="{A5E035DF-73C9-4F63-8590-64583D0E2C8C}"/>
+    <hyperlink ref="B29" r:id="rId28" display="https://www.lse.co.uk/share-prices/broker-ratings/brokers/jp-morgan-cazenove.html" xr:uid="{E50F6A95-AE10-4D14-A817-3D14CF404B50}"/>
+    <hyperlink ref="B30" r:id="rId29" display="https://www.lse.co.uk/share-prices/broker-ratings/brokers/barclays.html" xr:uid="{BF82D6F4-AAB6-411C-8019-21B03A0FBF75}"/>
+    <hyperlink ref="B31" r:id="rId30" display="https://www.lse.co.uk/share-prices/broker-ratings/brokers/shore-capital.html" xr:uid="{A1C407D5-4C22-427C-8E2F-BDEF9595C230}"/>
+    <hyperlink ref="B32" r:id="rId31" display="https://www.lse.co.uk/share-prices/broker-ratings/brokers/berenberg-bank.html" xr:uid="{0C63E61E-0803-4560-B8A7-610A301190FA}"/>
+    <hyperlink ref="B33" r:id="rId32" display="https://www.lse.co.uk/share-prices/broker-ratings/brokers/deutsche.html" xr:uid="{E6A158FC-9B85-441E-B49F-1D7A1D8C7294}"/>
+    <hyperlink ref="B34" r:id="rId33" display="https://www.lse.co.uk/share-prices/broker-ratings/brokers/shore-capital.html" xr:uid="{ABCC5AE1-4EE0-4343-AD99-C7B77C987E66}"/>
+    <hyperlink ref="B35" r:id="rId34" display="https://www.lse.co.uk/share-prices/broker-ratings/brokers/rbc-capital-markets.html" xr:uid="{22192970-817E-4E0D-9D14-7F9E05357613}"/>
+    <hyperlink ref="B36" r:id="rId35" display="https://www.lse.co.uk/share-prices/broker-ratings/brokers/barclays.html" xr:uid="{A456B4D0-06FB-4567-A39A-77DA196D3A04}"/>
+    <hyperlink ref="B37" r:id="rId36" display="https://www.lse.co.uk/share-prices/broker-ratings/brokers/rbc-capital-markets.html" xr:uid="{2C8E8924-AEAD-4F3D-9AD7-334D28962FD6}"/>
+    <hyperlink ref="B38" r:id="rId37" display="https://www.lse.co.uk/share-prices/broker-ratings/brokers/jp-morgan-cazenove.html" xr:uid="{7D31A6C2-1BF0-48E3-9EC5-9224C95B3EAB}"/>
+    <hyperlink ref="B39" r:id="rId38" display="https://www.lse.co.uk/share-prices/broker-ratings/brokers/rbc-capital-markets.html" xr:uid="{A129D415-4ADC-469A-8407-EEA23F029A1F}"/>
+    <hyperlink ref="B40" r:id="rId39" display="https://www.lse.co.uk/share-prices/broker-ratings/brokers/berenberg-bank.html" xr:uid="{DBCF7DD8-27FF-49E4-9E4F-BEDC73DF9432}"/>
+    <hyperlink ref="B41" r:id="rId40" display="https://www.lse.co.uk/share-prices/broker-ratings/brokers/peel-hunt-limited.html" xr:uid="{437873DB-E6FC-4D8E-88F8-04A861D9B8B1}"/>
+    <hyperlink ref="B42" r:id="rId41" display="https://www.lse.co.uk/share-prices/broker-ratings/brokers/rbc-capital-markets.html" xr:uid="{A1B4D156-7A1B-4EE7-B875-244C333854EB}"/>
+    <hyperlink ref="B43" r:id="rId42" display="https://www.lse.co.uk/share-prices/broker-ratings/brokers/rbc-capital-markets.html" xr:uid="{7A5F3C11-5E9A-4BA1-8F91-2F0953AF702B}"/>
+    <hyperlink ref="B44" r:id="rId43" display="https://www.lse.co.uk/share-prices/broker-ratings/brokers/morgan-stanley.html" xr:uid="{C0164750-33C7-451C-8299-34653AE28DB6}"/>
+    <hyperlink ref="B45" r:id="rId44" display="https://www.lse.co.uk/share-prices/broker-ratings/brokers/berenberg-bank.html" xr:uid="{DBF2F4CA-0BC6-4DD3-8219-5EC25183AD8B}"/>
+    <hyperlink ref="B46" r:id="rId45" display="https://www.lse.co.uk/share-prices/broker-ratings/brokers/rbc-capital-markets.html" xr:uid="{5E0015D2-1847-4DA0-8B81-7045A8A36023}"/>
+    <hyperlink ref="B47" r:id="rId46" display="https://www.lse.co.uk/share-prices/broker-ratings/brokers/rbc-capital-markets.html" xr:uid="{44E2FE20-5285-4EE2-9826-63585CD433C9}"/>
+    <hyperlink ref="B48" r:id="rId47" display="https://www.lse.co.uk/share-prices/broker-ratings/brokers/rbc-capital-markets.html" xr:uid="{01FB79A3-3A9E-4591-A46C-6A1E1A95876C}"/>
+    <hyperlink ref="B49" r:id="rId48" display="https://www.lse.co.uk/share-prices/broker-ratings/brokers/deutsche.html" xr:uid="{94A0A2FC-96A4-41F7-A8C8-22E65A2539EB}"/>
+    <hyperlink ref="B50" r:id="rId49" display="https://www.lse.co.uk/share-prices/broker-ratings/brokers/rbc-capital-markets.html" xr:uid="{A350E581-4B79-4B1D-BDD2-7D1C7F258913}"/>
+    <hyperlink ref="B51" r:id="rId50" display="https://www.lse.co.uk/share-prices/broker-ratings/brokers/barclays.html" xr:uid="{C8EF60B3-1A4B-40DE-A6D5-CC583E11B5B2}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="125" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId51"/>
+</worksheet>
 </file>
--- a/£BME.xlsx
+++ b/£BME.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20401"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\My Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5F3BB2A-9311-4FE3-8960-0E0AC7B9B9CA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AF48D01-11F9-46EA-8415-6C27AD693478}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0B0D3E06-E58D-4F1F-A8B8-3BC216B2A3D5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{0B0D3E06-E58D-4F1F-A8B8-3BC216B2A3D5}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,15 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -954,7 +963,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="142">
+  <cellXfs count="141">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1130,42 +1139,6 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1198,8 +1171,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="1" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="10" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1207,6 +1179,42 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1695,8 +1703,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF562411-448F-49B1-B6D6-24D041947C33}">
   <dimension ref="B2:X41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U14" sqref="U14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C39" sqref="C39:D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1715,35 +1723,35 @@
       </c>
     </row>
     <row r="4" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="T4" s="113" t="s">
+      <c r="T4" s="133" t="s">
         <v>125</v>
       </c>
-      <c r="U4" s="114"/>
-      <c r="W4" s="113" t="s">
+      <c r="U4" s="135"/>
+      <c r="W4" s="133" t="s">
         <v>115</v>
       </c>
-      <c r="X4" s="114"/>
+      <c r="X4" s="135"/>
     </row>
     <row r="5" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B5" s="113" t="s">
+      <c r="B5" s="133" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="121"/>
-      <c r="D5" s="114"/>
-      <c r="F5" s="113" t="s">
+      <c r="C5" s="134"/>
+      <c r="D5" s="135"/>
+      <c r="F5" s="133" t="s">
         <v>127</v>
       </c>
-      <c r="G5" s="121"/>
-      <c r="H5" s="121"/>
-      <c r="I5" s="121"/>
-      <c r="J5" s="121"/>
-      <c r="K5" s="121"/>
-      <c r="L5" s="121"/>
-      <c r="M5" s="121"/>
-      <c r="N5" s="121"/>
-      <c r="O5" s="121"/>
-      <c r="P5" s="121"/>
-      <c r="Q5" s="114"/>
+      <c r="G5" s="134"/>
+      <c r="H5" s="134"/>
+      <c r="I5" s="134"/>
+      <c r="J5" s="134"/>
+      <c r="K5" s="134"/>
+      <c r="L5" s="134"/>
+      <c r="M5" s="134"/>
+      <c r="N5" s="134"/>
+      <c r="O5" s="134"/>
+      <c r="P5" s="134"/>
+      <c r="Q5" s="135"/>
       <c r="T5" s="41" t="s">
         <v>25</v>
       </c>
@@ -1987,11 +1995,11 @@
       <c r="Q14" s="6"/>
     </row>
     <row r="15" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B15" s="113" t="s">
+      <c r="B15" s="133" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="121"/>
-      <c r="D15" s="114"/>
+      <c r="C15" s="134"/>
+      <c r="D15" s="135"/>
       <c r="F15" s="12"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
@@ -2009,10 +2017,10 @@
       <c r="B16" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="117" t="s">
+      <c r="C16" s="140" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="118"/>
+      <c r="D16" s="137"/>
       <c r="F16" s="12"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
@@ -2030,10 +2038,10 @@
       <c r="B17" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="117" t="s">
+      <c r="C17" s="140" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="118"/>
+      <c r="D17" s="137"/>
       <c r="F17" s="12"/>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
@@ -2051,8 +2059,8 @@
       <c r="B18" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="117"/>
-      <c r="D18" s="118"/>
+      <c r="C18" s="140"/>
+      <c r="D18" s="137"/>
       <c r="F18" s="44">
         <v>43891</v>
       </c>
@@ -2074,10 +2082,10 @@
       <c r="B19" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="119" t="s">
+      <c r="C19" s="131" t="s">
         <v>24</v>
       </c>
-      <c r="D19" s="120"/>
+      <c r="D19" s="132"/>
       <c r="F19" s="12"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
@@ -2120,11 +2128,11 @@
       <c r="Q21" s="6"/>
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B22" s="113" t="s">
+      <c r="B22" s="133" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="121"/>
-      <c r="D22" s="114"/>
+      <c r="C22" s="134"/>
+      <c r="D22" s="135"/>
       <c r="F22" s="12"/>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
@@ -2142,10 +2150,10 @@
       <c r="B23" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="117" t="s">
+      <c r="C23" s="140" t="s">
         <v>28</v>
       </c>
-      <c r="D23" s="118"/>
+      <c r="D23" s="137"/>
       <c r="F23" s="44">
         <v>42948</v>
       </c>
@@ -2167,10 +2175,10 @@
       <c r="B24" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="117">
+      <c r="C24" s="140">
         <v>1978</v>
       </c>
-      <c r="D24" s="118"/>
+      <c r="D24" s="137"/>
       <c r="F24" s="12"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
@@ -2188,10 +2196,10 @@
       <c r="B25" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C25" s="117">
+      <c r="C25" s="140">
         <v>2014</v>
       </c>
-      <c r="D25" s="118"/>
+      <c r="D25" s="137"/>
       <c r="F25" s="12"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
@@ -2207,8 +2215,8 @@
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B26" s="12"/>
-      <c r="C26" s="117"/>
-      <c r="D26" s="118"/>
+      <c r="C26" s="140"/>
+      <c r="D26" s="137"/>
       <c r="F26" s="12"/>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
@@ -2226,11 +2234,11 @@
       <c r="B27" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C27" s="122">
+      <c r="C27" s="136">
         <f>+'Financial Model'!V34</f>
         <v>1140</v>
       </c>
-      <c r="D27" s="118"/>
+      <c r="D27" s="137"/>
       <c r="F27" s="12"/>
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
@@ -2248,11 +2256,11 @@
       <c r="B28" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C28" s="122">
+      <c r="C28" s="136">
         <f>+'Financial Model'!V67</f>
         <v>764</v>
       </c>
-      <c r="D28" s="118"/>
+      <c r="D28" s="137"/>
       <c r="F28" s="12"/>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
@@ -2270,11 +2278,11 @@
       <c r="B29" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="C29" s="122">
+      <c r="C29" s="136">
         <f>'Financial Model'!V46</f>
         <v>39484</v>
       </c>
-      <c r="D29" s="118"/>
+      <c r="D29" s="137"/>
       <c r="F29" s="12"/>
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
@@ -2332,10 +2340,10 @@
       <c r="B32" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C32" s="123" t="s">
+      <c r="C32" s="138" t="s">
         <v>37</v>
       </c>
-      <c r="D32" s="124"/>
+      <c r="D32" s="139"/>
       <c r="F32" s="12"/>
       <c r="G32" s="5"/>
       <c r="H32" s="5"/>
@@ -2378,11 +2386,11 @@
       <c r="Q34" s="6"/>
     </row>
     <row r="35" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B35" s="113" t="s">
+      <c r="B35" s="133" t="s">
         <v>29</v>
       </c>
-      <c r="C35" s="121"/>
-      <c r="D35" s="114"/>
+      <c r="C35" s="134"/>
+      <c r="D35" s="135"/>
       <c r="F35" s="12"/>
       <c r="G35" s="5"/>
       <c r="H35" s="5"/>
@@ -2400,11 +2408,11 @@
       <c r="B36" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C36" s="115">
+      <c r="C36" s="129">
         <f>C6/'Financial Model'!V90</f>
         <v>7.9778273551388885</v>
       </c>
-      <c r="D36" s="116"/>
+      <c r="D36" s="130"/>
       <c r="F36" s="12"/>
       <c r="G36" s="5"/>
       <c r="H36" s="5"/>
@@ -2422,11 +2430,11 @@
       <c r="B37" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C37" s="115">
+      <c r="C37" s="129">
         <f>C8/'Financial Model'!V4</f>
         <v>1.152726408930363</v>
       </c>
-      <c r="D37" s="116"/>
+      <c r="D37" s="130"/>
       <c r="F37" s="12"/>
       <c r="G37" s="5"/>
       <c r="H37" s="5"/>
@@ -2444,11 +2452,11 @@
       <c r="B38" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="C38" s="115">
+      <c r="C38" s="129">
         <f>C12/'Financial Model'!V4</f>
         <v>1.2964149499698976</v>
       </c>
-      <c r="D38" s="116"/>
+      <c r="D38" s="130"/>
       <c r="F38" s="12"/>
       <c r="G38" s="5"/>
       <c r="H38" s="5"/>
@@ -2466,11 +2474,11 @@
       <c r="B39" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C39" s="115">
+      <c r="C39" s="129">
         <f>C6/'Financial Model'!V21</f>
         <v>14.880921491450774</v>
       </c>
-      <c r="D39" s="116"/>
+      <c r="D39" s="130"/>
       <c r="F39" s="12"/>
       <c r="G39" s="5"/>
       <c r="H39" s="5"/>
@@ -2488,11 +2496,11 @@
       <c r="B40" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C40" s="115">
+      <c r="C40" s="129">
         <f>C12/'Financial Model'!V16</f>
         <v>18.563320964655169</v>
       </c>
-      <c r="D40" s="116"/>
+      <c r="D40" s="130"/>
       <c r="F40" s="12"/>
       <c r="G40" s="5"/>
       <c r="H40" s="5"/>
@@ -2510,8 +2518,8 @@
       <c r="B41" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C41" s="119"/>
-      <c r="D41" s="120"/>
+      <c r="C41" s="131"/>
+      <c r="D41" s="132"/>
       <c r="F41" s="13"/>
       <c r="G41" s="7"/>
       <c r="H41" s="7"/>
@@ -2527,6 +2535,15 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="T4:U4"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
     <mergeCell ref="C40:D40"/>
     <mergeCell ref="C41:D41"/>
     <mergeCell ref="F5:Q5"/>
@@ -2543,15 +2560,6 @@
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="B15:D15"/>
-    <mergeCell ref="W4:X4"/>
-    <mergeCell ref="T4:U4"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C32:D32" r:id="rId1" display="Link" xr:uid="{9BE3B3D4-9498-4B97-998C-C0C12FA77148}"/>
@@ -2568,11 +2576,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E38EA70-0C15-460C-B41E-267C906FFAC5}">
   <dimension ref="B1:DR111"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="P4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AG17" sqref="AG16:AG17"/>
+      <selection pane="bottomRight" activeCell="Y34" sqref="Y34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7990,135 +7998,135 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="125" t="s">
+      <c r="A1" s="113" t="s">
         <v>154</v>
       </c>
-      <c r="B1" s="125" t="s">
+      <c r="B1" s="113" t="s">
         <v>155</v>
       </c>
-      <c r="C1" s="125" t="s">
+      <c r="C1" s="113" t="s">
         <v>156</v>
       </c>
-      <c r="D1" s="125" t="s">
+      <c r="D1" s="113" t="s">
         <v>157</v>
       </c>
-      <c r="E1" s="125" t="s">
+      <c r="E1" s="113" t="s">
         <v>158</v>
       </c>
-      <c r="F1" s="125" t="s">
+      <c r="F1" s="113" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="126">
+      <c r="A2" s="114">
         <v>45174</v>
       </c>
-      <c r="B2" s="127" t="s">
+      <c r="B2" s="115" t="s">
         <v>160</v>
       </c>
-      <c r="C2" s="128" t="s">
+      <c r="C2" s="116" t="s">
         <v>161</v>
       </c>
-      <c r="D2" s="128" t="s">
+      <c r="D2" s="116" t="s">
         <v>73</v>
       </c>
-      <c r="E2" s="128">
+      <c r="E2" s="116">
         <v>513</v>
       </c>
-      <c r="F2" s="128" t="s">
+      <c r="F2" s="116" t="s">
         <v>162</v>
       </c>
-      <c r="I2" s="135" t="s">
+      <c r="I2" s="123" t="s">
         <v>185</v>
       </c>
-      <c r="J2" s="136">
+      <c r="J2" s="124">
         <f>AVERAGE(E2:E51)/100</f>
         <v>5.28775</v>
       </c>
-      <c r="K2" s="141">
+      <c r="K2" s="128">
         <f>J2/Main!$C$6-1</f>
         <v>-7.7969973321243558E-2</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="129">
+      <c r="A3" s="117">
         <v>45135</v>
       </c>
-      <c r="B3" s="130" t="s">
+      <c r="B3" s="118" t="s">
         <v>163</v>
       </c>
-      <c r="C3" s="131" t="s">
+      <c r="C3" s="119" t="s">
         <v>164</v>
       </c>
-      <c r="D3" s="131" t="s">
+      <c r="D3" s="119" t="s">
         <v>73</v>
       </c>
-      <c r="E3" s="131" t="s">
+      <c r="E3" s="119" t="s">
         <v>73</v>
       </c>
-      <c r="F3" s="131" t="s">
+      <c r="F3" s="119" t="s">
         <v>165</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="J3" s="137">
+      <c r="J3" s="5">
         <f>MAX(E2:E51)/100</f>
         <v>6.85</v>
       </c>
-      <c r="K3" s="139">
+      <c r="K3" s="126">
         <f>J3/Main!$C$6-1</f>
         <v>0.19444105389806277</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="126">
+      <c r="A4" s="114">
         <v>45105</v>
       </c>
-      <c r="B4" s="127" t="s">
+      <c r="B4" s="115" t="s">
         <v>163</v>
       </c>
-      <c r="C4" s="128" t="s">
+      <c r="C4" s="116" t="s">
         <v>164</v>
       </c>
-      <c r="D4" s="128" t="s">
+      <c r="D4" s="116" t="s">
         <v>73</v>
       </c>
-      <c r="E4" s="128" t="s">
+      <c r="E4" s="116" t="s">
         <v>73</v>
       </c>
-      <c r="F4" s="128" t="s">
+      <c r="F4" s="116" t="s">
         <v>165</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="J4" s="138">
+      <c r="J4" s="125">
         <f>MIN(E2:E51)/100</f>
         <v>3</v>
       </c>
-      <c r="K4" s="140">
+      <c r="K4" s="127">
         <f>J4/Main!$C$6-1</f>
         <v>-0.4768871296796805</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="129">
+      <c r="A5" s="117">
         <v>45097</v>
       </c>
-      <c r="B5" s="130" t="s">
+      <c r="B5" s="118" t="s">
         <v>166</v>
       </c>
-      <c r="C5" s="132" t="s">
+      <c r="C5" s="120" t="s">
         <v>167</v>
       </c>
-      <c r="D5" s="131">
+      <c r="D5" s="119">
         <v>525</v>
       </c>
-      <c r="E5" s="131">
+      <c r="E5" s="119">
         <v>640</v>
       </c>
-      <c r="F5" s="131" t="s">
+      <c r="F5" s="119" t="s">
         <v>165</v>
       </c>
       <c r="I5" s="4"/>
@@ -8126,922 +8134,922 @@
       <c r="K5" s="112"/>
     </row>
     <row r="6" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="126">
+      <c r="A6" s="114">
         <v>45092</v>
       </c>
-      <c r="B6" s="127" t="s">
+      <c r="B6" s="115" t="s">
         <v>168</v>
       </c>
-      <c r="C6" s="128" t="s">
+      <c r="C6" s="116" t="s">
         <v>169</v>
       </c>
-      <c r="D6" s="128" t="s">
+      <c r="D6" s="116" t="s">
         <v>73</v>
       </c>
-      <c r="E6" s="128">
+      <c r="E6" s="116">
         <v>565</v>
       </c>
-      <c r="F6" s="128" t="s">
+      <c r="F6" s="116" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="129">
+      <c r="A7" s="117">
         <v>45070</v>
       </c>
-      <c r="B7" s="130" t="s">
+      <c r="B7" s="118" t="s">
         <v>170</v>
       </c>
-      <c r="C7" s="131" t="s">
+      <c r="C7" s="119" t="s">
         <v>169</v>
       </c>
-      <c r="D7" s="131">
+      <c r="D7" s="119">
         <v>540</v>
       </c>
-      <c r="E7" s="131">
+      <c r="E7" s="119">
         <v>545</v>
       </c>
-      <c r="F7" s="131" t="s">
+      <c r="F7" s="119" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="126">
+      <c r="A8" s="114">
         <v>45070</v>
       </c>
-      <c r="B8" s="127" t="s">
+      <c r="B8" s="115" t="s">
         <v>168</v>
       </c>
-      <c r="C8" s="128" t="s">
+      <c r="C8" s="116" t="s">
         <v>169</v>
       </c>
-      <c r="D8" s="128" t="s">
+      <c r="D8" s="116" t="s">
         <v>73</v>
       </c>
-      <c r="E8" s="128">
+      <c r="E8" s="116">
         <v>485</v>
       </c>
-      <c r="F8" s="128" t="s">
+      <c r="F8" s="116" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="129">
+      <c r="A9" s="117">
         <v>44991</v>
       </c>
-      <c r="B9" s="130" t="s">
+      <c r="B9" s="118" t="s">
         <v>171</v>
       </c>
-      <c r="C9" s="131" t="s">
+      <c r="C9" s="119" t="s">
         <v>172</v>
       </c>
-      <c r="D9" s="131">
+      <c r="D9" s="119">
         <v>460</v>
       </c>
-      <c r="E9" s="131">
+      <c r="E9" s="119">
         <v>550</v>
       </c>
-      <c r="F9" s="131" t="s">
+      <c r="F9" s="119" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="126">
+      <c r="A10" s="114">
         <v>44991</v>
       </c>
-      <c r="B10" s="127" t="s">
+      <c r="B10" s="115" t="s">
         <v>174</v>
       </c>
-      <c r="C10" s="128" t="s">
+      <c r="C10" s="116" t="s">
         <v>175</v>
       </c>
-      <c r="D10" s="128">
+      <c r="D10" s="116">
         <v>350</v>
       </c>
-      <c r="E10" s="128">
+      <c r="E10" s="116">
         <v>380</v>
       </c>
-      <c r="F10" s="128" t="s">
+      <c r="F10" s="116" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="129">
+      <c r="A11" s="117">
         <v>44966</v>
       </c>
-      <c r="B11" s="130" t="s">
+      <c r="B11" s="118" t="s">
         <v>176</v>
       </c>
-      <c r="C11" s="131" t="s">
+      <c r="C11" s="119" t="s">
         <v>164</v>
       </c>
-      <c r="D11" s="131" t="s">
+      <c r="D11" s="119" t="s">
         <v>73</v>
       </c>
-      <c r="E11" s="131">
+      <c r="E11" s="119">
         <v>500</v>
       </c>
-      <c r="F11" s="131" t="s">
+      <c r="F11" s="119" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="126">
+      <c r="A12" s="114">
         <v>44931</v>
       </c>
-      <c r="B12" s="127" t="s">
+      <c r="B12" s="115" t="s">
         <v>163</v>
       </c>
-      <c r="C12" s="128" t="s">
+      <c r="C12" s="116" t="s">
         <v>164</v>
       </c>
-      <c r="D12" s="128" t="s">
+      <c r="D12" s="116" t="s">
         <v>73</v>
       </c>
-      <c r="E12" s="128" t="s">
+      <c r="E12" s="116" t="s">
         <v>73</v>
       </c>
-      <c r="F12" s="128" t="s">
+      <c r="F12" s="116" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="129">
+      <c r="A13" s="117">
         <v>44900</v>
       </c>
-      <c r="B13" s="130" t="s">
+      <c r="B13" s="118" t="s">
         <v>170</v>
       </c>
-      <c r="C13" s="131" t="s">
+      <c r="C13" s="119" t="s">
         <v>169</v>
       </c>
-      <c r="D13" s="131">
+      <c r="D13" s="119">
         <v>414</v>
       </c>
-      <c r="E13" s="131">
+      <c r="E13" s="119">
         <v>555</v>
       </c>
-      <c r="F13" s="131" t="s">
+      <c r="F13" s="119" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="126">
+      <c r="A14" s="114">
         <v>44881</v>
       </c>
-      <c r="B14" s="127" t="s">
+      <c r="B14" s="115" t="s">
         <v>170</v>
       </c>
-      <c r="C14" s="128" t="s">
+      <c r="C14" s="116" t="s">
         <v>169</v>
       </c>
-      <c r="D14" s="128">
+      <c r="D14" s="116">
         <v>412</v>
       </c>
-      <c r="E14" s="128">
+      <c r="E14" s="116">
         <v>414</v>
       </c>
-      <c r="F14" s="128" t="s">
+      <c r="F14" s="116" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="129">
+      <c r="A15" s="117">
         <v>44876</v>
       </c>
-      <c r="B15" s="130" t="s">
+      <c r="B15" s="118" t="s">
         <v>177</v>
       </c>
-      <c r="C15" s="131" t="s">
+      <c r="C15" s="119" t="s">
         <v>164</v>
       </c>
-      <c r="D15" s="131">
+      <c r="D15" s="119">
         <v>395</v>
       </c>
-      <c r="E15" s="131">
+      <c r="E15" s="119">
         <v>415</v>
       </c>
-      <c r="F15" s="131" t="s">
+      <c r="F15" s="119" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="126">
+      <c r="A16" s="114">
         <v>44875</v>
       </c>
-      <c r="B16" s="127" t="s">
+      <c r="B16" s="115" t="s">
         <v>163</v>
       </c>
-      <c r="C16" s="128" t="s">
+      <c r="C16" s="116" t="s">
         <v>164</v>
       </c>
-      <c r="D16" s="128" t="s">
+      <c r="D16" s="116" t="s">
         <v>73</v>
       </c>
-      <c r="E16" s="128" t="s">
+      <c r="E16" s="116" t="s">
         <v>73</v>
       </c>
-      <c r="F16" s="128" t="s">
+      <c r="F16" s="116" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="129">
+      <c r="A17" s="117">
         <v>44874</v>
       </c>
-      <c r="B17" s="130" t="s">
+      <c r="B17" s="118" t="s">
         <v>168</v>
       </c>
-      <c r="C17" s="131" t="s">
+      <c r="C17" s="119" t="s">
         <v>169</v>
       </c>
-      <c r="D17" s="131">
+      <c r="D17" s="119">
         <v>475</v>
       </c>
-      <c r="E17" s="131">
+      <c r="E17" s="119">
         <v>475</v>
       </c>
-      <c r="F17" s="131" t="s">
+      <c r="F17" s="119" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="126">
+      <c r="A18" s="114">
         <v>44853</v>
       </c>
-      <c r="B18" s="127" t="s">
+      <c r="B18" s="115" t="s">
         <v>177</v>
       </c>
-      <c r="C18" s="128" t="s">
+      <c r="C18" s="116" t="s">
         <v>164</v>
       </c>
-      <c r="D18" s="128">
+      <c r="D18" s="116">
         <v>480</v>
       </c>
-      <c r="E18" s="128">
+      <c r="E18" s="116">
         <v>395</v>
       </c>
-      <c r="F18" s="128" t="s">
+      <c r="F18" s="116" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="129">
+      <c r="A19" s="117">
         <v>44846</v>
       </c>
-      <c r="B19" s="130" t="s">
+      <c r="B19" s="118" t="s">
         <v>168</v>
       </c>
-      <c r="C19" s="131" t="s">
+      <c r="C19" s="119" t="s">
         <v>169</v>
       </c>
-      <c r="D19" s="131">
+      <c r="D19" s="119">
         <v>475</v>
       </c>
-      <c r="E19" s="131">
+      <c r="E19" s="119">
         <v>475</v>
       </c>
-      <c r="F19" s="131" t="s">
+      <c r="F19" s="119" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="126">
+      <c r="A20" s="114">
         <v>44844</v>
       </c>
-      <c r="B20" s="127" t="s">
+      <c r="B20" s="115" t="s">
         <v>170</v>
       </c>
-      <c r="C20" s="128" t="s">
+      <c r="C20" s="116" t="s">
         <v>169</v>
       </c>
-      <c r="D20" s="128">
+      <c r="D20" s="116">
         <v>577</v>
       </c>
-      <c r="E20" s="128">
+      <c r="E20" s="116">
         <v>412</v>
       </c>
-      <c r="F20" s="128" t="s">
+      <c r="F20" s="116" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="129">
+      <c r="A21" s="117">
         <v>44818</v>
       </c>
-      <c r="B21" s="130" t="s">
+      <c r="B21" s="118" t="s">
         <v>168</v>
       </c>
-      <c r="C21" s="131" t="s">
+      <c r="C21" s="119" t="s">
         <v>169</v>
       </c>
-      <c r="D21" s="131">
+      <c r="D21" s="119">
         <v>475</v>
       </c>
-      <c r="E21" s="131">
+      <c r="E21" s="119">
         <v>475</v>
       </c>
-      <c r="F21" s="131" t="s">
+      <c r="F21" s="119" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="126">
+      <c r="A22" s="114">
         <v>44810</v>
       </c>
-      <c r="B22" s="127" t="s">
+      <c r="B22" s="115" t="s">
         <v>174</v>
       </c>
-      <c r="C22" s="128" t="s">
+      <c r="C22" s="116" t="s">
         <v>175</v>
       </c>
-      <c r="D22" s="128">
+      <c r="D22" s="116">
         <v>440</v>
       </c>
-      <c r="E22" s="128">
+      <c r="E22" s="116">
         <v>300</v>
       </c>
-      <c r="F22" s="128" t="s">
+      <c r="F22" s="116" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="129">
+      <c r="A23" s="117">
         <v>44790</v>
       </c>
-      <c r="B23" s="130" t="s">
+      <c r="B23" s="118" t="s">
         <v>168</v>
       </c>
-      <c r="C23" s="131" t="s">
+      <c r="C23" s="119" t="s">
         <v>169</v>
       </c>
-      <c r="D23" s="131">
+      <c r="D23" s="119">
         <v>475</v>
       </c>
-      <c r="E23" s="131">
+      <c r="E23" s="119">
         <v>475</v>
       </c>
-      <c r="F23" s="131" t="s">
+      <c r="F23" s="119" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="126">
+      <c r="A24" s="114">
         <v>44762</v>
       </c>
-      <c r="B24" s="127" t="s">
+      <c r="B24" s="115" t="s">
         <v>168</v>
       </c>
-      <c r="C24" s="128" t="s">
+      <c r="C24" s="116" t="s">
         <v>169</v>
       </c>
-      <c r="D24" s="128">
+      <c r="D24" s="116">
         <v>475</v>
       </c>
-      <c r="E24" s="128">
+      <c r="E24" s="116">
         <v>475</v>
       </c>
-      <c r="F24" s="128" t="s">
+      <c r="F24" s="116" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A25" s="129">
+      <c r="A25" s="117">
         <v>44753</v>
       </c>
-      <c r="B25" s="130" t="s">
+      <c r="B25" s="118" t="s">
         <v>163</v>
       </c>
-      <c r="C25" s="131" t="s">
+      <c r="C25" s="119" t="s">
         <v>164</v>
       </c>
-      <c r="D25" s="131" t="s">
+      <c r="D25" s="119" t="s">
         <v>73</v>
       </c>
-      <c r="E25" s="131" t="s">
+      <c r="E25" s="119" t="s">
         <v>73</v>
       </c>
-      <c r="F25" s="131" t="s">
+      <c r="F25" s="119" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="126">
+      <c r="A26" s="114">
         <v>44747</v>
       </c>
-      <c r="B26" s="127" t="s">
+      <c r="B26" s="115" t="s">
         <v>166</v>
       </c>
-      <c r="C26" s="133" t="s">
+      <c r="C26" s="121" t="s">
         <v>167</v>
       </c>
-      <c r="D26" s="128">
+      <c r="D26" s="116">
         <v>460</v>
       </c>
-      <c r="E26" s="128">
+      <c r="E26" s="116">
         <v>460</v>
       </c>
-      <c r="F26" s="128" t="s">
+      <c r="F26" s="116" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A27" s="129">
+      <c r="A27" s="117">
         <v>44742</v>
       </c>
-      <c r="B27" s="130" t="s">
+      <c r="B27" s="118" t="s">
         <v>177</v>
       </c>
-      <c r="C27" s="131" t="s">
+      <c r="C27" s="119" t="s">
         <v>164</v>
       </c>
-      <c r="D27" s="131">
+      <c r="D27" s="119">
         <v>480</v>
       </c>
-      <c r="E27" s="131">
+      <c r="E27" s="119">
         <v>480</v>
       </c>
-      <c r="F27" s="131" t="s">
+      <c r="F27" s="119" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A28" s="126">
+      <c r="A28" s="114">
         <v>44741</v>
       </c>
-      <c r="B28" s="127" t="s">
+      <c r="B28" s="115" t="s">
         <v>163</v>
       </c>
-      <c r="C28" s="128" t="s">
+      <c r="C28" s="116" t="s">
         <v>164</v>
       </c>
-      <c r="D28" s="128" t="s">
+      <c r="D28" s="116" t="s">
         <v>73</v>
       </c>
-      <c r="E28" s="128" t="s">
+      <c r="E28" s="116" t="s">
         <v>73</v>
       </c>
-      <c r="F28" s="128" t="s">
+      <c r="F28" s="116" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A29" s="129">
+      <c r="A29" s="117">
         <v>44741</v>
       </c>
-      <c r="B29" s="130" t="s">
+      <c r="B29" s="118" t="s">
         <v>170</v>
       </c>
-      <c r="C29" s="131" t="s">
+      <c r="C29" s="119" t="s">
         <v>169</v>
       </c>
-      <c r="D29" s="131">
+      <c r="D29" s="119">
         <v>580</v>
       </c>
-      <c r="E29" s="131">
+      <c r="E29" s="119">
         <v>577</v>
       </c>
-      <c r="F29" s="131" t="s">
+      <c r="F29" s="119" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A30" s="126">
+      <c r="A30" s="114">
         <v>44735</v>
       </c>
-      <c r="B30" s="127" t="s">
+      <c r="B30" s="115" t="s">
         <v>168</v>
       </c>
-      <c r="C30" s="128" t="s">
+      <c r="C30" s="116" t="s">
         <v>169</v>
       </c>
-      <c r="D30" s="128">
+      <c r="D30" s="116">
         <v>475</v>
       </c>
-      <c r="E30" s="128">
+      <c r="E30" s="116">
         <v>475</v>
       </c>
-      <c r="F30" s="128" t="s">
+      <c r="F30" s="116" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A31" s="129">
+      <c r="A31" s="117">
         <v>44734</v>
       </c>
-      <c r="B31" s="130" t="s">
+      <c r="B31" s="118" t="s">
         <v>163</v>
       </c>
-      <c r="C31" s="131" t="s">
+      <c r="C31" s="119" t="s">
         <v>178</v>
       </c>
-      <c r="D31" s="131" t="s">
+      <c r="D31" s="119" t="s">
         <v>73</v>
       </c>
-      <c r="E31" s="131" t="s">
+      <c r="E31" s="119" t="s">
         <v>73</v>
       </c>
-      <c r="F31" s="131" t="s">
+      <c r="F31" s="119" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A32" s="126">
+      <c r="A32" s="114">
         <v>44719</v>
       </c>
-      <c r="B32" s="127" t="s">
+      <c r="B32" s="115" t="s">
         <v>166</v>
       </c>
-      <c r="C32" s="133" t="s">
+      <c r="C32" s="121" t="s">
         <v>167</v>
       </c>
-      <c r="D32" s="128">
+      <c r="D32" s="116">
         <v>630</v>
       </c>
-      <c r="E32" s="128">
+      <c r="E32" s="116">
         <v>460</v>
       </c>
-      <c r="F32" s="128" t="s">
+      <c r="F32" s="116" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A33" s="129">
+      <c r="A33" s="117">
         <v>44713</v>
       </c>
-      <c r="B33" s="130" t="s">
+      <c r="B33" s="118" t="s">
         <v>177</v>
       </c>
-      <c r="C33" s="131" t="s">
+      <c r="C33" s="119" t="s">
         <v>164</v>
       </c>
-      <c r="D33" s="131">
+      <c r="D33" s="119">
         <v>560</v>
       </c>
-      <c r="E33" s="131">
+      <c r="E33" s="119">
         <v>480</v>
       </c>
-      <c r="F33" s="131" t="s">
+      <c r="F33" s="119" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A34" s="126">
+      <c r="A34" s="114">
         <v>44712</v>
       </c>
-      <c r="B34" s="127" t="s">
+      <c r="B34" s="115" t="s">
         <v>163</v>
       </c>
-      <c r="C34" s="128" t="s">
+      <c r="C34" s="116" t="s">
         <v>179</v>
       </c>
-      <c r="D34" s="128" t="s">
+      <c r="D34" s="116" t="s">
         <v>73</v>
       </c>
-      <c r="E34" s="128" t="s">
+      <c r="E34" s="116" t="s">
         <v>73</v>
       </c>
-      <c r="F34" s="128" t="s">
+      <c r="F34" s="116" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A35" s="129">
+      <c r="A35" s="117">
         <v>44711</v>
       </c>
-      <c r="B35" s="130" t="s">
+      <c r="B35" s="118" t="s">
         <v>171</v>
       </c>
-      <c r="C35" s="131" t="s">
+      <c r="C35" s="119" t="s">
         <v>180</v>
       </c>
-      <c r="D35" s="131" t="s">
+      <c r="D35" s="119" t="s">
         <v>73</v>
       </c>
-      <c r="E35" s="131">
+      <c r="E35" s="119">
         <v>600</v>
       </c>
-      <c r="F35" s="131" t="s">
+      <c r="F35" s="119" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A36" s="126">
+      <c r="A36" s="114">
         <v>44705</v>
       </c>
-      <c r="B36" s="127" t="s">
+      <c r="B36" s="115" t="s">
         <v>168</v>
       </c>
-      <c r="C36" s="128" t="s">
+      <c r="C36" s="116" t="s">
         <v>181</v>
       </c>
-      <c r="D36" s="128" t="s">
+      <c r="D36" s="116" t="s">
         <v>73</v>
       </c>
-      <c r="E36" s="128">
+      <c r="E36" s="116">
         <v>600</v>
       </c>
-      <c r="F36" s="128" t="s">
+      <c r="F36" s="116" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A37" s="129">
+      <c r="A37" s="117">
         <v>44697</v>
       </c>
-      <c r="B37" s="130" t="s">
+      <c r="B37" s="118" t="s">
         <v>171</v>
       </c>
-      <c r="C37" s="131" t="s">
+      <c r="C37" s="119" t="s">
         <v>180</v>
       </c>
-      <c r="D37" s="131" t="s">
+      <c r="D37" s="119" t="s">
         <v>73</v>
       </c>
-      <c r="E37" s="131">
+      <c r="E37" s="119">
         <v>600</v>
       </c>
-      <c r="F37" s="131" t="s">
+      <c r="F37" s="119" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A38" s="126">
+      <c r="A38" s="114">
         <v>44690</v>
       </c>
-      <c r="B38" s="127" t="s">
+      <c r="B38" s="115" t="s">
         <v>170</v>
       </c>
-      <c r="C38" s="128" t="s">
+      <c r="C38" s="116" t="s">
         <v>180</v>
       </c>
-      <c r="D38" s="128" t="s">
+      <c r="D38" s="116" t="s">
         <v>73</v>
       </c>
-      <c r="E38" s="128">
+      <c r="E38" s="116">
         <v>600</v>
       </c>
-      <c r="F38" s="128" t="s">
+      <c r="F38" s="116" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A39" s="129">
+      <c r="A39" s="117">
         <v>44684</v>
       </c>
-      <c r="B39" s="130" t="s">
+      <c r="B39" s="118" t="s">
         <v>171</v>
       </c>
-      <c r="C39" s="131" t="s">
+      <c r="C39" s="119" t="s">
         <v>180</v>
       </c>
-      <c r="D39" s="131" t="s">
+      <c r="D39" s="119" t="s">
         <v>73</v>
       </c>
-      <c r="E39" s="131">
+      <c r="E39" s="119">
         <v>600</v>
       </c>
-      <c r="F39" s="131" t="s">
+      <c r="F39" s="119" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A40" s="126">
+      <c r="A40" s="114">
         <v>44665</v>
       </c>
-      <c r="B40" s="127" t="s">
+      <c r="B40" s="115" t="s">
         <v>166</v>
       </c>
-      <c r="C40" s="133" t="s">
+      <c r="C40" s="121" t="s">
         <v>167</v>
       </c>
-      <c r="D40" s="128">
+      <c r="D40" s="116">
         <v>685</v>
       </c>
-      <c r="E40" s="128">
+      <c r="E40" s="116">
         <v>630</v>
       </c>
-      <c r="F40" s="128" t="s">
+      <c r="F40" s="116" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A41" s="129">
+      <c r="A41" s="117">
         <v>44663</v>
       </c>
-      <c r="B41" s="130" t="s">
+      <c r="B41" s="118" t="s">
         <v>182</v>
       </c>
-      <c r="C41" s="131" t="s">
+      <c r="C41" s="119" t="s">
         <v>164</v>
       </c>
-      <c r="D41" s="131" t="s">
+      <c r="D41" s="119" t="s">
         <v>73</v>
       </c>
-      <c r="E41" s="131">
+      <c r="E41" s="119">
         <v>660</v>
       </c>
-      <c r="F41" s="131" t="s">
+      <c r="F41" s="119" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A42" s="126">
+      <c r="A42" s="114">
         <v>44662</v>
       </c>
-      <c r="B42" s="127" t="s">
+      <c r="B42" s="115" t="s">
         <v>171</v>
       </c>
-      <c r="C42" s="128" t="s">
+      <c r="C42" s="116" t="s">
         <v>180</v>
       </c>
-      <c r="D42" s="128" t="s">
+      <c r="D42" s="116" t="s">
         <v>73</v>
       </c>
-      <c r="E42" s="128">
+      <c r="E42" s="116">
         <v>600</v>
       </c>
-      <c r="F42" s="128" t="s">
+      <c r="F42" s="116" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A43" s="129">
+      <c r="A43" s="117">
         <v>44648</v>
       </c>
-      <c r="B43" s="130" t="s">
+      <c r="B43" s="118" t="s">
         <v>171</v>
       </c>
-      <c r="C43" s="131" t="s">
+      <c r="C43" s="119" t="s">
         <v>180</v>
       </c>
-      <c r="D43" s="131" t="s">
+      <c r="D43" s="119" t="s">
         <v>73</v>
       </c>
-      <c r="E43" s="131">
+      <c r="E43" s="119">
         <v>600</v>
       </c>
-      <c r="F43" s="131" t="s">
+      <c r="F43" s="119" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A44" s="126">
+      <c r="A44" s="114">
         <v>44645</v>
       </c>
-      <c r="B44" s="127" t="s">
+      <c r="B44" s="115" t="s">
         <v>183</v>
       </c>
-      <c r="C44" s="128" t="s">
+      <c r="C44" s="116" t="s">
         <v>181</v>
       </c>
-      <c r="D44" s="128" t="s">
+      <c r="D44" s="116" t="s">
         <v>73</v>
       </c>
-      <c r="E44" s="128" t="s">
+      <c r="E44" s="116" t="s">
         <v>73</v>
       </c>
-      <c r="F44" s="128" t="s">
+      <c r="F44" s="116" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A45" s="129">
+      <c r="A45" s="117">
         <v>44621</v>
       </c>
-      <c r="B45" s="130" t="s">
+      <c r="B45" s="118" t="s">
         <v>166</v>
       </c>
-      <c r="C45" s="132" t="s">
+      <c r="C45" s="120" t="s">
         <v>167</v>
       </c>
-      <c r="D45" s="131" t="s">
+      <c r="D45" s="119" t="s">
         <v>73</v>
       </c>
-      <c r="E45" s="131">
+      <c r="E45" s="119">
         <v>685</v>
       </c>
-      <c r="F45" s="131" t="s">
+      <c r="F45" s="119" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A46" s="126">
+      <c r="A46" s="114">
         <v>44615</v>
       </c>
-      <c r="B46" s="127" t="s">
+      <c r="B46" s="115" t="s">
         <v>171</v>
       </c>
-      <c r="C46" s="128" t="s">
+      <c r="C46" s="116" t="s">
         <v>180</v>
       </c>
-      <c r="D46" s="128" t="s">
+      <c r="D46" s="116" t="s">
         <v>73</v>
       </c>
-      <c r="E46" s="128">
+      <c r="E46" s="116">
         <v>600</v>
       </c>
-      <c r="F46" s="128" t="s">
+      <c r="F46" s="116" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A47" s="129">
+      <c r="A47" s="117">
         <v>44607</v>
       </c>
-      <c r="B47" s="130" t="s">
+      <c r="B47" s="118" t="s">
         <v>171</v>
       </c>
-      <c r="C47" s="131" t="s">
+      <c r="C47" s="119" t="s">
         <v>180</v>
       </c>
-      <c r="D47" s="131" t="s">
+      <c r="D47" s="119" t="s">
         <v>73</v>
       </c>
-      <c r="E47" s="131">
+      <c r="E47" s="119">
         <v>600</v>
       </c>
-      <c r="F47" s="131" t="s">
+      <c r="F47" s="119" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A48" s="126">
+      <c r="A48" s="114">
         <v>44602</v>
       </c>
-      <c r="B48" s="127" t="s">
+      <c r="B48" s="115" t="s">
         <v>171</v>
       </c>
-      <c r="C48" s="128" t="s">
+      <c r="C48" s="116" t="s">
         <v>180</v>
       </c>
-      <c r="D48" s="128">
+      <c r="D48" s="116">
         <v>540</v>
       </c>
-      <c r="E48" s="128">
+      <c r="E48" s="116">
         <v>600</v>
       </c>
-      <c r="F48" s="128" t="s">
+      <c r="F48" s="116" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A49" s="129">
+      <c r="A49" s="117">
         <v>44600</v>
       </c>
-      <c r="B49" s="130" t="s">
+      <c r="B49" s="118" t="s">
         <v>177</v>
       </c>
-      <c r="C49" s="134" t="s">
+      <c r="C49" s="122" t="s">
         <v>184</v>
       </c>
-      <c r="D49" s="131" t="s">
+      <c r="D49" s="119" t="s">
         <v>73</v>
       </c>
-      <c r="E49" s="131" t="s">
+      <c r="E49" s="119" t="s">
         <v>73</v>
       </c>
-      <c r="F49" s="131" t="s">
+      <c r="F49" s="119" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A50" s="126">
+      <c r="A50" s="114">
         <v>44592</v>
       </c>
-      <c r="B50" s="127" t="s">
+      <c r="B50" s="115" t="s">
         <v>171</v>
       </c>
-      <c r="C50" s="128" t="s">
+      <c r="C50" s="116" t="s">
         <v>175</v>
       </c>
-      <c r="D50" s="128" t="s">
+      <c r="D50" s="116" t="s">
         <v>73</v>
       </c>
-      <c r="E50" s="128">
+      <c r="E50" s="116">
         <v>600</v>
       </c>
-      <c r="F50" s="128" t="s">
+      <c r="F50" s="116" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A51" s="129">
+      <c r="A51" s="117">
         <v>44588</v>
       </c>
-      <c r="B51" s="130" t="s">
+      <c r="B51" s="118" t="s">
         <v>168</v>
       </c>
-      <c r="C51" s="131" t="s">
+      <c r="C51" s="119" t="s">
         <v>181</v>
       </c>
-      <c r="D51" s="131">
+      <c r="D51" s="119">
         <v>550</v>
       </c>
-      <c r="E51" s="131">
+      <c r="E51" s="119">
         <v>600</v>
       </c>
-      <c r="F51" s="131" t="s">
+      <c r="F51" s="119" t="s">
         <v>165</v>
       </c>
     </row>
